--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="711" firstSheet="4" activeTab="10"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="711" firstSheet="4" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -1905,6 +1905,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1917,6 +1923,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="2"/>
     </xf>
@@ -1925,15 +1934,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5387,7 +5387,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -5438,7 +5438,7 @@
       <c r="A4" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="90" t="s">
         <v>143</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -5450,16 +5450,16 @@
       <c r="E4" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="92"/>
+      <c r="G4" s="94"/>
     </row>
     <row r="5" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="90" t="s">
         <v>143</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -5471,10 +5471,10 @@
       <c r="E5" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="90"/>
+      <c r="G5" s="92"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
@@ -6090,27 +6090,27 @@
       <c r="A4" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
     </row>
     <row r="5" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
     </row>
     <row r="7" spans="1:7" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="84" t="s">
@@ -6122,10 +6122,10 @@
       <c r="C7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="92"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="8" t="s">
         <v>64</v>
       </c>
@@ -6376,7 +6376,7 @@
       <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="89" t="s">
         <v>147</v>
       </c>
       <c r="C3" s="14"/>
@@ -6410,7 +6410,9 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7003,15 +7005,15 @@
       <c r="A5" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="89" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="43" t="s">
         <v>79</v>
       </c>
@@ -7034,10 +7036,10 @@
       <c r="E6" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="96"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
     </row>
@@ -7061,10 +7063,10 @@
       <c r="C9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="90"/>
+      <c r="E9" s="92"/>
       <c r="F9" s="39" t="s">
         <v>64</v>
       </c>
@@ -7081,18 +7083,18 @@
       <c r="A11" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="90" t="s">
+      <c r="C11" s="94"/>
+      <c r="D11" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90" t="s">
+      <c r="E11" s="92"/>
+      <c r="F11" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="90"/>
+      <c r="G11" s="92"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
@@ -7260,22 +7262,22 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="59" t="s">
         <v>94</v>
       </c>

--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="711" firstSheet="4" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="711" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="155">
   <si>
     <t>Notes</t>
   </si>
@@ -1135,12 +1135,6 @@
 Service retirement benefit for tier 3 
 No term assumed after being eligible for retirement
 Refund of member contribution if not eligible to term benefit </t>
-  </si>
-  <si>
-    <t>qxt.fire</t>
-  </si>
-  <si>
-    <t>qxt.plc</t>
   </si>
   <si>
     <t>A5</t>
@@ -1494,6 +1488,21 @@
       <t xml:space="preserve">
 (Do not model for now)</t>
     </r>
+  </si>
+  <si>
+    <t>Healthy mortality table is used for disabled?</t>
+  </si>
+  <si>
+    <t>qxt.fire.yos</t>
+  </si>
+  <si>
+    <t>qxt.plc.yos</t>
+  </si>
+  <si>
+    <t>qxt.fire.age</t>
+  </si>
+  <si>
+    <t>qxt.plc.age</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1698,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1911,6 +1920,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2001,16 +2013,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>513738</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>75555</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323238</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>132705</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2027,7 +2039,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8305800" y="819150"/>
+          <a:off x="3848100" y="685800"/>
           <a:ext cx="4895238" cy="5161905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2331,16 +2343,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>513464</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>113936</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1523114</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>75836</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2357,7 +2369,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8077200" y="533400"/>
+          <a:off x="0" y="1828800"/>
           <a:ext cx="7085714" cy="2914286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2369,16 +2381,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>285109</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171069</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>170809</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>18669</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2395,7 +2407,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7981950" y="3505200"/>
+          <a:off x="609600" y="5448300"/>
           <a:ext cx="5123809" cy="3047619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2672,16 +2684,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>494390</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>151943</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>437240</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>75743</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2698,7 +2710,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3943350" y="762000"/>
+          <a:off x="228600" y="4686300"/>
           <a:ext cx="7276190" cy="3657143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2985,16 +2997,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>513738</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>75555</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>18405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3011,7 +3023,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191500" y="438150"/>
+          <a:off x="2819400" y="571500"/>
           <a:ext cx="4895238" cy="5161905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3511,7 +3523,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="A32:XFD32"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5388,7 +5400,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5436,49 +5448,49 @@
     </row>
     <row r="4" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="D4" s="78" t="s">
         <v>123</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="94"/>
+      <c r="G4" s="95"/>
     </row>
     <row r="5" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>150</v>
-      </c>
       <c r="E5" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="92"/>
+      <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5545,7 +5557,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5565,7 +5577,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5573,7 +5585,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5581,10 +5593,10 @@
         <v>85</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5785,7 +5797,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5805,7 +5817,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5813,7 +5825,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5821,10 +5833,10 @@
         <v>97</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -6088,33 +6100,33 @@
     </row>
     <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
+        <v>129</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
     </row>
     <row r="5" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
     </row>
     <row r="7" spans="1:7" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="84" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>76</v>
@@ -6122,10 +6134,10 @@
       <c r="C7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="94"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="8" t="s">
         <v>64</v>
       </c>
@@ -6169,7 +6181,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C17"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6192,7 +6204,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6200,7 +6212,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -6210,10 +6222,10 @@
         <v>97</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D5" s="28"/>
     </row>
@@ -6336,7 +6348,7 @@
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -6377,7 +6389,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -6410,8 +6422,8 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6435,7 +6447,9 @@
     </row>
     <row r="5" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="8"/>
+      <c r="B5" s="91" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -6469,10 +6483,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6490,7 +6504,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -6546,7 +6560,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" s="18"/>
     </row>
@@ -6615,7 +6629,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6645,8 +6659,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7005,15 +7019,15 @@
       <c r="A5" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="91" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
       <c r="G5" s="43" t="s">
         <v>79</v>
       </c>
@@ -7036,10 +7050,10 @@
       <c r="E6" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="F6" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="95"/>
+      <c r="G6" s="96"/>
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
     </row>
@@ -7063,10 +7077,10 @@
       <c r="C9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="92"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="39" t="s">
         <v>64</v>
       </c>
@@ -7083,18 +7097,18 @@
       <c r="A11" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="92" t="s">
+      <c r="C11" s="95"/>
+      <c r="D11" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92" t="s">
+      <c r="E11" s="93"/>
+      <c r="F11" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="92"/>
+      <c r="G11" s="93"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
@@ -7232,7 +7246,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7262,22 +7276,22 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97" t="s">
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
+      <c r="A6" s="97"/>
       <c r="B6" s="59" t="s">
         <v>94</v>
       </c>

--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -9,26 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="711" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="711" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
-    <sheet name="Overview" sheetId="7" r:id="rId2"/>
-    <sheet name="FundingPolicy" sheetId="6" r:id="rId3"/>
-    <sheet name="Assumptions" sheetId="3" r:id="rId4"/>
-    <sheet name="SalaryGrowth" sheetId="11" r:id="rId5"/>
-    <sheet name="Init_amort" sheetId="18" r:id="rId6"/>
-    <sheet name="External_Fund" sheetId="19" r:id="rId7"/>
-    <sheet name="Ret_sum" sheetId="12" r:id="rId8"/>
-    <sheet name="Ret_dec" sheetId="9" r:id="rId9"/>
-    <sheet name="Ret_bfactor" sheetId="13" r:id="rId10"/>
-    <sheet name="Term_sum" sheetId="15" r:id="rId11"/>
-    <sheet name="Term_dec1" sheetId="8" r:id="rId12"/>
-    <sheet name="Term_dec2" sheetId="23" r:id="rId13"/>
-    <sheet name="Disb_sum" sheetId="16" r:id="rId14"/>
-    <sheet name="Disb_dec" sheetId="10" r:id="rId15"/>
-    <sheet name="Death_sum" sheetId="17" r:id="rId16"/>
-    <sheet name="Death_dec" sheetId="5" r:id="rId17"/>
+    <sheet name="Tier.param" sheetId="24" r:id="rId2"/>
+    <sheet name="Overview" sheetId="7" r:id="rId3"/>
+    <sheet name="FundingPolicy" sheetId="6" r:id="rId4"/>
+    <sheet name="Assumptions" sheetId="3" r:id="rId5"/>
+    <sheet name="SalaryGrowth" sheetId="11" r:id="rId6"/>
+    <sheet name="Init_amort" sheetId="18" r:id="rId7"/>
+    <sheet name="External_Fund" sheetId="19" r:id="rId8"/>
+    <sheet name="Ret_sum" sheetId="12" r:id="rId9"/>
+    <sheet name="Ret_dec" sheetId="9" r:id="rId10"/>
+    <sheet name="Ret_bfactor" sheetId="13" r:id="rId11"/>
+    <sheet name="Term_sum" sheetId="15" r:id="rId12"/>
+    <sheet name="Term_dec1" sheetId="8" r:id="rId13"/>
+    <sheet name="Term_dec2" sheetId="23" r:id="rId14"/>
+    <sheet name="Disb_sum" sheetId="16" r:id="rId15"/>
+    <sheet name="Disb_dec" sheetId="10" r:id="rId16"/>
+    <sheet name="Death_sum" sheetId="17" r:id="rId17"/>
+    <sheet name="Death_dec" sheetId="5" r:id="rId18"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="173">
   <si>
     <t>Notes</t>
   </si>
@@ -1503,6 +1504,65 @@
   </si>
   <si>
     <t>qxt.plc.age</t>
+  </si>
+  <si>
+    <t>Modeling of contingent annuity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modeled as 60% contingent annuity for tier 3, 4, 5
+Modeled as 70% contingent annuity for tier 6. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modeled as 100% contingent annuity
+Notes: 
+1. Tier 1 is so small that the approximation would not have a big impact on over results. 
+2. For Tier 2, it requires 25 yos for the benefit factor to be greater than 50%. The average retirement age is around 50, so there may not be a great number of retirees whose benefit factors are greater than 50%.  
+</t>
+  </si>
+  <si>
+    <t>tier</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>r.yos</t>
+  </si>
+  <si>
+    <t>r.age</t>
+  </si>
+  <si>
+    <t>fasyears</t>
+  </si>
+  <si>
+    <t>cola</t>
+  </si>
+  <si>
+    <t>v.yos</t>
+  </si>
+  <si>
+    <t>r.vben</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>factor.ca</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1758,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1923,6 +1983,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1937,6 +2000,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="2"/>
@@ -2545,13 +2611,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>570600</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>94733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2583,13 +2649,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>113376</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>151748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2621,13 +2687,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>523875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3067050</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>885825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2729,13 +2795,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>418207</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>190221</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2767,13 +2833,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>399157</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>56957</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3519,11 +3585,839 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="7" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="99"/>
+      <c r="B6" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="65">
+        <v>41</v>
+      </c>
+      <c r="B8" s="66">
+        <v>0.01</v>
+      </c>
+      <c r="C8" s="66">
+        <v>0</v>
+      </c>
+      <c r="D8" s="66">
+        <v>0</v>
+      </c>
+      <c r="E8" s="66">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="66">
+        <v>0</v>
+      </c>
+      <c r="G8" s="66">
+        <v>0</v>
+      </c>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="67">
+        <v>42</v>
+      </c>
+      <c r="B9" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="C9" s="68">
+        <v>0</v>
+      </c>
+      <c r="D9" s="68">
+        <v>0</v>
+      </c>
+      <c r="E9" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="68">
+        <v>0</v>
+      </c>
+      <c r="G9" s="68">
+        <v>0</v>
+      </c>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="67">
+        <v>43</v>
+      </c>
+      <c r="B10" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="C10" s="68">
+        <v>0</v>
+      </c>
+      <c r="D10" s="68">
+        <v>0</v>
+      </c>
+      <c r="E10" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="68">
+        <v>0</v>
+      </c>
+      <c r="G10" s="68">
+        <v>0</v>
+      </c>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="67">
+        <v>44</v>
+      </c>
+      <c r="B11" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="C11" s="68">
+        <v>0</v>
+      </c>
+      <c r="D11" s="68">
+        <v>0</v>
+      </c>
+      <c r="E11" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="68">
+        <v>0</v>
+      </c>
+      <c r="G11" s="68">
+        <v>0</v>
+      </c>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="67">
+        <v>45</v>
+      </c>
+      <c r="B12" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="C12" s="68">
+        <v>0</v>
+      </c>
+      <c r="D12" s="68">
+        <v>0</v>
+      </c>
+      <c r="E12" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="68">
+        <v>0</v>
+      </c>
+      <c r="G12" s="68">
+        <v>0</v>
+      </c>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="67">
+        <v>46</v>
+      </c>
+      <c r="B13" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="C13" s="68">
+        <v>0</v>
+      </c>
+      <c r="D13" s="68">
+        <v>0</v>
+      </c>
+      <c r="E13" s="68">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F13" s="68">
+        <v>0</v>
+      </c>
+      <c r="G13" s="68">
+        <v>0</v>
+      </c>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="67">
+        <v>47</v>
+      </c>
+      <c r="B14" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="C14" s="68">
+        <v>0</v>
+      </c>
+      <c r="D14" s="68">
+        <v>0</v>
+      </c>
+      <c r="E14" s="68">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F14" s="68">
+        <v>0</v>
+      </c>
+      <c r="G14" s="68">
+        <v>0</v>
+      </c>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="67">
+        <v>48</v>
+      </c>
+      <c r="B15" s="68">
+        <v>0.02</v>
+      </c>
+      <c r="C15" s="68">
+        <v>0</v>
+      </c>
+      <c r="D15" s="68">
+        <v>0</v>
+      </c>
+      <c r="E15" s="68">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F15" s="68">
+        <v>0</v>
+      </c>
+      <c r="G15" s="68">
+        <v>0</v>
+      </c>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="67">
+        <v>49</v>
+      </c>
+      <c r="B16" s="68">
+        <v>0.02</v>
+      </c>
+      <c r="C16" s="68">
+        <v>0</v>
+      </c>
+      <c r="D16" s="68">
+        <v>0</v>
+      </c>
+      <c r="E16" s="68">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F16" s="68">
+        <v>0</v>
+      </c>
+      <c r="G16" s="68">
+        <v>0</v>
+      </c>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="67">
+        <v>50</v>
+      </c>
+      <c r="B17" s="68">
+        <v>0.03</v>
+      </c>
+      <c r="C17" s="68">
+        <v>0.03</v>
+      </c>
+      <c r="D17" s="68">
+        <v>0.03</v>
+      </c>
+      <c r="E17" s="68">
+        <v>0.12</v>
+      </c>
+      <c r="F17" s="68">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G17" s="68">
+        <v>0.08</v>
+      </c>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="67">
+        <v>51</v>
+      </c>
+      <c r="B18" s="68">
+        <v>0.04</v>
+      </c>
+      <c r="C18" s="68">
+        <v>0.03</v>
+      </c>
+      <c r="D18" s="68">
+        <v>0.03</v>
+      </c>
+      <c r="E18" s="68">
+        <v>0.12</v>
+      </c>
+      <c r="F18" s="68">
+        <v>0.06</v>
+      </c>
+      <c r="G18" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="67">
+        <v>52</v>
+      </c>
+      <c r="B19" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="C19" s="68">
+        <v>0.03</v>
+      </c>
+      <c r="D19" s="68">
+        <v>0.04</v>
+      </c>
+      <c r="E19" s="68">
+        <v>0.12</v>
+      </c>
+      <c r="F19" s="68">
+        <v>0.06</v>
+      </c>
+      <c r="G19" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="67">
+        <v>53</v>
+      </c>
+      <c r="B20" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="68">
+        <v>0.03</v>
+      </c>
+      <c r="D20" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="E20" s="68">
+        <v>0.15</v>
+      </c>
+      <c r="F20" s="68">
+        <v>0.06</v>
+      </c>
+      <c r="G20" s="68">
+        <v>0.15</v>
+      </c>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="67">
+        <v>54</v>
+      </c>
+      <c r="B21" s="68">
+        <v>0.15</v>
+      </c>
+      <c r="C21" s="68">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D21" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="E21" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="68">
+        <v>0.15</v>
+      </c>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="67">
+        <v>55</v>
+      </c>
+      <c r="B22" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="68">
+        <v>0.12</v>
+      </c>
+      <c r="D22" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="68">
+        <v>0.18</v>
+      </c>
+      <c r="G22" s="68">
+        <v>0.18</v>
+      </c>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="67">
+        <v>56</v>
+      </c>
+      <c r="B23" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="68">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D23" s="68">
+        <v>0.12</v>
+      </c>
+      <c r="E23" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="68">
+        <v>0.18</v>
+      </c>
+      <c r="G23" s="68">
+        <v>0.18</v>
+      </c>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="67">
+        <v>57</v>
+      </c>
+      <c r="B24" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="68">
+        <v>0.16</v>
+      </c>
+      <c r="D24" s="68">
+        <v>0.15</v>
+      </c>
+      <c r="E24" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="F24" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="G24" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="67">
+        <v>58</v>
+      </c>
+      <c r="B25" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="68">
+        <v>0.18</v>
+      </c>
+      <c r="E25" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="F25" s="68">
+        <v>0.22</v>
+      </c>
+      <c r="G25" s="68">
+        <v>0.22</v>
+      </c>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="67">
+        <v>59</v>
+      </c>
+      <c r="B26" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="C26" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="D26" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="E26" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="F26" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="G26" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="67">
+        <v>60</v>
+      </c>
+      <c r="B27" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="C27" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="D27" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="F27" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="G27" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="67">
+        <v>61</v>
+      </c>
+      <c r="B28" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="C28" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="D28" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="E28" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="F28" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="G28" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="67">
+        <v>62</v>
+      </c>
+      <c r="B29" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="C29" s="68">
+        <v>0.35</v>
+      </c>
+      <c r="D29" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="E29" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="F29" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="G29" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="67">
+        <v>63</v>
+      </c>
+      <c r="B30" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="C30" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="D30" s="68">
+        <v>0.35</v>
+      </c>
+      <c r="E30" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="F30" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="G30" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="67">
+        <v>64</v>
+      </c>
+      <c r="B31" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="C31" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="D31" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="E31" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="F31" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="G31" s="68">
+        <v>0.3</v>
+      </c>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="67">
+        <v>65</v>
+      </c>
+      <c r="B32" s="68">
+        <v>1</v>
+      </c>
+      <c r="C32" s="68">
+        <v>1</v>
+      </c>
+      <c r="D32" s="68">
+        <v>1</v>
+      </c>
+      <c r="E32" s="68">
+        <v>1</v>
+      </c>
+      <c r="F32" s="68">
+        <v>1</v>
+      </c>
+      <c r="G32" s="68">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5394,13 +6288,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5462,10 +6356,10 @@
       <c r="E4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="95"/>
+      <c r="G4" s="96"/>
     </row>
     <row r="5" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
@@ -5483,10 +6377,10 @@
       <c r="E5" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="93"/>
+      <c r="G5" s="94"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
@@ -5551,13 +6445,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5792,7 +6686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -6042,7 +6936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G11"/>
@@ -6102,27 +6996,27 @@
       <c r="A4" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
     </row>
     <row r="5" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
     </row>
     <row r="7" spans="1:7" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="84" t="s">
@@ -6134,10 +7028,10 @@
       <c r="C7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="95"/>
+      <c r="E7" s="96"/>
       <c r="F7" s="8" t="s">
         <v>64</v>
       </c>
@@ -6175,13 +7069,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6360,7 +7254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:F7"/>
@@ -6417,7 +7311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:B6"/>
@@ -6467,6 +7361,227 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="92" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="92">
+        <v>20</v>
+      </c>
+      <c r="C7" s="92">
+        <v>0</v>
+      </c>
+      <c r="D7" s="92">
+        <v>1</v>
+      </c>
+      <c r="E7" s="92">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="F7" s="92">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="92">
+        <v>50</v>
+      </c>
+      <c r="H7" s="92">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="92">
+        <v>20</v>
+      </c>
+      <c r="C8" s="92">
+        <v>0</v>
+      </c>
+      <c r="D8" s="92">
+        <v>1</v>
+      </c>
+      <c r="E8" s="92">
+        <v>0.03</v>
+      </c>
+      <c r="F8" s="92">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G8" s="92">
+        <v>50</v>
+      </c>
+      <c r="H8" s="92">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="92">
+        <v>10</v>
+      </c>
+      <c r="C9" s="92">
+        <v>50</v>
+      </c>
+      <c r="D9" s="92">
+        <v>1</v>
+      </c>
+      <c r="E9" s="92">
+        <v>0.03</v>
+      </c>
+      <c r="F9" s="92">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="92">
+        <v>50</v>
+      </c>
+      <c r="H9" s="92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="92">
+        <v>20</v>
+      </c>
+      <c r="C10" s="92">
+        <v>0</v>
+      </c>
+      <c r="D10" s="92">
+        <v>1</v>
+      </c>
+      <c r="E10" s="92">
+        <v>0.03</v>
+      </c>
+      <c r="F10" s="92">
+        <v>0.6</v>
+      </c>
+      <c r="G10" s="92">
+        <v>50</v>
+      </c>
+      <c r="H10" s="92">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="92">
+        <v>20</v>
+      </c>
+      <c r="C11" s="92">
+        <v>50</v>
+      </c>
+      <c r="D11" s="92">
+        <v>1</v>
+      </c>
+      <c r="E11" s="92">
+        <v>0.03</v>
+      </c>
+      <c r="F11" s="92">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="92">
+        <v>50</v>
+      </c>
+      <c r="H11" s="92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="92">
+        <v>20</v>
+      </c>
+      <c r="C12" s="92">
+        <v>50</v>
+      </c>
+      <c r="D12" s="92">
+        <v>2</v>
+      </c>
+      <c r="E12" s="92">
+        <v>0.03</v>
+      </c>
+      <c r="F12" s="92">
+        <v>0.7</v>
+      </c>
+      <c r="G12" s="92">
+        <v>50</v>
+      </c>
+      <c r="H12" s="92">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -6499,7 +7614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C9"/>
@@ -6579,13 +7694,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6601,48 +7716,54 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="33"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="5" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B5" s="21">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="10" spans="1:3" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B12" s="49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="C11" s="7"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="C13" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6654,13 +7775,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6861,7 +7982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B4:G13"/>
@@ -6938,7 +8059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1"/>
@@ -6957,13 +8078,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7019,15 +8140,15 @@
       <c r="A5" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="92" t="s">
+      <c r="C5" s="96"/>
+      <c r="D5" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
       <c r="G5" s="43" t="s">
         <v>79</v>
       </c>
@@ -7050,10 +8171,10 @@
       <c r="E6" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="96"/>
+      <c r="G6" s="97"/>
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
     </row>
@@ -7077,10 +8198,10 @@
       <c r="C9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="93"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="39" t="s">
         <v>64</v>
       </c>
@@ -7088,43 +8209,53 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-    </row>
-    <row r="11" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+    <row r="10" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+    </row>
+    <row r="12" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B12" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="93" t="s">
+      <c r="C12" s="96"/>
+      <c r="D12" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93" t="s">
+      <c r="E12" s="94"/>
+      <c r="F12" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="93"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="G12" s="94"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
-      <c r="D13" s="40"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
+      <c r="D14" s="40"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
@@ -7162,12 +8293,14 @@
       <c r="C21" s="38"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
@@ -7205,859 +8338,36 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
     </row>
-    <row r="36" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+    </row>
     <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-    </row>
-    <row r="45" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="4"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="15"/>
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="F6:G6"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:N32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="7" width="21.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="97"/>
-      <c r="B6" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="65">
-        <v>41</v>
-      </c>
-      <c r="B8" s="66">
-        <v>0.01</v>
-      </c>
-      <c r="C8" s="66">
-        <v>0</v>
-      </c>
-      <c r="D8" s="66">
-        <v>0</v>
-      </c>
-      <c r="E8" s="66">
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="66">
-        <v>0</v>
-      </c>
-      <c r="G8" s="66">
-        <v>0</v>
-      </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="67">
-        <v>42</v>
-      </c>
-      <c r="B9" s="68">
-        <v>0.01</v>
-      </c>
-      <c r="C9" s="68">
-        <v>0</v>
-      </c>
-      <c r="D9" s="68">
-        <v>0</v>
-      </c>
-      <c r="E9" s="68">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="68">
-        <v>0</v>
-      </c>
-      <c r="G9" s="68">
-        <v>0</v>
-      </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="67">
-        <v>43</v>
-      </c>
-      <c r="B10" s="68">
-        <v>0.01</v>
-      </c>
-      <c r="C10" s="68">
-        <v>0</v>
-      </c>
-      <c r="D10" s="68">
-        <v>0</v>
-      </c>
-      <c r="E10" s="68">
-        <v>0.1</v>
-      </c>
-      <c r="F10" s="68">
-        <v>0</v>
-      </c>
-      <c r="G10" s="68">
-        <v>0</v>
-      </c>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="67">
-        <v>44</v>
-      </c>
-      <c r="B11" s="68">
-        <v>0.01</v>
-      </c>
-      <c r="C11" s="68">
-        <v>0</v>
-      </c>
-      <c r="D11" s="68">
-        <v>0</v>
-      </c>
-      <c r="E11" s="68">
-        <v>0.1</v>
-      </c>
-      <c r="F11" s="68">
-        <v>0</v>
-      </c>
-      <c r="G11" s="68">
-        <v>0</v>
-      </c>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="67">
-        <v>45</v>
-      </c>
-      <c r="B12" s="68">
-        <v>0.01</v>
-      </c>
-      <c r="C12" s="68">
-        <v>0</v>
-      </c>
-      <c r="D12" s="68">
-        <v>0</v>
-      </c>
-      <c r="E12" s="68">
-        <v>0.1</v>
-      </c>
-      <c r="F12" s="68">
-        <v>0</v>
-      </c>
-      <c r="G12" s="68">
-        <v>0</v>
-      </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="67">
-        <v>46</v>
-      </c>
-      <c r="B13" s="68">
-        <v>0.01</v>
-      </c>
-      <c r="C13" s="68">
-        <v>0</v>
-      </c>
-      <c r="D13" s="68">
-        <v>0</v>
-      </c>
-      <c r="E13" s="68">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F13" s="68">
-        <v>0</v>
-      </c>
-      <c r="G13" s="68">
-        <v>0</v>
-      </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="67">
-        <v>47</v>
-      </c>
-      <c r="B14" s="68">
-        <v>0.01</v>
-      </c>
-      <c r="C14" s="68">
-        <v>0</v>
-      </c>
-      <c r="D14" s="68">
-        <v>0</v>
-      </c>
-      <c r="E14" s="68">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F14" s="68">
-        <v>0</v>
-      </c>
-      <c r="G14" s="68">
-        <v>0</v>
-      </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="67">
-        <v>48</v>
-      </c>
-      <c r="B15" s="68">
-        <v>0.02</v>
-      </c>
-      <c r="C15" s="68">
-        <v>0</v>
-      </c>
-      <c r="D15" s="68">
-        <v>0</v>
-      </c>
-      <c r="E15" s="68">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F15" s="68">
-        <v>0</v>
-      </c>
-      <c r="G15" s="68">
-        <v>0</v>
-      </c>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="67">
-        <v>49</v>
-      </c>
-      <c r="B16" s="68">
-        <v>0.02</v>
-      </c>
-      <c r="C16" s="68">
-        <v>0</v>
-      </c>
-      <c r="D16" s="68">
-        <v>0</v>
-      </c>
-      <c r="E16" s="68">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F16" s="68">
-        <v>0</v>
-      </c>
-      <c r="G16" s="68">
-        <v>0</v>
-      </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="67">
-        <v>50</v>
-      </c>
-      <c r="B17" s="68">
-        <v>0.03</v>
-      </c>
-      <c r="C17" s="68">
-        <v>0.03</v>
-      </c>
-      <c r="D17" s="68">
-        <v>0.03</v>
-      </c>
-      <c r="E17" s="68">
-        <v>0.12</v>
-      </c>
-      <c r="F17" s="68">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G17" s="68">
-        <v>0.08</v>
-      </c>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="67">
-        <v>51</v>
-      </c>
-      <c r="B18" s="68">
-        <v>0.04</v>
-      </c>
-      <c r="C18" s="68">
-        <v>0.03</v>
-      </c>
-      <c r="D18" s="68">
-        <v>0.03</v>
-      </c>
-      <c r="E18" s="68">
-        <v>0.12</v>
-      </c>
-      <c r="F18" s="68">
-        <v>0.06</v>
-      </c>
-      <c r="G18" s="68">
-        <v>0.1</v>
-      </c>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="67">
-        <v>52</v>
-      </c>
-      <c r="B19" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="C19" s="68">
-        <v>0.03</v>
-      </c>
-      <c r="D19" s="68">
-        <v>0.04</v>
-      </c>
-      <c r="E19" s="68">
-        <v>0.12</v>
-      </c>
-      <c r="F19" s="68">
-        <v>0.06</v>
-      </c>
-      <c r="G19" s="68">
-        <v>0.1</v>
-      </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="67">
-        <v>53</v>
-      </c>
-      <c r="B20" s="68">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="68">
-        <v>0.03</v>
-      </c>
-      <c r="D20" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="E20" s="68">
-        <v>0.15</v>
-      </c>
-      <c r="F20" s="68">
-        <v>0.06</v>
-      </c>
-      <c r="G20" s="68">
-        <v>0.15</v>
-      </c>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="67">
-        <v>54</v>
-      </c>
-      <c r="B21" s="68">
-        <v>0.15</v>
-      </c>
-      <c r="C21" s="68">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D21" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="E21" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="F21" s="68">
-        <v>0.1</v>
-      </c>
-      <c r="G21" s="68">
-        <v>0.15</v>
-      </c>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="67">
-        <v>55</v>
-      </c>
-      <c r="B22" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="68">
-        <v>0.12</v>
-      </c>
-      <c r="D22" s="68">
-        <v>0.1</v>
-      </c>
-      <c r="E22" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="F22" s="68">
-        <v>0.18</v>
-      </c>
-      <c r="G22" s="68">
-        <v>0.18</v>
-      </c>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="67">
-        <v>56</v>
-      </c>
-      <c r="B23" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="68">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D23" s="68">
-        <v>0.12</v>
-      </c>
-      <c r="E23" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="F23" s="68">
-        <v>0.18</v>
-      </c>
-      <c r="G23" s="68">
-        <v>0.18</v>
-      </c>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="67">
-        <v>57</v>
-      </c>
-      <c r="B24" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="68">
-        <v>0.16</v>
-      </c>
-      <c r="D24" s="68">
-        <v>0.15</v>
-      </c>
-      <c r="E24" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="F24" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="G24" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="67">
-        <v>58</v>
-      </c>
-      <c r="B25" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="C25" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="D25" s="68">
-        <v>0.18</v>
-      </c>
-      <c r="E25" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="F25" s="68">
-        <v>0.22</v>
-      </c>
-      <c r="G25" s="68">
-        <v>0.22</v>
-      </c>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="67">
-        <v>59</v>
-      </c>
-      <c r="B26" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="C26" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="D26" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="E26" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="F26" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="G26" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="67">
-        <v>60</v>
-      </c>
-      <c r="B27" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="C27" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="D27" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="E27" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="F27" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="G27" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="67">
-        <v>61</v>
-      </c>
-      <c r="B28" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="C28" s="68">
-        <v>0.3</v>
-      </c>
-      <c r="D28" s="68">
-        <v>0.3</v>
-      </c>
-      <c r="E28" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="F28" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="G28" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="67">
-        <v>62</v>
-      </c>
-      <c r="B29" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="C29" s="68">
-        <v>0.35</v>
-      </c>
-      <c r="D29" s="68">
-        <v>0.3</v>
-      </c>
-      <c r="E29" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="F29" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="G29" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="67">
-        <v>63</v>
-      </c>
-      <c r="B30" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="C30" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="D30" s="68">
-        <v>0.35</v>
-      </c>
-      <c r="E30" s="68">
-        <v>0.3</v>
-      </c>
-      <c r="F30" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="G30" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="67">
-        <v>64</v>
-      </c>
-      <c r="B31" s="68">
-        <v>0.3</v>
-      </c>
-      <c r="C31" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="D31" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="E31" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="F31" s="68">
-        <v>0.3</v>
-      </c>
-      <c r="G31" s="68">
-        <v>0.3</v>
-      </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="67">
-        <v>65</v>
-      </c>
-      <c r="B32" s="68">
-        <v>1</v>
-      </c>
-      <c r="C32" s="68">
-        <v>1</v>
-      </c>
-      <c r="D32" s="68">
-        <v>1</v>
-      </c>
-      <c r="E32" s="68">
-        <v>1</v>
-      </c>
-      <c r="F32" s="68">
-        <v>1</v>
-      </c>
-      <c r="G32" s="68">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="TOC!A1" display="TOC"/>

--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="711" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -1430,9 +1430,6 @@
     </r>
   </si>
   <si>
-    <t>Question: No vested term for Tier 1, 2, 4?(SOLVED, do not need to model 1,2, no vesting for 4)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Need to evaluate if the death benefits are worth modeling. 
  - </t>
@@ -1563,6 +1560,36 @@
   </si>
   <si>
     <t>factor.ca</t>
+  </si>
+  <si>
+    <r>
+      <t>Question: 
+  - (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SOLVED</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) No vested term for Tier 1, 2, 4?(SOLVED, do not need to model 1,2, no vesting for 4)
+  - Are the term benefits life annuity or contingent annuity? (Currently modeld as life annuity)
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1758,7 +1785,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2012,6 +2039,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6293,8 +6323,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6363,7 +6393,7 @@
     </row>
     <row r="5" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="90" t="s">
         <v>141</v>
@@ -6372,20 +6402,26 @@
         <v>143</v>
       </c>
       <c r="D5" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="94" t="s">
-        <v>149</v>
-      </c>
       <c r="G5" s="94"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>144</v>
-      </c>
+    <row r="6" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
     </row>
     <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -6432,9 +6468,10 @@
       <c r="E16" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
@@ -6487,10 +6524,10 @@
         <v>85</v>
       </c>
       <c r="B5" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="81" t="s">
         <v>151</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -6727,10 +6764,10 @@
         <v>97</v>
       </c>
       <c r="B5" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="81" t="s">
         <v>153</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -7283,7 +7320,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -7342,7 +7379,7 @@
     <row r="5" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7364,7 +7401,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7387,38 +7424,38 @@
         <v>88</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="D6" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="E6" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="F6" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="92" t="s">
         <v>168</v>
-      </c>
-      <c r="F6" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="H6" s="92" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="92">
         <v>20</v>
@@ -7444,7 +7481,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="92">
         <v>20</v>
@@ -7470,7 +7507,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="92">
         <v>10</v>
@@ -7496,7 +7533,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="92">
         <v>20</v>
@@ -7522,7 +7559,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" s="92">
         <v>20</v>
@@ -7548,7 +7585,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" s="92">
         <v>20</v>
@@ -7700,7 +7737,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7780,7 +7817,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -8084,7 +8121,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8211,14 +8248,14 @@
     </row>
     <row r="10" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="98"/>
       <c r="D10" s="98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="98"/>
       <c r="F10" s="98"/>

--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="187">
   <si>
     <t>Notes</t>
   </si>
@@ -1590,6 +1590,48 @@
   - Are the term benefits life annuity or contingent annuity? (Currently modeld as life annuity)
 </t>
     </r>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Date Established</t>
+  </si>
+  <si>
+    <t>Initial Years</t>
+  </si>
+  <si>
+    <t>Initial Amount</t>
+  </si>
+  <si>
+    <t>Annual Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Years remaining </t>
+  </si>
+  <si>
+    <t>Outstanding Balance</t>
+  </si>
+  <si>
+    <t>Actuarial Loss**</t>
+  </si>
+  <si>
+    <t>Actuarial Loss</t>
+  </si>
+  <si>
+    <t>Change in Assumptions</t>
+  </si>
+  <si>
+    <t>Plan Amendment</t>
+  </si>
+  <si>
+    <t>Actuarial Gain</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>G15</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1827,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1861,7 +1903,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2037,12 +2078,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3453,138 +3496,138 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3628,7 +3671,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3649,780 +3692,780 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100" t="s">
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="59" t="s">
+      <c r="A6" s="98"/>
+      <c r="B6" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="57" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="63" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="65">
+      <c r="A8" s="64">
         <v>41</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="65">
         <v>0.01</v>
       </c>
-      <c r="C8" s="66">
-        <v>0</v>
-      </c>
-      <c r="D8" s="66">
-        <v>0</v>
-      </c>
-      <c r="E8" s="66">
+      <c r="C8" s="65">
+        <v>0</v>
+      </c>
+      <c r="D8" s="65">
+        <v>0</v>
+      </c>
+      <c r="E8" s="65">
         <v>0.1</v>
       </c>
-      <c r="F8" s="66">
-        <v>0</v>
-      </c>
-      <c r="G8" s="66">
-        <v>0</v>
-      </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
+      <c r="F8" s="65">
+        <v>0</v>
+      </c>
+      <c r="G8" s="65">
+        <v>0</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="67">
+      <c r="A9" s="66">
         <v>42</v>
       </c>
-      <c r="B9" s="68">
+      <c r="B9" s="67">
         <v>0.01</v>
       </c>
-      <c r="C9" s="68">
-        <v>0</v>
-      </c>
-      <c r="D9" s="68">
-        <v>0</v>
-      </c>
-      <c r="E9" s="68">
+      <c r="C9" s="67">
+        <v>0</v>
+      </c>
+      <c r="D9" s="67">
+        <v>0</v>
+      </c>
+      <c r="E9" s="67">
         <v>0.1</v>
       </c>
-      <c r="F9" s="68">
-        <v>0</v>
-      </c>
-      <c r="G9" s="68">
-        <v>0</v>
-      </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
+      <c r="F9" s="67">
+        <v>0</v>
+      </c>
+      <c r="G9" s="67">
+        <v>0</v>
+      </c>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="67">
+      <c r="A10" s="66">
         <v>43</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="67">
         <v>0.01</v>
       </c>
-      <c r="C10" s="68">
-        <v>0</v>
-      </c>
-      <c r="D10" s="68">
-        <v>0</v>
-      </c>
-      <c r="E10" s="68">
+      <c r="C10" s="67">
+        <v>0</v>
+      </c>
+      <c r="D10" s="67">
+        <v>0</v>
+      </c>
+      <c r="E10" s="67">
         <v>0.1</v>
       </c>
-      <c r="F10" s="68">
-        <v>0</v>
-      </c>
-      <c r="G10" s="68">
-        <v>0</v>
-      </c>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
+      <c r="F10" s="67">
+        <v>0</v>
+      </c>
+      <c r="G10" s="67">
+        <v>0</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="67">
+      <c r="A11" s="66">
         <v>44</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="67">
         <v>0.01</v>
       </c>
-      <c r="C11" s="68">
-        <v>0</v>
-      </c>
-      <c r="D11" s="68">
-        <v>0</v>
-      </c>
-      <c r="E11" s="68">
+      <c r="C11" s="67">
+        <v>0</v>
+      </c>
+      <c r="D11" s="67">
+        <v>0</v>
+      </c>
+      <c r="E11" s="67">
         <v>0.1</v>
       </c>
-      <c r="F11" s="68">
-        <v>0</v>
-      </c>
-      <c r="G11" s="68">
-        <v>0</v>
-      </c>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
+      <c r="F11" s="67">
+        <v>0</v>
+      </c>
+      <c r="G11" s="67">
+        <v>0</v>
+      </c>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="67">
+      <c r="A12" s="66">
         <v>45</v>
       </c>
-      <c r="B12" s="68">
+      <c r="B12" s="67">
         <v>0.01</v>
       </c>
-      <c r="C12" s="68">
-        <v>0</v>
-      </c>
-      <c r="D12" s="68">
-        <v>0</v>
-      </c>
-      <c r="E12" s="68">
+      <c r="C12" s="67">
+        <v>0</v>
+      </c>
+      <c r="D12" s="67">
+        <v>0</v>
+      </c>
+      <c r="E12" s="67">
         <v>0.1</v>
       </c>
-      <c r="F12" s="68">
-        <v>0</v>
-      </c>
-      <c r="G12" s="68">
-        <v>0</v>
-      </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
+      <c r="F12" s="67">
+        <v>0</v>
+      </c>
+      <c r="G12" s="67">
+        <v>0</v>
+      </c>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="67">
+      <c r="A13" s="66">
         <v>46</v>
       </c>
-      <c r="B13" s="68">
+      <c r="B13" s="67">
         <v>0.01</v>
       </c>
-      <c r="C13" s="68">
-        <v>0</v>
-      </c>
-      <c r="D13" s="68">
-        <v>0</v>
-      </c>
-      <c r="E13" s="68">
+      <c r="C13" s="67">
+        <v>0</v>
+      </c>
+      <c r="D13" s="67">
+        <v>0</v>
+      </c>
+      <c r="E13" s="67">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F13" s="68">
-        <v>0</v>
-      </c>
-      <c r="G13" s="68">
-        <v>0</v>
-      </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
+      <c r="F13" s="67">
+        <v>0</v>
+      </c>
+      <c r="G13" s="67">
+        <v>0</v>
+      </c>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="67">
+      <c r="A14" s="66">
         <v>47</v>
       </c>
-      <c r="B14" s="68">
+      <c r="B14" s="67">
         <v>0.01</v>
       </c>
-      <c r="C14" s="68">
-        <v>0</v>
-      </c>
-      <c r="D14" s="68">
-        <v>0</v>
-      </c>
-      <c r="E14" s="68">
+      <c r="C14" s="67">
+        <v>0</v>
+      </c>
+      <c r="D14" s="67">
+        <v>0</v>
+      </c>
+      <c r="E14" s="67">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F14" s="68">
-        <v>0</v>
-      </c>
-      <c r="G14" s="68">
-        <v>0</v>
-      </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
+      <c r="F14" s="67">
+        <v>0</v>
+      </c>
+      <c r="G14" s="67">
+        <v>0</v>
+      </c>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="67">
+      <c r="A15" s="66">
         <v>48</v>
       </c>
-      <c r="B15" s="68">
+      <c r="B15" s="67">
         <v>0.02</v>
       </c>
-      <c r="C15" s="68">
-        <v>0</v>
-      </c>
-      <c r="D15" s="68">
-        <v>0</v>
-      </c>
-      <c r="E15" s="68">
+      <c r="C15" s="67">
+        <v>0</v>
+      </c>
+      <c r="D15" s="67">
+        <v>0</v>
+      </c>
+      <c r="E15" s="67">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F15" s="68">
-        <v>0</v>
-      </c>
-      <c r="G15" s="68">
-        <v>0</v>
-      </c>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
+      <c r="F15" s="67">
+        <v>0</v>
+      </c>
+      <c r="G15" s="67">
+        <v>0</v>
+      </c>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="67">
+      <c r="A16" s="66">
         <v>49</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="67">
         <v>0.02</v>
       </c>
-      <c r="C16" s="68">
-        <v>0</v>
-      </c>
-      <c r="D16" s="68">
-        <v>0</v>
-      </c>
-      <c r="E16" s="68">
+      <c r="C16" s="67">
+        <v>0</v>
+      </c>
+      <c r="D16" s="67">
+        <v>0</v>
+      </c>
+      <c r="E16" s="67">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F16" s="68">
-        <v>0</v>
-      </c>
-      <c r="G16" s="68">
-        <v>0</v>
-      </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
+      <c r="F16" s="67">
+        <v>0</v>
+      </c>
+      <c r="G16" s="67">
+        <v>0</v>
+      </c>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="67">
+      <c r="A17" s="66">
         <v>50</v>
       </c>
-      <c r="B17" s="68">
+      <c r="B17" s="67">
         <v>0.03</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="67">
         <v>0.03</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="67">
         <v>0.03</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="67">
         <v>0.12</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="67">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="67">
         <v>0.08</v>
       </c>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="67">
+      <c r="A18" s="66">
         <v>51</v>
       </c>
-      <c r="B18" s="68">
+      <c r="B18" s="67">
         <v>0.04</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="67">
         <v>0.03</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="67">
         <v>0.03</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="67">
         <v>0.12</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="67">
         <v>0.06</v>
       </c>
-      <c r="G18" s="68">
+      <c r="G18" s="67">
         <v>0.1</v>
       </c>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="67">
+      <c r="A19" s="66">
         <v>52</v>
       </c>
-      <c r="B19" s="68">
+      <c r="B19" s="67">
         <v>0.05</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="67">
         <v>0.03</v>
       </c>
-      <c r="D19" s="68">
+      <c r="D19" s="67">
         <v>0.04</v>
       </c>
-      <c r="E19" s="68">
+      <c r="E19" s="67">
         <v>0.12</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="67">
         <v>0.06</v>
       </c>
-      <c r="G19" s="68">
+      <c r="G19" s="67">
         <v>0.1</v>
       </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="67">
+      <c r="A20" s="66">
         <v>53</v>
       </c>
-      <c r="B20" s="68">
+      <c r="B20" s="67">
         <v>0.1</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="67">
         <v>0.03</v>
       </c>
-      <c r="D20" s="68">
+      <c r="D20" s="67">
         <v>0.05</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="67">
         <v>0.15</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="67">
         <v>0.06</v>
       </c>
-      <c r="G20" s="68">
+      <c r="G20" s="67">
         <v>0.15</v>
       </c>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="67">
+      <c r="A21" s="66">
         <v>54</v>
       </c>
-      <c r="B21" s="68">
+      <c r="B21" s="67">
         <v>0.15</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="67">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="67">
         <v>0.05</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="67">
         <v>0.2</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="67">
         <v>0.1</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="67">
         <v>0.15</v>
       </c>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="67">
+      <c r="A22" s="66">
         <v>55</v>
       </c>
-      <c r="B22" s="68">
+      <c r="B22" s="67">
         <v>0.2</v>
       </c>
-      <c r="C22" s="68">
+      <c r="C22" s="67">
         <v>0.12</v>
       </c>
-      <c r="D22" s="68">
+      <c r="D22" s="67">
         <v>0.1</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="67">
         <v>0.2</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="67">
         <v>0.18</v>
       </c>
-      <c r="G22" s="68">
+      <c r="G22" s="67">
         <v>0.18</v>
       </c>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="67">
+      <c r="A23" s="66">
         <v>56</v>
       </c>
-      <c r="B23" s="68">
+      <c r="B23" s="67">
         <v>0.2</v>
       </c>
-      <c r="C23" s="68">
+      <c r="C23" s="67">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D23" s="68">
+      <c r="D23" s="67">
         <v>0.12</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="67">
         <v>0.25</v>
       </c>
-      <c r="F23" s="68">
+      <c r="F23" s="67">
         <v>0.18</v>
       </c>
-      <c r="G23" s="68">
+      <c r="G23" s="67">
         <v>0.18</v>
       </c>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="67">
+      <c r="A24" s="66">
         <v>57</v>
       </c>
-      <c r="B24" s="68">
+      <c r="B24" s="67">
         <v>0.2</v>
       </c>
-      <c r="C24" s="68">
+      <c r="C24" s="67">
         <v>0.16</v>
       </c>
-      <c r="D24" s="68">
+      <c r="D24" s="67">
         <v>0.15</v>
       </c>
-      <c r="E24" s="68">
+      <c r="E24" s="67">
         <v>0.25</v>
       </c>
-      <c r="F24" s="68">
+      <c r="F24" s="67">
         <v>0.2</v>
       </c>
-      <c r="G24" s="68">
+      <c r="G24" s="67">
         <v>0.2</v>
       </c>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="67">
+      <c r="A25" s="66">
         <v>58</v>
       </c>
-      <c r="B25" s="68">
+      <c r="B25" s="67">
         <v>0.2</v>
       </c>
-      <c r="C25" s="68">
+      <c r="C25" s="67">
         <v>0.2</v>
       </c>
-      <c r="D25" s="68">
+      <c r="D25" s="67">
         <v>0.18</v>
       </c>
-      <c r="E25" s="68">
+      <c r="E25" s="67">
         <v>0.25</v>
       </c>
-      <c r="F25" s="68">
+      <c r="F25" s="67">
         <v>0.22</v>
       </c>
-      <c r="G25" s="68">
+      <c r="G25" s="67">
         <v>0.22</v>
       </c>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="67">
+      <c r="A26" s="66">
         <v>59</v>
       </c>
-      <c r="B26" s="68">
+      <c r="B26" s="67">
         <v>0.2</v>
       </c>
-      <c r="C26" s="68">
+      <c r="C26" s="67">
         <v>0.25</v>
       </c>
-      <c r="D26" s="68">
+      <c r="D26" s="67">
         <v>0.2</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="67">
         <v>0.25</v>
       </c>
-      <c r="F26" s="68">
+      <c r="F26" s="67">
         <v>0.25</v>
       </c>
-      <c r="G26" s="68">
+      <c r="G26" s="67">
         <v>0.25</v>
       </c>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="67">
+      <c r="A27" s="66">
         <v>60</v>
       </c>
-      <c r="B27" s="68">
+      <c r="B27" s="67">
         <v>0.2</v>
       </c>
-      <c r="C27" s="68">
+      <c r="C27" s="67">
         <v>0.25</v>
       </c>
-      <c r="D27" s="68">
+      <c r="D27" s="67">
         <v>0.25</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="67">
         <v>0.25</v>
       </c>
-      <c r="F27" s="68">
+      <c r="F27" s="67">
         <v>0.25</v>
       </c>
-      <c r="G27" s="68">
+      <c r="G27" s="67">
         <v>0.25</v>
       </c>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="67">
+      <c r="A28" s="66">
         <v>61</v>
       </c>
-      <c r="B28" s="68">
+      <c r="B28" s="67">
         <v>0.2</v>
       </c>
-      <c r="C28" s="68">
+      <c r="C28" s="67">
         <v>0.3</v>
       </c>
-      <c r="D28" s="68">
+      <c r="D28" s="67">
         <v>0.3</v>
       </c>
-      <c r="E28" s="68">
+      <c r="E28" s="67">
         <v>0.25</v>
       </c>
-      <c r="F28" s="68">
+      <c r="F28" s="67">
         <v>0.25</v>
       </c>
-      <c r="G28" s="68">
+      <c r="G28" s="67">
         <v>0.25</v>
       </c>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="67">
+      <c r="A29" s="66">
         <v>62</v>
       </c>
-      <c r="B29" s="68">
+      <c r="B29" s="67">
         <v>0.25</v>
       </c>
-      <c r="C29" s="68">
+      <c r="C29" s="67">
         <v>0.35</v>
       </c>
-      <c r="D29" s="68">
+      <c r="D29" s="67">
         <v>0.3</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="67">
         <v>0.25</v>
       </c>
-      <c r="F29" s="68">
+      <c r="F29" s="67">
         <v>0.25</v>
       </c>
-      <c r="G29" s="68">
+      <c r="G29" s="67">
         <v>0.25</v>
       </c>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="67">
+      <c r="A30" s="66">
         <v>63</v>
       </c>
-      <c r="B30" s="68">
+      <c r="B30" s="67">
         <v>0.25</v>
       </c>
-      <c r="C30" s="68">
+      <c r="C30" s="67">
         <v>0.4</v>
       </c>
-      <c r="D30" s="68">
+      <c r="D30" s="67">
         <v>0.35</v>
       </c>
-      <c r="E30" s="68">
+      <c r="E30" s="67">
         <v>0.3</v>
       </c>
-      <c r="F30" s="68">
+      <c r="F30" s="67">
         <v>0.25</v>
       </c>
-      <c r="G30" s="68">
+      <c r="G30" s="67">
         <v>0.25</v>
       </c>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="67">
+      <c r="A31" s="66">
         <v>64</v>
       </c>
-      <c r="B31" s="68">
+      <c r="B31" s="67">
         <v>0.3</v>
       </c>
-      <c r="C31" s="68">
+      <c r="C31" s="67">
         <v>0.4</v>
       </c>
-      <c r="D31" s="68">
+      <c r="D31" s="67">
         <v>0.4</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="67">
         <v>0.4</v>
       </c>
-      <c r="F31" s="68">
+      <c r="F31" s="67">
         <v>0.3</v>
       </c>
-      <c r="G31" s="68">
+      <c r="G31" s="67">
         <v>0.3</v>
       </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="67">
+      <c r="A32" s="66">
         <v>65</v>
       </c>
-      <c r="B32" s="68">
+      <c r="B32" s="67">
         <v>1</v>
       </c>
-      <c r="C32" s="68">
+      <c r="C32" s="67">
         <v>1</v>
       </c>
-      <c r="D32" s="68">
+      <c r="D32" s="67">
         <v>1</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="67">
         <v>1</v>
       </c>
-      <c r="F32" s="68">
+      <c r="F32" s="67">
         <v>1</v>
       </c>
-      <c r="G32" s="68">
+      <c r="G32" s="67">
         <v>1</v>
       </c>
     </row>
@@ -4457,7 +4500,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4489,1819 +4532,1819 @@
       <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="70" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
-        <v>0</v>
-      </c>
-      <c r="B7" s="72">
-        <v>0</v>
-      </c>
-      <c r="C7" s="72">
-        <v>0</v>
-      </c>
-      <c r="D7" s="72">
-        <v>0</v>
-      </c>
-      <c r="E7" s="72">
-        <v>0</v>
-      </c>
-      <c r="F7" s="72">
-        <v>0</v>
-      </c>
-      <c r="G7" s="72">
+      <c r="A7" s="69">
+        <v>0</v>
+      </c>
+      <c r="B7" s="71">
+        <v>0</v>
+      </c>
+      <c r="C7" s="71">
+        <v>0</v>
+      </c>
+      <c r="D7" s="71">
+        <v>0</v>
+      </c>
+      <c r="E7" s="71">
+        <v>0</v>
+      </c>
+      <c r="F7" s="71">
+        <v>0</v>
+      </c>
+      <c r="G7" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="70">
+      <c r="A8" s="69">
         <v>1</v>
       </c>
-      <c r="B8" s="72">
-        <v>0</v>
-      </c>
-      <c r="C8" s="72">
-        <v>0</v>
-      </c>
-      <c r="D8" s="72">
-        <v>0</v>
-      </c>
-      <c r="E8" s="72">
-        <v>0</v>
-      </c>
-      <c r="F8" s="72">
-        <v>0</v>
-      </c>
-      <c r="G8" s="72">
+      <c r="B8" s="71">
+        <v>0</v>
+      </c>
+      <c r="C8" s="71">
+        <v>0</v>
+      </c>
+      <c r="D8" s="71">
+        <v>0</v>
+      </c>
+      <c r="E8" s="71">
+        <v>0</v>
+      </c>
+      <c r="F8" s="71">
+        <v>0</v>
+      </c>
+      <c r="G8" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
+      <c r="A9" s="69">
         <v>2</v>
       </c>
-      <c r="B9" s="72">
-        <v>0</v>
-      </c>
-      <c r="C9" s="72">
-        <v>0</v>
-      </c>
-      <c r="D9" s="72">
-        <v>0</v>
-      </c>
-      <c r="E9" s="72">
-        <v>0</v>
-      </c>
-      <c r="F9" s="72">
-        <v>0</v>
-      </c>
-      <c r="G9" s="72">
+      <c r="B9" s="71">
+        <v>0</v>
+      </c>
+      <c r="C9" s="71">
+        <v>0</v>
+      </c>
+      <c r="D9" s="71">
+        <v>0</v>
+      </c>
+      <c r="E9" s="71">
+        <v>0</v>
+      </c>
+      <c r="F9" s="71">
+        <v>0</v>
+      </c>
+      <c r="G9" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="70">
+      <c r="A10" s="69">
         <v>3</v>
       </c>
-      <c r="B10" s="72">
-        <v>0</v>
-      </c>
-      <c r="C10" s="72">
-        <v>0</v>
-      </c>
-      <c r="D10" s="72">
-        <v>0</v>
-      </c>
-      <c r="E10" s="72">
-        <v>0</v>
-      </c>
-      <c r="F10" s="72">
-        <v>0</v>
-      </c>
-      <c r="G10" s="72">
+      <c r="B10" s="71">
+        <v>0</v>
+      </c>
+      <c r="C10" s="71">
+        <v>0</v>
+      </c>
+      <c r="D10" s="71">
+        <v>0</v>
+      </c>
+      <c r="E10" s="71">
+        <v>0</v>
+      </c>
+      <c r="F10" s="71">
+        <v>0</v>
+      </c>
+      <c r="G10" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
+      <c r="A11" s="69">
         <v>4</v>
       </c>
-      <c r="B11" s="72">
-        <v>0</v>
-      </c>
-      <c r="C11" s="72">
-        <v>0</v>
-      </c>
-      <c r="D11" s="72">
-        <v>0</v>
-      </c>
-      <c r="E11" s="72">
-        <v>0</v>
-      </c>
-      <c r="F11" s="72">
-        <v>0</v>
-      </c>
-      <c r="G11" s="72">
+      <c r="B11" s="71">
+        <v>0</v>
+      </c>
+      <c r="C11" s="71">
+        <v>0</v>
+      </c>
+      <c r="D11" s="71">
+        <v>0</v>
+      </c>
+      <c r="E11" s="71">
+        <v>0</v>
+      </c>
+      <c r="F11" s="71">
+        <v>0</v>
+      </c>
+      <c r="G11" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="70">
+      <c r="A12" s="69">
         <v>5</v>
       </c>
-      <c r="B12" s="72">
-        <v>0</v>
-      </c>
-      <c r="C12" s="72">
-        <v>0</v>
-      </c>
-      <c r="D12" s="72">
-        <v>0</v>
-      </c>
-      <c r="E12" s="72">
-        <v>0</v>
-      </c>
-      <c r="F12" s="72">
-        <v>0</v>
-      </c>
-      <c r="G12" s="72">
+      <c r="B12" s="71">
+        <v>0</v>
+      </c>
+      <c r="C12" s="71">
+        <v>0</v>
+      </c>
+      <c r="D12" s="71">
+        <v>0</v>
+      </c>
+      <c r="E12" s="71">
+        <v>0</v>
+      </c>
+      <c r="F12" s="71">
+        <v>0</v>
+      </c>
+      <c r="G12" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="70">
+      <c r="A13" s="69">
         <v>6</v>
       </c>
-      <c r="B13" s="72">
-        <v>0</v>
-      </c>
-      <c r="C13" s="72">
-        <v>0</v>
-      </c>
-      <c r="D13" s="72">
-        <v>0</v>
-      </c>
-      <c r="E13" s="72">
-        <v>0</v>
-      </c>
-      <c r="F13" s="72">
-        <v>0</v>
-      </c>
-      <c r="G13" s="72">
+      <c r="B13" s="71">
+        <v>0</v>
+      </c>
+      <c r="C13" s="71">
+        <v>0</v>
+      </c>
+      <c r="D13" s="71">
+        <v>0</v>
+      </c>
+      <c r="E13" s="71">
+        <v>0</v>
+      </c>
+      <c r="F13" s="71">
+        <v>0</v>
+      </c>
+      <c r="G13" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="70">
+      <c r="A14" s="69">
         <v>7</v>
       </c>
-      <c r="B14" s="72">
-        <v>0</v>
-      </c>
-      <c r="C14" s="72">
-        <v>0</v>
-      </c>
-      <c r="D14" s="72">
-        <v>0</v>
-      </c>
-      <c r="E14" s="72">
-        <v>0</v>
-      </c>
-      <c r="F14" s="72">
-        <v>0</v>
-      </c>
-      <c r="G14" s="72">
+      <c r="B14" s="71">
+        <v>0</v>
+      </c>
+      <c r="C14" s="71">
+        <v>0</v>
+      </c>
+      <c r="D14" s="71">
+        <v>0</v>
+      </c>
+      <c r="E14" s="71">
+        <v>0</v>
+      </c>
+      <c r="F14" s="71">
+        <v>0</v>
+      </c>
+      <c r="G14" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="70">
+      <c r="A15" s="69">
         <v>8</v>
       </c>
-      <c r="B15" s="72">
-        <v>0</v>
-      </c>
-      <c r="C15" s="72">
-        <v>0</v>
-      </c>
-      <c r="D15" s="72">
-        <v>0</v>
-      </c>
-      <c r="E15" s="72">
-        <v>0</v>
-      </c>
-      <c r="F15" s="72">
-        <v>0</v>
-      </c>
-      <c r="G15" s="72">
+      <c r="B15" s="71">
+        <v>0</v>
+      </c>
+      <c r="C15" s="71">
+        <v>0</v>
+      </c>
+      <c r="D15" s="71">
+        <v>0</v>
+      </c>
+      <c r="E15" s="71">
+        <v>0</v>
+      </c>
+      <c r="F15" s="71">
+        <v>0</v>
+      </c>
+      <c r="G15" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="70">
+      <c r="A16" s="69">
         <v>9</v>
       </c>
-      <c r="B16" s="72">
-        <v>0</v>
-      </c>
-      <c r="C16" s="72">
-        <v>0</v>
-      </c>
-      <c r="D16" s="72">
-        <v>0</v>
-      </c>
-      <c r="E16" s="72">
-        <v>0</v>
-      </c>
-      <c r="F16" s="72">
-        <v>0</v>
-      </c>
-      <c r="G16" s="72">
+      <c r="B16" s="71">
+        <v>0</v>
+      </c>
+      <c r="C16" s="71">
+        <v>0</v>
+      </c>
+      <c r="D16" s="71">
+        <v>0</v>
+      </c>
+      <c r="E16" s="71">
+        <v>0</v>
+      </c>
+      <c r="F16" s="71">
+        <v>0</v>
+      </c>
+      <c r="G16" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="70">
+      <c r="A17" s="69">
         <v>10</v>
       </c>
-      <c r="B17" s="72">
-        <v>0</v>
-      </c>
-      <c r="C17" s="72">
-        <v>0</v>
-      </c>
-      <c r="D17" s="73">
+      <c r="B17" s="71">
+        <v>0</v>
+      </c>
+      <c r="C17" s="71">
+        <v>0</v>
+      </c>
+      <c r="D17" s="72">
         <f>0.02*$A17</f>
         <v>0.2</v>
       </c>
-      <c r="E17" s="72">
-        <v>0</v>
-      </c>
-      <c r="F17" s="72">
-        <v>0</v>
-      </c>
-      <c r="G17" s="72">
+      <c r="E17" s="71">
+        <v>0</v>
+      </c>
+      <c r="F17" s="71">
+        <v>0</v>
+      </c>
+      <c r="G17" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="70">
+      <c r="A18" s="69">
         <v>11</v>
       </c>
-      <c r="B18" s="72">
-        <v>0</v>
-      </c>
-      <c r="C18" s="72">
-        <v>0</v>
-      </c>
-      <c r="D18" s="73">
+      <c r="B18" s="71">
+        <v>0</v>
+      </c>
+      <c r="C18" s="71">
+        <v>0</v>
+      </c>
+      <c r="D18" s="72">
         <f t="shared" ref="D18:D26" si="0">0.02*$A18</f>
         <v>0.22</v>
       </c>
-      <c r="E18" s="72">
-        <v>0</v>
-      </c>
-      <c r="F18" s="72">
-        <v>0</v>
-      </c>
-      <c r="G18" s="72">
+      <c r="E18" s="71">
+        <v>0</v>
+      </c>
+      <c r="F18" s="71">
+        <v>0</v>
+      </c>
+      <c r="G18" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="70">
+      <c r="A19" s="69">
         <v>12</v>
       </c>
-      <c r="B19" s="72">
-        <v>0</v>
-      </c>
-      <c r="C19" s="72">
-        <v>0</v>
-      </c>
-      <c r="D19" s="73">
+      <c r="B19" s="71">
+        <v>0</v>
+      </c>
+      <c r="C19" s="71">
+        <v>0</v>
+      </c>
+      <c r="D19" s="72">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="E19" s="72">
-        <v>0</v>
-      </c>
-      <c r="F19" s="72">
-        <v>0</v>
-      </c>
-      <c r="G19" s="72">
+      <c r="E19" s="71">
+        <v>0</v>
+      </c>
+      <c r="F19" s="71">
+        <v>0</v>
+      </c>
+      <c r="G19" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="70">
+      <c r="A20" s="69">
         <v>13</v>
       </c>
-      <c r="B20" s="72">
-        <v>0</v>
-      </c>
-      <c r="C20" s="72">
-        <v>0</v>
-      </c>
-      <c r="D20" s="73">
+      <c r="B20" s="71">
+        <v>0</v>
+      </c>
+      <c r="C20" s="71">
+        <v>0</v>
+      </c>
+      <c r="D20" s="72">
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-      <c r="E20" s="72">
-        <v>0</v>
-      </c>
-      <c r="F20" s="72">
-        <v>0</v>
-      </c>
-      <c r="G20" s="72">
+      <c r="E20" s="71">
+        <v>0</v>
+      </c>
+      <c r="F20" s="71">
+        <v>0</v>
+      </c>
+      <c r="G20" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="70">
+      <c r="A21" s="69">
         <v>14</v>
       </c>
-      <c r="B21" s="72">
-        <v>0</v>
-      </c>
-      <c r="C21" s="72">
-        <v>0</v>
-      </c>
-      <c r="D21" s="73">
+      <c r="B21" s="71">
+        <v>0</v>
+      </c>
+      <c r="C21" s="71">
+        <v>0</v>
+      </c>
+      <c r="D21" s="72">
         <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="E21" s="72">
-        <v>0</v>
-      </c>
-      <c r="F21" s="72">
-        <v>0</v>
-      </c>
-      <c r="G21" s="72">
+      <c r="E21" s="71">
+        <v>0</v>
+      </c>
+      <c r="F21" s="71">
+        <v>0</v>
+      </c>
+      <c r="G21" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="70">
+      <c r="A22" s="69">
         <v>15</v>
       </c>
-      <c r="B22" s="72">
-        <v>0</v>
-      </c>
-      <c r="C22" s="72">
-        <v>0</v>
-      </c>
-      <c r="D22" s="73">
+      <c r="B22" s="71">
+        <v>0</v>
+      </c>
+      <c r="C22" s="71">
+        <v>0</v>
+      </c>
+      <c r="D22" s="72">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="E22" s="72">
-        <v>0</v>
-      </c>
-      <c r="F22" s="72">
-        <v>0</v>
-      </c>
-      <c r="G22" s="72">
+      <c r="E22" s="71">
+        <v>0</v>
+      </c>
+      <c r="F22" s="71">
+        <v>0</v>
+      </c>
+      <c r="G22" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="70">
+      <c r="A23" s="69">
         <v>16</v>
       </c>
-      <c r="B23" s="72">
-        <v>0</v>
-      </c>
-      <c r="C23" s="72">
-        <v>0</v>
-      </c>
-      <c r="D23" s="73">
+      <c r="B23" s="71">
+        <v>0</v>
+      </c>
+      <c r="C23" s="71">
+        <v>0</v>
+      </c>
+      <c r="D23" s="72">
         <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
-      <c r="E23" s="72">
-        <v>0</v>
-      </c>
-      <c r="F23" s="72">
-        <v>0</v>
-      </c>
-      <c r="G23" s="72">
+      <c r="E23" s="71">
+        <v>0</v>
+      </c>
+      <c r="F23" s="71">
+        <v>0</v>
+      </c>
+      <c r="G23" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="70">
+      <c r="A24" s="69">
         <v>17</v>
       </c>
-      <c r="B24" s="72">
-        <v>0</v>
-      </c>
-      <c r="C24" s="72">
-        <v>0</v>
-      </c>
-      <c r="D24" s="73">
+      <c r="B24" s="71">
+        <v>0</v>
+      </c>
+      <c r="C24" s="71">
+        <v>0</v>
+      </c>
+      <c r="D24" s="72">
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
-      <c r="E24" s="72">
-        <v>0</v>
-      </c>
-      <c r="F24" s="72">
-        <v>0</v>
-      </c>
-      <c r="G24" s="72">
+      <c r="E24" s="71">
+        <v>0</v>
+      </c>
+      <c r="F24" s="71">
+        <v>0</v>
+      </c>
+      <c r="G24" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="70">
+      <c r="A25" s="69">
         <v>18</v>
       </c>
-      <c r="B25" s="72">
-        <v>0</v>
-      </c>
-      <c r="C25" s="72">
-        <v>0</v>
-      </c>
-      <c r="D25" s="73">
+      <c r="B25" s="71">
+        <v>0</v>
+      </c>
+      <c r="C25" s="71">
+        <v>0</v>
+      </c>
+      <c r="D25" s="72">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-      <c r="E25" s="72">
-        <v>0</v>
-      </c>
-      <c r="F25" s="72">
-        <v>0</v>
-      </c>
-      <c r="G25" s="72">
+      <c r="E25" s="71">
+        <v>0</v>
+      </c>
+      <c r="F25" s="71">
+        <v>0</v>
+      </c>
+      <c r="G25" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="70">
+      <c r="A26" s="69">
         <v>19</v>
       </c>
-      <c r="B26" s="72">
-        <v>0</v>
-      </c>
-      <c r="C26" s="72">
-        <v>0</v>
-      </c>
-      <c r="D26" s="73">
+      <c r="B26" s="71">
+        <v>0</v>
+      </c>
+      <c r="C26" s="71">
+        <v>0</v>
+      </c>
+      <c r="D26" s="72">
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
-      <c r="E26" s="72">
-        <v>0</v>
-      </c>
-      <c r="F26" s="72">
-        <v>0</v>
-      </c>
-      <c r="G26" s="72">
+      <c r="E26" s="71">
+        <v>0</v>
+      </c>
+      <c r="F26" s="71">
+        <v>0</v>
+      </c>
+      <c r="G26" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="70">
+      <c r="A27" s="69">
         <v>20</v>
       </c>
-      <c r="B27" s="73">
+      <c r="B27" s="72">
         <v>0.4</v>
       </c>
-      <c r="C27" s="73">
+      <c r="C27" s="72">
         <f>0.02*A27</f>
         <v>0.4</v>
       </c>
-      <c r="D27" s="73">
+      <c r="D27" s="72">
         <f>MIN($D$26+0.03*($A27-19), 0.7)</f>
         <v>0.41000000000000003</v>
       </c>
-      <c r="E27" s="74">
+      <c r="E27" s="73">
         <v>0.4</v>
       </c>
-      <c r="F27" s="74">
+      <c r="F27" s="73">
         <v>0.5</v>
       </c>
-      <c r="G27" s="74">
+      <c r="G27" s="73">
         <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="70">
+      <c r="A28" s="69">
         <v>21</v>
       </c>
-      <c r="B28" s="73">
+      <c r="B28" s="72">
         <v>0.42</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="72">
         <f t="shared" ref="C28:C31" si="1">0.02*A28</f>
         <v>0.42</v>
       </c>
-      <c r="D28" s="73">
+      <c r="D28" s="72">
         <f t="shared" ref="D28:D72" si="2">MIN($D$26+0.03*($A28-19), 0.7)</f>
         <v>0.44</v>
       </c>
-      <c r="E28" s="73">
+      <c r="E28" s="72">
         <f>MIN($E$27+0.03*($A28-20), 0.7)</f>
         <v>0.43000000000000005</v>
       </c>
-      <c r="F28" s="73">
+      <c r="F28" s="72">
         <f>MIN(F27 + 0.03, 0.9)</f>
         <v>0.53</v>
       </c>
-      <c r="G28" s="73">
+      <c r="G28" s="72">
         <f>MIN(G27 + 0.03, 0.9)</f>
         <v>0.43000000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="70">
+      <c r="A29" s="69">
         <v>22</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="72">
         <v>0.44</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="72">
         <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
-      <c r="D29" s="73">
+      <c r="D29" s="72">
         <f t="shared" si="2"/>
         <v>0.47</v>
       </c>
-      <c r="E29" s="73">
+      <c r="E29" s="72">
         <f t="shared" ref="E29:E72" si="3">MIN($E$27+0.03*($A29-20), 0.7)</f>
         <v>0.46</v>
       </c>
-      <c r="F29" s="73">
+      <c r="F29" s="72">
         <f t="shared" ref="F29:G72" si="4">MIN(F28 + 0.03, 0.9)</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="G29" s="73">
+      <c r="G29" s="72">
         <f t="shared" si="4"/>
         <v>0.46000000000000008</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="70">
+      <c r="A30" s="69">
         <v>23</v>
       </c>
-      <c r="B30" s="73">
+      <c r="B30" s="72">
         <v>0.46</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="72">
         <f t="shared" si="1"/>
         <v>0.46</v>
       </c>
-      <c r="D30" s="73">
+      <c r="D30" s="72">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="E30" s="73">
+      <c r="E30" s="72">
         <f t="shared" si="3"/>
         <v>0.49</v>
       </c>
-      <c r="F30" s="73">
+      <c r="F30" s="72">
         <f t="shared" si="4"/>
         <v>0.59000000000000008</v>
       </c>
-      <c r="G30" s="73">
+      <c r="G30" s="72">
         <f t="shared" si="4"/>
         <v>0.4900000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="70">
+      <c r="A31" s="69">
         <v>24</v>
       </c>
-      <c r="B31" s="73">
+      <c r="B31" s="72">
         <v>0.48</v>
       </c>
-      <c r="C31" s="73">
+      <c r="C31" s="72">
         <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
-      <c r="D31" s="73">
+      <c r="D31" s="72">
         <f t="shared" si="2"/>
         <v>0.53</v>
       </c>
-      <c r="E31" s="73">
+      <c r="E31" s="72">
         <f t="shared" si="3"/>
         <v>0.52</v>
       </c>
-      <c r="F31" s="73">
+      <c r="F31" s="72">
         <f t="shared" si="4"/>
         <v>0.62000000000000011</v>
       </c>
-      <c r="G31" s="73">
+      <c r="G31" s="72">
         <f t="shared" si="4"/>
         <v>0.52000000000000013</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="70">
+      <c r="A32" s="69">
         <v>25</v>
       </c>
-      <c r="B32" s="73">
+      <c r="B32" s="72">
         <v>0.5</v>
       </c>
-      <c r="C32" s="73">
+      <c r="C32" s="72">
         <f>MIN(0.55+0.03*(A32-25), 0.7)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D32" s="73">
+      <c r="D32" s="72">
         <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="E32" s="73">
+      <c r="E32" s="72">
         <f t="shared" si="3"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="F32" s="73">
+      <c r="F32" s="72">
         <f t="shared" si="4"/>
         <v>0.65000000000000013</v>
       </c>
-      <c r="G32" s="73">
+      <c r="G32" s="72">
         <f t="shared" si="4"/>
         <v>0.55000000000000016</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="70">
+      <c r="A33" s="69">
         <v>26</v>
       </c>
-      <c r="B33" s="75">
+      <c r="B33" s="74">
         <f>0.5 + 5/300</f>
         <v>0.51666666666666672</v>
       </c>
-      <c r="C33" s="73">
+      <c r="C33" s="72">
         <f t="shared" ref="C33:C72" si="5">MIN(0.55+0.03*(A33-25), 0.7)</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="D33" s="73">
+      <c r="D33" s="72">
         <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
-      <c r="E33" s="73">
+      <c r="E33" s="72">
         <f t="shared" si="3"/>
         <v>0.58000000000000007</v>
       </c>
-      <c r="F33" s="73">
+      <c r="F33" s="72">
         <f t="shared" si="4"/>
         <v>0.68000000000000016</v>
       </c>
-      <c r="G33" s="73">
+      <c r="G33" s="72">
         <f>MIN(G32 + 0.04, 0.9)</f>
         <v>0.59000000000000019</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="70">
+      <c r="A34" s="69">
         <v>27</v>
       </c>
-      <c r="B34" s="76">
+      <c r="B34" s="75">
         <f>B33 + 5/300</f>
         <v>0.53333333333333344</v>
       </c>
-      <c r="C34" s="73">
+      <c r="C34" s="72">
         <f t="shared" si="5"/>
         <v>0.6100000000000001</v>
       </c>
-      <c r="D34" s="73">
+      <c r="D34" s="72">
         <f t="shared" si="2"/>
         <v>0.62</v>
       </c>
-      <c r="E34" s="73">
+      <c r="E34" s="72">
         <f t="shared" si="3"/>
         <v>0.61</v>
       </c>
-      <c r="F34" s="73">
+      <c r="F34" s="72">
         <f t="shared" si="4"/>
         <v>0.71000000000000019</v>
       </c>
-      <c r="G34" s="73">
+      <c r="G34" s="72">
         <f t="shared" ref="G34:G37" si="6">MIN(G33 + 0.04, 0.9)</f>
         <v>0.63000000000000023</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="70">
+      <c r="A35" s="69">
         <v>28</v>
       </c>
-      <c r="B35" s="76">
+      <c r="B35" s="75">
         <f t="shared" ref="B35:B42" si="7">B34 + 5/300</f>
         <v>0.55000000000000016</v>
       </c>
-      <c r="C35" s="73">
+      <c r="C35" s="72">
         <f t="shared" si="5"/>
         <v>0.64</v>
       </c>
-      <c r="D35" s="73">
+      <c r="D35" s="72">
         <f t="shared" si="2"/>
         <v>0.65</v>
       </c>
-      <c r="E35" s="73">
+      <c r="E35" s="72">
         <f t="shared" si="3"/>
         <v>0.64</v>
       </c>
-      <c r="F35" s="73">
+      <c r="F35" s="72">
         <f t="shared" si="4"/>
         <v>0.74000000000000021</v>
       </c>
-      <c r="G35" s="73">
+      <c r="G35" s="72">
         <f t="shared" si="6"/>
         <v>0.67000000000000026</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="70">
+      <c r="A36" s="69">
         <v>29</v>
       </c>
-      <c r="B36" s="76">
+      <c r="B36" s="75">
         <f t="shared" si="7"/>
         <v>0.56666666666666687</v>
       </c>
-      <c r="C36" s="73">
+      <c r="C36" s="72">
         <f t="shared" si="5"/>
         <v>0.67</v>
       </c>
-      <c r="D36" s="73">
+      <c r="D36" s="72">
         <f t="shared" si="2"/>
         <v>0.67999999999999994</v>
       </c>
-      <c r="E36" s="73">
+      <c r="E36" s="72">
         <f t="shared" si="3"/>
         <v>0.67</v>
       </c>
-      <c r="F36" s="73">
+      <c r="F36" s="72">
         <f t="shared" si="4"/>
         <v>0.77000000000000024</v>
       </c>
-      <c r="G36" s="73">
+      <c r="G36" s="72">
         <f t="shared" si="6"/>
         <v>0.7100000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="70">
+      <c r="A37" s="69">
         <v>30</v>
       </c>
-      <c r="B37" s="76">
+      <c r="B37" s="75">
         <f t="shared" si="7"/>
         <v>0.58333333333333359</v>
       </c>
-      <c r="C37" s="73">
+      <c r="C37" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D37" s="73">
+      <c r="D37" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E37" s="73">
+      <c r="E37" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F37" s="73">
+      <c r="F37" s="72">
         <f>MIN(F36 + 0.04, 0.9)</f>
         <v>0.81000000000000028</v>
       </c>
-      <c r="G37" s="73">
+      <c r="G37" s="72">
         <f t="shared" si="6"/>
         <v>0.75000000000000033</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="70">
+      <c r="A38" s="69">
         <v>31</v>
       </c>
-      <c r="B38" s="76">
+      <c r="B38" s="75">
         <f t="shared" si="7"/>
         <v>0.60000000000000031</v>
       </c>
-      <c r="C38" s="73">
+      <c r="C38" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D38" s="73">
+      <c r="D38" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E38" s="73">
+      <c r="E38" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F38" s="73">
+      <c r="F38" s="72">
         <f t="shared" si="4"/>
         <v>0.8400000000000003</v>
       </c>
-      <c r="G38" s="73">
+      <c r="G38" s="72">
         <f>MIN(G37 + 0.05, 0.9)</f>
         <v>0.80000000000000038</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="70">
+      <c r="A39" s="69">
         <v>32</v>
       </c>
-      <c r="B39" s="76">
+      <c r="B39" s="75">
         <f t="shared" si="7"/>
         <v>0.61666666666666703</v>
       </c>
-      <c r="C39" s="73">
+      <c r="C39" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D39" s="73">
+      <c r="D39" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E39" s="73">
+      <c r="E39" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F39" s="73">
+      <c r="F39" s="72">
         <f t="shared" si="4"/>
         <v>0.87000000000000033</v>
       </c>
-      <c r="G39" s="73">
+      <c r="G39" s="72">
         <f t="shared" ref="G39:G72" si="8">MIN(G38 + 0.05, 0.9)</f>
         <v>0.85000000000000042</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="70">
+      <c r="A40" s="69">
         <v>33</v>
       </c>
-      <c r="B40" s="76">
+      <c r="B40" s="75">
         <f t="shared" si="7"/>
         <v>0.63333333333333375</v>
       </c>
-      <c r="C40" s="73">
+      <c r="C40" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D40" s="73">
+      <c r="D40" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E40" s="73">
+      <c r="E40" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F40" s="73">
+      <c r="F40" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G40" s="73">
+      <c r="G40" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="70">
+      <c r="A41" s="69">
         <v>34</v>
       </c>
-      <c r="B41" s="76">
+      <c r="B41" s="75">
         <f t="shared" si="7"/>
         <v>0.65000000000000047</v>
       </c>
-      <c r="C41" s="73">
+      <c r="C41" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D41" s="73">
+      <c r="D41" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E41" s="73">
+      <c r="E41" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F41" s="73">
+      <c r="F41" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G41" s="73">
+      <c r="G41" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="70">
+      <c r="A42" s="69">
         <v>35</v>
       </c>
-      <c r="B42" s="76">
+      <c r="B42" s="75">
         <f t="shared" si="7"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C42" s="73">
+      <c r="C42" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D42" s="73">
+      <c r="D42" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E42" s="73">
+      <c r="E42" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F42" s="73">
+      <c r="F42" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G42" s="73">
+      <c r="G42" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="70">
+      <c r="A43" s="69">
         <v>36</v>
       </c>
-      <c r="B43" s="77">
+      <c r="B43" s="76">
         <f>B42</f>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C43" s="73">
+      <c r="C43" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D43" s="73">
+      <c r="D43" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E43" s="73">
+      <c r="E43" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F43" s="73">
+      <c r="F43" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G43" s="73">
+      <c r="G43" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="70">
+      <c r="A44" s="69">
         <v>37</v>
       </c>
-      <c r="B44" s="77">
+      <c r="B44" s="76">
         <f t="shared" ref="B44:B72" si="9">B43</f>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C44" s="73">
+      <c r="C44" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D44" s="73">
+      <c r="D44" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E44" s="73">
+      <c r="E44" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F44" s="73">
+      <c r="F44" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G44" s="73">
+      <c r="G44" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="70">
+      <c r="A45" s="69">
         <v>38</v>
       </c>
-      <c r="B45" s="77">
+      <c r="B45" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C45" s="73">
+      <c r="C45" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D45" s="73">
+      <c r="D45" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E45" s="73">
+      <c r="E45" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F45" s="73">
+      <c r="F45" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G45" s="73">
+      <c r="G45" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="70">
+      <c r="A46" s="69">
         <v>39</v>
       </c>
-      <c r="B46" s="77">
+      <c r="B46" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C46" s="73">
+      <c r="C46" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D46" s="73">
+      <c r="D46" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E46" s="73">
+      <c r="E46" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F46" s="73">
+      <c r="F46" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G46" s="73">
+      <c r="G46" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="70">
+      <c r="A47" s="69">
         <v>40</v>
       </c>
-      <c r="B47" s="77">
+      <c r="B47" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C47" s="73">
+      <c r="C47" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D47" s="73">
+      <c r="D47" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E47" s="73">
+      <c r="E47" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F47" s="73">
+      <c r="F47" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G47" s="73">
+      <c r="G47" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="70">
+      <c r="A48" s="69">
         <v>41</v>
       </c>
-      <c r="B48" s="77">
+      <c r="B48" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C48" s="73">
+      <c r="C48" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D48" s="73">
+      <c r="D48" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E48" s="73">
+      <c r="E48" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F48" s="73">
+      <c r="F48" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G48" s="73">
+      <c r="G48" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="70">
+      <c r="A49" s="69">
         <v>42</v>
       </c>
-      <c r="B49" s="77">
+      <c r="B49" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C49" s="73">
+      <c r="C49" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D49" s="73">
+      <c r="D49" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E49" s="73">
+      <c r="E49" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F49" s="73">
+      <c r="F49" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G49" s="73">
+      <c r="G49" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="70">
+      <c r="A50" s="69">
         <v>43</v>
       </c>
-      <c r="B50" s="77">
+      <c r="B50" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C50" s="73">
+      <c r="C50" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D50" s="73">
+      <c r="D50" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E50" s="73">
+      <c r="E50" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F50" s="73">
+      <c r="F50" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G50" s="73">
+      <c r="G50" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="70">
+      <c r="A51" s="69">
         <v>44</v>
       </c>
-      <c r="B51" s="77">
+      <c r="B51" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C51" s="73">
+      <c r="C51" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D51" s="73">
+      <c r="D51" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E51" s="73">
+      <c r="E51" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F51" s="73">
+      <c r="F51" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G51" s="73">
+      <c r="G51" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="70">
+      <c r="A52" s="69">
         <v>45</v>
       </c>
-      <c r="B52" s="77">
+      <c r="B52" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C52" s="73">
+      <c r="C52" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D52" s="73">
+      <c r="D52" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E52" s="73">
+      <c r="E52" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F52" s="73">
+      <c r="F52" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G52" s="73">
+      <c r="G52" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="70">
+      <c r="A53" s="69">
         <v>46</v>
       </c>
-      <c r="B53" s="77">
+      <c r="B53" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C53" s="73">
+      <c r="C53" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D53" s="73">
+      <c r="D53" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E53" s="73">
+      <c r="E53" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F53" s="73">
+      <c r="F53" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G53" s="73">
+      <c r="G53" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="70">
+      <c r="A54" s="69">
         <v>47</v>
       </c>
-      <c r="B54" s="77">
+      <c r="B54" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C54" s="73">
+      <c r="C54" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D54" s="73">
+      <c r="D54" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E54" s="73">
+      <c r="E54" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F54" s="73">
+      <c r="F54" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G54" s="73">
+      <c r="G54" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="70">
+      <c r="A55" s="69">
         <v>48</v>
       </c>
-      <c r="B55" s="77">
+      <c r="B55" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C55" s="73">
+      <c r="C55" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D55" s="73">
+      <c r="D55" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E55" s="73">
+      <c r="E55" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F55" s="73">
+      <c r="F55" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G55" s="73">
+      <c r="G55" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="70">
+      <c r="A56" s="69">
         <v>49</v>
       </c>
-      <c r="B56" s="77">
+      <c r="B56" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C56" s="73">
+      <c r="C56" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D56" s="73">
+      <c r="D56" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E56" s="73">
+      <c r="E56" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F56" s="73">
+      <c r="F56" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G56" s="73">
+      <c r="G56" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="70">
+      <c r="A57" s="69">
         <v>50</v>
       </c>
-      <c r="B57" s="77">
+      <c r="B57" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C57" s="73">
+      <c r="C57" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D57" s="73">
+      <c r="D57" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E57" s="73">
+      <c r="E57" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F57" s="73">
+      <c r="F57" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G57" s="73">
+      <c r="G57" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="70">
+      <c r="A58" s="69">
         <v>51</v>
       </c>
-      <c r="B58" s="77">
+      <c r="B58" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C58" s="73">
+      <c r="C58" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D58" s="73">
+      <c r="D58" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E58" s="73">
+      <c r="E58" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F58" s="73">
+      <c r="F58" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G58" s="73">
+      <c r="G58" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="70">
+      <c r="A59" s="69">
         <v>52</v>
       </c>
-      <c r="B59" s="77">
+      <c r="B59" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C59" s="73">
+      <c r="C59" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D59" s="73">
+      <c r="D59" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E59" s="73">
+      <c r="E59" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F59" s="73">
+      <c r="F59" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G59" s="73">
+      <c r="G59" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="70">
+      <c r="A60" s="69">
         <v>53</v>
       </c>
-      <c r="B60" s="77">
+      <c r="B60" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C60" s="73">
+      <c r="C60" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D60" s="73">
+      <c r="D60" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E60" s="73">
+      <c r="E60" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F60" s="73">
+      <c r="F60" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G60" s="73">
+      <c r="G60" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="70">
+      <c r="A61" s="69">
         <v>54</v>
       </c>
-      <c r="B61" s="77">
+      <c r="B61" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C61" s="73">
+      <c r="C61" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D61" s="73">
+      <c r="D61" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E61" s="73">
+      <c r="E61" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F61" s="73">
+      <c r="F61" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G61" s="73">
+      <c r="G61" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="70">
+      <c r="A62" s="69">
         <v>55</v>
       </c>
-      <c r="B62" s="77">
+      <c r="B62" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C62" s="73">
+      <c r="C62" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D62" s="73">
+      <c r="D62" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E62" s="73">
+      <c r="E62" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F62" s="73">
+      <c r="F62" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G62" s="73">
+      <c r="G62" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="70">
+      <c r="A63" s="69">
         <v>56</v>
       </c>
-      <c r="B63" s="77">
+      <c r="B63" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C63" s="73">
+      <c r="C63" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D63" s="73">
+      <c r="D63" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E63" s="73">
+      <c r="E63" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F63" s="73">
+      <c r="F63" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G63" s="73">
+      <c r="G63" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="70">
+      <c r="A64" s="69">
         <v>57</v>
       </c>
-      <c r="B64" s="77">
+      <c r="B64" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C64" s="73">
+      <c r="C64" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D64" s="73">
+      <c r="D64" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E64" s="73">
+      <c r="E64" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F64" s="73">
+      <c r="F64" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G64" s="73">
+      <c r="G64" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="70">
+      <c r="A65" s="69">
         <v>58</v>
       </c>
-      <c r="B65" s="77">
+      <c r="B65" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C65" s="73">
+      <c r="C65" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D65" s="73">
+      <c r="D65" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E65" s="73">
+      <c r="E65" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F65" s="73">
+      <c r="F65" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G65" s="73">
+      <c r="G65" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="70">
+      <c r="A66" s="69">
         <v>59</v>
       </c>
-      <c r="B66" s="77">
+      <c r="B66" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C66" s="73">
+      <c r="C66" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D66" s="73">
+      <c r="D66" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E66" s="73">
+      <c r="E66" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F66" s="73">
+      <c r="F66" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G66" s="73">
+      <c r="G66" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="70">
+      <c r="A67" s="69">
         <v>60</v>
       </c>
-      <c r="B67" s="77">
+      <c r="B67" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C67" s="73">
+      <c r="C67" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D67" s="73">
+      <c r="D67" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E67" s="73">
+      <c r="E67" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F67" s="73">
+      <c r="F67" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G67" s="73">
+      <c r="G67" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="70">
+      <c r="A68" s="69">
         <v>61</v>
       </c>
-      <c r="B68" s="77">
+      <c r="B68" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C68" s="73">
+      <c r="C68" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D68" s="73">
+      <c r="D68" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E68" s="73">
+      <c r="E68" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F68" s="73">
+      <c r="F68" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G68" s="73">
+      <c r="G68" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="70">
+      <c r="A69" s="69">
         <v>62</v>
       </c>
-      <c r="B69" s="77">
+      <c r="B69" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C69" s="73">
+      <c r="C69" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D69" s="73">
+      <c r="D69" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E69" s="73">
+      <c r="E69" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F69" s="73">
+      <c r="F69" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G69" s="73">
+      <c r="G69" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="70">
+      <c r="A70" s="69">
         <v>63</v>
       </c>
-      <c r="B70" s="77">
+      <c r="B70" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C70" s="73">
+      <c r="C70" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D70" s="73">
+      <c r="D70" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E70" s="73">
+      <c r="E70" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F70" s="73">
+      <c r="F70" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G70" s="73">
+      <c r="G70" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="70">
+      <c r="A71" s="69">
         <v>64</v>
       </c>
-      <c r="B71" s="77">
+      <c r="B71" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C71" s="73">
+      <c r="C71" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D71" s="73">
+      <c r="D71" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E71" s="73">
+      <c r="E71" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F71" s="73">
+      <c r="F71" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G71" s="73">
+      <c r="G71" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="70">
+      <c r="A72" s="69">
         <v>65</v>
       </c>
-      <c r="B72" s="77">
+      <c r="B72" s="76">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C72" s="73">
+      <c r="C72" s="72">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D72" s="73">
+      <c r="D72" s="72">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E72" s="73">
+      <c r="E72" s="72">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F72" s="73">
+      <c r="F72" s="72">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G72" s="73">
+      <c r="G72" s="72">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
@@ -6323,7 +6366,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
@@ -6337,7 +6380,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6351,77 +6394,77 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="89" t="s">
         <v>141</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="77" t="s">
         <v>123</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="96"/>
+      <c r="G4" s="95"/>
     </row>
     <row r="5" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="89" t="s">
         <v>141</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="77" t="s">
         <v>147</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="94"/>
+      <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="100" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -6432,24 +6475,24 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6462,10 +6505,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6499,7 +6542,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6520,91 +6563,91 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="80" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="81">
-        <v>0</v>
-      </c>
-      <c r="B6" s="82">
+      <c r="A6" s="80">
+        <v>0</v>
+      </c>
+      <c r="B6" s="81">
         <v>0.08</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="81">
         <v>0.08</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="81">
+      <c r="A7" s="80">
         <v>1</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="81">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="81">
         <v>0.03</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="81">
+      <c r="A8" s="80">
         <v>2</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="81">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="81">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D8" s="24"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="81">
+      <c r="A9" s="80">
         <v>3</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B9" s="82">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="81">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="81">
+      <c r="A10" s="80">
         <v>4</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="81">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C10" s="83">
+      <c r="C10" s="82">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="D10" s="24"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
     </row>
@@ -6612,8 +6655,8 @@
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
     </row>
@@ -6621,8 +6664,8 @@
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
     </row>
@@ -6630,8 +6673,8 @@
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
     </row>
@@ -6639,8 +6682,8 @@
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
     </row>
@@ -6739,7 +6782,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6760,50 +6803,50 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="80" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="81">
+      <c r="A6" s="80">
         <v>20</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="54">
         <v>0.01</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="54">
         <v>0.02</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="81">
+      <c r="A7" s="80">
         <v>25</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="56">
         <v>0.01</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="56">
         <v>0.02</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="81">
+      <c r="A8" s="80">
         <v>30</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="56">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="56">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="D8" s="24"/>
@@ -6811,13 +6854,13 @@
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="81">
+      <c r="A9" s="80">
         <v>35</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="56">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="56">
         <v>1.2E-2</v>
       </c>
       <c r="D9" s="24"/>
@@ -6825,13 +6868,13 @@
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="81">
+      <c r="A10" s="80">
         <v>40</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="56">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="56">
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="D10" s="24"/>
@@ -6839,13 +6882,13 @@
       <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
+      <c r="A11" s="80">
         <v>45</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="56">
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="56">
         <v>6.6E-3</v>
       </c>
       <c r="D11" s="24"/>
@@ -6853,13 +6896,13 @@
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="81">
+      <c r="A12" s="80">
         <v>50</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="56">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="56">
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="D12" s="24"/>
@@ -6867,13 +6910,13 @@
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="81">
+      <c r="A13" s="80">
         <v>55</v>
       </c>
-      <c r="B13" s="57">
-        <v>0</v>
-      </c>
-      <c r="C13" s="57">
+      <c r="B13" s="56">
+        <v>0</v>
+      </c>
+      <c r="C13" s="56">
         <v>0</v>
       </c>
       <c r="D13" s="24"/>
@@ -6881,13 +6924,13 @@
       <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="81">
+      <c r="A14" s="80">
         <v>60</v>
       </c>
-      <c r="B14" s="57">
-        <v>0</v>
-      </c>
-      <c r="C14" s="57">
+      <c r="B14" s="56">
+        <v>0</v>
+      </c>
+      <c r="C14" s="56">
         <v>0</v>
       </c>
       <c r="D14" s="24"/>
@@ -6994,7 +7037,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7010,27 +7053,27 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="68" t="s">
         <v>129</v>
       </c>
       <c r="B4" s="101" t="s">
@@ -7043,20 +7086,20 @@
       <c r="G4" s="101"/>
     </row>
     <row r="5" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
     </row>
     <row r="7" spans="1:7" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="83" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -7065,10 +7108,10 @@
       <c r="C7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="96"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="8" t="s">
         <v>64</v>
       </c>
@@ -7078,10 +7121,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
@@ -7123,12 +7166,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7139,7 +7182,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="87" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -7149,129 +7192,129 @@
       <c r="D3" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="84" t="s">
         <v>133</v>
       </c>
       <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="86">
+      <c r="A6" s="85">
         <v>20</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="54">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="54">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="87">
+      <c r="A7" s="86">
         <v>25</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="56">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="56">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="87">
+      <c r="A8" s="86">
         <v>30</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="56">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="56">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="87">
+      <c r="A9" s="86">
         <v>35</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="56">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="56">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="87">
+      <c r="A10" s="86">
         <v>40</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="56">
         <v>1.5E-3</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="56">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="87">
+      <c r="A11" s="86">
         <v>45</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="56">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="56">
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="87">
+      <c r="A12" s="86">
         <v>50</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="56">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="56">
         <v>5.6000000000000008E-3</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="87">
+      <c r="A13" s="86">
         <v>55</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="56">
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="56">
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="87">
+      <c r="A14" s="86">
         <v>60</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="56">
         <v>4.4000000000000004E-2</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="56">
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="D14" s="28"/>
@@ -7308,7 +7351,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7319,7 +7362,7 @@
       <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="88" t="s">
         <v>144</v>
       </c>
       <c r="C3" s="14"/>
@@ -7329,10 +7372,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="7" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
@@ -7365,7 +7408,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7378,7 +7421,7 @@
     </row>
     <row r="5" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="90" t="s">
         <v>149</v>
       </c>
     </row>
@@ -7407,205 +7450,205 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="91" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="91">
         <v>20</v>
       </c>
-      <c r="C7" s="92">
-        <v>0</v>
-      </c>
-      <c r="D7" s="92">
+      <c r="C7" s="91">
+        <v>0</v>
+      </c>
+      <c r="D7" s="91">
         <v>1</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="91">
         <v>0.5</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="91">
         <v>50</v>
       </c>
-      <c r="H7" s="92">
+      <c r="H7" s="91">
         <v>999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="92">
+      <c r="B8" s="91">
         <v>20</v>
       </c>
-      <c r="C8" s="92">
-        <v>0</v>
-      </c>
-      <c r="D8" s="92">
+      <c r="C8" s="91">
+        <v>0</v>
+      </c>
+      <c r="D8" s="91">
         <v>1</v>
       </c>
-      <c r="E8" s="92">
+      <c r="E8" s="91">
         <v>0.03</v>
       </c>
-      <c r="F8" s="92">
+      <c r="F8" s="91">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G8" s="92">
+      <c r="G8" s="91">
         <v>50</v>
       </c>
-      <c r="H8" s="92">
+      <c r="H8" s="91">
         <v>999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="92">
+      <c r="B9" s="91">
         <v>10</v>
       </c>
-      <c r="C9" s="92">
+      <c r="C9" s="91">
         <v>50</v>
       </c>
-      <c r="D9" s="92">
+      <c r="D9" s="91">
         <v>1</v>
       </c>
-      <c r="E9" s="92">
+      <c r="E9" s="91">
         <v>0.03</v>
       </c>
-      <c r="F9" s="92">
+      <c r="F9" s="91">
         <v>0.6</v>
       </c>
-      <c r="G9" s="92">
+      <c r="G9" s="91">
         <v>50</v>
       </c>
-      <c r="H9" s="92">
+      <c r="H9" s="91">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="92">
+      <c r="B10" s="91">
         <v>20</v>
       </c>
-      <c r="C10" s="92">
-        <v>0</v>
-      </c>
-      <c r="D10" s="92">
+      <c r="C10" s="91">
+        <v>0</v>
+      </c>
+      <c r="D10" s="91">
         <v>1</v>
       </c>
-      <c r="E10" s="92">
+      <c r="E10" s="91">
         <v>0.03</v>
       </c>
-      <c r="F10" s="92">
+      <c r="F10" s="91">
         <v>0.6</v>
       </c>
-      <c r="G10" s="92">
+      <c r="G10" s="91">
         <v>50</v>
       </c>
-      <c r="H10" s="92">
+      <c r="H10" s="91">
         <v>999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="92">
+      <c r="B11" s="91">
         <v>20</v>
       </c>
-      <c r="C11" s="92">
+      <c r="C11" s="91">
         <v>50</v>
       </c>
-      <c r="D11" s="92">
+      <c r="D11" s="91">
         <v>1</v>
       </c>
-      <c r="E11" s="92">
+      <c r="E11" s="91">
         <v>0.03</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="91">
         <v>0.6</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G11" s="91">
         <v>50</v>
       </c>
-      <c r="H11" s="92">
+      <c r="H11" s="91">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="92">
+      <c r="B12" s="91">
         <v>20</v>
       </c>
-      <c r="C12" s="92">
+      <c r="C12" s="91">
         <v>50</v>
       </c>
-      <c r="D12" s="92">
+      <c r="D12" s="91">
         <v>2</v>
       </c>
-      <c r="E12" s="92">
+      <c r="E12" s="91">
         <v>0.03</v>
       </c>
-      <c r="F12" s="92">
-        <v>0.7</v>
-      </c>
-      <c r="G12" s="92">
+      <c r="F12" s="91">
+        <v>0.7</v>
+      </c>
+      <c r="G12" s="91">
         <v>50</v>
       </c>
-      <c r="H12" s="92">
+      <c r="H12" s="91">
         <v>20</v>
       </c>
     </row>
@@ -7623,7 +7666,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7657,7 +7700,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7668,7 +7711,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7699,7 +7742,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="268.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -7711,7 +7754,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>139</v>
       </c>
       <c r="C8" s="18"/>
@@ -7748,15 +7791,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
+      <c r="A2" s="32"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="32"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
@@ -7791,10 +7834,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="48" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7818,7 +7861,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7829,140 +7872,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="54">
-        <v>0</v>
-      </c>
-      <c r="B7" s="55">
+      <c r="A7" s="53">
+        <v>0</v>
+      </c>
+      <c r="B7" s="54">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="A8" s="55">
         <v>1</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="56">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
+      <c r="A9" s="55">
         <v>2</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="56">
         <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+      <c r="A10" s="55">
         <v>3</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="56">
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
+      <c r="A11" s="55">
         <v>4</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="56">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="A12" s="55">
         <v>5</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="56">
         <v>0.03</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="56">
+      <c r="A13" s="55">
         <v>6</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="56">
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+      <c r="A14" s="55">
         <v>7</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="56">
         <v>0.02</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
+      <c r="A15" s="55">
         <v>8</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="56">
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
+      <c r="A16" s="55">
         <v>9</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="56">
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="56">
+      <c r="A17" s="55">
         <v>10</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="56">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
+      <c r="A18" s="55">
         <v>11</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="56">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
     </row>
@@ -8022,10 +8065,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="B4:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8033,65 +8076,274 @@
     <col min="1" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="29"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="G8" s="31"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="80" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="80" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="102">
+        <v>40360</v>
+      </c>
+      <c r="C7" s="80">
+        <v>30</v>
+      </c>
+      <c r="D7" s="103">
+        <v>0</v>
+      </c>
+      <c r="E7" s="103">
+        <v>0</v>
+      </c>
+      <c r="F7" s="103">
+        <v>25</v>
+      </c>
+      <c r="G7" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="102">
+        <v>40725</v>
+      </c>
+      <c r="C8" s="80">
+        <v>30</v>
+      </c>
+      <c r="D8" s="103">
+        <v>0</v>
+      </c>
+      <c r="E8" s="103">
+        <v>0</v>
+      </c>
+      <c r="F8" s="103">
+        <v>26</v>
+      </c>
+      <c r="G8" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="80" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="102">
+        <v>40725</v>
+      </c>
+      <c r="C9" s="80">
+        <v>15</v>
+      </c>
+      <c r="D9" s="103">
+        <v>0</v>
+      </c>
+      <c r="E9" s="103">
+        <v>0</v>
+      </c>
+      <c r="F9" s="103">
+        <v>11</v>
+      </c>
+      <c r="G9" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="102">
+        <v>40725</v>
+      </c>
+      <c r="C10" s="80">
+        <v>15</v>
+      </c>
+      <c r="D10" s="103">
+        <v>0</v>
+      </c>
+      <c r="E10" s="103">
+        <v>0</v>
+      </c>
+      <c r="F10" s="103">
+        <v>11</v>
+      </c>
+      <c r="G10" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="102">
+        <v>41091</v>
+      </c>
+      <c r="C11" s="80">
+        <v>30</v>
+      </c>
+      <c r="D11" s="103">
+        <v>0</v>
+      </c>
+      <c r="E11" s="103">
+        <v>0</v>
+      </c>
+      <c r="F11" s="103">
+        <v>27</v>
+      </c>
+      <c r="G11" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="102">
+        <v>41456</v>
+      </c>
+      <c r="C12" s="80">
+        <v>30</v>
+      </c>
+      <c r="D12" s="103">
+        <v>0</v>
+      </c>
+      <c r="E12" s="103">
+        <v>0</v>
+      </c>
+      <c r="F12" s="103">
+        <v>28</v>
+      </c>
+      <c r="G12" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="102">
+        <v>41821</v>
+      </c>
+      <c r="C13" s="80">
+        <v>30</v>
+      </c>
+      <c r="D13" s="103">
+        <v>0</v>
+      </c>
+      <c r="E13" s="103">
+        <v>0</v>
+      </c>
+      <c r="F13" s="103">
+        <v>29</v>
+      </c>
+      <c r="G13" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="102">
+        <v>42186</v>
+      </c>
+      <c r="C14" s="80">
+        <v>20</v>
+      </c>
+      <c r="D14" s="103">
+        <v>0</v>
+      </c>
+      <c r="E14" s="103">
+        <v>0</v>
+      </c>
+      <c r="F14" s="103">
+        <v>20</v>
+      </c>
+      <c r="G14" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="80" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="102">
+        <v>42186</v>
+      </c>
+      <c r="C15" s="80">
+        <v>20</v>
+      </c>
+      <c r="D15" s="103">
+        <v>0</v>
+      </c>
+      <c r="E15" s="103">
+        <v>0</v>
+      </c>
+      <c r="F15" s="103">
+        <v>20</v>
+      </c>
+      <c r="G15" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="G16" s="30"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8107,7 +8359,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData/>
@@ -8135,11 +8387,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="9"/>
@@ -8150,19 +8402,19 @@
       <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="36" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8174,53 +8426,53 @@
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="93" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="43" t="s">
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="97" t="s">
+      <c r="F6" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="97"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
@@ -8229,110 +8481,110 @@
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="39" t="s">
+      <c r="E9" s="93"/>
+      <c r="F9" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="38" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98" t="s">
+      <c r="C10" s="97"/>
+      <c r="D10" s="97" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
     </row>
     <row r="12" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="94" t="s">
+      <c r="C12" s="95"/>
+      <c r="D12" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94" t="s">
+      <c r="E12" s="93"/>
+      <c r="F12" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="94"/>
+      <c r="G12" s="93"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">

--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -2054,6 +2054,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2084,8 +2086,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3692,22 +3692,22 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99" t="s">
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="58" t="s">
         <v>94</v>
       </c>
@@ -6429,10 +6429,10 @@
       <c r="E4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="95"/>
+      <c r="G4" s="97"/>
     </row>
     <row r="5" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
@@ -6450,21 +6450,21 @@
       <c r="E5" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="93"/>
+      <c r="G5" s="95"/>
     </row>
     <row r="6" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="102" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
     </row>
     <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -7076,27 +7076,27 @@
       <c r="A4" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
     </row>
     <row r="5" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
     </row>
     <row r="7" spans="1:7" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="83" t="s">
@@ -7108,10 +7108,10 @@
       <c r="C7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="95"/>
+      <c r="E7" s="97"/>
       <c r="F7" s="8" t="s">
         <v>64</v>
       </c>
@@ -7443,8 +7443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7699,8 +7699,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7780,7 +7780,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8067,7 +8067,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -8130,22 +8130,22 @@
       <c r="A7" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="102">
+      <c r="B7" s="92">
         <v>40360</v>
       </c>
       <c r="C7" s="80">
         <v>30</v>
       </c>
-      <c r="D7" s="103">
-        <v>0</v>
-      </c>
-      <c r="E7" s="103">
-        <v>0</v>
-      </c>
-      <c r="F7" s="103">
+      <c r="D7" s="93">
+        <v>0</v>
+      </c>
+      <c r="E7" s="93">
+        <v>0</v>
+      </c>
+      <c r="F7" s="93">
         <v>25</v>
       </c>
-      <c r="G7" s="103">
+      <c r="G7" s="93">
         <v>0</v>
       </c>
     </row>
@@ -8153,22 +8153,22 @@
       <c r="A8" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="92">
         <v>40725</v>
       </c>
       <c r="C8" s="80">
         <v>30</v>
       </c>
-      <c r="D8" s="103">
-        <v>0</v>
-      </c>
-      <c r="E8" s="103">
-        <v>0</v>
-      </c>
-      <c r="F8" s="103">
+      <c r="D8" s="93">
+        <v>0</v>
+      </c>
+      <c r="E8" s="93">
+        <v>0</v>
+      </c>
+      <c r="F8" s="93">
         <v>26</v>
       </c>
-      <c r="G8" s="103">
+      <c r="G8" s="93">
         <v>0</v>
       </c>
     </row>
@@ -8176,22 +8176,22 @@
       <c r="A9" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="102">
+      <c r="B9" s="92">
         <v>40725</v>
       </c>
       <c r="C9" s="80">
         <v>15</v>
       </c>
-      <c r="D9" s="103">
-        <v>0</v>
-      </c>
-      <c r="E9" s="103">
-        <v>0</v>
-      </c>
-      <c r="F9" s="103">
+      <c r="D9" s="93">
+        <v>0</v>
+      </c>
+      <c r="E9" s="93">
+        <v>0</v>
+      </c>
+      <c r="F9" s="93">
         <v>11</v>
       </c>
-      <c r="G9" s="103">
+      <c r="G9" s="93">
         <v>0</v>
       </c>
     </row>
@@ -8199,22 +8199,22 @@
       <c r="A10" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="102">
+      <c r="B10" s="92">
         <v>40725</v>
       </c>
       <c r="C10" s="80">
         <v>15</v>
       </c>
-      <c r="D10" s="103">
-        <v>0</v>
-      </c>
-      <c r="E10" s="103">
-        <v>0</v>
-      </c>
-      <c r="F10" s="103">
+      <c r="D10" s="93">
+        <v>0</v>
+      </c>
+      <c r="E10" s="93">
+        <v>0</v>
+      </c>
+      <c r="F10" s="93">
         <v>11</v>
       </c>
-      <c r="G10" s="103">
+      <c r="G10" s="93">
         <v>0</v>
       </c>
     </row>
@@ -8222,22 +8222,22 @@
       <c r="A11" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="102">
+      <c r="B11" s="92">
         <v>41091</v>
       </c>
       <c r="C11" s="80">
         <v>30</v>
       </c>
-      <c r="D11" s="103">
-        <v>0</v>
-      </c>
-      <c r="E11" s="103">
-        <v>0</v>
-      </c>
-      <c r="F11" s="103">
+      <c r="D11" s="93">
+        <v>0</v>
+      </c>
+      <c r="E11" s="93">
+        <v>0</v>
+      </c>
+      <c r="F11" s="93">
         <v>27</v>
       </c>
-      <c r="G11" s="103">
+      <c r="G11" s="93">
         <v>0</v>
       </c>
     </row>
@@ -8245,22 +8245,22 @@
       <c r="A12" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="102">
+      <c r="B12" s="92">
         <v>41456</v>
       </c>
       <c r="C12" s="80">
         <v>30</v>
       </c>
-      <c r="D12" s="103">
-        <v>0</v>
-      </c>
-      <c r="E12" s="103">
-        <v>0</v>
-      </c>
-      <c r="F12" s="103">
+      <c r="D12" s="93">
+        <v>0</v>
+      </c>
+      <c r="E12" s="93">
+        <v>0</v>
+      </c>
+      <c r="F12" s="93">
         <v>28</v>
       </c>
-      <c r="G12" s="103">
+      <c r="G12" s="93">
         <v>0</v>
       </c>
     </row>
@@ -8268,22 +8268,22 @@
       <c r="A13" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="102">
+      <c r="B13" s="92">
         <v>41821</v>
       </c>
       <c r="C13" s="80">
         <v>30</v>
       </c>
-      <c r="D13" s="103">
-        <v>0</v>
-      </c>
-      <c r="E13" s="103">
-        <v>0</v>
-      </c>
-      <c r="F13" s="103">
+      <c r="D13" s="93">
+        <v>0</v>
+      </c>
+      <c r="E13" s="93">
+        <v>0</v>
+      </c>
+      <c r="F13" s="93">
         <v>29</v>
       </c>
-      <c r="G13" s="103">
+      <c r="G13" s="93">
         <v>0</v>
       </c>
     </row>
@@ -8291,22 +8291,22 @@
       <c r="A14" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="102">
+      <c r="B14" s="92">
         <v>42186</v>
       </c>
       <c r="C14" s="80">
         <v>20</v>
       </c>
-      <c r="D14" s="103">
-        <v>0</v>
-      </c>
-      <c r="E14" s="103">
-        <v>0</v>
-      </c>
-      <c r="F14" s="103">
+      <c r="D14" s="93">
+        <v>0</v>
+      </c>
+      <c r="E14" s="93">
+        <v>0</v>
+      </c>
+      <c r="F14" s="93">
         <v>20</v>
       </c>
-      <c r="G14" s="103">
+      <c r="G14" s="93">
         <v>0</v>
       </c>
     </row>
@@ -8314,22 +8314,22 @@
       <c r="A15" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="102">
+      <c r="B15" s="92">
         <v>42186</v>
       </c>
       <c r="C15" s="80">
         <v>20</v>
       </c>
-      <c r="D15" s="103">
-        <v>0</v>
-      </c>
-      <c r="E15" s="103">
-        <v>0</v>
-      </c>
-      <c r="F15" s="103">
+      <c r="D15" s="93">
+        <v>0</v>
+      </c>
+      <c r="E15" s="93">
+        <v>0</v>
+      </c>
+      <c r="F15" s="93">
         <v>20</v>
       </c>
-      <c r="G15" s="103">
+      <c r="G15" s="93">
         <v>0</v>
       </c>
     </row>
@@ -8373,7 +8373,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8429,15 +8429,15 @@
       <c r="A5" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="92" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
       <c r="G5" s="42" t="s">
         <v>79</v>
       </c>
@@ -8460,10 +8460,10 @@
       <c r="E6" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="96"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
     </row>
@@ -8487,10 +8487,10 @@
       <c r="C9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="93"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="38" t="s">
         <v>64</v>
       </c>
@@ -8502,16 +8502,16 @@
       <c r="A10" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97" t="s">
+      <c r="C10" s="99"/>
+      <c r="D10" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
@@ -8522,18 +8522,18 @@
       <c r="A12" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="93" t="s">
+      <c r="C12" s="97"/>
+      <c r="D12" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93" t="s">
+      <c r="E12" s="95"/>
+      <c r="F12" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="93"/>
+      <c r="G12" s="95"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>

--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_LAFPP\Data_inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Model_LAFPP\Data_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="Death_sum" sheetId="17" r:id="rId17"/>
     <sheet name="Death_dec" sheetId="5" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3251,23 +3251,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3303,23 +3286,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7339,8 +7305,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7396,7 +7362,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -7443,7 +7409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -7665,7 +7631,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
@@ -7780,7 +7746,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8372,7 +8338,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Model_LAFPP\Data_inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_LAFPP\Data_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="6" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -30,8 +30,9 @@
     <sheet name="Disb_dec" sheetId="10" r:id="rId16"/>
     <sheet name="Death_sum" sheetId="17" r:id="rId17"/>
     <sheet name="Death_dec" sheetId="5" r:id="rId18"/>
+    <sheet name="DROP cashflow" sheetId="25" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="204">
   <si>
     <t>Notes</t>
   </si>
@@ -1633,6 +1634,57 @@
   <si>
     <t>G15</t>
   </si>
+  <si>
+    <t>fas</t>
+  </si>
+  <si>
+    <t>salary(fas)</t>
+  </si>
+  <si>
+    <t>Retire at age55</t>
+  </si>
+  <si>
+    <t>Bx</t>
+  </si>
+  <si>
+    <t>DROP pay</t>
+  </si>
+  <si>
+    <t>DROP account</t>
+  </si>
+  <si>
+    <t>DROP cash flow</t>
+  </si>
+  <si>
+    <t>la cash flow</t>
+  </si>
+  <si>
+    <t>qxm</t>
+  </si>
+  <si>
+    <t>survival</t>
+  </si>
+  <si>
+    <t>Disc Rate</t>
+  </si>
+  <si>
+    <t>Disc factor</t>
+  </si>
+  <si>
+    <t>PV at 55</t>
+  </si>
+  <si>
+    <t>DROP cf disc</t>
+  </si>
+  <si>
+    <t>la cf disc</t>
+  </si>
+  <si>
+    <t>Retire at age65</t>
+  </si>
+  <si>
+    <t>PV at 65</t>
+  </si>
 </sst>
 </file>
 
@@ -1643,7 +1695,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1769,8 +1821,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1780,6 +1846,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1827,7 +1905,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2086,6 +2164,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3251,6 +3339,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3286,6 +3391,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3628,7 +3750,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4455,8 +4577,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6988,7 +7110,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7363,7 +7485,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D41" sqref="D41:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7402,6 +7524,4689 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:W109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="U108" sqref="U108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="10" max="12" width="10.5703125" style="104" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="104" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12" style="104" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="104" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="104" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="104" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J5" s="107" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107" t="s">
+        <v>202</v>
+      </c>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I6" t="s">
+        <v>190</v>
+      </c>
+      <c r="J6" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" s="105" t="s">
+        <v>192</v>
+      </c>
+      <c r="L6" s="105" t="s">
+        <v>193</v>
+      </c>
+      <c r="M6" s="105" t="s">
+        <v>194</v>
+      </c>
+      <c r="N6" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="O6" s="105" t="s">
+        <v>200</v>
+      </c>
+      <c r="P6" s="105" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q6" s="108" t="s">
+        <v>191</v>
+      </c>
+      <c r="R6" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="S6" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="T6" s="108" t="s">
+        <v>194</v>
+      </c>
+      <c r="U6" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="V6" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="W6" s="108" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" s="106">
+        <v>3.3416560000000002E-4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="54">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>3.425899E-4</v>
+      </c>
+      <c r="D8">
+        <f>D7*(1-C7)</f>
+        <v>0.99966583440000001</v>
+      </c>
+      <c r="E8">
+        <f>E7*(1+F7 +0.04)</f>
+        <v>1.115</v>
+      </c>
+      <c r="F8" s="56">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>3.491422E-4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D72" si="0">D8*(1-C8)</f>
+        <v>0.9993233589817595</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E57" si="1">E8*(1+F8 +0.04)</f>
+        <v>1.232075</v>
+      </c>
+      <c r="F9" s="56">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>3.5195030000000001E-4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.99897445302569321</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1.3429617500000002</v>
+      </c>
+      <c r="F10" s="56">
+        <v>4.7500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>3.5195030000000001E-4</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.9986228636672585</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.4604709031250003</v>
+      </c>
+      <c r="F11" s="56">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>3.5382239999999998E-4</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.99827139805080389</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1.573657398117188</v>
+      </c>
+      <c r="F12" s="56">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>3.5756649999999998E-4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.99791818726889414</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.6838134159853912</v>
+      </c>
+      <c r="F13" s="56">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>3.6786289999999998E-4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.99756136515538607</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1.7890517544844782</v>
+      </c>
+      <c r="F14" s="56">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>3.856477E-4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.99719439933867204</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1.8963948597535469</v>
+      </c>
+      <c r="F15" s="56">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>4.156009E-4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.99680983361211417</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>2.0054375641893762</v>
+      </c>
+      <c r="F16" s="56">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>4.6708299999999997E-4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.99639555854813611</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>2.1207502241302656</v>
+      </c>
+      <c r="F17" s="56">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="71">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>E17*H17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>5.2605339999999999E-4</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.99593015912146277</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>2.2320896108971047</v>
+      </c>
+      <c r="F18" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="71">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:I57" si="2">E18*H18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>5.9064000000000002E-4</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.99540624667509436</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>2.3381138674147173</v>
+      </c>
+      <c r="F19" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="71">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>6.5709869999999997E-4</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.99481831992955816</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>2.4491742761169166</v>
+      </c>
+      <c r="F20" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" s="71">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>7.2355740000000003E-4</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.99416462610479628</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>2.5655100542324702</v>
+      </c>
+      <c r="F21" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21" s="71">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>7.8720799999999996E-4</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.99344529093275991</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>2.6873717818085128</v>
+      </c>
+      <c r="F22" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22" s="71">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>8.4617839999999998E-4</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.99266324285217533</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>2.8150219414444173</v>
+      </c>
+      <c r="F23" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23" s="71">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>9.0234060000000005E-4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.99182327265759984</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>2.9487354836630275</v>
+      </c>
+      <c r="F24" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24" s="71">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>9.5569480000000004E-4</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.99092831025065597</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>3.0888004191370215</v>
+      </c>
+      <c r="F25" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25" s="71">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>39</v>
+      </c>
+      <c r="C26">
+        <v>1.0099849999999999E-3</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.98998128521737661</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>3.2355184390460305</v>
+      </c>
+      <c r="F26" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26" s="71">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>1.0689554E-3</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.98898141896902625</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>3.3892055649007173</v>
+      </c>
+      <c r="F27" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27" s="71">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>41</v>
+      </c>
+      <c r="C28">
+        <v>1.1372862E-3</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.98792424194071971</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>3.5501928292335019</v>
+      </c>
+      <c r="F28" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G28">
+        <v>11</v>
+      </c>
+      <c r="H28" s="71">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>42</v>
+      </c>
+      <c r="C29">
+        <v>1.2159134E-3</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.98680068933371512</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>3.7188269886220935</v>
+      </c>
+      <c r="F29" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29" s="71">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>43</v>
+      </c>
+      <c r="C30">
+        <v>1.3076450999999999E-3</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.98560082515242498</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>3.8954712705816434</v>
+      </c>
+      <c r="F30" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G30">
+        <v>13</v>
+      </c>
+      <c r="H30" s="71">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>44</v>
+      </c>
+      <c r="C31">
+        <v>1.4115453E-3</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.98431200906285843</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>4.0805061559342715</v>
+      </c>
+      <c r="F31" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G31">
+        <v>14</v>
+      </c>
+      <c r="H31" s="71">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <v>1.5126374E-3</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.98292260807273224</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>4.2743301983411497</v>
+      </c>
+      <c r="F32" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G32">
+        <v>15</v>
+      </c>
+      <c r="H32" s="71">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>1.6230899E-3</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.98143580257445595</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>4.4773608827623548</v>
+      </c>
+      <c r="F33" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G33">
+        <v>16</v>
+      </c>
+      <c r="H33" s="71">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>1.7410307E-3</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.97984284403579891</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>4.6900355246935668</v>
+      </c>
+      <c r="F34" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G34">
+        <v>17</v>
+      </c>
+      <c r="H34" s="71">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>1.8673958E-3</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.9781369075631573</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>4.9128122121165116</v>
+      </c>
+      <c r="F35" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G35">
+        <v>18</v>
+      </c>
+      <c r="H35" s="71">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>2.0012493000000002E-3</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.97631033881014895</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>5.1461707921920468</v>
+      </c>
+      <c r="F36" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G36">
+        <v>19</v>
+      </c>
+      <c r="H36" s="71">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>2.2923571000000001E-3</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.97435649842802241</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>5.3906139048211692</v>
+      </c>
+      <c r="F37" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G37">
+        <v>20</v>
+      </c>
+      <c r="H37" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>2.6953069524105846</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>2.4964134E-3</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.97212292539091982</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>5.6466680653001751</v>
+      </c>
+      <c r="F38" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G38">
+        <v>21</v>
+      </c>
+      <c r="H38" s="72">
+        <f>MIN(H37 + 0.03, 0.9)</f>
+        <v>0.53</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>2.9927340746090931</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>2.7294868E-3</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.96969610469352674</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>5.9148847984019337</v>
+      </c>
+      <c r="F39" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G39">
+        <v>22</v>
+      </c>
+      <c r="H39" s="72">
+        <f t="shared" ref="H39:H57" si="3">MIN(H38 + 0.03, 0.9)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>3.3123354871050834</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>2.9915775000000002E-3</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.96704933197575438</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>6.195841826326026</v>
+      </c>
+      <c r="F40" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G40">
+        <v>23</v>
+      </c>
+      <c r="H40" s="72">
+        <f t="shared" si="3"/>
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>3.6555466775323557</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <v>3.3922016999999999E-3</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.96415632895282566</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>6.4901443130765131</v>
+      </c>
+      <c r="F41" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G41">
+        <v>24</v>
+      </c>
+      <c r="H41" s="72">
+        <f t="shared" si="3"/>
+        <v>0.62000000000000011</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>4.0238894741074391</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>55</v>
+      </c>
+      <c r="C42">
+        <v>3.9313595999999999E-3</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.9608857162146861</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="F42" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G42">
+        <v>25</v>
+      </c>
+      <c r="H42" s="72">
+        <f t="shared" si="3"/>
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>4.4189770091659719</v>
+      </c>
+      <c r="J42" s="104">
+        <f>E$42</f>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="K42" s="104">
+        <f>J42</f>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="L42" s="104">
+        <v>0</v>
+      </c>
+      <c r="M42" s="104">
+        <f>$E$42</f>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N42">
+        <f>D42/$D$42 *(1 +  $C$2)^(55-B42)</f>
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <f>L42*N42</f>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f>M42*N42</f>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="V42">
+        <f>S42*U42</f>
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <f>T42*U42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>56</v>
+      </c>
+      <c r="C43">
+        <v>4.2969074000000001E-3</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.95710812892974262</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>7.1213514109251621</v>
+      </c>
+      <c r="F43" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G43">
+        <v>26</v>
+      </c>
+      <c r="H43" s="72">
+        <f t="shared" si="3"/>
+        <v>0.68000000000000016</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>4.8425189594291114</v>
+      </c>
+      <c r="J43" s="104">
+        <f t="shared" ref="J43:J46" si="4">E$42</f>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="K43" s="104">
+        <f>K42*1.05 +J43</f>
+        <v>13.936773644292678</v>
+      </c>
+      <c r="L43" s="104">
+        <v>0</v>
+      </c>
+      <c r="M43" s="104">
+        <f t="shared" ref="M43:M106" si="5">$E$42</f>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N43">
+        <f>D43/$D$42 *(1 +  $C$2)^(55-B43)</f>
+        <v>0.92657547944186047</v>
+      </c>
+      <c r="O43">
+        <f t="shared" ref="O43:O106" si="6">L43*N43</f>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" ref="P43:P106" si="7">M43*N43</f>
+        <v>6.2992549860161819</v>
+      </c>
+      <c r="V43">
+        <f t="shared" ref="V43:V106" si="8">S43*U43</f>
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f t="shared" ref="W43:W106" si="9">T43*U43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>57</v>
+      </c>
+      <c r="C44">
+        <v>4.7224301999999998E-3</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0.95299552392794429</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>7.4596156029441083</v>
+      </c>
+      <c r="F44" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G44">
+        <v>27</v>
+      </c>
+      <c r="H44" s="72">
+        <f t="shared" si="3"/>
+        <v>0.71000000000000019</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>5.296327078090318</v>
+      </c>
+      <c r="J44" s="104">
+        <f t="shared" si="4"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="K44" s="104">
+        <f>K43*1.05 + J44</f>
+        <v>21.432038494454961</v>
+      </c>
+      <c r="L44" s="104">
+        <v>0</v>
+      </c>
+      <c r="M44" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N44">
+        <f t="shared" ref="N44:N106" si="10">D44/$D$42 *(1 +  $C$2)^(55-B44)</f>
+        <v>0.85822704223961699</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="7"/>
+        <v>5.8345931820021235</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>58</v>
+      </c>
+      <c r="C45">
+        <v>5.2077762E-3</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0.94849506908528214</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>7.813947344083954</v>
+      </c>
+      <c r="F45" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G45">
+        <v>28</v>
+      </c>
+      <c r="H45" s="72">
+        <f t="shared" si="3"/>
+        <v>0.74000000000000021</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>5.7823210346221279</v>
+      </c>
+      <c r="J45" s="104">
+        <f t="shared" si="4"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="K45" s="104">
+        <f t="shared" ref="K45:K46" si="11">K44*1.05 + J45</f>
+        <v>29.30206658712536</v>
+      </c>
+      <c r="L45" s="104">
+        <v>0</v>
+      </c>
+      <c r="M45" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="10"/>
+        <v>0.79458058133664</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="7"/>
+        <v>5.4018974167020675</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>59</v>
+      </c>
+      <c r="C46">
+        <v>5.7808829999999997E-3</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0.9435555190386824</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>8.1851098429279432</v>
+      </c>
+      <c r="F46" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G46">
+        <v>29</v>
+      </c>
+      <c r="H46" s="72">
+        <f t="shared" si="3"/>
+        <v>0.77000000000000024</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>6.3025345790545186</v>
+      </c>
+      <c r="J46" s="104">
+        <f t="shared" si="4"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="K46" s="104">
+        <f t="shared" si="11"/>
+        <v>37.565596084429274</v>
+      </c>
+      <c r="L46" s="104">
+        <v>0</v>
+      </c>
+      <c r="M46" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="10"/>
+        <v>0.73529542650806778</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="7"/>
+        <v>4.9988516687446749</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>60</v>
+      </c>
+      <c r="C47">
+        <v>6.4326771E-3</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0.93810093497911551</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>8.5739025604670207</v>
+      </c>
+      <c r="F47" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G47">
+        <v>30</v>
+      </c>
+      <c r="H47" s="72">
+        <f>MIN(H46 + 0.04, 0.9)</f>
+        <v>0.81000000000000028</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>6.9448610739782888</v>
+      </c>
+      <c r="L47" s="104">
+        <f>$E$42 + K46</f>
+        <v>44.36402225237692</v>
+      </c>
+      <c r="M47" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="10"/>
+        <v>0.68004164621115304</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="6"/>
+        <v>30.169382725054625</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="7"/>
+        <v>4.6232129228960996</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>61</v>
+      </c>
+      <c r="C48">
+        <v>7.1775420999999999E-3</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0.93206643457718685</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>8.9811629320892052</v>
+      </c>
+      <c r="F48" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G48">
+        <v>31</v>
+      </c>
+      <c r="H48" s="72">
+        <f t="shared" si="3"/>
+        <v>0.8400000000000003</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>7.5441768629549353</v>
+      </c>
+      <c r="L48" s="104">
+        <f>$E$42</f>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M48" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="10"/>
+        <v>0.6285275887316506</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="6"/>
+        <v>4.2729984065102906</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="7"/>
+        <v>4.2729984065102906</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>62</v>
+      </c>
+      <c r="C49">
+        <v>8.0259254999999995E-3</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0.92537648850301224</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>9.4077681713634433</v>
+      </c>
+      <c r="F49" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G49">
+        <v>32</v>
+      </c>
+      <c r="H49" s="72">
+        <f t="shared" si="3"/>
+        <v>0.87000000000000033</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>8.1847583090861988</v>
+      </c>
+      <c r="L49" s="104">
+        <f t="shared" ref="L49:L56" si="12">$E$42</f>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M49" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="10"/>
+        <v>0.5804802841883886</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="6"/>
+        <v>3.9463523540040284</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="7"/>
+        <v>3.9463523540040284</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>63</v>
+      </c>
+      <c r="C50">
+        <v>8.8435679E-3</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0.91794948574683544</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>9.8546371595032074</v>
+      </c>
+      <c r="F50" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G50">
+        <v>33</v>
+      </c>
+      <c r="H50" s="72">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>8.8691734435528868</v>
+      </c>
+      <c r="L50" s="104">
+        <f t="shared" si="12"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M50" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="10"/>
+        <v>0.53564780713792903</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="6"/>
+        <v>3.6415620688502717</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="7"/>
+        <v>3.6415620688502717</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>64</v>
+      </c>
+      <c r="C51">
+        <v>9.7660721999999998E-3</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0.90983153714086329</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>10.322732424579611</v>
+      </c>
+      <c r="F51" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G51">
+        <v>34</v>
+      </c>
+      <c r="H51" s="72">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>9.2904591821216496</v>
+      </c>
+      <c r="L51" s="104">
+        <f t="shared" si="12"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M51" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="10"/>
+        <v>0.49387048314885457</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="6"/>
+        <v>3.3575420162161209</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="7"/>
+        <v>3.3575420162161209</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B52" s="109">
+        <v>65</v>
+      </c>
+      <c r="C52">
+        <v>1.08046624E-2</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0.9009460566593086</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="F52" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G52">
+        <v>35</v>
+      </c>
+      <c r="H52" s="72">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>9.7317559932724294</v>
+      </c>
+      <c r="L52" s="104">
+        <f t="shared" si="12"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M52" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="10"/>
+        <v>0.45492772870044101</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="6"/>
+        <v>3.0927925753220662</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="7"/>
+        <v>3.0927925753220662</v>
+      </c>
+      <c r="Q52" s="104">
+        <f>$E$52</f>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="R52" s="104">
+        <f>Q52</f>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T52" s="104">
+        <f t="shared" ref="T52:T106" si="13">$E$52</f>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U52">
+        <f>$D52/$D$52 *(1 +  $C$2)^(65-B52)</f>
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="9"/>
+        <v>10.813062214747143</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>66</v>
+      </c>
+      <c r="C53">
+        <v>1.1788081000000001E-2</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0.89121163867649356</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>11.326682669947633</v>
+      </c>
+      <c r="F53" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G53">
+        <v>36</v>
+      </c>
+      <c r="H53" s="72">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>10.19401440295287</v>
+      </c>
+      <c r="L53" s="104">
+        <f t="shared" si="12"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M53" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="10"/>
+        <v>0.41861617504691528</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="6"/>
+        <v>2.8459311587651022</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="7"/>
+        <v>2.8459311587651022</v>
+      </c>
+      <c r="Q53" s="104">
+        <f t="shared" ref="Q53:Q56" si="14">$E$52</f>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="R53" s="104">
+        <f>R52*1.05 +Q53</f>
+        <v>22.166777540231642</v>
+      </c>
+      <c r="T53" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U53">
+        <f t="shared" ref="U53:U106" si="15">$D53/$D$52 *(1 +  $C$2)^(65-B53)</f>
+        <v>0.92018170939534893</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="9"/>
+        <v>9.9499820725642838</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>67</v>
+      </c>
+      <c r="C54">
+        <v>1.2815806000000001E-2</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0.88070596369163234</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>11.864700096770147</v>
+      </c>
+      <c r="F54" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G54">
+        <v>37</v>
+      </c>
+      <c r="H54" s="72">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>10.678230087093132</v>
+      </c>
+      <c r="L54" s="104">
+        <f t="shared" si="12"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M54" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="10"/>
+        <v>0.38481999410935075</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="6"/>
+        <v>2.61617031790247</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="7"/>
+        <v>2.61617031790247</v>
+      </c>
+      <c r="Q54" s="104">
+        <f t="shared" si="14"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="R54" s="104">
+        <f>R53*1.05 + Q54</f>
+        <v>34.088178631990367</v>
+      </c>
+      <c r="T54" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="15"/>
+        <v>0.84589258871653783</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="9"/>
+        <v>9.1466891887854409</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>68</v>
+      </c>
+      <c r="C55">
+        <v>1.42005814E-2</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0.8694190069179174</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>12.42827335136673</v>
+      </c>
+      <c r="F55" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G55">
+        <v>38</v>
+      </c>
+      <c r="H55" s="72">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>11.185446016230058</v>
+      </c>
+      <c r="L55" s="104">
+        <f t="shared" si="12"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M55" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="10"/>
+        <v>0.35338438671620859</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="6"/>
+        <v>2.4024576619956037</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="7"/>
+        <v>2.4024576619956037</v>
+      </c>
+      <c r="Q55" s="104">
+        <f t="shared" si="14"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="R55" s="104">
+        <f t="shared" ref="R55:R56" si="16">R54*1.05 + Q55</f>
+        <v>46.605649778337025</v>
+      </c>
+      <c r="T55" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="15"/>
+        <v>0.77679236595600842</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="9"/>
+        <v>8.3995041810229498</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>69</v>
+      </c>
+      <c r="C56">
+        <v>1.5924558700000001E-2</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0.85707275153947238</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>13.018616335556651</v>
+      </c>
+      <c r="F56" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G56">
+        <v>39</v>
+      </c>
+      <c r="H56" s="72">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>11.716754702000985</v>
+      </c>
+      <c r="L56" s="104">
+        <f t="shared" si="12"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M56" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="10"/>
+        <v>0.3240615097368893</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="6"/>
+        <v>2.2031082478198898</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="7"/>
+        <v>2.2031082478198898</v>
+      </c>
+      <c r="Q56" s="104">
+        <f t="shared" si="14"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="R56" s="104">
+        <f t="shared" si="16"/>
+        <v>59.748994482001017</v>
+      </c>
+      <c r="T56" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="15"/>
+        <v>0.71233624440218735</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="9"/>
+        <v>7.7025361285401779</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>70</v>
+      </c>
+      <c r="C57">
+        <v>1.76198508E-2</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0.84342424619741152</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>13.637000611495592</v>
+      </c>
+      <c r="F57" s="56">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G57">
+        <v>40</v>
+      </c>
+      <c r="H57" s="72">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>12.273300550346033</v>
+      </c>
+      <c r="L57" s="104">
+        <f>$E$42</f>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M57" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="10"/>
+        <v>0.29665206809551031</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="6"/>
+        <v>2.0167671825163049</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="7"/>
+        <v>2.0167671825163049</v>
+      </c>
+      <c r="S57" s="104">
+        <f>R56+$E$52</f>
+        <v>70.562056696748158</v>
+      </c>
+      <c r="T57" s="104">
+        <f>$E$52</f>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="15"/>
+        <v>0.65208614331541137</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="8"/>
+        <v>46.012539415785902</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="9"/>
+        <v>7.0510480370440654</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>71</v>
+      </c>
+      <c r="C58">
+        <v>1.95639866E-2</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0.82856323681831068</v>
+      </c>
+      <c r="L58" s="104">
+        <f t="shared" ref="L58:L106" si="17">$E$42</f>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M58" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="10"/>
+        <v>0.27109311899177302</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="6"/>
+        <v>1.8430065541042151</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="7"/>
+        <v>1.8430065541042151</v>
+      </c>
+      <c r="S58" s="104">
+        <f>$E$52</f>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T58" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="15"/>
+        <v>0.59590370489436884</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="8"/>
+        <v>6.4435438350211323</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="9"/>
+        <v>6.4435438350211323</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>72</v>
+      </c>
+      <c r="C59">
+        <v>2.1791388200000001E-2</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0.81235323675594462</v>
+      </c>
+      <c r="L59" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M59" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="10"/>
+        <v>0.24724600636694491</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="6"/>
+        <v>1.680883719605589</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="7"/>
+        <v>1.680883719605589</v>
+      </c>
+      <c r="S59" s="104">
+        <f t="shared" ref="S59:S106" si="18">$E$52</f>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T59" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="15"/>
+        <v>0.54348414213667451</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="8"/>
+        <v>5.8767278416523405</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="9"/>
+        <v>5.8767278416523405</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>73</v>
+      </c>
+      <c r="C60">
+        <v>2.4310661099999999E-2</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0.79465093201826931</v>
+      </c>
+      <c r="L60" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M60" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="10"/>
+        <v>0.22498434666167738</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="6"/>
+        <v>1.5295394697233526</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="7"/>
+        <v>1.5295394697233526</v>
+      </c>
+      <c r="S60" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T60" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="15"/>
+        <v>0.49454964485100483</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="8"/>
+        <v>5.3475960780550196</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="9"/>
+        <v>5.3475960780550196</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>74</v>
+      </c>
+      <c r="C61">
+        <v>2.7131845200000001E-2</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0.77533244251717404</v>
+      </c>
+      <c r="L61" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M61" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="10"/>
+        <v>0.20419984042528408</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="6"/>
+        <v>1.3882375386379853</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="7"/>
+        <v>1.3882375386379853</v>
+      </c>
+      <c r="S61" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T61" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="15"/>
+        <v>0.44886215445386674</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="8"/>
+        <v>4.8535744019551021</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="9"/>
+        <v>4.8535744019551021</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>75</v>
+      </c>
+      <c r="C62">
+        <v>3.0240597899999999E-2</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>0.75429624270826012</v>
+      </c>
+      <c r="L62" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M62" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="10"/>
+        <v>0.18479955531627962</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="6"/>
+        <v>1.2563461326872842</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="7"/>
+        <v>1.2563461326872842</v>
+      </c>
+      <c r="S62" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T62" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="15"/>
+        <v>0.40621739159356829</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="8"/>
+        <v>4.3924539280135573</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="9"/>
+        <v>4.3924539280135573</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>76</v>
+      </c>
+      <c r="C63">
+        <v>3.3637636300000003E-2</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>0.73148587333503878</v>
+      </c>
+      <c r="L63" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M63" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="10"/>
+        <v>0.16670800583428946</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="6"/>
+        <v>1.1333520692702026</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="7"/>
+        <v>1.1333520692702026</v>
+      </c>
+      <c r="S63" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T63" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="15"/>
+        <v>0.3664494277157212</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="8"/>
+        <v>3.9624404604485792</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="9"/>
+        <v>3.9624404604485792</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>77</v>
+      </c>
+      <c r="C64">
+        <v>3.73788964E-2</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>0.70688041756920683</v>
+      </c>
+      <c r="L64" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M64" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="10"/>
+        <v>0.14986078378208126</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="6"/>
+        <v>1.0188174740132456</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="7"/>
+        <v>1.0188174740132456</v>
+      </c>
+      <c r="S64" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T64" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="15"/>
+        <v>0.32941668385476897</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="8"/>
+        <v>3.5620030970973078</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="9"/>
+        <v>3.5620030970973078</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>78</v>
+      </c>
+      <c r="C65">
+        <v>4.15411111E-2</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>0.68045800767369868</v>
+      </c>
+      <c r="L65" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M65" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="10"/>
+        <v>0.13419456099597024</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="6"/>
+        <v>0.91231181507125081</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="7"/>
+        <v>0.91231181507125081</v>
+      </c>
+      <c r="S65" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T65" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="15"/>
+        <v>0.29497995512235348</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="8"/>
+        <v>3.1896366068413284</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="9"/>
+        <v>3.1896366068413284</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>79</v>
+      </c>
+      <c r="C66">
+        <v>4.61601367E-2</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>0.65219102597804091</v>
+      </c>
+      <c r="L66" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M66" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="10"/>
+        <v>0.11964648356150787</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="6"/>
+        <v>0.81340778474747322</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="7"/>
+        <v>0.81340778474747322</v>
+      </c>
+      <c r="S66" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T66" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="15"/>
+        <v>0.26300107910171422</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="8"/>
+        <v>2.8438470308724706</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="9"/>
+        <v>2.8438470308724706</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>80</v>
+      </c>
+      <c r="C67">
+        <v>5.1662664800000001E-2</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>0.62208579906438133</v>
+      </c>
+      <c r="L67" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M67" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="10"/>
+        <v>0.10616147490663662</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="6"/>
+        <v>0.72173094903319601</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="7"/>
+        <v>0.72173094903319601</v>
+      </c>
+      <c r="S67" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T67" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="15"/>
+        <v>0.23335898915175035</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="8"/>
+        <v>2.5233252680683802</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="9"/>
+        <v>2.5233252680683802</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>81</v>
+      </c>
+      <c r="C68">
+        <v>5.7718816200000002E-2</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="0"/>
+        <v>0.58994718895047804</v>
+      </c>
+      <c r="L68" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M68" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="10"/>
+        <v>9.365292112917345E-2</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="6"/>
+        <v>0.63669246970930993</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="7"/>
+        <v>0.63669246970930993</v>
+      </c>
+      <c r="S68" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T68" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="15"/>
+        <v>0.20586329480663873</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="8"/>
+        <v>2.2260126144770171</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="9"/>
+        <v>2.2260126144770171</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>82</v>
+      </c>
+      <c r="C69">
+        <v>6.4339347899999996E-2</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="0"/>
+        <v>0.55589613558373874</v>
+      </c>
+      <c r="L69" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M69" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="10"/>
+        <v>8.2090591058535431E-2</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="6"/>
+        <v>0.55808682239463647</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="7"/>
+        <v>0.55808682239463647</v>
+      </c>
+      <c r="S69" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T69" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="15"/>
+        <v>0.18044754337801669</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="8"/>
+        <v>1.9511905130447784</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="9"/>
+        <v>1.9511905130447784</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>83</v>
+      </c>
+      <c r="C70">
+        <v>7.1554379200000004E-2</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="0"/>
+        <v>0.52013014072015107</v>
+      </c>
+      <c r="L70" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M70" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="10"/>
+        <v>7.1450172987073207E-2</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="6"/>
+        <v>0.48574872573970462</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="7"/>
+        <v>0.48574872573970462</v>
+      </c>
+      <c r="S70" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T70" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="15"/>
+        <v>0.15705829405294716</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="8"/>
+        <v>1.6982811049365689</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="9"/>
+        <v>1.6982811049365689</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>84</v>
+      </c>
+      <c r="C71">
+        <v>7.9427017399999994E-2</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="0"/>
+        <v>0.48291255139771205</v>
+      </c>
+      <c r="L71" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M71" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="10"/>
+        <v>6.1709395549070296E-2</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="6"/>
+        <v>0.41952676950903162</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="7"/>
+        <v>0.41952676950903162</v>
+      </c>
+      <c r="S71" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T71" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="15"/>
+        <v>0.13564659099886273</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="8"/>
+        <v>1.4667550276890624</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="9"/>
+        <v>1.4667550276890624</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>85</v>
+      </c>
+      <c r="C72">
+        <v>8.8061246300000007E-2</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="0"/>
+        <v>0.44455624777516756</v>
+      </c>
+      <c r="L72" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M72" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="10"/>
+        <v>5.2844653316326332E-2</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="6"/>
+        <v>0.35926047394183436</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="7"/>
+        <v>0.35926047394183436</v>
+      </c>
+      <c r="S72" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T72" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="15"/>
+        <v>0.1161605459119492</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="8"/>
+        <v>1.2560512098448986</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="9"/>
+        <v>1.2560512098448986</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>86</v>
+      </c>
+      <c r="C73">
+        <v>9.9762730899999999E-2</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ref="D73:D106" si="19">D72*(1-C72)</f>
+        <v>0.40540807054563471</v>
+      </c>
+      <c r="L73" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M73" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="10"/>
+        <v>4.4828918404650427E-2</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="6"/>
+        <v>0.30476609196296539</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="7"/>
+        <v>0.30476609196296539</v>
+      </c>
+      <c r="S73" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T73" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="15"/>
+        <v>9.8540747412143803E-2</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="8"/>
+        <v>1.0655272324551945</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="9"/>
+        <v>1.0655272324551945</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>87</v>
+      </c>
+      <c r="C74">
+        <v>0.1129206819</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="19"/>
+        <v>0.36496345429910237</v>
+      </c>
+      <c r="L74" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M74" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="10"/>
+        <v>3.7541081936101617E-2</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="6"/>
+        <v>0.25522027380745999</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="7"/>
+        <v>0.25522027380745999</v>
+      </c>
+      <c r="S74" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T74" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="15"/>
+        <v>8.2520979856168589E-2</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="8"/>
+        <v>0.89230448920664673</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="9"/>
+        <v>0.89230448920664673</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>88</v>
+      </c>
+      <c r="C75">
+        <v>0.12760224009999999</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="19"/>
+        <v>0.32375153217106822</v>
+      </c>
+      <c r="L75" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M75" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="10"/>
+        <v>3.0978527781035579E-2</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="6"/>
+        <v>0.21060523391108546</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="7"/>
+        <v>0.21060523391108546</v>
+      </c>
+      <c r="S75" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T75" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="15"/>
+        <v>6.8095492595119864E-2</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="8"/>
+        <v>0.73632079797488448</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="9"/>
+        <v>0.73632079797488448</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>89</v>
+      </c>
+      <c r="C76">
+        <v>0.14379265090000001</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="19"/>
+        <v>0.28244011143023273</v>
+      </c>
+      <c r="L76" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M76" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="10"/>
+        <v>2.5140091387139876E-2</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="6"/>
+        <v>0.170913055150927</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="7"/>
+        <v>0.170913055150927</v>
+      </c>
+      <c r="S76" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T76" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="15"/>
+        <v>5.5261725766762443E-2</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="8"/>
+        <v>0.5975484788102976</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="9"/>
+        <v>0.5975484788102976</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>90</v>
+      </c>
+      <c r="C77">
+        <v>0.1601409412</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="19"/>
+        <v>0.24182729908718817</v>
+      </c>
+      <c r="L77" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M77" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="10"/>
+        <v>2.0023377676943972E-2</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="6"/>
+        <v>0.13612745476963467</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="7"/>
+        <v>0.13612745476963467</v>
+      </c>
+      <c r="S77" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T77" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="15"/>
+        <v>4.4014414628326358E-2</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="8"/>
+        <v>0.47593060372176965</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="9"/>
+        <v>0.47593060372176965</v>
+      </c>
+    </row>
+    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>91</v>
+      </c>
+      <c r="C78">
+        <v>0.1775369997</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="19"/>
+        <v>0.20310084780351195</v>
+      </c>
+      <c r="L78" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M78" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="10"/>
+        <v>1.5643548957911719E-2</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="6"/>
+        <v>0.10635151259503718</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="7"/>
+        <v>0.10635151259503718</v>
+      </c>
+      <c r="S78" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T78" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="15"/>
+        <v>3.4386888226399195E-2</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="8"/>
+        <v>0.37182756176361054</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="9"/>
+        <v>0.37182756176361054</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>92</v>
+      </c>
+      <c r="C79">
+        <v>0.1958145131</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="19"/>
+        <v>0.16704293264795009</v>
+      </c>
+      <c r="L79" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M79" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="10"/>
+        <v>1.1968595545361869E-2</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="6"/>
+        <v>8.1367613149169779E-2</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="7"/>
+        <v>8.1367613149169779E-2</v>
+      </c>
+      <c r="S79" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T79" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="15"/>
+        <v>2.6308784429455837E-2</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="8"/>
+        <v>0.28447852283007691</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="9"/>
+        <v>0.28447852283007691</v>
+      </c>
+    </row>
+    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>93</v>
+      </c>
+      <c r="C80">
+        <v>0.2147957452</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="19"/>
+        <v>0.13433350212469566</v>
+      </c>
+      <c r="L80" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M80" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="10"/>
+        <v>8.9534612429358201E-3</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="6"/>
+        <v>6.0869445207679951E-2</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="7"/>
+        <v>6.0869445207679951E-2</v>
+      </c>
+      <c r="S80" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T80" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="15"/>
+        <v>1.9681062898743332E-2</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="8"/>
+        <v>0.21281255757646342</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="9"/>
+        <v>0.21281255757646342</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>94</v>
+      </c>
+      <c r="C81">
+        <v>0.23432014700000001</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="19"/>
+        <v>0.10547923743049588</v>
+      </c>
+      <c r="L81" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M81" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="10"/>
+        <v>6.5398101052466084E-3</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="6"/>
+        <v>4.4460416152917001E-2</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="7"/>
+        <v>4.4460416152917001E-2</v>
+      </c>
+      <c r="S81" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T81" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="15"/>
+        <v>1.4375492397283427E-2</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="8"/>
+        <v>0.15544309365945025</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="9"/>
+        <v>0.15544309365945025</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>95</v>
+      </c>
+      <c r="C82">
+        <v>0.25426162460000001</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="19"/>
+        <v>8.0763327010334174E-2</v>
+      </c>
+      <c r="L82" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M82" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="10"/>
+        <v>4.6580472930540804E-3</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="6"/>
+        <v>3.1667390608636568E-2</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="7"/>
+        <v>3.1667390608636568E-2</v>
+      </c>
+      <c r="S82" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T82" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="15"/>
+        <v>1.0239092935399621E-2</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="8"/>
+        <v>0.11071594893305405</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="9"/>
+        <v>0.11071594893305405</v>
+      </c>
+    </row>
+    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>96</v>
+      </c>
+      <c r="C83">
+        <v>0.27454427710000001</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="19"/>
+        <v>6.0228312276585545E-2</v>
+      </c>
+      <c r="L83" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M83" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="10"/>
+        <v>3.2313345310311784E-3</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="6"/>
+        <v>2.1967989233155204E-2</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="7"/>
+        <v>2.1967989233155204E-2</v>
+      </c>
+      <c r="S83" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T83" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="15"/>
+        <v>7.1029623546181682E-3</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="8"/>
+        <v>7.6804773849493108E-2</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="9"/>
+        <v>7.6804773849493108E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>97</v>
+      </c>
+      <c r="C84">
+        <v>0.28868479250000001</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="19"/>
+        <v>4.3692973821657315E-2</v>
+      </c>
+      <c r="L84" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M84" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="10"/>
+        <v>2.1806419796660064E-3</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="6"/>
+        <v>1.482493349748654E-2</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="7"/>
+        <v>1.482493349748654E-2</v>
+      </c>
+      <c r="S84" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T84" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="15"/>
+        <v>4.7933811066986137E-3</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="8"/>
+        <v>5.1831128125725622E-2</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="9"/>
+        <v>5.1831128125725622E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>98</v>
+      </c>
+      <c r="C85">
+        <v>0.30908630190000003</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="19"/>
+        <v>3.1079476740244239E-2</v>
+      </c>
+      <c r="L85" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M85" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="10"/>
+        <v>1.4429058625575219E-3</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="6"/>
+        <v>9.8094889738961286E-3</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="7"/>
+        <v>9.8094889738961286E-3</v>
+      </c>
+      <c r="S85" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T85" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="15"/>
+        <v>3.1717254665468873E-3</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="8"/>
+        <v>3.4296064797869404E-2</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="9"/>
+        <v>3.4296064797869404E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>99</v>
+      </c>
+      <c r="C86">
+        <v>0.3225175113</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="19"/>
+        <v>2.1473236209615078E-2</v>
+      </c>
+      <c r="L86" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M86" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="10"/>
+        <v>9.2737062838119783E-4</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="6"/>
+        <v>6.3046607473727888E-3</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="7"/>
+        <v>6.3046607473727888E-3</v>
+      </c>
+      <c r="S86" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T86" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="15"/>
+        <v>2.0385009966975422E-3</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="8"/>
+        <v>2.2042438102114585E-2</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="9"/>
+        <v>2.2042438102114585E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>100</v>
+      </c>
+      <c r="C87">
+        <v>0.34317536360000001</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="19"/>
+        <v>1.4547741507732977E-2</v>
+      </c>
+      <c r="L87" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M87" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="10"/>
+        <v>5.844440569888154E-4</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="6"/>
+        <v>3.9732997707342494E-3</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="7"/>
+        <v>3.9732997707342494E-3</v>
+      </c>
+      <c r="S87" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T87" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="15"/>
+        <v>1.2846964915907732E-3</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="8"/>
+        <v>1.3891503090638411E-2</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="9"/>
+        <v>1.3891503090638411E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>101</v>
+      </c>
+      <c r="C88">
+        <v>0.35566976099999997</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="19"/>
+        <v>9.5553150262579004E-3</v>
+      </c>
+      <c r="L88" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M88" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="10"/>
+        <v>3.5709512114215786E-4</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="6"/>
+        <v>2.4276848160192815E-3</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="7"/>
+        <v>2.4276848160192815E-3</v>
+      </c>
+      <c r="S88" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T88" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="15"/>
+        <v>7.8494912183578154E-4</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="8"/>
+        <v>8.4877036898214405E-3</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="9"/>
+        <v>8.4877036898214405E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>102</v>
+      </c>
+      <c r="C89">
+        <v>0.37470101519999999</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="19"/>
+        <v>6.1567784145890453E-3</v>
+      </c>
+      <c r="L89" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M89" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="10"/>
+        <v>2.1403459046628886E-4</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="6"/>
+        <v>1.4550983606719764E-3</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="7"/>
+        <v>1.4550983606719764E-3</v>
+      </c>
+      <c r="S89" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T89" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="15"/>
+        <v>4.7048042351189706E-4</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="8"/>
+        <v>5.0873340902547271E-3</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="9"/>
+        <v>5.0873340902547271E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>103</v>
+      </c>
+      <c r="C90">
+        <v>0.3834688859</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="19"/>
+        <v>3.8498272922810836E-3</v>
+      </c>
+      <c r="L90" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M90" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="10"/>
+        <v>1.2449824384246902E-4</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="6"/>
+        <v>8.4639211880216847E-4</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="7"/>
+        <v>8.4639211880216847E-4</v>
+      </c>
+      <c r="S90" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T90" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="15"/>
+        <v>2.7366598250257054E-4</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="8"/>
+        <v>2.9591672948601983E-3</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="9"/>
+        <v>2.9591672948601983E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>104</v>
+      </c>
+      <c r="C91">
+        <v>0.39788600000000002</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="19"/>
+        <v>2.3735383096026431E-3</v>
+      </c>
+      <c r="L91" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M91" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="10"/>
+        <v>7.1401898585758987E-5</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="6"/>
+        <v>4.8542053578656802E-4</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="7"/>
+        <v>4.8542053578656802E-4</v>
+      </c>
+      <c r="S91" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T91" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="15"/>
+        <v>1.5695217961263347E-4</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="8"/>
+        <v>1.6971336828915738E-3</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="9"/>
+        <v>1.6971336828915738E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>105</v>
+      </c>
+      <c r="C92">
+        <v>0.4</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="19"/>
+        <v>1.429140645748086E-3</v>
+      </c>
+      <c r="L92" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M92" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="10"/>
+        <v>3.9992635130293667E-5</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="6"/>
+        <v>2.7188697719497088E-4</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="7"/>
+        <v>2.7188697719497088E-4</v>
+      </c>
+      <c r="S92" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T92" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="15"/>
+        <v>8.790986481421506E-5</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="8"/>
+        <v>9.5057483752611827E-4</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="9"/>
+        <v>9.5057483752611827E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>106</v>
+      </c>
+      <c r="C93">
+        <v>0.4</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="19"/>
+        <v>8.5748438744885159E-4</v>
+      </c>
+      <c r="L93" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M93" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="10"/>
+        <v>2.2321470770396463E-5</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="6"/>
+        <v>1.5175087099254185E-4</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="7"/>
+        <v>1.5175087099254185E-4</v>
+      </c>
+      <c r="S93" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T93" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="15"/>
+        <v>4.9065971059096772E-5</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="8"/>
+        <v>5.3055339768899611E-4</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="9"/>
+        <v>5.3055339768899611E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>107</v>
+      </c>
+      <c r="C94">
+        <v>0.4</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="19"/>
+        <v>5.1449063246931091E-4</v>
+      </c>
+      <c r="L94" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M94" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="10"/>
+        <v>1.2458495313709654E-5</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="6"/>
+        <v>8.4698160553976846E-5</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="7"/>
+        <v>8.4698160553976846E-5</v>
+      </c>
+      <c r="S94" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T94" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="15"/>
+        <v>2.7385658265542386E-5</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="8"/>
+        <v>2.9612282661711418E-4</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="9"/>
+        <v>2.9612282661711418E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>108</v>
+      </c>
+      <c r="C95">
+        <v>0.4</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="19"/>
+        <v>3.0869437948158654E-4</v>
+      </c>
+      <c r="L95" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M95" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="10"/>
+        <v>6.9535787797449231E-6</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="6"/>
+        <v>4.7273391937103357E-5</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="7"/>
+        <v>4.7273391937103357E-5</v>
+      </c>
+      <c r="S95" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T95" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="15"/>
+        <v>1.5285018566814353E-5</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="8"/>
+        <v>1.652778567165288E-4</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="9"/>
+        <v>1.652778567165288E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>109</v>
+      </c>
+      <c r="C96">
+        <v>0.4</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="19"/>
+        <v>1.8521662768895193E-4</v>
+      </c>
+      <c r="L96" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M96" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="10"/>
+        <v>3.8810672259041433E-6</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="6"/>
+        <v>2.6385148988150714E-5</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="7"/>
+        <v>2.6385148988150714E-5</v>
+      </c>
+      <c r="S96" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T96" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="15"/>
+        <v>8.5311731535708037E-6</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="8"/>
+        <v>9.2248106074341681E-5</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="9"/>
+        <v>9.2248106074341681E-5</v>
+      </c>
+    </row>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>110</v>
+      </c>
+      <c r="C97">
+        <v>0.4</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="19"/>
+        <v>1.1112997661337116E-4</v>
+      </c>
+      <c r="L97" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M97" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="10"/>
+        <v>2.1661770563185919E-6</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="6"/>
+        <v>1.4726594784084121E-5</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="7"/>
+        <v>1.4726594784084121E-5</v>
+      </c>
+      <c r="S97" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T97" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="15"/>
+        <v>4.7615850159464948E-6</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="8"/>
+        <v>5.1487315018237214E-5</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="9"/>
+        <v>5.1487315018237214E-5</v>
+      </c>
+    </row>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>111</v>
+      </c>
+      <c r="C98">
+        <v>0.4</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="19"/>
+        <v>6.6677985968022693E-5</v>
+      </c>
+      <c r="L98" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M98" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="10"/>
+        <v>1.2090290546894466E-6</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="6"/>
+        <v>8.2194947632097419E-6</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="7"/>
+        <v>8.2194947632097419E-6</v>
+      </c>
+      <c r="S98" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T98" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="15"/>
+        <v>2.6576288461096713E-6</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="8"/>
+        <v>2.8737106056690536E-5</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="9"/>
+        <v>2.8737106056690536E-5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>112</v>
+      </c>
+      <c r="C99">
+        <v>0.4</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="19"/>
+        <v>4.0006791580813616E-5</v>
+      </c>
+      <c r="L99" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M99" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="10"/>
+        <v>6.7480691424527244E-7</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="6"/>
+        <v>4.587624984117065E-6</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="7"/>
+        <v>4.587624984117065E-6</v>
+      </c>
+      <c r="S99" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T99" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="15"/>
+        <v>1.4833277280612119E-6</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="8"/>
+        <v>1.6039315008385418E-5</v>
+      </c>
+      <c r="W99">
+        <f t="shared" si="9"/>
+        <v>1.6039315008385418E-5</v>
+      </c>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>113</v>
+      </c>
+      <c r="C100">
+        <v>0.4</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="19"/>
+        <v>2.400407494848817E-5</v>
+      </c>
+      <c r="L100" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M100" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="10"/>
+        <v>3.7663641725317549E-7</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="6"/>
+        <v>2.5605348748560373E-6</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="7"/>
+        <v>2.5605348748560373E-6</v>
+      </c>
+      <c r="S100" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T100" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="15"/>
+        <v>8.2790384822021134E-7</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="8"/>
+        <v>8.9521758186337219E-6</v>
+      </c>
+      <c r="W100">
+        <f t="shared" si="9"/>
+        <v>8.9521758186337219E-6</v>
+      </c>
+    </row>
+    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>114</v>
+      </c>
+      <c r="C101">
+        <v>0.4</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="19"/>
+        <v>1.4402444969092902E-5</v>
+      </c>
+      <c r="L101" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M101" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="10"/>
+        <v>2.1021567474595837E-7</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="6"/>
+        <v>1.429135744105695E-6</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="7"/>
+        <v>1.429135744105695E-6</v>
+      </c>
+      <c r="S101" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T101" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="15"/>
+        <v>4.6208586877407156E-7</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="8"/>
+        <v>4.9965632476095197E-6</v>
+      </c>
+      <c r="W101">
+        <f t="shared" si="9"/>
+        <v>4.9965632476095197E-6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>115</v>
+      </c>
+      <c r="C102">
+        <v>0.4</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="19"/>
+        <v>8.6414669814557416E-6</v>
+      </c>
+      <c r="L102" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M102" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="10"/>
+        <v>1.1732967892797677E-7</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="6"/>
+        <v>7.9765715950085294E-7</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="7"/>
+        <v>7.9765715950085294E-7</v>
+      </c>
+      <c r="S102" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T102" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="15"/>
+        <v>2.5790839187390041E-7</v>
+      </c>
+      <c r="V102">
+        <f t="shared" si="8"/>
+        <v>2.7887794870378718E-6</v>
+      </c>
+      <c r="W102">
+        <f t="shared" si="9"/>
+        <v>2.7887794870378718E-6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>116</v>
+      </c>
+      <c r="C103">
+        <v>0.4</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="19"/>
+        <v>5.1848801888734449E-6</v>
+      </c>
+      <c r="L103" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M103" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="10"/>
+        <v>6.5486332424917249E-8</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="6"/>
+        <v>4.4520399600047596E-7</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="7"/>
+        <v>4.4520399600047596E-7</v>
+      </c>
+      <c r="S103" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T103" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="15"/>
+        <v>1.439488698831072E-7</v>
+      </c>
+      <c r="V103">
+        <f t="shared" si="8"/>
+        <v>1.5565280857885794E-6</v>
+      </c>
+      <c r="W103">
+        <f t="shared" si="9"/>
+        <v>1.5565280857885794E-6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>117</v>
+      </c>
+      <c r="C104">
+        <v>0.4</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="19"/>
+        <v>3.1109281133240667E-6</v>
+      </c>
+      <c r="L104" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M104" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="10"/>
+        <v>3.6550511120884056E-8</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="6"/>
+        <v>2.4848595125607966E-7</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="7"/>
+        <v>2.4848595125607966E-7</v>
+      </c>
+      <c r="S104" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T104" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="15"/>
+        <v>8.0343555283594712E-8</v>
+      </c>
+      <c r="V104">
+        <f t="shared" si="8"/>
+        <v>8.6875986183548622E-7</v>
+      </c>
+      <c r="W104">
+        <f t="shared" si="9"/>
+        <v>8.6875986183548622E-7</v>
+      </c>
+    </row>
+    <row r="105" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>118</v>
+      </c>
+      <c r="C105">
+        <v>0.4</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="19"/>
+        <v>1.8665568679944399E-6</v>
+      </c>
+      <c r="L105" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M105" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="10"/>
+        <v>2.0400285276772491E-8</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="6"/>
+        <v>1.3868983325920723E-7</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="7"/>
+        <v>1.3868983325920723E-7</v>
+      </c>
+      <c r="S105" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T105" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="15"/>
+        <v>4.4842914576890065E-8</v>
+      </c>
+      <c r="V105">
+        <f t="shared" si="8"/>
+        <v>4.8488922521050388E-7</v>
+      </c>
+      <c r="W105">
+        <f t="shared" si="9"/>
+        <v>4.8488922521050388E-7</v>
+      </c>
+    </row>
+    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>119</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="19"/>
+        <v>1.1199341207966639E-6</v>
+      </c>
+      <c r="L106" s="104">
+        <f t="shared" si="17"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="M106" s="104">
+        <f t="shared" si="5"/>
+        <v>6.7984261679476479</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="10"/>
+        <v>1.1386205735873019E-8</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="6"/>
+        <v>7.7408279028394735E-8</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="7"/>
+        <v>7.7408279028394735E-8</v>
+      </c>
+      <c r="S106" s="104">
+        <f t="shared" si="18"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="T106" s="104">
+        <f t="shared" si="13"/>
+        <v>10.813062214747143</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="15"/>
+        <v>2.502860348477585E-8</v>
+      </c>
+      <c r="V106">
+        <f t="shared" si="8"/>
+        <v>2.7063584662911843E-7</v>
+      </c>
+      <c r="W106">
+        <f t="shared" si="9"/>
+        <v>2.7063584662911843E-7</v>
+      </c>
+    </row>
+    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="N108" s="104" t="s">
+        <v>199</v>
+      </c>
+      <c r="O108">
+        <f>SUM(O42:O106)</f>
+        <v>76.787072163894578</v>
+      </c>
+      <c r="P108">
+        <f>SUM(P42:P106)</f>
+        <v>80.573925783148752</v>
+      </c>
+      <c r="U108" s="104" t="s">
+        <v>203</v>
+      </c>
+      <c r="V108">
+        <f>SUM(V42:V106)</f>
+        <v>102.72813592655085</v>
+      </c>
+      <c r="W108">
+        <f>SUM(W42:W106)</f>
+        <v>109.77841833346901</v>
+      </c>
+    </row>
+    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O109">
+        <f>O108/P108</f>
+        <v>0.95300150039299492</v>
+      </c>
+      <c r="V109">
+        <f>V108/W108</f>
+        <v>0.93577715443574871</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:W5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7631,8 +12436,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7826,8 +12631,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8338,7 +13143,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_LAFPP\Data_inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Model_LAFPP\Data_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="6" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="Death_dec" sheetId="5" r:id="rId18"/>
     <sheet name="DROP cashflow" sheetId="25" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2134,6 +2134,13 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2164,16 +2171,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3339,23 +3339,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3391,23 +3374,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3750,7 +3716,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3780,22 +3746,22 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101" t="s">
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="58" t="s">
         <v>94</v>
       </c>
@@ -4577,8 +4543,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6455,7 +6421,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6517,10 +6483,10 @@
       <c r="E4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="95" t="s">
+      <c r="F4" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="97"/>
+      <c r="G4" s="102"/>
     </row>
     <row r="5" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
@@ -6538,21 +6504,21 @@
       <c r="E5" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="95" t="s">
+      <c r="F5" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="95"/>
+      <c r="G5" s="100"/>
     </row>
     <row r="6" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
     </row>
     <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -6859,7 +6825,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7110,7 +7076,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7164,27 +7130,27 @@
       <c r="A4" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="108" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
     </row>
     <row r="5" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
     </row>
     <row r="7" spans="1:7" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="83" t="s">
@@ -7196,10 +7162,10 @@
       <c r="C7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="97"/>
+      <c r="E7" s="102"/>
       <c r="F7" s="8" t="s">
         <v>64</v>
       </c>
@@ -7484,7 +7450,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D41" sqref="D41:D42"/>
     </sheetView>
   </sheetViews>
@@ -7531,24 +7497,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U108" sqref="U108"/>
+      <selection pane="bottomRight" activeCell="R96" sqref="R96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="10" max="12" width="10.5703125" style="104" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="104" customWidth="1"/>
+    <col min="10" max="12" width="10.5703125" style="94" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="94" customWidth="1"/>
     <col min="14" max="14" width="13.140625" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12" style="104" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="104" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="104" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="104" customWidth="1"/>
+    <col min="17" max="17" width="12" style="94" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="94" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="94" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="94" customWidth="1"/>
     <col min="21" max="21" width="13.140625" customWidth="1"/>
     <col min="22" max="22" width="13.42578125" customWidth="1"/>
   </cols>
@@ -7562,24 +7528,24 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="J5" s="107" t="s">
+      <c r="J5" s="109" t="s">
         <v>189</v>
       </c>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107" t="s">
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109" t="s">
         <v>202</v>
       </c>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -7603,46 +7569,46 @@
       <c r="I6" t="s">
         <v>190</v>
       </c>
-      <c r="J6" s="105" t="s">
+      <c r="J6" s="95" t="s">
         <v>191</v>
       </c>
-      <c r="K6" s="105" t="s">
+      <c r="K6" s="95" t="s">
         <v>192</v>
       </c>
-      <c r="L6" s="105" t="s">
+      <c r="L6" s="95" t="s">
         <v>193</v>
       </c>
-      <c r="M6" s="105" t="s">
+      <c r="M6" s="95" t="s">
         <v>194</v>
       </c>
-      <c r="N6" s="105" t="s">
+      <c r="N6" s="95" t="s">
         <v>198</v>
       </c>
-      <c r="O6" s="105" t="s">
+      <c r="O6" s="95" t="s">
         <v>200</v>
       </c>
-      <c r="P6" s="105" t="s">
+      <c r="P6" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="Q6" s="108" t="s">
+      <c r="Q6" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="R6" s="108" t="s">
+      <c r="R6" s="97" t="s">
         <v>192</v>
       </c>
-      <c r="S6" s="108" t="s">
+      <c r="S6" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="T6" s="108" t="s">
+      <c r="T6" s="97" t="s">
         <v>194</v>
       </c>
-      <c r="U6" s="108" t="s">
+      <c r="U6" s="97" t="s">
         <v>198</v>
       </c>
-      <c r="V6" s="108" t="s">
+      <c r="V6" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="W6" s="108" t="s">
+      <c r="W6" s="97" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7650,7 +7616,7 @@
       <c r="B7">
         <v>20</v>
       </c>
-      <c r="C7" s="106">
+      <c r="C7" s="96">
         <v>3.3416560000000002E-4</v>
       </c>
       <c r="D7">
@@ -8592,18 +8558,18 @@
         <f t="shared" si="2"/>
         <v>4.4189770091659719</v>
       </c>
-      <c r="J42" s="104">
+      <c r="J42" s="94">
         <f>E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K42" s="104">
+      <c r="K42" s="94">
         <f>J42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="L42" s="104">
-        <v>0</v>
-      </c>
-      <c r="M42" s="104">
+      <c r="L42" s="94">
+        <v>0</v>
+      </c>
+      <c r="M42" s="94">
         <f>$E$42</f>
         <v>6.7984261679476479</v>
       </c>
@@ -8657,18 +8623,18 @@
         <f t="shared" si="2"/>
         <v>4.8425189594291114</v>
       </c>
-      <c r="J43" s="104">
+      <c r="J43" s="94">
         <f t="shared" ref="J43:J46" si="4">E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K43" s="104">
+      <c r="K43" s="94">
         <f>K42*1.05 +J43</f>
         <v>13.936773644292678</v>
       </c>
-      <c r="L43" s="104">
-        <v>0</v>
-      </c>
-      <c r="M43" s="104">
+      <c r="L43" s="94">
+        <v>0</v>
+      </c>
+      <c r="M43" s="94">
         <f t="shared" ref="M43:M106" si="5">$E$42</f>
         <v>6.7984261679476479</v>
       </c>
@@ -8722,18 +8688,18 @@
         <f t="shared" si="2"/>
         <v>5.296327078090318</v>
       </c>
-      <c r="J44" s="104">
+      <c r="J44" s="94">
         <f t="shared" si="4"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K44" s="104">
+      <c r="K44" s="94">
         <f>K43*1.05 + J44</f>
         <v>21.432038494454961</v>
       </c>
-      <c r="L44" s="104">
-        <v>0</v>
-      </c>
-      <c r="M44" s="104">
+      <c r="L44" s="94">
+        <v>0</v>
+      </c>
+      <c r="M44" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -8787,18 +8753,18 @@
         <f t="shared" si="2"/>
         <v>5.7823210346221279</v>
       </c>
-      <c r="J45" s="104">
+      <c r="J45" s="94">
         <f t="shared" si="4"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K45" s="104">
+      <c r="K45" s="94">
         <f t="shared" ref="K45:K46" si="11">K44*1.05 + J45</f>
         <v>29.30206658712536</v>
       </c>
-      <c r="L45" s="104">
-        <v>0</v>
-      </c>
-      <c r="M45" s="104">
+      <c r="L45" s="94">
+        <v>0</v>
+      </c>
+      <c r="M45" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -8852,18 +8818,18 @@
         <f t="shared" si="2"/>
         <v>6.3025345790545186</v>
       </c>
-      <c r="J46" s="104">
+      <c r="J46" s="94">
         <f t="shared" si="4"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K46" s="104">
+      <c r="K46" s="94">
         <f t="shared" si="11"/>
         <v>37.565596084429274</v>
       </c>
-      <c r="L46" s="104">
-        <v>0</v>
-      </c>
-      <c r="M46" s="104">
+      <c r="L46" s="94">
+        <v>0</v>
+      </c>
+      <c r="M46" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -8917,11 +8883,11 @@
         <f t="shared" si="2"/>
         <v>6.9448610739782888</v>
       </c>
-      <c r="L47" s="104">
-        <f>$E$42 + K46</f>
-        <v>44.36402225237692</v>
-      </c>
-      <c r="M47" s="104">
+      <c r="L47" s="94">
+        <f>$E$42 + K46*1.05</f>
+        <v>46.242302056598383</v>
+      </c>
+      <c r="M47" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -8931,7 +8897,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="6"/>
-        <v>30.169382725054625</v>
+        <v>31.446691215162552</v>
       </c>
       <c r="P47">
         <f t="shared" si="7"/>
@@ -8975,11 +8941,11 @@
         <f t="shared" si="2"/>
         <v>7.5441768629549353</v>
       </c>
-      <c r="L48" s="104">
+      <c r="L48" s="94">
         <f>$E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M48" s="104">
+      <c r="M48" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9033,11 +8999,11 @@
         <f t="shared" si="2"/>
         <v>8.1847583090861988</v>
       </c>
-      <c r="L49" s="104">
+      <c r="L49" s="94">
         <f t="shared" ref="L49:L56" si="12">$E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M49" s="104">
+      <c r="M49" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9091,11 +9057,11 @@
         <f t="shared" si="2"/>
         <v>8.8691734435528868</v>
       </c>
-      <c r="L50" s="104">
+      <c r="L50" s="94">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M50" s="104">
+      <c r="M50" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9149,11 +9115,11 @@
         <f t="shared" si="2"/>
         <v>9.2904591821216496</v>
       </c>
-      <c r="L51" s="104">
+      <c r="L51" s="94">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M51" s="104">
+      <c r="M51" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9179,7 +9145,7 @@
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B52" s="109">
+      <c r="B52" s="98">
         <v>65</v>
       </c>
       <c r="C52">
@@ -9207,11 +9173,11 @@
         <f t="shared" si="2"/>
         <v>9.7317559932724294</v>
       </c>
-      <c r="L52" s="104">
+      <c r="L52" s="94">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M52" s="104">
+      <c r="M52" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9227,15 +9193,15 @@
         <f t="shared" si="7"/>
         <v>3.0927925753220662</v>
       </c>
-      <c r="Q52" s="104">
+      <c r="Q52" s="94">
         <f>$E$52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="R52" s="104">
+      <c r="R52" s="94">
         <f>Q52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="T52" s="104">
+      <c r="T52" s="94">
         <f t="shared" ref="T52:T106" si="13">$E$52</f>
         <v>10.813062214747143</v>
       </c>
@@ -9281,11 +9247,11 @@
         <f t="shared" si="2"/>
         <v>10.19401440295287</v>
       </c>
-      <c r="L53" s="104">
+      <c r="L53" s="94">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M53" s="104">
+      <c r="M53" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9301,15 +9267,15 @@
         <f t="shared" si="7"/>
         <v>2.8459311587651022</v>
       </c>
-      <c r="Q53" s="104">
+      <c r="Q53" s="94">
         <f t="shared" ref="Q53:Q56" si="14">$E$52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="R53" s="104">
+      <c r="R53" s="94">
         <f>R52*1.05 +Q53</f>
         <v>22.166777540231642</v>
       </c>
-      <c r="T53" s="104">
+      <c r="T53" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9355,11 +9321,11 @@
         <f t="shared" si="2"/>
         <v>10.678230087093132</v>
       </c>
-      <c r="L54" s="104">
+      <c r="L54" s="94">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M54" s="104">
+      <c r="M54" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9375,15 +9341,15 @@
         <f t="shared" si="7"/>
         <v>2.61617031790247</v>
       </c>
-      <c r="Q54" s="104">
+      <c r="Q54" s="94">
         <f t="shared" si="14"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="R54" s="104">
+      <c r="R54" s="94">
         <f>R53*1.05 + Q54</f>
         <v>34.088178631990367</v>
       </c>
-      <c r="T54" s="104">
+      <c r="T54" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9429,11 +9395,11 @@
         <f t="shared" si="2"/>
         <v>11.185446016230058</v>
       </c>
-      <c r="L55" s="104">
+      <c r="L55" s="94">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M55" s="104">
+      <c r="M55" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9449,15 +9415,15 @@
         <f t="shared" si="7"/>
         <v>2.4024576619956037</v>
       </c>
-      <c r="Q55" s="104">
+      <c r="Q55" s="94">
         <f t="shared" si="14"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="R55" s="104">
+      <c r="R55" s="94">
         <f t="shared" ref="R55:R56" si="16">R54*1.05 + Q55</f>
         <v>46.605649778337025</v>
       </c>
-      <c r="T55" s="104">
+      <c r="T55" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9503,11 +9469,11 @@
         <f t="shared" si="2"/>
         <v>11.716754702000985</v>
       </c>
-      <c r="L56" s="104">
+      <c r="L56" s="94">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M56" s="104">
+      <c r="M56" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9523,15 +9489,15 @@
         <f t="shared" si="7"/>
         <v>2.2031082478198898</v>
       </c>
-      <c r="Q56" s="104">
+      <c r="Q56" s="94">
         <f t="shared" si="14"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="R56" s="104">
+      <c r="R56" s="94">
         <f t="shared" si="16"/>
         <v>59.748994482001017</v>
       </c>
-      <c r="T56" s="104">
+      <c r="T56" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9577,11 +9543,11 @@
         <f t="shared" si="2"/>
         <v>12.273300550346033</v>
       </c>
-      <c r="L57" s="104">
+      <c r="L57" s="94">
         <f>$E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M57" s="104">
+      <c r="M57" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9597,11 +9563,11 @@
         <f t="shared" si="7"/>
         <v>2.0167671825163049</v>
       </c>
-      <c r="S57" s="104">
+      <c r="S57" s="94">
         <f>R56+$E$52</f>
         <v>70.562056696748158</v>
       </c>
-      <c r="T57" s="104">
+      <c r="T57" s="94">
         <f>$E$52</f>
         <v>10.813062214747143</v>
       </c>
@@ -9629,11 +9595,11 @@
         <f t="shared" si="0"/>
         <v>0.82856323681831068</v>
       </c>
-      <c r="L58" s="104">
+      <c r="L58" s="94">
         <f t="shared" ref="L58:L106" si="17">$E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M58" s="104">
+      <c r="M58" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9649,11 +9615,11 @@
         <f t="shared" si="7"/>
         <v>1.8430065541042151</v>
       </c>
-      <c r="S58" s="104">
+      <c r="S58" s="94">
         <f>$E$52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="T58" s="104">
+      <c r="T58" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9681,11 +9647,11 @@
         <f t="shared" si="0"/>
         <v>0.81235323675594462</v>
       </c>
-      <c r="L59" s="104">
+      <c r="L59" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M59" s="104">
+      <c r="M59" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9701,11 +9667,11 @@
         <f t="shared" si="7"/>
         <v>1.680883719605589</v>
       </c>
-      <c r="S59" s="104">
+      <c r="S59" s="94">
         <f t="shared" ref="S59:S106" si="18">$E$52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="T59" s="104">
+      <c r="T59" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9733,11 +9699,11 @@
         <f t="shared" si="0"/>
         <v>0.79465093201826931</v>
       </c>
-      <c r="L60" s="104">
+      <c r="L60" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M60" s="104">
+      <c r="M60" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9753,11 +9719,11 @@
         <f t="shared" si="7"/>
         <v>1.5295394697233526</v>
       </c>
-      <c r="S60" s="104">
+      <c r="S60" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T60" s="104">
+      <c r="T60" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9785,11 +9751,11 @@
         <f t="shared" si="0"/>
         <v>0.77533244251717404</v>
       </c>
-      <c r="L61" s="104">
+      <c r="L61" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M61" s="104">
+      <c r="M61" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9805,11 +9771,11 @@
         <f t="shared" si="7"/>
         <v>1.3882375386379853</v>
       </c>
-      <c r="S61" s="104">
+      <c r="S61" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T61" s="104">
+      <c r="T61" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9837,11 +9803,11 @@
         <f t="shared" si="0"/>
         <v>0.75429624270826012</v>
       </c>
-      <c r="L62" s="104">
+      <c r="L62" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M62" s="104">
+      <c r="M62" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9857,11 +9823,11 @@
         <f t="shared" si="7"/>
         <v>1.2563461326872842</v>
       </c>
-      <c r="S62" s="104">
+      <c r="S62" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T62" s="104">
+      <c r="T62" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9889,11 +9855,11 @@
         <f t="shared" si="0"/>
         <v>0.73148587333503878</v>
       </c>
-      <c r="L63" s="104">
+      <c r="L63" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M63" s="104">
+      <c r="M63" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9909,11 +9875,11 @@
         <f t="shared" si="7"/>
         <v>1.1333520692702026</v>
       </c>
-      <c r="S63" s="104">
+      <c r="S63" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T63" s="104">
+      <c r="T63" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9941,11 +9907,11 @@
         <f t="shared" si="0"/>
         <v>0.70688041756920683</v>
       </c>
-      <c r="L64" s="104">
+      <c r="L64" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M64" s="104">
+      <c r="M64" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9961,11 +9927,11 @@
         <f t="shared" si="7"/>
         <v>1.0188174740132456</v>
       </c>
-      <c r="S64" s="104">
+      <c r="S64" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T64" s="104">
+      <c r="T64" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9993,11 +9959,11 @@
         <f t="shared" si="0"/>
         <v>0.68045800767369868</v>
       </c>
-      <c r="L65" s="104">
+      <c r="L65" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M65" s="104">
+      <c r="M65" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10013,11 +9979,11 @@
         <f t="shared" si="7"/>
         <v>0.91231181507125081</v>
       </c>
-      <c r="S65" s="104">
+      <c r="S65" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T65" s="104">
+      <c r="T65" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10045,11 +10011,11 @@
         <f t="shared" si="0"/>
         <v>0.65219102597804091</v>
       </c>
-      <c r="L66" s="104">
+      <c r="L66" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M66" s="104">
+      <c r="M66" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10065,11 +10031,11 @@
         <f t="shared" si="7"/>
         <v>0.81340778474747322</v>
       </c>
-      <c r="S66" s="104">
+      <c r="S66" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T66" s="104">
+      <c r="T66" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10097,11 +10063,11 @@
         <f t="shared" si="0"/>
         <v>0.62208579906438133</v>
       </c>
-      <c r="L67" s="104">
+      <c r="L67" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M67" s="104">
+      <c r="M67" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10117,11 +10083,11 @@
         <f t="shared" si="7"/>
         <v>0.72173094903319601</v>
       </c>
-      <c r="S67" s="104">
+      <c r="S67" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T67" s="104">
+      <c r="T67" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10149,11 +10115,11 @@
         <f t="shared" si="0"/>
         <v>0.58994718895047804</v>
       </c>
-      <c r="L68" s="104">
+      <c r="L68" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M68" s="104">
+      <c r="M68" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10169,11 +10135,11 @@
         <f t="shared" si="7"/>
         <v>0.63669246970930993</v>
       </c>
-      <c r="S68" s="104">
+      <c r="S68" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T68" s="104">
+      <c r="T68" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10201,11 +10167,11 @@
         <f t="shared" si="0"/>
         <v>0.55589613558373874</v>
       </c>
-      <c r="L69" s="104">
+      <c r="L69" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M69" s="104">
+      <c r="M69" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10221,11 +10187,11 @@
         <f t="shared" si="7"/>
         <v>0.55808682239463647</v>
       </c>
-      <c r="S69" s="104">
+      <c r="S69" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T69" s="104">
+      <c r="T69" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10253,11 +10219,11 @@
         <f t="shared" si="0"/>
         <v>0.52013014072015107</v>
       </c>
-      <c r="L70" s="104">
+      <c r="L70" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M70" s="104">
+      <c r="M70" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10273,11 +10239,11 @@
         <f t="shared" si="7"/>
         <v>0.48574872573970462</v>
       </c>
-      <c r="S70" s="104">
+      <c r="S70" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T70" s="104">
+      <c r="T70" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10305,11 +10271,11 @@
         <f t="shared" si="0"/>
         <v>0.48291255139771205</v>
       </c>
-      <c r="L71" s="104">
+      <c r="L71" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M71" s="104">
+      <c r="M71" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10325,11 +10291,11 @@
         <f t="shared" si="7"/>
         <v>0.41952676950903162</v>
       </c>
-      <c r="S71" s="104">
+      <c r="S71" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T71" s="104">
+      <c r="T71" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10357,11 +10323,11 @@
         <f t="shared" si="0"/>
         <v>0.44455624777516756</v>
       </c>
-      <c r="L72" s="104">
+      <c r="L72" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M72" s="104">
+      <c r="M72" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10377,11 +10343,11 @@
         <f t="shared" si="7"/>
         <v>0.35926047394183436</v>
       </c>
-      <c r="S72" s="104">
+      <c r="S72" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T72" s="104">
+      <c r="T72" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10409,11 +10375,11 @@
         <f t="shared" ref="D73:D106" si="19">D72*(1-C72)</f>
         <v>0.40540807054563471</v>
       </c>
-      <c r="L73" s="104">
+      <c r="L73" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M73" s="104">
+      <c r="M73" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10429,11 +10395,11 @@
         <f t="shared" si="7"/>
         <v>0.30476609196296539</v>
       </c>
-      <c r="S73" s="104">
+      <c r="S73" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T73" s="104">
+      <c r="T73" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10461,11 +10427,11 @@
         <f t="shared" si="19"/>
         <v>0.36496345429910237</v>
       </c>
-      <c r="L74" s="104">
+      <c r="L74" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M74" s="104">
+      <c r="M74" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10481,11 +10447,11 @@
         <f t="shared" si="7"/>
         <v>0.25522027380745999</v>
       </c>
-      <c r="S74" s="104">
+      <c r="S74" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T74" s="104">
+      <c r="T74" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10513,11 +10479,11 @@
         <f t="shared" si="19"/>
         <v>0.32375153217106822</v>
       </c>
-      <c r="L75" s="104">
+      <c r="L75" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M75" s="104">
+      <c r="M75" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10533,11 +10499,11 @@
         <f t="shared" si="7"/>
         <v>0.21060523391108546</v>
       </c>
-      <c r="S75" s="104">
+      <c r="S75" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T75" s="104">
+      <c r="T75" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10565,11 +10531,11 @@
         <f t="shared" si="19"/>
         <v>0.28244011143023273</v>
       </c>
-      <c r="L76" s="104">
+      <c r="L76" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M76" s="104">
+      <c r="M76" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10585,11 +10551,11 @@
         <f t="shared" si="7"/>
         <v>0.170913055150927</v>
       </c>
-      <c r="S76" s="104">
+      <c r="S76" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T76" s="104">
+      <c r="T76" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10617,11 +10583,11 @@
         <f t="shared" si="19"/>
         <v>0.24182729908718817</v>
       </c>
-      <c r="L77" s="104">
+      <c r="L77" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M77" s="104">
+      <c r="M77" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10637,11 +10603,11 @@
         <f t="shared" si="7"/>
         <v>0.13612745476963467</v>
       </c>
-      <c r="S77" s="104">
+      <c r="S77" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T77" s="104">
+      <c r="T77" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10669,11 +10635,11 @@
         <f t="shared" si="19"/>
         <v>0.20310084780351195</v>
       </c>
-      <c r="L78" s="104">
+      <c r="L78" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M78" s="104">
+      <c r="M78" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10689,11 +10655,11 @@
         <f t="shared" si="7"/>
         <v>0.10635151259503718</v>
       </c>
-      <c r="S78" s="104">
+      <c r="S78" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T78" s="104">
+      <c r="T78" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10721,11 +10687,11 @@
         <f t="shared" si="19"/>
         <v>0.16704293264795009</v>
       </c>
-      <c r="L79" s="104">
+      <c r="L79" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M79" s="104">
+      <c r="M79" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10741,11 +10707,11 @@
         <f t="shared" si="7"/>
         <v>8.1367613149169779E-2</v>
       </c>
-      <c r="S79" s="104">
+      <c r="S79" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T79" s="104">
+      <c r="T79" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10773,11 +10739,11 @@
         <f t="shared" si="19"/>
         <v>0.13433350212469566</v>
       </c>
-      <c r="L80" s="104">
+      <c r="L80" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M80" s="104">
+      <c r="M80" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10793,11 +10759,11 @@
         <f t="shared" si="7"/>
         <v>6.0869445207679951E-2</v>
       </c>
-      <c r="S80" s="104">
+      <c r="S80" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T80" s="104">
+      <c r="T80" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10825,11 +10791,11 @@
         <f t="shared" si="19"/>
         <v>0.10547923743049588</v>
       </c>
-      <c r="L81" s="104">
+      <c r="L81" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M81" s="104">
+      <c r="M81" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10845,11 +10811,11 @@
         <f t="shared" si="7"/>
         <v>4.4460416152917001E-2</v>
       </c>
-      <c r="S81" s="104">
+      <c r="S81" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T81" s="104">
+      <c r="T81" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10877,11 +10843,11 @@
         <f t="shared" si="19"/>
         <v>8.0763327010334174E-2</v>
       </c>
-      <c r="L82" s="104">
+      <c r="L82" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M82" s="104">
+      <c r="M82" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10897,11 +10863,11 @@
         <f t="shared" si="7"/>
         <v>3.1667390608636568E-2</v>
       </c>
-      <c r="S82" s="104">
+      <c r="S82" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T82" s="104">
+      <c r="T82" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10929,11 +10895,11 @@
         <f t="shared" si="19"/>
         <v>6.0228312276585545E-2</v>
       </c>
-      <c r="L83" s="104">
+      <c r="L83" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M83" s="104">
+      <c r="M83" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10949,11 +10915,11 @@
         <f t="shared" si="7"/>
         <v>2.1967989233155204E-2</v>
       </c>
-      <c r="S83" s="104">
+      <c r="S83" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T83" s="104">
+      <c r="T83" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10981,11 +10947,11 @@
         <f t="shared" si="19"/>
         <v>4.3692973821657315E-2</v>
       </c>
-      <c r="L84" s="104">
+      <c r="L84" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M84" s="104">
+      <c r="M84" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11001,11 +10967,11 @@
         <f t="shared" si="7"/>
         <v>1.482493349748654E-2</v>
       </c>
-      <c r="S84" s="104">
+      <c r="S84" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T84" s="104">
+      <c r="T84" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11033,11 +10999,11 @@
         <f t="shared" si="19"/>
         <v>3.1079476740244239E-2</v>
       </c>
-      <c r="L85" s="104">
+      <c r="L85" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M85" s="104">
+      <c r="M85" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11053,11 +11019,11 @@
         <f t="shared" si="7"/>
         <v>9.8094889738961286E-3</v>
       </c>
-      <c r="S85" s="104">
+      <c r="S85" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T85" s="104">
+      <c r="T85" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11085,11 +11051,11 @@
         <f t="shared" si="19"/>
         <v>2.1473236209615078E-2</v>
       </c>
-      <c r="L86" s="104">
+      <c r="L86" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M86" s="104">
+      <c r="M86" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11105,11 +11071,11 @@
         <f t="shared" si="7"/>
         <v>6.3046607473727888E-3</v>
       </c>
-      <c r="S86" s="104">
+      <c r="S86" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T86" s="104">
+      <c r="T86" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11137,11 +11103,11 @@
         <f t="shared" si="19"/>
         <v>1.4547741507732977E-2</v>
       </c>
-      <c r="L87" s="104">
+      <c r="L87" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M87" s="104">
+      <c r="M87" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11157,11 +11123,11 @@
         <f t="shared" si="7"/>
         <v>3.9732997707342494E-3</v>
       </c>
-      <c r="S87" s="104">
+      <c r="S87" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T87" s="104">
+      <c r="T87" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11189,11 +11155,11 @@
         <f t="shared" si="19"/>
         <v>9.5553150262579004E-3</v>
       </c>
-      <c r="L88" s="104">
+      <c r="L88" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M88" s="104">
+      <c r="M88" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11209,11 +11175,11 @@
         <f t="shared" si="7"/>
         <v>2.4276848160192815E-3</v>
       </c>
-      <c r="S88" s="104">
+      <c r="S88" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T88" s="104">
+      <c r="T88" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11241,11 +11207,11 @@
         <f t="shared" si="19"/>
         <v>6.1567784145890453E-3</v>
       </c>
-      <c r="L89" s="104">
+      <c r="L89" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M89" s="104">
+      <c r="M89" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11261,11 +11227,11 @@
         <f t="shared" si="7"/>
         <v>1.4550983606719764E-3</v>
       </c>
-      <c r="S89" s="104">
+      <c r="S89" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T89" s="104">
+      <c r="T89" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11293,11 +11259,11 @@
         <f t="shared" si="19"/>
         <v>3.8498272922810836E-3</v>
       </c>
-      <c r="L90" s="104">
+      <c r="L90" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M90" s="104">
+      <c r="M90" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11313,11 +11279,11 @@
         <f t="shared" si="7"/>
         <v>8.4639211880216847E-4</v>
       </c>
-      <c r="S90" s="104">
+      <c r="S90" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T90" s="104">
+      <c r="T90" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11345,11 +11311,11 @@
         <f t="shared" si="19"/>
         <v>2.3735383096026431E-3</v>
       </c>
-      <c r="L91" s="104">
+      <c r="L91" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M91" s="104">
+      <c r="M91" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11365,11 +11331,11 @@
         <f t="shared" si="7"/>
         <v>4.8542053578656802E-4</v>
       </c>
-      <c r="S91" s="104">
+      <c r="S91" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T91" s="104">
+      <c r="T91" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11397,11 +11363,11 @@
         <f t="shared" si="19"/>
         <v>1.429140645748086E-3</v>
       </c>
-      <c r="L92" s="104">
+      <c r="L92" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M92" s="104">
+      <c r="M92" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11417,11 +11383,11 @@
         <f t="shared" si="7"/>
         <v>2.7188697719497088E-4</v>
       </c>
-      <c r="S92" s="104">
+      <c r="S92" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T92" s="104">
+      <c r="T92" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11449,11 +11415,11 @@
         <f t="shared" si="19"/>
         <v>8.5748438744885159E-4</v>
       </c>
-      <c r="L93" s="104">
+      <c r="L93" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M93" s="104">
+      <c r="M93" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11469,11 +11435,11 @@
         <f t="shared" si="7"/>
         <v>1.5175087099254185E-4</v>
       </c>
-      <c r="S93" s="104">
+      <c r="S93" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T93" s="104">
+      <c r="T93" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11501,11 +11467,11 @@
         <f t="shared" si="19"/>
         <v>5.1449063246931091E-4</v>
       </c>
-      <c r="L94" s="104">
+      <c r="L94" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M94" s="104">
+      <c r="M94" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11521,11 +11487,11 @@
         <f t="shared" si="7"/>
         <v>8.4698160553976846E-5</v>
       </c>
-      <c r="S94" s="104">
+      <c r="S94" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T94" s="104">
+      <c r="T94" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11553,11 +11519,11 @@
         <f t="shared" si="19"/>
         <v>3.0869437948158654E-4</v>
       </c>
-      <c r="L95" s="104">
+      <c r="L95" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M95" s="104">
+      <c r="M95" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11573,11 +11539,11 @@
         <f t="shared" si="7"/>
         <v>4.7273391937103357E-5</v>
       </c>
-      <c r="S95" s="104">
+      <c r="S95" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T95" s="104">
+      <c r="T95" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11605,11 +11571,11 @@
         <f t="shared" si="19"/>
         <v>1.8521662768895193E-4</v>
       </c>
-      <c r="L96" s="104">
+      <c r="L96" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M96" s="104">
+      <c r="M96" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11625,11 +11591,11 @@
         <f t="shared" si="7"/>
         <v>2.6385148988150714E-5</v>
       </c>
-      <c r="S96" s="104">
+      <c r="S96" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T96" s="104">
+      <c r="T96" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11657,11 +11623,11 @@
         <f t="shared" si="19"/>
         <v>1.1112997661337116E-4</v>
       </c>
-      <c r="L97" s="104">
+      <c r="L97" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M97" s="104">
+      <c r="M97" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11677,11 +11643,11 @@
         <f t="shared" si="7"/>
         <v>1.4726594784084121E-5</v>
       </c>
-      <c r="S97" s="104">
+      <c r="S97" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T97" s="104">
+      <c r="T97" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11709,11 +11675,11 @@
         <f t="shared" si="19"/>
         <v>6.6677985968022693E-5</v>
       </c>
-      <c r="L98" s="104">
+      <c r="L98" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M98" s="104">
+      <c r="M98" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11729,11 +11695,11 @@
         <f t="shared" si="7"/>
         <v>8.2194947632097419E-6</v>
       </c>
-      <c r="S98" s="104">
+      <c r="S98" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T98" s="104">
+      <c r="T98" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11761,11 +11727,11 @@
         <f t="shared" si="19"/>
         <v>4.0006791580813616E-5</v>
       </c>
-      <c r="L99" s="104">
+      <c r="L99" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M99" s="104">
+      <c r="M99" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11781,11 +11747,11 @@
         <f t="shared" si="7"/>
         <v>4.587624984117065E-6</v>
       </c>
-      <c r="S99" s="104">
+      <c r="S99" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T99" s="104">
+      <c r="T99" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11813,11 +11779,11 @@
         <f t="shared" si="19"/>
         <v>2.400407494848817E-5</v>
       </c>
-      <c r="L100" s="104">
+      <c r="L100" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M100" s="104">
+      <c r="M100" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11833,11 +11799,11 @@
         <f t="shared" si="7"/>
         <v>2.5605348748560373E-6</v>
       </c>
-      <c r="S100" s="104">
+      <c r="S100" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T100" s="104">
+      <c r="T100" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11865,11 +11831,11 @@
         <f t="shared" si="19"/>
         <v>1.4402444969092902E-5</v>
       </c>
-      <c r="L101" s="104">
+      <c r="L101" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M101" s="104">
+      <c r="M101" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11885,11 +11851,11 @@
         <f t="shared" si="7"/>
         <v>1.429135744105695E-6</v>
       </c>
-      <c r="S101" s="104">
+      <c r="S101" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T101" s="104">
+      <c r="T101" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11917,11 +11883,11 @@
         <f t="shared" si="19"/>
         <v>8.6414669814557416E-6</v>
       </c>
-      <c r="L102" s="104">
+      <c r="L102" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M102" s="104">
+      <c r="M102" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11937,11 +11903,11 @@
         <f t="shared" si="7"/>
         <v>7.9765715950085294E-7</v>
       </c>
-      <c r="S102" s="104">
+      <c r="S102" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T102" s="104">
+      <c r="T102" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11969,11 +11935,11 @@
         <f t="shared" si="19"/>
         <v>5.1848801888734449E-6</v>
       </c>
-      <c r="L103" s="104">
+      <c r="L103" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M103" s="104">
+      <c r="M103" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11989,11 +11955,11 @@
         <f t="shared" si="7"/>
         <v>4.4520399600047596E-7</v>
       </c>
-      <c r="S103" s="104">
+      <c r="S103" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T103" s="104">
+      <c r="T103" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12021,11 +11987,11 @@
         <f t="shared" si="19"/>
         <v>3.1109281133240667E-6</v>
       </c>
-      <c r="L104" s="104">
+      <c r="L104" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M104" s="104">
+      <c r="M104" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12041,11 +12007,11 @@
         <f t="shared" si="7"/>
         <v>2.4848595125607966E-7</v>
       </c>
-      <c r="S104" s="104">
+      <c r="S104" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T104" s="104">
+      <c r="T104" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12073,11 +12039,11 @@
         <f t="shared" si="19"/>
         <v>1.8665568679944399E-6</v>
       </c>
-      <c r="L105" s="104">
+      <c r="L105" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M105" s="104">
+      <c r="M105" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12093,11 +12059,11 @@
         <f t="shared" si="7"/>
         <v>1.3868983325920723E-7</v>
       </c>
-      <c r="S105" s="104">
+      <c r="S105" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T105" s="104">
+      <c r="T105" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12125,11 +12091,11 @@
         <f t="shared" si="19"/>
         <v>1.1199341207966639E-6</v>
       </c>
-      <c r="L106" s="104">
+      <c r="L106" s="94">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M106" s="104">
+      <c r="M106" s="94">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12145,11 +12111,11 @@
         <f t="shared" si="7"/>
         <v>7.7408279028394735E-8</v>
       </c>
-      <c r="S106" s="104">
+      <c r="S106" s="94">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T106" s="104">
+      <c r="T106" s="94">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12167,18 +12133,18 @@
       </c>
     </row>
     <row r="108" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="N108" s="104" t="s">
+      <c r="N108" s="94" t="s">
         <v>199</v>
       </c>
       <c r="O108">
         <f>SUM(O42:O106)</f>
-        <v>76.787072163894578</v>
+        <v>78.064380654002491</v>
       </c>
       <c r="P108">
         <f>SUM(P42:P106)</f>
         <v>80.573925783148752</v>
       </c>
-      <c r="U108" s="104" t="s">
+      <c r="U108" s="94" t="s">
         <v>203</v>
       </c>
       <c r="V108">
@@ -12193,7 +12159,7 @@
     <row r="109" spans="2:23" x14ac:dyDescent="0.25">
       <c r="O109">
         <f>O108/P108</f>
-        <v>0.95300150039299492</v>
+        <v>0.96885412861847786</v>
       </c>
       <c r="V109">
         <f>V108/W108</f>
@@ -12436,8 +12402,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12470,7 +12436,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -12551,7 +12517,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13144,7 +13110,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13200,15 +13166,15 @@
       <c r="A5" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="94" t="s">
+      <c r="C5" s="102"/>
+      <c r="D5" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
       <c r="G5" s="42" t="s">
         <v>79</v>
       </c>
@@ -13231,10 +13197,10 @@
       <c r="E6" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="98" t="s">
+      <c r="F6" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="98"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
     </row>
@@ -13258,10 +13224,10 @@
       <c r="C9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="95"/>
+      <c r="E9" s="100"/>
       <c r="F9" s="38" t="s">
         <v>64</v>
       </c>
@@ -13273,16 +13239,16 @@
       <c r="A10" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99" t="s">
+      <c r="C10" s="104"/>
+      <c r="D10" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
@@ -13293,18 +13259,18 @@
       <c r="A12" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="95" t="s">
+      <c r="C12" s="102"/>
+      <c r="D12" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95" t="s">
+      <c r="E12" s="100"/>
+      <c r="F12" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="95"/>
+      <c r="G12" s="100"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>

--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="6" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="223">
   <si>
     <t>Notes</t>
   </si>
@@ -1685,6 +1685,79 @@
   <si>
     <t>PV at 65</t>
   </si>
+  <si>
+    <t xml:space="preserve">Tier1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tier4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eligibility </t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Eligible for Service retirement</t>
+  </si>
+  <si>
+    <t>Service connected</t>
+  </si>
+  <si>
+    <t>yos &gt;=20</t>
+  </si>
+  <si>
+    <t>100% accrued retirement benefit
+Not to sceed 50% Normal pension base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% of normal pension base </t>
+  </si>
+  <si>
+    <t>yos&gt;=20</t>
+  </si>
+  <si>
+    <t>100% accrued retirement benefit
+Not to sceed 55% Normal pension base</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">55% of Normal pension base if yos &gt;=25, otherwise 50% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(only need to model 55%)</t>
+    </r>
+  </si>
+  <si>
+    <t>yos&gt;=10</t>
+  </si>
+  <si>
+    <t>80% accrued retirement benefit
+Not to sceed 40% Normal pension base</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>75% of FAS</t>
+  </si>
+  <si>
+    <t>For former Tier 2: 100% accrued benefit, not to exceed 55% of NPB
+For others: 40% of FAS</t>
+  </si>
+  <si>
+    <t>80% of FAS</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
 </sst>
 </file>
 
@@ -1695,7 +1768,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1835,6 +1908,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1905,7 +1985,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2012,7 +2092,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2120,9 +2199,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2134,6 +2210,32 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2164,16 +2266,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2225,6 +2323,44 @@
         <a:xfrm>
           <a:off x="190500" y="704850"/>
           <a:ext cx="6933333" cy="4095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>208671</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>189943</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="5886450"/>
+          <a:ext cx="7028571" cy="4457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2444,16 +2580,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>447675</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2628017</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>18786</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>399167</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152136</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2462,7 +2598,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9201150" y="838200"/>
+          <a:off x="4019550" y="6924675"/>
           <a:ext cx="7066667" cy="14782536"/>
           <a:chOff x="2286000" y="4191000"/>
           <a:chExt cx="7066667" cy="14782536"/>
@@ -3780,780 +3916,780 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101" t="s">
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
-      <c r="B6" s="58" t="s">
+      <c r="A6" s="110"/>
+      <c r="B6" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="56" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="62" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="64">
+      <c r="A8" s="63">
         <v>41</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="64">
         <v>0.01</v>
       </c>
-      <c r="C8" s="65">
-        <v>0</v>
-      </c>
-      <c r="D8" s="65">
-        <v>0</v>
-      </c>
-      <c r="E8" s="65">
+      <c r="C8" s="64">
+        <v>0</v>
+      </c>
+      <c r="D8" s="64">
+        <v>0</v>
+      </c>
+      <c r="E8" s="64">
         <v>0.1</v>
       </c>
-      <c r="F8" s="65">
-        <v>0</v>
-      </c>
-      <c r="G8" s="65">
-        <v>0</v>
-      </c>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
+      <c r="F8" s="64">
+        <v>0</v>
+      </c>
+      <c r="G8" s="64">
+        <v>0</v>
+      </c>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="66">
+      <c r="A9" s="65">
         <v>42</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="66">
         <v>0.01</v>
       </c>
-      <c r="C9" s="67">
-        <v>0</v>
-      </c>
-      <c r="D9" s="67">
-        <v>0</v>
-      </c>
-      <c r="E9" s="67">
+      <c r="C9" s="66">
+        <v>0</v>
+      </c>
+      <c r="D9" s="66">
+        <v>0</v>
+      </c>
+      <c r="E9" s="66">
         <v>0.1</v>
       </c>
-      <c r="F9" s="67">
-        <v>0</v>
-      </c>
-      <c r="G9" s="67">
-        <v>0</v>
-      </c>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
+      <c r="F9" s="66">
+        <v>0</v>
+      </c>
+      <c r="G9" s="66">
+        <v>0</v>
+      </c>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="66">
+      <c r="A10" s="65">
         <v>43</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="66">
         <v>0.01</v>
       </c>
-      <c r="C10" s="67">
-        <v>0</v>
-      </c>
-      <c r="D10" s="67">
-        <v>0</v>
-      </c>
-      <c r="E10" s="67">
+      <c r="C10" s="66">
+        <v>0</v>
+      </c>
+      <c r="D10" s="66">
+        <v>0</v>
+      </c>
+      <c r="E10" s="66">
         <v>0.1</v>
       </c>
-      <c r="F10" s="67">
-        <v>0</v>
-      </c>
-      <c r="G10" s="67">
-        <v>0</v>
-      </c>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
+      <c r="F10" s="66">
+        <v>0</v>
+      </c>
+      <c r="G10" s="66">
+        <v>0</v>
+      </c>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="66">
+      <c r="A11" s="65">
         <v>44</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B11" s="66">
         <v>0.01</v>
       </c>
-      <c r="C11" s="67">
-        <v>0</v>
-      </c>
-      <c r="D11" s="67">
-        <v>0</v>
-      </c>
-      <c r="E11" s="67">
+      <c r="C11" s="66">
+        <v>0</v>
+      </c>
+      <c r="D11" s="66">
+        <v>0</v>
+      </c>
+      <c r="E11" s="66">
         <v>0.1</v>
       </c>
-      <c r="F11" s="67">
-        <v>0</v>
-      </c>
-      <c r="G11" s="67">
-        <v>0</v>
-      </c>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
+      <c r="F11" s="66">
+        <v>0</v>
+      </c>
+      <c r="G11" s="66">
+        <v>0</v>
+      </c>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="66">
+      <c r="A12" s="65">
         <v>45</v>
       </c>
-      <c r="B12" s="67">
+      <c r="B12" s="66">
         <v>0.01</v>
       </c>
-      <c r="C12" s="67">
-        <v>0</v>
-      </c>
-      <c r="D12" s="67">
-        <v>0</v>
-      </c>
-      <c r="E12" s="67">
+      <c r="C12" s="66">
+        <v>0</v>
+      </c>
+      <c r="D12" s="66">
+        <v>0</v>
+      </c>
+      <c r="E12" s="66">
         <v>0.1</v>
       </c>
-      <c r="F12" s="67">
-        <v>0</v>
-      </c>
-      <c r="G12" s="67">
-        <v>0</v>
-      </c>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
+      <c r="F12" s="66">
+        <v>0</v>
+      </c>
+      <c r="G12" s="66">
+        <v>0</v>
+      </c>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="66">
+      <c r="A13" s="65">
         <v>46</v>
       </c>
-      <c r="B13" s="67">
+      <c r="B13" s="66">
         <v>0.01</v>
       </c>
-      <c r="C13" s="67">
-        <v>0</v>
-      </c>
-      <c r="D13" s="67">
-        <v>0</v>
-      </c>
-      <c r="E13" s="67">
+      <c r="C13" s="66">
+        <v>0</v>
+      </c>
+      <c r="D13" s="66">
+        <v>0</v>
+      </c>
+      <c r="E13" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F13" s="67">
-        <v>0</v>
-      </c>
-      <c r="G13" s="67">
-        <v>0</v>
-      </c>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
+      <c r="F13" s="66">
+        <v>0</v>
+      </c>
+      <c r="G13" s="66">
+        <v>0</v>
+      </c>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="66">
+      <c r="A14" s="65">
         <v>47</v>
       </c>
-      <c r="B14" s="67">
+      <c r="B14" s="66">
         <v>0.01</v>
       </c>
-      <c r="C14" s="67">
-        <v>0</v>
-      </c>
-      <c r="D14" s="67">
-        <v>0</v>
-      </c>
-      <c r="E14" s="67">
+      <c r="C14" s="66">
+        <v>0</v>
+      </c>
+      <c r="D14" s="66">
+        <v>0</v>
+      </c>
+      <c r="E14" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F14" s="67">
-        <v>0</v>
-      </c>
-      <c r="G14" s="67">
-        <v>0</v>
-      </c>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
+      <c r="F14" s="66">
+        <v>0</v>
+      </c>
+      <c r="G14" s="66">
+        <v>0</v>
+      </c>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="66">
+      <c r="A15" s="65">
         <v>48</v>
       </c>
-      <c r="B15" s="67">
+      <c r="B15" s="66">
         <v>0.02</v>
       </c>
-      <c r="C15" s="67">
-        <v>0</v>
-      </c>
-      <c r="D15" s="67">
-        <v>0</v>
-      </c>
-      <c r="E15" s="67">
+      <c r="C15" s="66">
+        <v>0</v>
+      </c>
+      <c r="D15" s="66">
+        <v>0</v>
+      </c>
+      <c r="E15" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F15" s="67">
-        <v>0</v>
-      </c>
-      <c r="G15" s="67">
-        <v>0</v>
-      </c>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
+      <c r="F15" s="66">
+        <v>0</v>
+      </c>
+      <c r="G15" s="66">
+        <v>0</v>
+      </c>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="66">
+      <c r="A16" s="65">
         <v>49</v>
       </c>
-      <c r="B16" s="67">
+      <c r="B16" s="66">
         <v>0.02</v>
       </c>
-      <c r="C16" s="67">
-        <v>0</v>
-      </c>
-      <c r="D16" s="67">
-        <v>0</v>
-      </c>
-      <c r="E16" s="67">
+      <c r="C16" s="66">
+        <v>0</v>
+      </c>
+      <c r="D16" s="66">
+        <v>0</v>
+      </c>
+      <c r="E16" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F16" s="67">
-        <v>0</v>
-      </c>
-      <c r="G16" s="67">
-        <v>0</v>
-      </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
+      <c r="F16" s="66">
+        <v>0</v>
+      </c>
+      <c r="G16" s="66">
+        <v>0</v>
+      </c>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="66">
+      <c r="A17" s="65">
         <v>50</v>
       </c>
-      <c r="B17" s="67">
+      <c r="B17" s="66">
         <v>0.03</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="66">
         <v>0.03</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="66">
         <v>0.03</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="66">
         <v>0.12</v>
       </c>
-      <c r="F17" s="67">
+      <c r="F17" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G17" s="67">
+      <c r="G17" s="66">
         <v>0.08</v>
       </c>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="66">
+      <c r="A18" s="65">
         <v>51</v>
       </c>
-      <c r="B18" s="67">
+      <c r="B18" s="66">
         <v>0.04</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="66">
         <v>0.03</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="66">
         <v>0.03</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="66">
         <v>0.12</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="66">
         <v>0.06</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="66">
         <v>0.1</v>
       </c>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="66">
+      <c r="A19" s="65">
         <v>52</v>
       </c>
-      <c r="B19" s="67">
+      <c r="B19" s="66">
         <v>0.05</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="66">
         <v>0.03</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="66">
         <v>0.04</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="66">
         <v>0.12</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="66">
         <v>0.06</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="66">
         <v>0.1</v>
       </c>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="66">
+      <c r="A20" s="65">
         <v>53</v>
       </c>
-      <c r="B20" s="67">
+      <c r="B20" s="66">
         <v>0.1</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="66">
         <v>0.03</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="66">
         <v>0.05</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="66">
         <v>0.15</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="66">
         <v>0.06</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="66">
         <v>0.15</v>
       </c>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="66">
+      <c r="A21" s="65">
         <v>54</v>
       </c>
-      <c r="B21" s="67">
+      <c r="B21" s="66">
         <v>0.15</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="66">
         <v>0.05</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="66">
         <v>0.2</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="66">
         <v>0.1</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="66">
         <v>0.15</v>
       </c>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="66">
+      <c r="A22" s="65">
         <v>55</v>
       </c>
-      <c r="B22" s="67">
+      <c r="B22" s="66">
         <v>0.2</v>
       </c>
-      <c r="C22" s="67">
+      <c r="C22" s="66">
         <v>0.12</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="66">
         <v>0.1</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="66">
         <v>0.2</v>
       </c>
-      <c r="F22" s="67">
+      <c r="F22" s="66">
         <v>0.18</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="66">
         <v>0.18</v>
       </c>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="66">
+      <c r="A23" s="65">
         <v>56</v>
       </c>
-      <c r="B23" s="67">
+      <c r="B23" s="66">
         <v>0.2</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="66">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="66">
         <v>0.12</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="66">
         <v>0.25</v>
       </c>
-      <c r="F23" s="67">
+      <c r="F23" s="66">
         <v>0.18</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="66">
         <v>0.18</v>
       </c>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="66">
+      <c r="A24" s="65">
         <v>57</v>
       </c>
-      <c r="B24" s="67">
+      <c r="B24" s="66">
         <v>0.2</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="66">
         <v>0.16</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="66">
         <v>0.15</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="66">
         <v>0.25</v>
       </c>
-      <c r="F24" s="67">
+      <c r="F24" s="66">
         <v>0.2</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="66">
         <v>0.2</v>
       </c>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="66">
+      <c r="A25" s="65">
         <v>58</v>
       </c>
-      <c r="B25" s="67">
+      <c r="B25" s="66">
         <v>0.2</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="66">
         <v>0.2</v>
       </c>
-      <c r="D25" s="67">
+      <c r="D25" s="66">
         <v>0.18</v>
       </c>
-      <c r="E25" s="67">
+      <c r="E25" s="66">
         <v>0.25</v>
       </c>
-      <c r="F25" s="67">
+      <c r="F25" s="66">
         <v>0.22</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="66">
         <v>0.22</v>
       </c>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="66">
+      <c r="A26" s="65">
         <v>59</v>
       </c>
-      <c r="B26" s="67">
+      <c r="B26" s="66">
         <v>0.2</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="66">
         <v>0.25</v>
       </c>
-      <c r="D26" s="67">
+      <c r="D26" s="66">
         <v>0.2</v>
       </c>
-      <c r="E26" s="67">
+      <c r="E26" s="66">
         <v>0.25</v>
       </c>
-      <c r="F26" s="67">
+      <c r="F26" s="66">
         <v>0.25</v>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="66">
         <v>0.25</v>
       </c>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="66">
+      <c r="A27" s="65">
         <v>60</v>
       </c>
-      <c r="B27" s="67">
+      <c r="B27" s="66">
         <v>0.2</v>
       </c>
-      <c r="C27" s="67">
+      <c r="C27" s="66">
         <v>0.25</v>
       </c>
-      <c r="D27" s="67">
+      <c r="D27" s="66">
         <v>0.25</v>
       </c>
-      <c r="E27" s="67">
+      <c r="E27" s="66">
         <v>0.25</v>
       </c>
-      <c r="F27" s="67">
+      <c r="F27" s="66">
         <v>0.25</v>
       </c>
-      <c r="G27" s="67">
+      <c r="G27" s="66">
         <v>0.25</v>
       </c>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="66">
+      <c r="A28" s="65">
         <v>61</v>
       </c>
-      <c r="B28" s="67">
+      <c r="B28" s="66">
         <v>0.2</v>
       </c>
-      <c r="C28" s="67">
+      <c r="C28" s="66">
         <v>0.3</v>
       </c>
-      <c r="D28" s="67">
+      <c r="D28" s="66">
         <v>0.3</v>
       </c>
-      <c r="E28" s="67">
+      <c r="E28" s="66">
         <v>0.25</v>
       </c>
-      <c r="F28" s="67">
+      <c r="F28" s="66">
         <v>0.25</v>
       </c>
-      <c r="G28" s="67">
+      <c r="G28" s="66">
         <v>0.25</v>
       </c>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="66">
+      <c r="A29" s="65">
         <v>62</v>
       </c>
-      <c r="B29" s="67">
+      <c r="B29" s="66">
         <v>0.25</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="66">
         <v>0.35</v>
       </c>
-      <c r="D29" s="67">
+      <c r="D29" s="66">
         <v>0.3</v>
       </c>
-      <c r="E29" s="67">
+      <c r="E29" s="66">
         <v>0.25</v>
       </c>
-      <c r="F29" s="67">
+      <c r="F29" s="66">
         <v>0.25</v>
       </c>
-      <c r="G29" s="67">
+      <c r="G29" s="66">
         <v>0.25</v>
       </c>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="66">
+      <c r="A30" s="65">
         <v>63</v>
       </c>
-      <c r="B30" s="67">
+      <c r="B30" s="66">
         <v>0.25</v>
       </c>
-      <c r="C30" s="67">
+      <c r="C30" s="66">
         <v>0.4</v>
       </c>
-      <c r="D30" s="67">
+      <c r="D30" s="66">
         <v>0.35</v>
       </c>
-      <c r="E30" s="67">
+      <c r="E30" s="66">
         <v>0.3</v>
       </c>
-      <c r="F30" s="67">
+      <c r="F30" s="66">
         <v>0.25</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="66">
         <v>0.25</v>
       </c>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="66">
+      <c r="A31" s="65">
         <v>64</v>
       </c>
-      <c r="B31" s="67">
+      <c r="B31" s="66">
         <v>0.3</v>
       </c>
-      <c r="C31" s="67">
+      <c r="C31" s="66">
         <v>0.4</v>
       </c>
-      <c r="D31" s="67">
+      <c r="D31" s="66">
         <v>0.4</v>
       </c>
-      <c r="E31" s="67">
+      <c r="E31" s="66">
         <v>0.4</v>
       </c>
-      <c r="F31" s="67">
+      <c r="F31" s="66">
         <v>0.3</v>
       </c>
-      <c r="G31" s="67">
+      <c r="G31" s="66">
         <v>0.3</v>
       </c>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="66">
+      <c r="A32" s="65">
         <v>65</v>
       </c>
-      <c r="B32" s="67">
+      <c r="B32" s="66">
         <v>1</v>
       </c>
-      <c r="C32" s="67">
+      <c r="C32" s="66">
         <v>1</v>
       </c>
-      <c r="D32" s="67">
+      <c r="D32" s="66">
         <v>1</v>
       </c>
-      <c r="E32" s="67">
+      <c r="E32" s="66">
         <v>1</v>
       </c>
-      <c r="F32" s="67">
+      <c r="F32" s="66">
         <v>1</v>
       </c>
-      <c r="G32" s="67">
+      <c r="G32" s="66">
         <v>1</v>
       </c>
     </row>
@@ -4577,8 +4713,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F47"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4620,1819 +4756,1819 @@
       <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="69" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="69">
-        <v>0</v>
-      </c>
-      <c r="B7" s="71">
-        <v>0</v>
-      </c>
-      <c r="C7" s="71">
-        <v>0</v>
-      </c>
-      <c r="D7" s="71">
-        <v>0</v>
-      </c>
-      <c r="E7" s="71">
-        <v>0</v>
-      </c>
-      <c r="F7" s="71">
-        <v>0</v>
-      </c>
-      <c r="G7" s="71">
+      <c r="A7" s="68">
+        <v>0</v>
+      </c>
+      <c r="B7" s="70">
+        <v>0</v>
+      </c>
+      <c r="C7" s="70">
+        <v>0</v>
+      </c>
+      <c r="D7" s="70">
+        <v>0</v>
+      </c>
+      <c r="E7" s="70">
+        <v>0</v>
+      </c>
+      <c r="F7" s="70">
+        <v>0</v>
+      </c>
+      <c r="G7" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="69">
+      <c r="A8" s="68">
         <v>1</v>
       </c>
-      <c r="B8" s="71">
-        <v>0</v>
-      </c>
-      <c r="C8" s="71">
-        <v>0</v>
-      </c>
-      <c r="D8" s="71">
-        <v>0</v>
-      </c>
-      <c r="E8" s="71">
-        <v>0</v>
-      </c>
-      <c r="F8" s="71">
-        <v>0</v>
-      </c>
-      <c r="G8" s="71">
+      <c r="B8" s="70">
+        <v>0</v>
+      </c>
+      <c r="C8" s="70">
+        <v>0</v>
+      </c>
+      <c r="D8" s="70">
+        <v>0</v>
+      </c>
+      <c r="E8" s="70">
+        <v>0</v>
+      </c>
+      <c r="F8" s="70">
+        <v>0</v>
+      </c>
+      <c r="G8" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="69">
+      <c r="A9" s="68">
         <v>2</v>
       </c>
-      <c r="B9" s="71">
-        <v>0</v>
-      </c>
-      <c r="C9" s="71">
-        <v>0</v>
-      </c>
-      <c r="D9" s="71">
-        <v>0</v>
-      </c>
-      <c r="E9" s="71">
-        <v>0</v>
-      </c>
-      <c r="F9" s="71">
-        <v>0</v>
-      </c>
-      <c r="G9" s="71">
+      <c r="B9" s="70">
+        <v>0</v>
+      </c>
+      <c r="C9" s="70">
+        <v>0</v>
+      </c>
+      <c r="D9" s="70">
+        <v>0</v>
+      </c>
+      <c r="E9" s="70">
+        <v>0</v>
+      </c>
+      <c r="F9" s="70">
+        <v>0</v>
+      </c>
+      <c r="G9" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="69">
+      <c r="A10" s="68">
         <v>3</v>
       </c>
-      <c r="B10" s="71">
-        <v>0</v>
-      </c>
-      <c r="C10" s="71">
-        <v>0</v>
-      </c>
-      <c r="D10" s="71">
-        <v>0</v>
-      </c>
-      <c r="E10" s="71">
-        <v>0</v>
-      </c>
-      <c r="F10" s="71">
-        <v>0</v>
-      </c>
-      <c r="G10" s="71">
+      <c r="B10" s="70">
+        <v>0</v>
+      </c>
+      <c r="C10" s="70">
+        <v>0</v>
+      </c>
+      <c r="D10" s="70">
+        <v>0</v>
+      </c>
+      <c r="E10" s="70">
+        <v>0</v>
+      </c>
+      <c r="F10" s="70">
+        <v>0</v>
+      </c>
+      <c r="G10" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="69">
+      <c r="A11" s="68">
         <v>4</v>
       </c>
-      <c r="B11" s="71">
-        <v>0</v>
-      </c>
-      <c r="C11" s="71">
-        <v>0</v>
-      </c>
-      <c r="D11" s="71">
-        <v>0</v>
-      </c>
-      <c r="E11" s="71">
-        <v>0</v>
-      </c>
-      <c r="F11" s="71">
-        <v>0</v>
-      </c>
-      <c r="G11" s="71">
+      <c r="B11" s="70">
+        <v>0</v>
+      </c>
+      <c r="C11" s="70">
+        <v>0</v>
+      </c>
+      <c r="D11" s="70">
+        <v>0</v>
+      </c>
+      <c r="E11" s="70">
+        <v>0</v>
+      </c>
+      <c r="F11" s="70">
+        <v>0</v>
+      </c>
+      <c r="G11" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="69">
+      <c r="A12" s="68">
         <v>5</v>
       </c>
-      <c r="B12" s="71">
-        <v>0</v>
-      </c>
-      <c r="C12" s="71">
-        <v>0</v>
-      </c>
-      <c r="D12" s="71">
-        <v>0</v>
-      </c>
-      <c r="E12" s="71">
-        <v>0</v>
-      </c>
-      <c r="F12" s="71">
-        <v>0</v>
-      </c>
-      <c r="G12" s="71">
+      <c r="B12" s="70">
+        <v>0</v>
+      </c>
+      <c r="C12" s="70">
+        <v>0</v>
+      </c>
+      <c r="D12" s="70">
+        <v>0</v>
+      </c>
+      <c r="E12" s="70">
+        <v>0</v>
+      </c>
+      <c r="F12" s="70">
+        <v>0</v>
+      </c>
+      <c r="G12" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="69">
+      <c r="A13" s="68">
         <v>6</v>
       </c>
-      <c r="B13" s="71">
-        <v>0</v>
-      </c>
-      <c r="C13" s="71">
-        <v>0</v>
-      </c>
-      <c r="D13" s="71">
-        <v>0</v>
-      </c>
-      <c r="E13" s="71">
-        <v>0</v>
-      </c>
-      <c r="F13" s="71">
-        <v>0</v>
-      </c>
-      <c r="G13" s="71">
+      <c r="B13" s="70">
+        <v>0</v>
+      </c>
+      <c r="C13" s="70">
+        <v>0</v>
+      </c>
+      <c r="D13" s="70">
+        <v>0</v>
+      </c>
+      <c r="E13" s="70">
+        <v>0</v>
+      </c>
+      <c r="F13" s="70">
+        <v>0</v>
+      </c>
+      <c r="G13" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="69">
+      <c r="A14" s="68">
         <v>7</v>
       </c>
-      <c r="B14" s="71">
-        <v>0</v>
-      </c>
-      <c r="C14" s="71">
-        <v>0</v>
-      </c>
-      <c r="D14" s="71">
-        <v>0</v>
-      </c>
-      <c r="E14" s="71">
-        <v>0</v>
-      </c>
-      <c r="F14" s="71">
-        <v>0</v>
-      </c>
-      <c r="G14" s="71">
+      <c r="B14" s="70">
+        <v>0</v>
+      </c>
+      <c r="C14" s="70">
+        <v>0</v>
+      </c>
+      <c r="D14" s="70">
+        <v>0</v>
+      </c>
+      <c r="E14" s="70">
+        <v>0</v>
+      </c>
+      <c r="F14" s="70">
+        <v>0</v>
+      </c>
+      <c r="G14" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="69">
+      <c r="A15" s="68">
         <v>8</v>
       </c>
-      <c r="B15" s="71">
-        <v>0</v>
-      </c>
-      <c r="C15" s="71">
-        <v>0</v>
-      </c>
-      <c r="D15" s="71">
-        <v>0</v>
-      </c>
-      <c r="E15" s="71">
-        <v>0</v>
-      </c>
-      <c r="F15" s="71">
-        <v>0</v>
-      </c>
-      <c r="G15" s="71">
+      <c r="B15" s="70">
+        <v>0</v>
+      </c>
+      <c r="C15" s="70">
+        <v>0</v>
+      </c>
+      <c r="D15" s="70">
+        <v>0</v>
+      </c>
+      <c r="E15" s="70">
+        <v>0</v>
+      </c>
+      <c r="F15" s="70">
+        <v>0</v>
+      </c>
+      <c r="G15" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="69">
+      <c r="A16" s="68">
         <v>9</v>
       </c>
-      <c r="B16" s="71">
-        <v>0</v>
-      </c>
-      <c r="C16" s="71">
-        <v>0</v>
-      </c>
-      <c r="D16" s="71">
-        <v>0</v>
-      </c>
-      <c r="E16" s="71">
-        <v>0</v>
-      </c>
-      <c r="F16" s="71">
-        <v>0</v>
-      </c>
-      <c r="G16" s="71">
+      <c r="B16" s="70">
+        <v>0</v>
+      </c>
+      <c r="C16" s="70">
+        <v>0</v>
+      </c>
+      <c r="D16" s="70">
+        <v>0</v>
+      </c>
+      <c r="E16" s="70">
+        <v>0</v>
+      </c>
+      <c r="F16" s="70">
+        <v>0</v>
+      </c>
+      <c r="G16" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="69">
+      <c r="A17" s="68">
         <v>10</v>
       </c>
-      <c r="B17" s="71">
-        <v>0</v>
-      </c>
-      <c r="C17" s="71">
-        <v>0</v>
-      </c>
-      <c r="D17" s="72">
+      <c r="B17" s="70">
+        <v>0</v>
+      </c>
+      <c r="C17" s="70">
+        <v>0</v>
+      </c>
+      <c r="D17" s="71">
         <f>0.02*$A17</f>
         <v>0.2</v>
       </c>
-      <c r="E17" s="71">
-        <v>0</v>
-      </c>
-      <c r="F17" s="71">
-        <v>0</v>
-      </c>
-      <c r="G17" s="71">
+      <c r="E17" s="70">
+        <v>0</v>
+      </c>
+      <c r="F17" s="70">
+        <v>0</v>
+      </c>
+      <c r="G17" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="69">
+      <c r="A18" s="68">
         <v>11</v>
       </c>
-      <c r="B18" s="71">
-        <v>0</v>
-      </c>
-      <c r="C18" s="71">
-        <v>0</v>
-      </c>
-      <c r="D18" s="72">
+      <c r="B18" s="70">
+        <v>0</v>
+      </c>
+      <c r="C18" s="70">
+        <v>0</v>
+      </c>
+      <c r="D18" s="71">
         <f t="shared" ref="D18:D26" si="0">0.02*$A18</f>
         <v>0.22</v>
       </c>
-      <c r="E18" s="71">
-        <v>0</v>
-      </c>
-      <c r="F18" s="71">
-        <v>0</v>
-      </c>
-      <c r="G18" s="71">
+      <c r="E18" s="70">
+        <v>0</v>
+      </c>
+      <c r="F18" s="70">
+        <v>0</v>
+      </c>
+      <c r="G18" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="69">
+      <c r="A19" s="68">
         <v>12</v>
       </c>
-      <c r="B19" s="71">
-        <v>0</v>
-      </c>
-      <c r="C19" s="71">
-        <v>0</v>
-      </c>
-      <c r="D19" s="72">
+      <c r="B19" s="70">
+        <v>0</v>
+      </c>
+      <c r="C19" s="70">
+        <v>0</v>
+      </c>
+      <c r="D19" s="71">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="E19" s="71">
-        <v>0</v>
-      </c>
-      <c r="F19" s="71">
-        <v>0</v>
-      </c>
-      <c r="G19" s="71">
+      <c r="E19" s="70">
+        <v>0</v>
+      </c>
+      <c r="F19" s="70">
+        <v>0</v>
+      </c>
+      <c r="G19" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="69">
+      <c r="A20" s="68">
         <v>13</v>
       </c>
-      <c r="B20" s="71">
-        <v>0</v>
-      </c>
-      <c r="C20" s="71">
-        <v>0</v>
-      </c>
-      <c r="D20" s="72">
+      <c r="B20" s="70">
+        <v>0</v>
+      </c>
+      <c r="C20" s="70">
+        <v>0</v>
+      </c>
+      <c r="D20" s="71">
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-      <c r="E20" s="71">
-        <v>0</v>
-      </c>
-      <c r="F20" s="71">
-        <v>0</v>
-      </c>
-      <c r="G20" s="71">
+      <c r="E20" s="70">
+        <v>0</v>
+      </c>
+      <c r="F20" s="70">
+        <v>0</v>
+      </c>
+      <c r="G20" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="69">
+      <c r="A21" s="68">
         <v>14</v>
       </c>
-      <c r="B21" s="71">
-        <v>0</v>
-      </c>
-      <c r="C21" s="71">
-        <v>0</v>
-      </c>
-      <c r="D21" s="72">
+      <c r="B21" s="70">
+        <v>0</v>
+      </c>
+      <c r="C21" s="70">
+        <v>0</v>
+      </c>
+      <c r="D21" s="71">
         <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="E21" s="71">
-        <v>0</v>
-      </c>
-      <c r="F21" s="71">
-        <v>0</v>
-      </c>
-      <c r="G21" s="71">
+      <c r="E21" s="70">
+        <v>0</v>
+      </c>
+      <c r="F21" s="70">
+        <v>0</v>
+      </c>
+      <c r="G21" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="69">
+      <c r="A22" s="68">
         <v>15</v>
       </c>
-      <c r="B22" s="71">
-        <v>0</v>
-      </c>
-      <c r="C22" s="71">
-        <v>0</v>
-      </c>
-      <c r="D22" s="72">
+      <c r="B22" s="70">
+        <v>0</v>
+      </c>
+      <c r="C22" s="70">
+        <v>0</v>
+      </c>
+      <c r="D22" s="71">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="E22" s="71">
-        <v>0</v>
-      </c>
-      <c r="F22" s="71">
-        <v>0</v>
-      </c>
-      <c r="G22" s="71">
+      <c r="E22" s="70">
+        <v>0</v>
+      </c>
+      <c r="F22" s="70">
+        <v>0</v>
+      </c>
+      <c r="G22" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="69">
+      <c r="A23" s="68">
         <v>16</v>
       </c>
-      <c r="B23" s="71">
-        <v>0</v>
-      </c>
-      <c r="C23" s="71">
-        <v>0</v>
-      </c>
-      <c r="D23" s="72">
+      <c r="B23" s="70">
+        <v>0</v>
+      </c>
+      <c r="C23" s="70">
+        <v>0</v>
+      </c>
+      <c r="D23" s="71">
         <f t="shared" si="0"/>
         <v>0.32</v>
       </c>
-      <c r="E23" s="71">
-        <v>0</v>
-      </c>
-      <c r="F23" s="71">
-        <v>0</v>
-      </c>
-      <c r="G23" s="71">
+      <c r="E23" s="70">
+        <v>0</v>
+      </c>
+      <c r="F23" s="70">
+        <v>0</v>
+      </c>
+      <c r="G23" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="69">
+      <c r="A24" s="68">
         <v>17</v>
       </c>
-      <c r="B24" s="71">
-        <v>0</v>
-      </c>
-      <c r="C24" s="71">
-        <v>0</v>
-      </c>
-      <c r="D24" s="72">
+      <c r="B24" s="70">
+        <v>0</v>
+      </c>
+      <c r="C24" s="70">
+        <v>0</v>
+      </c>
+      <c r="D24" s="71">
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
-      <c r="E24" s="71">
-        <v>0</v>
-      </c>
-      <c r="F24" s="71">
-        <v>0</v>
-      </c>
-      <c r="G24" s="71">
+      <c r="E24" s="70">
+        <v>0</v>
+      </c>
+      <c r="F24" s="70">
+        <v>0</v>
+      </c>
+      <c r="G24" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="69">
+      <c r="A25" s="68">
         <v>18</v>
       </c>
-      <c r="B25" s="71">
-        <v>0</v>
-      </c>
-      <c r="C25" s="71">
-        <v>0</v>
-      </c>
-      <c r="D25" s="72">
+      <c r="B25" s="70">
+        <v>0</v>
+      </c>
+      <c r="C25" s="70">
+        <v>0</v>
+      </c>
+      <c r="D25" s="71">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-      <c r="E25" s="71">
-        <v>0</v>
-      </c>
-      <c r="F25" s="71">
-        <v>0</v>
-      </c>
-      <c r="G25" s="71">
+      <c r="E25" s="70">
+        <v>0</v>
+      </c>
+      <c r="F25" s="70">
+        <v>0</v>
+      </c>
+      <c r="G25" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="69">
+      <c r="A26" s="68">
         <v>19</v>
       </c>
-      <c r="B26" s="71">
-        <v>0</v>
-      </c>
-      <c r="C26" s="71">
-        <v>0</v>
-      </c>
-      <c r="D26" s="72">
+      <c r="B26" s="70">
+        <v>0</v>
+      </c>
+      <c r="C26" s="70">
+        <v>0</v>
+      </c>
+      <c r="D26" s="71">
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
-      <c r="E26" s="71">
-        <v>0</v>
-      </c>
-      <c r="F26" s="71">
-        <v>0</v>
-      </c>
-      <c r="G26" s="71">
+      <c r="E26" s="70">
+        <v>0</v>
+      </c>
+      <c r="F26" s="70">
+        <v>0</v>
+      </c>
+      <c r="G26" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="69">
+      <c r="A27" s="68">
         <v>20</v>
       </c>
-      <c r="B27" s="72">
+      <c r="B27" s="71">
         <v>0.4</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="71">
         <f>0.02*A27</f>
         <v>0.4</v>
       </c>
-      <c r="D27" s="72">
+      <c r="D27" s="71">
         <f>MIN($D$26+0.03*($A27-19), 0.7)</f>
         <v>0.41000000000000003</v>
       </c>
-      <c r="E27" s="73">
+      <c r="E27" s="72">
         <v>0.4</v>
       </c>
-      <c r="F27" s="73">
+      <c r="F27" s="72">
         <v>0.5</v>
       </c>
-      <c r="G27" s="73">
+      <c r="G27" s="72">
         <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="69">
+      <c r="A28" s="68">
         <v>21</v>
       </c>
-      <c r="B28" s="72">
+      <c r="B28" s="71">
         <v>0.42</v>
       </c>
-      <c r="C28" s="72">
+      <c r="C28" s="71">
         <f t="shared" ref="C28:C31" si="1">0.02*A28</f>
         <v>0.42</v>
       </c>
-      <c r="D28" s="72">
+      <c r="D28" s="71">
         <f t="shared" ref="D28:D72" si="2">MIN($D$26+0.03*($A28-19), 0.7)</f>
         <v>0.44</v>
       </c>
-      <c r="E28" s="72">
+      <c r="E28" s="71">
         <f>MIN($E$27+0.03*($A28-20), 0.7)</f>
         <v>0.43000000000000005</v>
       </c>
-      <c r="F28" s="72">
+      <c r="F28" s="71">
         <f>MIN(F27 + 0.03, 0.9)</f>
         <v>0.53</v>
       </c>
-      <c r="G28" s="72">
+      <c r="G28" s="71">
         <f>MIN(G27 + 0.03, 0.9)</f>
         <v>0.43000000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="69">
+      <c r="A29" s="68">
         <v>22</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <v>0.44</v>
       </c>
-      <c r="C29" s="72">
+      <c r="C29" s="71">
         <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
-      <c r="D29" s="72">
+      <c r="D29" s="71">
         <f t="shared" si="2"/>
         <v>0.47</v>
       </c>
-      <c r="E29" s="72">
+      <c r="E29" s="71">
         <f t="shared" ref="E29:E72" si="3">MIN($E$27+0.03*($A29-20), 0.7)</f>
         <v>0.46</v>
       </c>
-      <c r="F29" s="72">
+      <c r="F29" s="71">
         <f t="shared" ref="F29:G72" si="4">MIN(F28 + 0.03, 0.9)</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="G29" s="72">
+      <c r="G29" s="71">
         <f t="shared" si="4"/>
         <v>0.46000000000000008</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="69">
+      <c r="A30" s="68">
         <v>23</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="71">
         <v>0.46</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="71">
         <f t="shared" si="1"/>
         <v>0.46</v>
       </c>
-      <c r="D30" s="72">
+      <c r="D30" s="71">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="E30" s="72">
+      <c r="E30" s="71">
         <f t="shared" si="3"/>
         <v>0.49</v>
       </c>
-      <c r="F30" s="72">
+      <c r="F30" s="71">
         <f t="shared" si="4"/>
         <v>0.59000000000000008</v>
       </c>
-      <c r="G30" s="72">
+      <c r="G30" s="71">
         <f t="shared" si="4"/>
         <v>0.4900000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="69">
+      <c r="A31" s="68">
         <v>24</v>
       </c>
-      <c r="B31" s="72">
+      <c r="B31" s="71">
         <v>0.48</v>
       </c>
-      <c r="C31" s="72">
+      <c r="C31" s="71">
         <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
-      <c r="D31" s="72">
+      <c r="D31" s="71">
         <f t="shared" si="2"/>
         <v>0.53</v>
       </c>
-      <c r="E31" s="72">
+      <c r="E31" s="71">
         <f t="shared" si="3"/>
         <v>0.52</v>
       </c>
-      <c r="F31" s="72">
+      <c r="F31" s="71">
         <f t="shared" si="4"/>
         <v>0.62000000000000011</v>
       </c>
-      <c r="G31" s="72">
+      <c r="G31" s="71">
         <f t="shared" si="4"/>
         <v>0.52000000000000013</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="69">
+      <c r="A32" s="68">
         <v>25</v>
       </c>
-      <c r="B32" s="72">
+      <c r="B32" s="71">
         <v>0.5</v>
       </c>
-      <c r="C32" s="72">
+      <c r="C32" s="71">
         <f>MIN(0.55+0.03*(A32-25), 0.7)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D32" s="72">
+      <c r="D32" s="71">
         <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="E32" s="72">
+      <c r="E32" s="71">
         <f t="shared" si="3"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="F32" s="72">
+      <c r="F32" s="71">
         <f t="shared" si="4"/>
         <v>0.65000000000000013</v>
       </c>
-      <c r="G32" s="72">
+      <c r="G32" s="71">
         <f t="shared" si="4"/>
         <v>0.55000000000000016</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="69">
+      <c r="A33" s="68">
         <v>26</v>
       </c>
-      <c r="B33" s="74">
+      <c r="B33" s="73">
         <f>0.5 + 5/300</f>
         <v>0.51666666666666672</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="71">
         <f t="shared" ref="C33:C72" si="5">MIN(0.55+0.03*(A33-25), 0.7)</f>
         <v>0.58000000000000007</v>
       </c>
-      <c r="D33" s="72">
+      <c r="D33" s="71">
         <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
-      <c r="E33" s="72">
+      <c r="E33" s="71">
         <f t="shared" si="3"/>
         <v>0.58000000000000007</v>
       </c>
-      <c r="F33" s="72">
+      <c r="F33" s="71">
         <f t="shared" si="4"/>
         <v>0.68000000000000016</v>
       </c>
-      <c r="G33" s="72">
+      <c r="G33" s="71">
         <f>MIN(G32 + 0.04, 0.9)</f>
         <v>0.59000000000000019</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="69">
+      <c r="A34" s="68">
         <v>27</v>
       </c>
-      <c r="B34" s="75">
+      <c r="B34" s="74">
         <f>B33 + 5/300</f>
         <v>0.53333333333333344</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="71">
         <f t="shared" si="5"/>
         <v>0.6100000000000001</v>
       </c>
-      <c r="D34" s="72">
+      <c r="D34" s="71">
         <f t="shared" si="2"/>
         <v>0.62</v>
       </c>
-      <c r="E34" s="72">
+      <c r="E34" s="71">
         <f t="shared" si="3"/>
         <v>0.61</v>
       </c>
-      <c r="F34" s="72">
+      <c r="F34" s="71">
         <f t="shared" si="4"/>
         <v>0.71000000000000019</v>
       </c>
-      <c r="G34" s="72">
+      <c r="G34" s="71">
         <f t="shared" ref="G34:G37" si="6">MIN(G33 + 0.04, 0.9)</f>
         <v>0.63000000000000023</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="69">
+      <c r="A35" s="68">
         <v>28</v>
       </c>
-      <c r="B35" s="75">
+      <c r="B35" s="74">
         <f t="shared" ref="B35:B42" si="7">B34 + 5/300</f>
         <v>0.55000000000000016</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="71">
         <f t="shared" si="5"/>
         <v>0.64</v>
       </c>
-      <c r="D35" s="72">
+      <c r="D35" s="71">
         <f t="shared" si="2"/>
         <v>0.65</v>
       </c>
-      <c r="E35" s="72">
+      <c r="E35" s="71">
         <f t="shared" si="3"/>
         <v>0.64</v>
       </c>
-      <c r="F35" s="72">
+      <c r="F35" s="71">
         <f t="shared" si="4"/>
         <v>0.74000000000000021</v>
       </c>
-      <c r="G35" s="72">
+      <c r="G35" s="71">
         <f t="shared" si="6"/>
         <v>0.67000000000000026</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="69">
+      <c r="A36" s="68">
         <v>29</v>
       </c>
-      <c r="B36" s="75">
+      <c r="B36" s="74">
         <f t="shared" si="7"/>
         <v>0.56666666666666687</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="71">
         <f t="shared" si="5"/>
         <v>0.67</v>
       </c>
-      <c r="D36" s="72">
+      <c r="D36" s="71">
         <f t="shared" si="2"/>
         <v>0.67999999999999994</v>
       </c>
-      <c r="E36" s="72">
+      <c r="E36" s="71">
         <f t="shared" si="3"/>
         <v>0.67</v>
       </c>
-      <c r="F36" s="72">
+      <c r="F36" s="71">
         <f t="shared" si="4"/>
         <v>0.77000000000000024</v>
       </c>
-      <c r="G36" s="72">
+      <c r="G36" s="71">
         <f t="shared" si="6"/>
         <v>0.7100000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="69">
+      <c r="A37" s="68">
         <v>30</v>
       </c>
-      <c r="B37" s="75">
+      <c r="B37" s="74">
         <f t="shared" si="7"/>
         <v>0.58333333333333359</v>
       </c>
-      <c r="C37" s="72">
+      <c r="C37" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D37" s="72">
+      <c r="D37" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E37" s="72">
+      <c r="E37" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F37" s="72">
+      <c r="F37" s="71">
         <f>MIN(F36 + 0.04, 0.9)</f>
         <v>0.81000000000000028</v>
       </c>
-      <c r="G37" s="72">
+      <c r="G37" s="71">
         <f t="shared" si="6"/>
         <v>0.75000000000000033</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="69">
+      <c r="A38" s="68">
         <v>31</v>
       </c>
-      <c r="B38" s="75">
+      <c r="B38" s="74">
         <f t="shared" si="7"/>
         <v>0.60000000000000031</v>
       </c>
-      <c r="C38" s="72">
+      <c r="C38" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D38" s="72">
+      <c r="D38" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E38" s="72">
+      <c r="E38" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F38" s="72">
+      <c r="F38" s="71">
         <f t="shared" si="4"/>
         <v>0.8400000000000003</v>
       </c>
-      <c r="G38" s="72">
+      <c r="G38" s="71">
         <f>MIN(G37 + 0.05, 0.9)</f>
         <v>0.80000000000000038</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="69">
+      <c r="A39" s="68">
         <v>32</v>
       </c>
-      <c r="B39" s="75">
+      <c r="B39" s="74">
         <f t="shared" si="7"/>
         <v>0.61666666666666703</v>
       </c>
-      <c r="C39" s="72">
+      <c r="C39" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D39" s="72">
+      <c r="D39" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E39" s="72">
+      <c r="E39" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F39" s="72">
+      <c r="F39" s="71">
         <f t="shared" si="4"/>
         <v>0.87000000000000033</v>
       </c>
-      <c r="G39" s="72">
+      <c r="G39" s="71">
         <f t="shared" ref="G39:G72" si="8">MIN(G38 + 0.05, 0.9)</f>
         <v>0.85000000000000042</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="69">
+      <c r="A40" s="68">
         <v>33</v>
       </c>
-      <c r="B40" s="75">
+      <c r="B40" s="74">
         <f t="shared" si="7"/>
         <v>0.63333333333333375</v>
       </c>
-      <c r="C40" s="72">
+      <c r="C40" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D40" s="72">
+      <c r="D40" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E40" s="72">
+      <c r="E40" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F40" s="72">
+      <c r="F40" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G40" s="72">
+      <c r="G40" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="69">
+      <c r="A41" s="68">
         <v>34</v>
       </c>
-      <c r="B41" s="75">
+      <c r="B41" s="74">
         <f t="shared" si="7"/>
         <v>0.65000000000000047</v>
       </c>
-      <c r="C41" s="72">
+      <c r="C41" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D41" s="72">
+      <c r="D41" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E41" s="72">
+      <c r="E41" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F41" s="72">
+      <c r="F41" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G41" s="72">
+      <c r="G41" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="69">
+      <c r="A42" s="68">
         <v>35</v>
       </c>
-      <c r="B42" s="75">
+      <c r="B42" s="74">
         <f t="shared" si="7"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C42" s="72">
+      <c r="C42" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D42" s="72">
+      <c r="D42" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E42" s="72">
+      <c r="E42" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F42" s="72">
+      <c r="F42" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G42" s="72">
+      <c r="G42" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="69">
+      <c r="A43" s="68">
         <v>36</v>
       </c>
-      <c r="B43" s="76">
+      <c r="B43" s="75">
         <f>B42</f>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C43" s="72">
+      <c r="C43" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D43" s="72">
+      <c r="D43" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E43" s="72">
+      <c r="E43" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F43" s="72">
+      <c r="F43" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G43" s="72">
+      <c r="G43" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="69">
+      <c r="A44" s="68">
         <v>37</v>
       </c>
-      <c r="B44" s="76">
+      <c r="B44" s="75">
         <f t="shared" ref="B44:B72" si="9">B43</f>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C44" s="72">
+      <c r="C44" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D44" s="72">
+      <c r="D44" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E44" s="72">
+      <c r="E44" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F44" s="72">
+      <c r="F44" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G44" s="72">
+      <c r="G44" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="69">
+      <c r="A45" s="68">
         <v>38</v>
       </c>
-      <c r="B45" s="76">
+      <c r="B45" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C45" s="72">
+      <c r="C45" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D45" s="72">
+      <c r="D45" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E45" s="72">
+      <c r="E45" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F45" s="72">
+      <c r="F45" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G45" s="72">
+      <c r="G45" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="69">
+      <c r="A46" s="68">
         <v>39</v>
       </c>
-      <c r="B46" s="76">
+      <c r="B46" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C46" s="72">
+      <c r="C46" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D46" s="72">
+      <c r="D46" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E46" s="72">
+      <c r="E46" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F46" s="72">
+      <c r="F46" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G46" s="72">
+      <c r="G46" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="69">
+      <c r="A47" s="68">
         <v>40</v>
       </c>
-      <c r="B47" s="76">
+      <c r="B47" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C47" s="72">
+      <c r="C47" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D47" s="72">
+      <c r="D47" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E47" s="72">
+      <c r="E47" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F47" s="72">
+      <c r="F47" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G47" s="72">
+      <c r="G47" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="69">
+      <c r="A48" s="68">
         <v>41</v>
       </c>
-      <c r="B48" s="76">
+      <c r="B48" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C48" s="72">
+      <c r="C48" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D48" s="72">
+      <c r="D48" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E48" s="72">
+      <c r="E48" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F48" s="72">
+      <c r="F48" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G48" s="72">
+      <c r="G48" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="69">
+      <c r="A49" s="68">
         <v>42</v>
       </c>
-      <c r="B49" s="76">
+      <c r="B49" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C49" s="72">
+      <c r="C49" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D49" s="72">
+      <c r="D49" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E49" s="72">
+      <c r="E49" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F49" s="72">
+      <c r="F49" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G49" s="72">
+      <c r="G49" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="69">
+      <c r="A50" s="68">
         <v>43</v>
       </c>
-      <c r="B50" s="76">
+      <c r="B50" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C50" s="72">
+      <c r="C50" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D50" s="72">
+      <c r="D50" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E50" s="72">
+      <c r="E50" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F50" s="72">
+      <c r="F50" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G50" s="72">
+      <c r="G50" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="69">
+      <c r="A51" s="68">
         <v>44</v>
       </c>
-      <c r="B51" s="76">
+      <c r="B51" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C51" s="72">
+      <c r="C51" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D51" s="72">
+      <c r="D51" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E51" s="72">
+      <c r="E51" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F51" s="72">
+      <c r="F51" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G51" s="72">
+      <c r="G51" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="69">
+      <c r="A52" s="68">
         <v>45</v>
       </c>
-      <c r="B52" s="76">
+      <c r="B52" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C52" s="72">
+      <c r="C52" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D52" s="72">
+      <c r="D52" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E52" s="72">
+      <c r="E52" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F52" s="72">
+      <c r="F52" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G52" s="72">
+      <c r="G52" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="69">
+      <c r="A53" s="68">
         <v>46</v>
       </c>
-      <c r="B53" s="76">
+      <c r="B53" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C53" s="72">
+      <c r="C53" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D53" s="72">
+      <c r="D53" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E53" s="72">
+      <c r="E53" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F53" s="72">
+      <c r="F53" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G53" s="72">
+      <c r="G53" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="69">
+      <c r="A54" s="68">
         <v>47</v>
       </c>
-      <c r="B54" s="76">
+      <c r="B54" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C54" s="72">
+      <c r="C54" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D54" s="72">
+      <c r="D54" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E54" s="72">
+      <c r="E54" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F54" s="72">
+      <c r="F54" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G54" s="72">
+      <c r="G54" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="69">
+      <c r="A55" s="68">
         <v>48</v>
       </c>
-      <c r="B55" s="76">
+      <c r="B55" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C55" s="72">
+      <c r="C55" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D55" s="72">
+      <c r="D55" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E55" s="72">
+      <c r="E55" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F55" s="72">
+      <c r="F55" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G55" s="72">
+      <c r="G55" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="69">
+      <c r="A56" s="68">
         <v>49</v>
       </c>
-      <c r="B56" s="76">
+      <c r="B56" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C56" s="72">
+      <c r="C56" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D56" s="72">
+      <c r="D56" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E56" s="72">
+      <c r="E56" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F56" s="72">
+      <c r="F56" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G56" s="72">
+      <c r="G56" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="69">
+      <c r="A57" s="68">
         <v>50</v>
       </c>
-      <c r="B57" s="76">
+      <c r="B57" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C57" s="72">
+      <c r="C57" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D57" s="72">
+      <c r="D57" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E57" s="72">
+      <c r="E57" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F57" s="72">
+      <c r="F57" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G57" s="72">
+      <c r="G57" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="69">
+      <c r="A58" s="68">
         <v>51</v>
       </c>
-      <c r="B58" s="76">
+      <c r="B58" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C58" s="72">
+      <c r="C58" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D58" s="72">
+      <c r="D58" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E58" s="72">
+      <c r="E58" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F58" s="72">
+      <c r="F58" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G58" s="72">
+      <c r="G58" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="69">
+      <c r="A59" s="68">
         <v>52</v>
       </c>
-      <c r="B59" s="76">
+      <c r="B59" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C59" s="72">
+      <c r="C59" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D59" s="72">
+      <c r="D59" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E59" s="72">
+      <c r="E59" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F59" s="72">
+      <c r="F59" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G59" s="72">
+      <c r="G59" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="69">
+      <c r="A60" s="68">
         <v>53</v>
       </c>
-      <c r="B60" s="76">
+      <c r="B60" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C60" s="72">
+      <c r="C60" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D60" s="72">
+      <c r="D60" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E60" s="72">
+      <c r="E60" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F60" s="72">
+      <c r="F60" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G60" s="72">
+      <c r="G60" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="69">
+      <c r="A61" s="68">
         <v>54</v>
       </c>
-      <c r="B61" s="76">
+      <c r="B61" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C61" s="72">
+      <c r="C61" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D61" s="72">
+      <c r="D61" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E61" s="72">
+      <c r="E61" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F61" s="72">
+      <c r="F61" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G61" s="72">
+      <c r="G61" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="69">
+      <c r="A62" s="68">
         <v>55</v>
       </c>
-      <c r="B62" s="76">
+      <c r="B62" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C62" s="72">
+      <c r="C62" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D62" s="72">
+      <c r="D62" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E62" s="72">
+      <c r="E62" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F62" s="72">
+      <c r="F62" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G62" s="72">
+      <c r="G62" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="69">
+      <c r="A63" s="68">
         <v>56</v>
       </c>
-      <c r="B63" s="76">
+      <c r="B63" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C63" s="72">
+      <c r="C63" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D63" s="72">
+      <c r="D63" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E63" s="72">
+      <c r="E63" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F63" s="72">
+      <c r="F63" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G63" s="72">
+      <c r="G63" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="69">
+      <c r="A64" s="68">
         <v>57</v>
       </c>
-      <c r="B64" s="76">
+      <c r="B64" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C64" s="72">
+      <c r="C64" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D64" s="72">
+      <c r="D64" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E64" s="72">
+      <c r="E64" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F64" s="72">
+      <c r="F64" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G64" s="72">
+      <c r="G64" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="69">
+      <c r="A65" s="68">
         <v>58</v>
       </c>
-      <c r="B65" s="76">
+      <c r="B65" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C65" s="72">
+      <c r="C65" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D65" s="72">
+      <c r="D65" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E65" s="72">
+      <c r="E65" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F65" s="72">
+      <c r="F65" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G65" s="72">
+      <c r="G65" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="69">
+      <c r="A66" s="68">
         <v>59</v>
       </c>
-      <c r="B66" s="76">
+      <c r="B66" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C66" s="72">
+      <c r="C66" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D66" s="72">
+      <c r="D66" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E66" s="72">
+      <c r="E66" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F66" s="72">
+      <c r="F66" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G66" s="72">
+      <c r="G66" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="69">
+      <c r="A67" s="68">
         <v>60</v>
       </c>
-      <c r="B67" s="76">
+      <c r="B67" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C67" s="72">
+      <c r="C67" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D67" s="72">
+      <c r="D67" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E67" s="72">
+      <c r="E67" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F67" s="72">
+      <c r="F67" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G67" s="72">
+      <c r="G67" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="69">
+      <c r="A68" s="68">
         <v>61</v>
       </c>
-      <c r="B68" s="76">
+      <c r="B68" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C68" s="72">
+      <c r="C68" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D68" s="72">
+      <c r="D68" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E68" s="72">
+      <c r="E68" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F68" s="72">
+      <c r="F68" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G68" s="72">
+      <c r="G68" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="69">
+      <c r="A69" s="68">
         <v>62</v>
       </c>
-      <c r="B69" s="76">
+      <c r="B69" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C69" s="72">
+      <c r="C69" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D69" s="72">
+      <c r="D69" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E69" s="72">
+      <c r="E69" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F69" s="72">
+      <c r="F69" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G69" s="72">
+      <c r="G69" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="69">
+      <c r="A70" s="68">
         <v>63</v>
       </c>
-      <c r="B70" s="76">
+      <c r="B70" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C70" s="72">
+      <c r="C70" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D70" s="72">
+      <c r="D70" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E70" s="72">
+      <c r="E70" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F70" s="72">
+      <c r="F70" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G70" s="72">
+      <c r="G70" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="69">
+      <c r="A71" s="68">
         <v>64</v>
       </c>
-      <c r="B71" s="76">
+      <c r="B71" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C71" s="72">
+      <c r="C71" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D71" s="72">
+      <c r="D71" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E71" s="72">
+      <c r="E71" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F71" s="72">
+      <c r="F71" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G71" s="72">
+      <c r="G71" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="69">
+      <c r="A72" s="68">
         <v>65</v>
       </c>
-      <c r="B72" s="76">
+      <c r="B72" s="75">
         <f t="shared" si="9"/>
         <v>0.66666666666666718</v>
       </c>
-      <c r="C72" s="72">
+      <c r="C72" s="71">
         <f t="shared" si="5"/>
         <v>0.7</v>
       </c>
-      <c r="D72" s="72">
+      <c r="D72" s="71">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="E72" s="72">
+      <c r="E72" s="71">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="F72" s="72">
+      <c r="F72" s="71">
         <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G72" s="72">
+      <c r="G72" s="71">
         <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
@@ -6502,57 +6638,57 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="87" t="s">
         <v>141</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="76" t="s">
         <v>123</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="95" t="s">
+      <c r="F4" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="97"/>
+      <c r="G4" s="107"/>
     </row>
     <row r="5" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="87" t="s">
         <v>141</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="76" t="s">
         <v>147</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="95" t="s">
+      <c r="F5" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="95"/>
+      <c r="G5" s="105"/>
     </row>
     <row r="6" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
     </row>
     <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -6619,7 +6755,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6651,91 +6787,91 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="79" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="80">
-        <v>0</v>
-      </c>
-      <c r="B6" s="81">
+      <c r="A6" s="79">
+        <v>0</v>
+      </c>
+      <c r="B6" s="80">
         <v>0.08</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="80">
         <v>0.08</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="80">
+      <c r="A7" s="79">
         <v>1</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B7" s="80">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="80">
         <v>0.03</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="80">
+      <c r="A8" s="79">
         <v>2</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="80">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="80">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D8" s="24"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="80">
+      <c r="A9" s="79">
         <v>3</v>
       </c>
-      <c r="B9" s="82">
+      <c r="B9" s="81">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="80">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="80">
+      <c r="A10" s="79">
         <v>4</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="80">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="81">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="D10" s="24"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
     </row>
@@ -6743,8 +6879,8 @@
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
     </row>
@@ -6752,8 +6888,8 @@
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
     </row>
@@ -6761,8 +6897,8 @@
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
     </row>
@@ -6770,8 +6906,8 @@
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
     </row>
@@ -6891,50 +7027,50 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="79" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="80">
+      <c r="A6" s="79">
         <v>20</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>0.01</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="53">
         <v>0.02</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="80">
+      <c r="A7" s="79">
         <v>25</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7" s="55">
         <v>0.01</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="55">
         <v>0.02</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="80">
+      <c r="A8" s="79">
         <v>30</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="55">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="55">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="D8" s="24"/>
@@ -6942,13 +7078,13 @@
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="80">
+      <c r="A9" s="79">
         <v>35</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="55">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="55">
         <v>1.2E-2</v>
       </c>
       <c r="D9" s="24"/>
@@ -6956,13 +7092,13 @@
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="80">
+      <c r="A10" s="79">
         <v>40</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="55">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="55">
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="D10" s="24"/>
@@ -6970,13 +7106,13 @@
       <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="80">
+      <c r="A11" s="79">
         <v>45</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="55">
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="55">
         <v>6.6E-3</v>
       </c>
       <c r="D11" s="24"/>
@@ -6984,13 +7120,13 @@
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="80">
+      <c r="A12" s="79">
         <v>50</v>
       </c>
-      <c r="B12" s="56">
+      <c r="B12" s="55">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="55">
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="D12" s="24"/>
@@ -6998,13 +7134,13 @@
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="80">
+      <c r="A13" s="79">
         <v>55</v>
       </c>
-      <c r="B13" s="56">
-        <v>0</v>
-      </c>
-      <c r="C13" s="56">
+      <c r="B13" s="55">
+        <v>0</v>
+      </c>
+      <c r="C13" s="55">
         <v>0</v>
       </c>
       <c r="D13" s="24"/>
@@ -7012,13 +7148,13 @@
       <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="80">
+      <c r="A14" s="79">
         <v>60</v>
       </c>
-      <c r="B14" s="56">
-        <v>0</v>
-      </c>
-      <c r="C14" s="56">
+      <c r="B14" s="55">
+        <v>0</v>
+      </c>
+      <c r="C14" s="55">
         <v>0</v>
       </c>
       <c r="D14" s="24"/>
@@ -7161,33 +7297,33 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
     </row>
     <row r="5" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
     </row>
     <row r="7" spans="1:7" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="82" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -7196,10 +7332,10 @@
       <c r="C7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="97"/>
+      <c r="E7" s="107"/>
       <c r="F7" s="8" t="s">
         <v>64</v>
       </c>
@@ -7243,7 +7379,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7270,7 +7406,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -7280,129 +7416,129 @@
       <c r="D3" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="83" t="s">
         <v>133</v>
       </c>
       <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="85">
+      <c r="A6" s="84">
         <v>20</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="53">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="86">
+      <c r="A7" s="85">
         <v>25</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7" s="55">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="55">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="86">
+      <c r="A8" s="85">
         <v>30</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="55">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="55">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="86">
+      <c r="A9" s="85">
         <v>35</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="55">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="55">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="86">
+      <c r="A10" s="85">
         <v>40</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="55">
         <v>1.5E-3</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="55">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="86">
+      <c r="A11" s="85">
         <v>45</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="55">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="55">
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="86">
+      <c r="A12" s="85">
         <v>50</v>
       </c>
-      <c r="B12" s="56">
+      <c r="B12" s="55">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="55">
         <v>5.6000000000000008E-3</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="86">
+      <c r="A13" s="85">
         <v>55</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="55">
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="55">
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="86">
+      <c r="A14" s="85">
         <v>60</v>
       </c>
-      <c r="B14" s="56">
+      <c r="B14" s="55">
         <v>4.4000000000000004E-2</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="55">
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="D14" s="28"/>
@@ -7425,51 +7561,177 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="5" width="42.5703125" customWidth="1"/>
-    <col min="6" max="6" width="50.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="8" width="26.28515625" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="32"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="102" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="102" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="102" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="102" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="102" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="114" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="114"/>
+      <c r="G5" s="102" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="102" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="114" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="114"/>
+      <c r="G6" s="102" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" s="102" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="114" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="114"/>
+      <c r="G7" s="102" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+    </row>
+    <row r="9" spans="1:8" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-    </row>
-    <row r="7" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="F7" s="18"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="101"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="G13" s="101"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
@@ -7484,8 +7746,8 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7509,7 +7771,7 @@
     </row>
     <row r="5" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="88" t="s">
         <v>149</v>
       </c>
     </row>
@@ -7531,8 +7793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="D64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="U108" sqref="U108"/>
@@ -7541,14 +7803,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="10" max="12" width="10.5703125" style="104" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="104" customWidth="1"/>
+    <col min="10" max="12" width="10.5703125" style="93" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="93" customWidth="1"/>
     <col min="14" max="14" width="13.140625" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12" style="104" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="104" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="104" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="104" customWidth="1"/>
+    <col min="17" max="17" width="12" style="93" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="93" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="93" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="93" customWidth="1"/>
     <col min="21" max="21" width="13.140625" customWidth="1"/>
     <col min="22" max="22" width="13.42578125" customWidth="1"/>
   </cols>
@@ -7562,24 +7824,24 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="J5" s="107" t="s">
+      <c r="J5" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107" t="s">
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -7603,46 +7865,46 @@
       <c r="I6" t="s">
         <v>190</v>
       </c>
-      <c r="J6" s="105" t="s">
+      <c r="J6" s="94" t="s">
         <v>191</v>
       </c>
-      <c r="K6" s="105" t="s">
+      <c r="K6" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="L6" s="105" t="s">
+      <c r="L6" s="94" t="s">
         <v>193</v>
       </c>
-      <c r="M6" s="105" t="s">
+      <c r="M6" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="N6" s="105" t="s">
+      <c r="N6" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="O6" s="105" t="s">
+      <c r="O6" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="P6" s="105" t="s">
+      <c r="P6" s="94" t="s">
         <v>201</v>
       </c>
-      <c r="Q6" s="108" t="s">
+      <c r="Q6" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="R6" s="108" t="s">
+      <c r="R6" s="96" t="s">
         <v>192</v>
       </c>
-      <c r="S6" s="108" t="s">
+      <c r="S6" s="96" t="s">
         <v>193</v>
       </c>
-      <c r="T6" s="108" t="s">
+      <c r="T6" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="U6" s="108" t="s">
+      <c r="U6" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="V6" s="108" t="s">
+      <c r="V6" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="W6" s="108" t="s">
+      <c r="W6" s="96" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7650,7 +7912,7 @@
       <c r="B7">
         <v>20</v>
       </c>
-      <c r="C7" s="106">
+      <c r="C7" s="95">
         <v>3.3416560000000002E-4</v>
       </c>
       <c r="D7">
@@ -7659,7 +7921,7 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="53">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -7678,7 +7940,7 @@
         <f>E7*(1+F7 +0.04)</f>
         <v>1.115</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="55">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
@@ -7697,7 +7959,7 @@
         <f t="shared" ref="E9:E57" si="1">E8*(1+F8 +0.04)</f>
         <v>1.232075</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="55">
         <v>0.05</v>
       </c>
     </row>
@@ -7716,7 +7978,7 @@
         <f t="shared" si="1"/>
         <v>1.3429617500000002</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="55">
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
@@ -7735,7 +7997,7 @@
         <f t="shared" si="1"/>
         <v>1.4604709031250003</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="55">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
@@ -7754,7 +8016,7 @@
         <f t="shared" si="1"/>
         <v>1.573657398117188</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="55">
         <v>0.03</v>
       </c>
     </row>
@@ -7773,7 +8035,7 @@
         <f t="shared" si="1"/>
         <v>1.6838134159853912</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="55">
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
@@ -7792,7 +8054,7 @@
         <f t="shared" si="1"/>
         <v>1.7890517544844782</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="55">
         <v>0.02</v>
       </c>
     </row>
@@ -7811,7 +8073,7 @@
         <f t="shared" si="1"/>
         <v>1.8963948597535469</v>
       </c>
-      <c r="F15" s="56">
+      <c r="F15" s="55">
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
@@ -7830,7 +8092,7 @@
         <f t="shared" si="1"/>
         <v>2.0054375641893762</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="55">
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
@@ -7849,13 +8111,13 @@
         <f t="shared" si="1"/>
         <v>2.1207502241302656</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="55">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" s="71">
+      <c r="H17" s="70">
         <v>0</v>
       </c>
       <c r="I17">
@@ -7878,13 +8140,13 @@
         <f t="shared" si="1"/>
         <v>2.2320896108971047</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" s="71">
+      <c r="H18" s="70">
         <v>0</v>
       </c>
       <c r="I18">
@@ -7907,13 +8169,13 @@
         <f t="shared" si="1"/>
         <v>2.3381138674147173</v>
       </c>
-      <c r="F19" s="56">
+      <c r="F19" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
-      <c r="H19" s="71">
+      <c r="H19" s="70">
         <v>0</v>
       </c>
       <c r="I19">
@@ -7936,13 +8198,13 @@
         <f t="shared" si="1"/>
         <v>2.4491742761169166</v>
       </c>
-      <c r="F20" s="56">
+      <c r="F20" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
-      <c r="H20" s="71">
+      <c r="H20" s="70">
         <v>0</v>
       </c>
       <c r="I20">
@@ -7965,13 +8227,13 @@
         <f t="shared" si="1"/>
         <v>2.5655100542324702</v>
       </c>
-      <c r="F21" s="56">
+      <c r="F21" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
-      <c r="H21" s="71">
+      <c r="H21" s="70">
         <v>0</v>
       </c>
       <c r="I21">
@@ -7994,13 +8256,13 @@
         <f t="shared" si="1"/>
         <v>2.6873717818085128</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G22">
         <v>5</v>
       </c>
-      <c r="H22" s="71">
+      <c r="H22" s="70">
         <v>0</v>
       </c>
       <c r="I22">
@@ -8023,13 +8285,13 @@
         <f t="shared" si="1"/>
         <v>2.8150219414444173</v>
       </c>
-      <c r="F23" s="56">
+      <c r="F23" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G23">
         <v>6</v>
       </c>
-      <c r="H23" s="71">
+      <c r="H23" s="70">
         <v>0</v>
       </c>
       <c r="I23">
@@ -8052,13 +8314,13 @@
         <f t="shared" si="1"/>
         <v>2.9487354836630275</v>
       </c>
-      <c r="F24" s="56">
+      <c r="F24" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G24">
         <v>7</v>
       </c>
-      <c r="H24" s="71">
+      <c r="H24" s="70">
         <v>0</v>
       </c>
       <c r="I24">
@@ -8081,13 +8343,13 @@
         <f t="shared" si="1"/>
         <v>3.0888004191370215</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G25">
         <v>8</v>
       </c>
-      <c r="H25" s="71">
+      <c r="H25" s="70">
         <v>0</v>
       </c>
       <c r="I25">
@@ -8110,13 +8372,13 @@
         <f t="shared" si="1"/>
         <v>3.2355184390460305</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G26">
         <v>9</v>
       </c>
-      <c r="H26" s="71">
+      <c r="H26" s="70">
         <v>0</v>
       </c>
       <c r="I26">
@@ -8139,13 +8401,13 @@
         <f t="shared" si="1"/>
         <v>3.3892055649007173</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G27">
         <v>10</v>
       </c>
-      <c r="H27" s="71">
+      <c r="H27" s="70">
         <v>0</v>
       </c>
       <c r="I27">
@@ -8168,13 +8430,13 @@
         <f t="shared" si="1"/>
         <v>3.5501928292335019</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G28">
         <v>11</v>
       </c>
-      <c r="H28" s="71">
+      <c r="H28" s="70">
         <v>0</v>
       </c>
       <c r="I28">
@@ -8197,13 +8459,13 @@
         <f t="shared" si="1"/>
         <v>3.7188269886220935</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F29" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G29">
         <v>12</v>
       </c>
-      <c r="H29" s="71">
+      <c r="H29" s="70">
         <v>0</v>
       </c>
       <c r="I29">
@@ -8226,13 +8488,13 @@
         <f t="shared" si="1"/>
         <v>3.8954712705816434</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G30">
         <v>13</v>
       </c>
-      <c r="H30" s="71">
+      <c r="H30" s="70">
         <v>0</v>
       </c>
       <c r="I30">
@@ -8255,13 +8517,13 @@
         <f t="shared" si="1"/>
         <v>4.0805061559342715</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G31">
         <v>14</v>
       </c>
-      <c r="H31" s="71">
+      <c r="H31" s="70">
         <v>0</v>
       </c>
       <c r="I31">
@@ -8284,13 +8546,13 @@
         <f t="shared" si="1"/>
         <v>4.2743301983411497</v>
       </c>
-      <c r="F32" s="56">
+      <c r="F32" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G32">
         <v>15</v>
       </c>
-      <c r="H32" s="71">
+      <c r="H32" s="70">
         <v>0</v>
       </c>
       <c r="I32">
@@ -8313,13 +8575,13 @@
         <f t="shared" si="1"/>
         <v>4.4773608827623548</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G33">
         <v>16</v>
       </c>
-      <c r="H33" s="71">
+      <c r="H33" s="70">
         <v>0</v>
       </c>
       <c r="I33">
@@ -8342,13 +8604,13 @@
         <f t="shared" si="1"/>
         <v>4.6900355246935668</v>
       </c>
-      <c r="F34" s="56">
+      <c r="F34" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G34">
         <v>17</v>
       </c>
-      <c r="H34" s="71">
+      <c r="H34" s="70">
         <v>0</v>
       </c>
       <c r="I34">
@@ -8371,13 +8633,13 @@
         <f t="shared" si="1"/>
         <v>4.9128122121165116</v>
       </c>
-      <c r="F35" s="56">
+      <c r="F35" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G35">
         <v>18</v>
       </c>
-      <c r="H35" s="71">
+      <c r="H35" s="70">
         <v>0</v>
       </c>
       <c r="I35">
@@ -8400,13 +8662,13 @@
         <f t="shared" si="1"/>
         <v>5.1461707921920468</v>
       </c>
-      <c r="F36" s="56">
+      <c r="F36" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G36">
         <v>19</v>
       </c>
-      <c r="H36" s="71">
+      <c r="H36" s="70">
         <v>0</v>
       </c>
       <c r="I36">
@@ -8429,13 +8691,13 @@
         <f t="shared" si="1"/>
         <v>5.3906139048211692</v>
       </c>
-      <c r="F37" s="56">
+      <c r="F37" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G37">
         <v>20</v>
       </c>
-      <c r="H37" s="73">
+      <c r="H37" s="72">
         <v>0.5</v>
       </c>
       <c r="I37">
@@ -8458,13 +8720,13 @@
         <f t="shared" si="1"/>
         <v>5.6466680653001751</v>
       </c>
-      <c r="F38" s="56">
+      <c r="F38" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G38">
         <v>21</v>
       </c>
-      <c r="H38" s="72">
+      <c r="H38" s="71">
         <f>MIN(H37 + 0.03, 0.9)</f>
         <v>0.53</v>
       </c>
@@ -8488,13 +8750,13 @@
         <f t="shared" si="1"/>
         <v>5.9148847984019337</v>
       </c>
-      <c r="F39" s="56">
+      <c r="F39" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G39">
         <v>22</v>
       </c>
-      <c r="H39" s="72">
+      <c r="H39" s="71">
         <f t="shared" ref="H39:H57" si="3">MIN(H38 + 0.03, 0.9)</f>
         <v>0.56000000000000005</v>
       </c>
@@ -8518,13 +8780,13 @@
         <f t="shared" si="1"/>
         <v>6.195841826326026</v>
       </c>
-      <c r="F40" s="56">
+      <c r="F40" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G40">
         <v>23</v>
       </c>
-      <c r="H40" s="72">
+      <c r="H40" s="71">
         <f t="shared" si="3"/>
         <v>0.59000000000000008</v>
       </c>
@@ -8548,13 +8810,13 @@
         <f t="shared" si="1"/>
         <v>6.4901443130765131</v>
       </c>
-      <c r="F41" s="56">
+      <c r="F41" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G41">
         <v>24</v>
       </c>
-      <c r="H41" s="72">
+      <c r="H41" s="71">
         <f t="shared" si="3"/>
         <v>0.62000000000000011</v>
       </c>
@@ -8578,13 +8840,13 @@
         <f t="shared" si="1"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="F42" s="56">
+      <c r="F42" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G42">
         <v>25</v>
       </c>
-      <c r="H42" s="72">
+      <c r="H42" s="71">
         <f t="shared" si="3"/>
         <v>0.65000000000000013</v>
       </c>
@@ -8592,18 +8854,18 @@
         <f t="shared" si="2"/>
         <v>4.4189770091659719</v>
       </c>
-      <c r="J42" s="104">
+      <c r="J42" s="93">
         <f>E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K42" s="104">
+      <c r="K42" s="93">
         <f>J42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="L42" s="104">
-        <v>0</v>
-      </c>
-      <c r="M42" s="104">
+      <c r="L42" s="93">
+        <v>0</v>
+      </c>
+      <c r="M42" s="93">
         <f>$E$42</f>
         <v>6.7984261679476479</v>
       </c>
@@ -8643,13 +8905,13 @@
         <f t="shared" si="1"/>
         <v>7.1213514109251621</v>
       </c>
-      <c r="F43" s="56">
+      <c r="F43" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G43">
         <v>26</v>
       </c>
-      <c r="H43" s="72">
+      <c r="H43" s="71">
         <f t="shared" si="3"/>
         <v>0.68000000000000016</v>
       </c>
@@ -8657,18 +8919,18 @@
         <f t="shared" si="2"/>
         <v>4.8425189594291114</v>
       </c>
-      <c r="J43" s="104">
+      <c r="J43" s="93">
         <f t="shared" ref="J43:J46" si="4">E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K43" s="104">
+      <c r="K43" s="93">
         <f>K42*1.05 +J43</f>
         <v>13.936773644292678</v>
       </c>
-      <c r="L43" s="104">
-        <v>0</v>
-      </c>
-      <c r="M43" s="104">
+      <c r="L43" s="93">
+        <v>0</v>
+      </c>
+      <c r="M43" s="93">
         <f t="shared" ref="M43:M106" si="5">$E$42</f>
         <v>6.7984261679476479</v>
       </c>
@@ -8708,13 +8970,13 @@
         <f t="shared" si="1"/>
         <v>7.4596156029441083</v>
       </c>
-      <c r="F44" s="56">
+      <c r="F44" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G44">
         <v>27</v>
       </c>
-      <c r="H44" s="72">
+      <c r="H44" s="71">
         <f t="shared" si="3"/>
         <v>0.71000000000000019</v>
       </c>
@@ -8722,18 +8984,18 @@
         <f t="shared" si="2"/>
         <v>5.296327078090318</v>
       </c>
-      <c r="J44" s="104">
+      <c r="J44" s="93">
         <f t="shared" si="4"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K44" s="104">
+      <c r="K44" s="93">
         <f>K43*1.05 + J44</f>
         <v>21.432038494454961</v>
       </c>
-      <c r="L44" s="104">
-        <v>0</v>
-      </c>
-      <c r="M44" s="104">
+      <c r="L44" s="93">
+        <v>0</v>
+      </c>
+      <c r="M44" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -8773,13 +9035,13 @@
         <f t="shared" si="1"/>
         <v>7.813947344083954</v>
       </c>
-      <c r="F45" s="56">
+      <c r="F45" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G45">
         <v>28</v>
       </c>
-      <c r="H45" s="72">
+      <c r="H45" s="71">
         <f t="shared" si="3"/>
         <v>0.74000000000000021</v>
       </c>
@@ -8787,18 +9049,18 @@
         <f t="shared" si="2"/>
         <v>5.7823210346221279</v>
       </c>
-      <c r="J45" s="104">
+      <c r="J45" s="93">
         <f t="shared" si="4"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K45" s="104">
+      <c r="K45" s="93">
         <f t="shared" ref="K45:K46" si="11">K44*1.05 + J45</f>
         <v>29.30206658712536</v>
       </c>
-      <c r="L45" s="104">
-        <v>0</v>
-      </c>
-      <c r="M45" s="104">
+      <c r="L45" s="93">
+        <v>0</v>
+      </c>
+      <c r="M45" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -8838,13 +9100,13 @@
         <f t="shared" si="1"/>
         <v>8.1851098429279432</v>
       </c>
-      <c r="F46" s="56">
+      <c r="F46" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G46">
         <v>29</v>
       </c>
-      <c r="H46" s="72">
+      <c r="H46" s="71">
         <f t="shared" si="3"/>
         <v>0.77000000000000024</v>
       </c>
@@ -8852,18 +9114,18 @@
         <f t="shared" si="2"/>
         <v>6.3025345790545186</v>
       </c>
-      <c r="J46" s="104">
+      <c r="J46" s="93">
         <f t="shared" si="4"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K46" s="104">
+      <c r="K46" s="93">
         <f t="shared" si="11"/>
         <v>37.565596084429274</v>
       </c>
-      <c r="L46" s="104">
-        <v>0</v>
-      </c>
-      <c r="M46" s="104">
+      <c r="L46" s="93">
+        <v>0</v>
+      </c>
+      <c r="M46" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -8903,13 +9165,13 @@
         <f t="shared" si="1"/>
         <v>8.5739025604670207</v>
       </c>
-      <c r="F47" s="56">
+      <c r="F47" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G47">
         <v>30</v>
       </c>
-      <c r="H47" s="72">
+      <c r="H47" s="71">
         <f>MIN(H46 + 0.04, 0.9)</f>
         <v>0.81000000000000028</v>
       </c>
@@ -8917,11 +9179,11 @@
         <f t="shared" si="2"/>
         <v>6.9448610739782888</v>
       </c>
-      <c r="L47" s="104">
+      <c r="L47" s="93">
         <f>$E$42 + K46</f>
         <v>44.36402225237692</v>
       </c>
-      <c r="M47" s="104">
+      <c r="M47" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -8961,13 +9223,13 @@
         <f t="shared" si="1"/>
         <v>8.9811629320892052</v>
       </c>
-      <c r="F48" s="56">
+      <c r="F48" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G48">
         <v>31</v>
       </c>
-      <c r="H48" s="72">
+      <c r="H48" s="71">
         <f t="shared" si="3"/>
         <v>0.8400000000000003</v>
       </c>
@@ -8975,11 +9237,11 @@
         <f t="shared" si="2"/>
         <v>7.5441768629549353</v>
       </c>
-      <c r="L48" s="104">
+      <c r="L48" s="93">
         <f>$E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M48" s="104">
+      <c r="M48" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9019,13 +9281,13 @@
         <f t="shared" si="1"/>
         <v>9.4077681713634433</v>
       </c>
-      <c r="F49" s="56">
+      <c r="F49" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G49">
         <v>32</v>
       </c>
-      <c r="H49" s="72">
+      <c r="H49" s="71">
         <f t="shared" si="3"/>
         <v>0.87000000000000033</v>
       </c>
@@ -9033,11 +9295,11 @@
         <f t="shared" si="2"/>
         <v>8.1847583090861988</v>
       </c>
-      <c r="L49" s="104">
+      <c r="L49" s="93">
         <f t="shared" ref="L49:L56" si="12">$E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M49" s="104">
+      <c r="M49" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9077,13 +9339,13 @@
         <f t="shared" si="1"/>
         <v>9.8546371595032074</v>
       </c>
-      <c r="F50" s="56">
+      <c r="F50" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G50">
         <v>33</v>
       </c>
-      <c r="H50" s="72">
+      <c r="H50" s="71">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
@@ -9091,11 +9353,11 @@
         <f t="shared" si="2"/>
         <v>8.8691734435528868</v>
       </c>
-      <c r="L50" s="104">
+      <c r="L50" s="93">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M50" s="104">
+      <c r="M50" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9135,13 +9397,13 @@
         <f t="shared" si="1"/>
         <v>10.322732424579611</v>
       </c>
-      <c r="F51" s="56">
+      <c r="F51" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G51">
         <v>34</v>
       </c>
-      <c r="H51" s="72">
+      <c r="H51" s="71">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
@@ -9149,11 +9411,11 @@
         <f t="shared" si="2"/>
         <v>9.2904591821216496</v>
       </c>
-      <c r="L51" s="104">
+      <c r="L51" s="93">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M51" s="104">
+      <c r="M51" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9179,7 +9441,7 @@
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B52" s="109">
+      <c r="B52" s="97">
         <v>65</v>
       </c>
       <c r="C52">
@@ -9193,13 +9455,13 @@
         <f t="shared" si="1"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="F52" s="56">
+      <c r="F52" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G52">
         <v>35</v>
       </c>
-      <c r="H52" s="72">
+      <c r="H52" s="71">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
@@ -9207,11 +9469,11 @@
         <f t="shared" si="2"/>
         <v>9.7317559932724294</v>
       </c>
-      <c r="L52" s="104">
+      <c r="L52" s="93">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M52" s="104">
+      <c r="M52" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9227,15 +9489,15 @@
         <f t="shared" si="7"/>
         <v>3.0927925753220662</v>
       </c>
-      <c r="Q52" s="104">
+      <c r="Q52" s="93">
         <f>$E$52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="R52" s="104">
+      <c r="R52" s="93">
         <f>Q52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="T52" s="104">
+      <c r="T52" s="93">
         <f t="shared" ref="T52:T106" si="13">$E$52</f>
         <v>10.813062214747143</v>
       </c>
@@ -9267,13 +9529,13 @@
         <f t="shared" si="1"/>
         <v>11.326682669947633</v>
       </c>
-      <c r="F53" s="56">
+      <c r="F53" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G53">
         <v>36</v>
       </c>
-      <c r="H53" s="72">
+      <c r="H53" s="71">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
@@ -9281,11 +9543,11 @@
         <f t="shared" si="2"/>
         <v>10.19401440295287</v>
       </c>
-      <c r="L53" s="104">
+      <c r="L53" s="93">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M53" s="104">
+      <c r="M53" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9301,15 +9563,15 @@
         <f t="shared" si="7"/>
         <v>2.8459311587651022</v>
       </c>
-      <c r="Q53" s="104">
+      <c r="Q53" s="93">
         <f t="shared" ref="Q53:Q56" si="14">$E$52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="R53" s="104">
+      <c r="R53" s="93">
         <f>R52*1.05 +Q53</f>
         <v>22.166777540231642</v>
       </c>
-      <c r="T53" s="104">
+      <c r="T53" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9341,13 +9603,13 @@
         <f t="shared" si="1"/>
         <v>11.864700096770147</v>
       </c>
-      <c r="F54" s="56">
+      <c r="F54" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G54">
         <v>37</v>
       </c>
-      <c r="H54" s="72">
+      <c r="H54" s="71">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
@@ -9355,11 +9617,11 @@
         <f t="shared" si="2"/>
         <v>10.678230087093132</v>
       </c>
-      <c r="L54" s="104">
+      <c r="L54" s="93">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M54" s="104">
+      <c r="M54" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9375,15 +9637,15 @@
         <f t="shared" si="7"/>
         <v>2.61617031790247</v>
       </c>
-      <c r="Q54" s="104">
+      <c r="Q54" s="93">
         <f t="shared" si="14"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="R54" s="104">
+      <c r="R54" s="93">
         <f>R53*1.05 + Q54</f>
         <v>34.088178631990367</v>
       </c>
-      <c r="T54" s="104">
+      <c r="T54" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9415,13 +9677,13 @@
         <f t="shared" si="1"/>
         <v>12.42827335136673</v>
       </c>
-      <c r="F55" s="56">
+      <c r="F55" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G55">
         <v>38</v>
       </c>
-      <c r="H55" s="72">
+      <c r="H55" s="71">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
@@ -9429,11 +9691,11 @@
         <f t="shared" si="2"/>
         <v>11.185446016230058</v>
       </c>
-      <c r="L55" s="104">
+      <c r="L55" s="93">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M55" s="104">
+      <c r="M55" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9449,15 +9711,15 @@
         <f t="shared" si="7"/>
         <v>2.4024576619956037</v>
       </c>
-      <c r="Q55" s="104">
+      <c r="Q55" s="93">
         <f t="shared" si="14"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="R55" s="104">
+      <c r="R55" s="93">
         <f t="shared" ref="R55:R56" si="16">R54*1.05 + Q55</f>
         <v>46.605649778337025</v>
       </c>
-      <c r="T55" s="104">
+      <c r="T55" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9489,13 +9751,13 @@
         <f t="shared" si="1"/>
         <v>13.018616335556651</v>
       </c>
-      <c r="F56" s="56">
+      <c r="F56" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G56">
         <v>39</v>
       </c>
-      <c r="H56" s="72">
+      <c r="H56" s="71">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
@@ -9503,11 +9765,11 @@
         <f t="shared" si="2"/>
         <v>11.716754702000985</v>
       </c>
-      <c r="L56" s="104">
+      <c r="L56" s="93">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M56" s="104">
+      <c r="M56" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9523,15 +9785,15 @@
         <f t="shared" si="7"/>
         <v>2.2031082478198898</v>
       </c>
-      <c r="Q56" s="104">
+      <c r="Q56" s="93">
         <f t="shared" si="14"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="R56" s="104">
+      <c r="R56" s="93">
         <f t="shared" si="16"/>
         <v>59.748994482001017</v>
       </c>
-      <c r="T56" s="104">
+      <c r="T56" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9563,13 +9825,13 @@
         <f t="shared" si="1"/>
         <v>13.637000611495592</v>
       </c>
-      <c r="F57" s="56">
+      <c r="F57" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G57">
         <v>40</v>
       </c>
-      <c r="H57" s="72">
+      <c r="H57" s="71">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
@@ -9577,11 +9839,11 @@
         <f t="shared" si="2"/>
         <v>12.273300550346033</v>
       </c>
-      <c r="L57" s="104">
+      <c r="L57" s="93">
         <f>$E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M57" s="104">
+      <c r="M57" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9597,11 +9859,11 @@
         <f t="shared" si="7"/>
         <v>2.0167671825163049</v>
       </c>
-      <c r="S57" s="104">
+      <c r="S57" s="93">
         <f>R56+$E$52</f>
         <v>70.562056696748158</v>
       </c>
-      <c r="T57" s="104">
+      <c r="T57" s="93">
         <f>$E$52</f>
         <v>10.813062214747143</v>
       </c>
@@ -9629,11 +9891,11 @@
         <f t="shared" si="0"/>
         <v>0.82856323681831068</v>
       </c>
-      <c r="L58" s="104">
+      <c r="L58" s="93">
         <f t="shared" ref="L58:L106" si="17">$E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M58" s="104">
+      <c r="M58" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9649,11 +9911,11 @@
         <f t="shared" si="7"/>
         <v>1.8430065541042151</v>
       </c>
-      <c r="S58" s="104">
+      <c r="S58" s="93">
         <f>$E$52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="T58" s="104">
+      <c r="T58" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9681,11 +9943,11 @@
         <f t="shared" si="0"/>
         <v>0.81235323675594462</v>
       </c>
-      <c r="L59" s="104">
+      <c r="L59" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M59" s="104">
+      <c r="M59" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9701,11 +9963,11 @@
         <f t="shared" si="7"/>
         <v>1.680883719605589</v>
       </c>
-      <c r="S59" s="104">
+      <c r="S59" s="93">
         <f t="shared" ref="S59:S106" si="18">$E$52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="T59" s="104">
+      <c r="T59" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9733,11 +9995,11 @@
         <f t="shared" si="0"/>
         <v>0.79465093201826931</v>
       </c>
-      <c r="L60" s="104">
+      <c r="L60" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M60" s="104">
+      <c r="M60" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9753,11 +10015,11 @@
         <f t="shared" si="7"/>
         <v>1.5295394697233526</v>
       </c>
-      <c r="S60" s="104">
+      <c r="S60" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T60" s="104">
+      <c r="T60" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9785,11 +10047,11 @@
         <f t="shared" si="0"/>
         <v>0.77533244251717404</v>
       </c>
-      <c r="L61" s="104">
+      <c r="L61" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M61" s="104">
+      <c r="M61" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9805,11 +10067,11 @@
         <f t="shared" si="7"/>
         <v>1.3882375386379853</v>
       </c>
-      <c r="S61" s="104">
+      <c r="S61" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T61" s="104">
+      <c r="T61" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9837,11 +10099,11 @@
         <f t="shared" si="0"/>
         <v>0.75429624270826012</v>
       </c>
-      <c r="L62" s="104">
+      <c r="L62" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M62" s="104">
+      <c r="M62" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9857,11 +10119,11 @@
         <f t="shared" si="7"/>
         <v>1.2563461326872842</v>
       </c>
-      <c r="S62" s="104">
+      <c r="S62" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T62" s="104">
+      <c r="T62" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9889,11 +10151,11 @@
         <f t="shared" si="0"/>
         <v>0.73148587333503878</v>
       </c>
-      <c r="L63" s="104">
+      <c r="L63" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M63" s="104">
+      <c r="M63" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9909,11 +10171,11 @@
         <f t="shared" si="7"/>
         <v>1.1333520692702026</v>
       </c>
-      <c r="S63" s="104">
+      <c r="S63" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T63" s="104">
+      <c r="T63" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9941,11 +10203,11 @@
         <f t="shared" si="0"/>
         <v>0.70688041756920683</v>
       </c>
-      <c r="L64" s="104">
+      <c r="L64" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M64" s="104">
+      <c r="M64" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9961,11 +10223,11 @@
         <f t="shared" si="7"/>
         <v>1.0188174740132456</v>
       </c>
-      <c r="S64" s="104">
+      <c r="S64" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T64" s="104">
+      <c r="T64" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9993,11 +10255,11 @@
         <f t="shared" si="0"/>
         <v>0.68045800767369868</v>
       </c>
-      <c r="L65" s="104">
+      <c r="L65" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M65" s="104">
+      <c r="M65" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10013,11 +10275,11 @@
         <f t="shared" si="7"/>
         <v>0.91231181507125081</v>
       </c>
-      <c r="S65" s="104">
+      <c r="S65" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T65" s="104">
+      <c r="T65" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10045,11 +10307,11 @@
         <f t="shared" si="0"/>
         <v>0.65219102597804091</v>
       </c>
-      <c r="L66" s="104">
+      <c r="L66" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M66" s="104">
+      <c r="M66" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10065,11 +10327,11 @@
         <f t="shared" si="7"/>
         <v>0.81340778474747322</v>
       </c>
-      <c r="S66" s="104">
+      <c r="S66" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T66" s="104">
+      <c r="T66" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10097,11 +10359,11 @@
         <f t="shared" si="0"/>
         <v>0.62208579906438133</v>
       </c>
-      <c r="L67" s="104">
+      <c r="L67" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M67" s="104">
+      <c r="M67" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10117,11 +10379,11 @@
         <f t="shared" si="7"/>
         <v>0.72173094903319601</v>
       </c>
-      <c r="S67" s="104">
+      <c r="S67" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T67" s="104">
+      <c r="T67" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10149,11 +10411,11 @@
         <f t="shared" si="0"/>
         <v>0.58994718895047804</v>
       </c>
-      <c r="L68" s="104">
+      <c r="L68" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M68" s="104">
+      <c r="M68" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10169,11 +10431,11 @@
         <f t="shared" si="7"/>
         <v>0.63669246970930993</v>
       </c>
-      <c r="S68" s="104">
+      <c r="S68" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T68" s="104">
+      <c r="T68" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10201,11 +10463,11 @@
         <f t="shared" si="0"/>
         <v>0.55589613558373874</v>
       </c>
-      <c r="L69" s="104">
+      <c r="L69" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M69" s="104">
+      <c r="M69" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10221,11 +10483,11 @@
         <f t="shared" si="7"/>
         <v>0.55808682239463647</v>
       </c>
-      <c r="S69" s="104">
+      <c r="S69" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T69" s="104">
+      <c r="T69" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10253,11 +10515,11 @@
         <f t="shared" si="0"/>
         <v>0.52013014072015107</v>
       </c>
-      <c r="L70" s="104">
+      <c r="L70" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M70" s="104">
+      <c r="M70" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10273,11 +10535,11 @@
         <f t="shared" si="7"/>
         <v>0.48574872573970462</v>
       </c>
-      <c r="S70" s="104">
+      <c r="S70" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T70" s="104">
+      <c r="T70" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10305,11 +10567,11 @@
         <f t="shared" si="0"/>
         <v>0.48291255139771205</v>
       </c>
-      <c r="L71" s="104">
+      <c r="L71" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M71" s="104">
+      <c r="M71" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10325,11 +10587,11 @@
         <f t="shared" si="7"/>
         <v>0.41952676950903162</v>
       </c>
-      <c r="S71" s="104">
+      <c r="S71" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T71" s="104">
+      <c r="T71" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10357,11 +10619,11 @@
         <f t="shared" si="0"/>
         <v>0.44455624777516756</v>
       </c>
-      <c r="L72" s="104">
+      <c r="L72" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M72" s="104">
+      <c r="M72" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10377,11 +10639,11 @@
         <f t="shared" si="7"/>
         <v>0.35926047394183436</v>
       </c>
-      <c r="S72" s="104">
+      <c r="S72" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T72" s="104">
+      <c r="T72" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10409,11 +10671,11 @@
         <f t="shared" ref="D73:D106" si="19">D72*(1-C72)</f>
         <v>0.40540807054563471</v>
       </c>
-      <c r="L73" s="104">
+      <c r="L73" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M73" s="104">
+      <c r="M73" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10429,11 +10691,11 @@
         <f t="shared" si="7"/>
         <v>0.30476609196296539</v>
       </c>
-      <c r="S73" s="104">
+      <c r="S73" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T73" s="104">
+      <c r="T73" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10461,11 +10723,11 @@
         <f t="shared" si="19"/>
         <v>0.36496345429910237</v>
       </c>
-      <c r="L74" s="104">
+      <c r="L74" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M74" s="104">
+      <c r="M74" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10481,11 +10743,11 @@
         <f t="shared" si="7"/>
         <v>0.25522027380745999</v>
       </c>
-      <c r="S74" s="104">
+      <c r="S74" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T74" s="104">
+      <c r="T74" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10513,11 +10775,11 @@
         <f t="shared" si="19"/>
         <v>0.32375153217106822</v>
       </c>
-      <c r="L75" s="104">
+      <c r="L75" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M75" s="104">
+      <c r="M75" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10533,11 +10795,11 @@
         <f t="shared" si="7"/>
         <v>0.21060523391108546</v>
       </c>
-      <c r="S75" s="104">
+      <c r="S75" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T75" s="104">
+      <c r="T75" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10565,11 +10827,11 @@
         <f t="shared" si="19"/>
         <v>0.28244011143023273</v>
       </c>
-      <c r="L76" s="104">
+      <c r="L76" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M76" s="104">
+      <c r="M76" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10585,11 +10847,11 @@
         <f t="shared" si="7"/>
         <v>0.170913055150927</v>
       </c>
-      <c r="S76" s="104">
+      <c r="S76" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T76" s="104">
+      <c r="T76" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10617,11 +10879,11 @@
         <f t="shared" si="19"/>
         <v>0.24182729908718817</v>
       </c>
-      <c r="L77" s="104">
+      <c r="L77" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M77" s="104">
+      <c r="M77" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10637,11 +10899,11 @@
         <f t="shared" si="7"/>
         <v>0.13612745476963467</v>
       </c>
-      <c r="S77" s="104">
+      <c r="S77" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T77" s="104">
+      <c r="T77" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10669,11 +10931,11 @@
         <f t="shared" si="19"/>
         <v>0.20310084780351195</v>
       </c>
-      <c r="L78" s="104">
+      <c r="L78" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M78" s="104">
+      <c r="M78" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10689,11 +10951,11 @@
         <f t="shared" si="7"/>
         <v>0.10635151259503718</v>
       </c>
-      <c r="S78" s="104">
+      <c r="S78" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T78" s="104">
+      <c r="T78" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10721,11 +10983,11 @@
         <f t="shared" si="19"/>
         <v>0.16704293264795009</v>
       </c>
-      <c r="L79" s="104">
+      <c r="L79" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M79" s="104">
+      <c r="M79" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10741,11 +11003,11 @@
         <f t="shared" si="7"/>
         <v>8.1367613149169779E-2</v>
       </c>
-      <c r="S79" s="104">
+      <c r="S79" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T79" s="104">
+      <c r="T79" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10773,11 +11035,11 @@
         <f t="shared" si="19"/>
         <v>0.13433350212469566</v>
       </c>
-      <c r="L80" s="104">
+      <c r="L80" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M80" s="104">
+      <c r="M80" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10793,11 +11055,11 @@
         <f t="shared" si="7"/>
         <v>6.0869445207679951E-2</v>
       </c>
-      <c r="S80" s="104">
+      <c r="S80" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T80" s="104">
+      <c r="T80" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10825,11 +11087,11 @@
         <f t="shared" si="19"/>
         <v>0.10547923743049588</v>
       </c>
-      <c r="L81" s="104">
+      <c r="L81" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M81" s="104">
+      <c r="M81" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10845,11 +11107,11 @@
         <f t="shared" si="7"/>
         <v>4.4460416152917001E-2</v>
       </c>
-      <c r="S81" s="104">
+      <c r="S81" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T81" s="104">
+      <c r="T81" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10877,11 +11139,11 @@
         <f t="shared" si="19"/>
         <v>8.0763327010334174E-2</v>
       </c>
-      <c r="L82" s="104">
+      <c r="L82" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M82" s="104">
+      <c r="M82" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10897,11 +11159,11 @@
         <f t="shared" si="7"/>
         <v>3.1667390608636568E-2</v>
       </c>
-      <c r="S82" s="104">
+      <c r="S82" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T82" s="104">
+      <c r="T82" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10929,11 +11191,11 @@
         <f t="shared" si="19"/>
         <v>6.0228312276585545E-2</v>
       </c>
-      <c r="L83" s="104">
+      <c r="L83" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M83" s="104">
+      <c r="M83" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10949,11 +11211,11 @@
         <f t="shared" si="7"/>
         <v>2.1967989233155204E-2</v>
       </c>
-      <c r="S83" s="104">
+      <c r="S83" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T83" s="104">
+      <c r="T83" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10981,11 +11243,11 @@
         <f t="shared" si="19"/>
         <v>4.3692973821657315E-2</v>
       </c>
-      <c r="L84" s="104">
+      <c r="L84" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M84" s="104">
+      <c r="M84" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11001,11 +11263,11 @@
         <f t="shared" si="7"/>
         <v>1.482493349748654E-2</v>
       </c>
-      <c r="S84" s="104">
+      <c r="S84" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T84" s="104">
+      <c r="T84" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11033,11 +11295,11 @@
         <f t="shared" si="19"/>
         <v>3.1079476740244239E-2</v>
       </c>
-      <c r="L85" s="104">
+      <c r="L85" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M85" s="104">
+      <c r="M85" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11053,11 +11315,11 @@
         <f t="shared" si="7"/>
         <v>9.8094889738961286E-3</v>
       </c>
-      <c r="S85" s="104">
+      <c r="S85" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T85" s="104">
+      <c r="T85" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11085,11 +11347,11 @@
         <f t="shared" si="19"/>
         <v>2.1473236209615078E-2</v>
       </c>
-      <c r="L86" s="104">
+      <c r="L86" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M86" s="104">
+      <c r="M86" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11105,11 +11367,11 @@
         <f t="shared" si="7"/>
         <v>6.3046607473727888E-3</v>
       </c>
-      <c r="S86" s="104">
+      <c r="S86" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T86" s="104">
+      <c r="T86" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11137,11 +11399,11 @@
         <f t="shared" si="19"/>
         <v>1.4547741507732977E-2</v>
       </c>
-      <c r="L87" s="104">
+      <c r="L87" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M87" s="104">
+      <c r="M87" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11157,11 +11419,11 @@
         <f t="shared" si="7"/>
         <v>3.9732997707342494E-3</v>
       </c>
-      <c r="S87" s="104">
+      <c r="S87" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T87" s="104">
+      <c r="T87" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11189,11 +11451,11 @@
         <f t="shared" si="19"/>
         <v>9.5553150262579004E-3</v>
       </c>
-      <c r="L88" s="104">
+      <c r="L88" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M88" s="104">
+      <c r="M88" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11209,11 +11471,11 @@
         <f t="shared" si="7"/>
         <v>2.4276848160192815E-3</v>
       </c>
-      <c r="S88" s="104">
+      <c r="S88" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T88" s="104">
+      <c r="T88" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11241,11 +11503,11 @@
         <f t="shared" si="19"/>
         <v>6.1567784145890453E-3</v>
       </c>
-      <c r="L89" s="104">
+      <c r="L89" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M89" s="104">
+      <c r="M89" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11261,11 +11523,11 @@
         <f t="shared" si="7"/>
         <v>1.4550983606719764E-3</v>
       </c>
-      <c r="S89" s="104">
+      <c r="S89" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T89" s="104">
+      <c r="T89" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11293,11 +11555,11 @@
         <f t="shared" si="19"/>
         <v>3.8498272922810836E-3</v>
       </c>
-      <c r="L90" s="104">
+      <c r="L90" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M90" s="104">
+      <c r="M90" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11313,11 +11575,11 @@
         <f t="shared" si="7"/>
         <v>8.4639211880216847E-4</v>
       </c>
-      <c r="S90" s="104">
+      <c r="S90" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T90" s="104">
+      <c r="T90" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11345,11 +11607,11 @@
         <f t="shared" si="19"/>
         <v>2.3735383096026431E-3</v>
       </c>
-      <c r="L91" s="104">
+      <c r="L91" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M91" s="104">
+      <c r="M91" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11365,11 +11627,11 @@
         <f t="shared" si="7"/>
         <v>4.8542053578656802E-4</v>
       </c>
-      <c r="S91" s="104">
+      <c r="S91" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T91" s="104">
+      <c r="T91" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11397,11 +11659,11 @@
         <f t="shared" si="19"/>
         <v>1.429140645748086E-3</v>
       </c>
-      <c r="L92" s="104">
+      <c r="L92" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M92" s="104">
+      <c r="M92" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11417,11 +11679,11 @@
         <f t="shared" si="7"/>
         <v>2.7188697719497088E-4</v>
       </c>
-      <c r="S92" s="104">
+      <c r="S92" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T92" s="104">
+      <c r="T92" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11449,11 +11711,11 @@
         <f t="shared" si="19"/>
         <v>8.5748438744885159E-4</v>
       </c>
-      <c r="L93" s="104">
+      <c r="L93" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M93" s="104">
+      <c r="M93" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11469,11 +11731,11 @@
         <f t="shared" si="7"/>
         <v>1.5175087099254185E-4</v>
       </c>
-      <c r="S93" s="104">
+      <c r="S93" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T93" s="104">
+      <c r="T93" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11501,11 +11763,11 @@
         <f t="shared" si="19"/>
         <v>5.1449063246931091E-4</v>
       </c>
-      <c r="L94" s="104">
+      <c r="L94" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M94" s="104">
+      <c r="M94" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11521,11 +11783,11 @@
         <f t="shared" si="7"/>
         <v>8.4698160553976846E-5</v>
       </c>
-      <c r="S94" s="104">
+      <c r="S94" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T94" s="104">
+      <c r="T94" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11553,11 +11815,11 @@
         <f t="shared" si="19"/>
         <v>3.0869437948158654E-4</v>
       </c>
-      <c r="L95" s="104">
+      <c r="L95" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M95" s="104">
+      <c r="M95" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11573,11 +11835,11 @@
         <f t="shared" si="7"/>
         <v>4.7273391937103357E-5</v>
       </c>
-      <c r="S95" s="104">
+      <c r="S95" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T95" s="104">
+      <c r="T95" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11605,11 +11867,11 @@
         <f t="shared" si="19"/>
         <v>1.8521662768895193E-4</v>
       </c>
-      <c r="L96" s="104">
+      <c r="L96" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M96" s="104">
+      <c r="M96" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11625,11 +11887,11 @@
         <f t="shared" si="7"/>
         <v>2.6385148988150714E-5</v>
       </c>
-      <c r="S96" s="104">
+      <c r="S96" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T96" s="104">
+      <c r="T96" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11657,11 +11919,11 @@
         <f t="shared" si="19"/>
         <v>1.1112997661337116E-4</v>
       </c>
-      <c r="L97" s="104">
+      <c r="L97" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M97" s="104">
+      <c r="M97" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11677,11 +11939,11 @@
         <f t="shared" si="7"/>
         <v>1.4726594784084121E-5</v>
       </c>
-      <c r="S97" s="104">
+      <c r="S97" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T97" s="104">
+      <c r="T97" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11709,11 +11971,11 @@
         <f t="shared" si="19"/>
         <v>6.6677985968022693E-5</v>
       </c>
-      <c r="L98" s="104">
+      <c r="L98" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M98" s="104">
+      <c r="M98" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11729,11 +11991,11 @@
         <f t="shared" si="7"/>
         <v>8.2194947632097419E-6</v>
       </c>
-      <c r="S98" s="104">
+      <c r="S98" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T98" s="104">
+      <c r="T98" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11761,11 +12023,11 @@
         <f t="shared" si="19"/>
         <v>4.0006791580813616E-5</v>
       </c>
-      <c r="L99" s="104">
+      <c r="L99" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M99" s="104">
+      <c r="M99" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11781,11 +12043,11 @@
         <f t="shared" si="7"/>
         <v>4.587624984117065E-6</v>
       </c>
-      <c r="S99" s="104">
+      <c r="S99" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T99" s="104">
+      <c r="T99" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11813,11 +12075,11 @@
         <f t="shared" si="19"/>
         <v>2.400407494848817E-5</v>
       </c>
-      <c r="L100" s="104">
+      <c r="L100" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M100" s="104">
+      <c r="M100" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11833,11 +12095,11 @@
         <f t="shared" si="7"/>
         <v>2.5605348748560373E-6</v>
       </c>
-      <c r="S100" s="104">
+      <c r="S100" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T100" s="104">
+      <c r="T100" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11865,11 +12127,11 @@
         <f t="shared" si="19"/>
         <v>1.4402444969092902E-5</v>
       </c>
-      <c r="L101" s="104">
+      <c r="L101" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M101" s="104">
+      <c r="M101" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11885,11 +12147,11 @@
         <f t="shared" si="7"/>
         <v>1.429135744105695E-6</v>
       </c>
-      <c r="S101" s="104">
+      <c r="S101" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T101" s="104">
+      <c r="T101" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11917,11 +12179,11 @@
         <f t="shared" si="19"/>
         <v>8.6414669814557416E-6</v>
       </c>
-      <c r="L102" s="104">
+      <c r="L102" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M102" s="104">
+      <c r="M102" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11937,11 +12199,11 @@
         <f t="shared" si="7"/>
         <v>7.9765715950085294E-7</v>
       </c>
-      <c r="S102" s="104">
+      <c r="S102" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T102" s="104">
+      <c r="T102" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11969,11 +12231,11 @@
         <f t="shared" si="19"/>
         <v>5.1848801888734449E-6</v>
       </c>
-      <c r="L103" s="104">
+      <c r="L103" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M103" s="104">
+      <c r="M103" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11989,11 +12251,11 @@
         <f t="shared" si="7"/>
         <v>4.4520399600047596E-7</v>
       </c>
-      <c r="S103" s="104">
+      <c r="S103" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T103" s="104">
+      <c r="T103" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12021,11 +12283,11 @@
         <f t="shared" si="19"/>
         <v>3.1109281133240667E-6</v>
       </c>
-      <c r="L104" s="104">
+      <c r="L104" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M104" s="104">
+      <c r="M104" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12041,11 +12303,11 @@
         <f t="shared" si="7"/>
         <v>2.4848595125607966E-7</v>
       </c>
-      <c r="S104" s="104">
+      <c r="S104" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T104" s="104">
+      <c r="T104" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12073,11 +12335,11 @@
         <f t="shared" si="19"/>
         <v>1.8665568679944399E-6</v>
       </c>
-      <c r="L105" s="104">
+      <c r="L105" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M105" s="104">
+      <c r="M105" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12093,11 +12355,11 @@
         <f t="shared" si="7"/>
         <v>1.3868983325920723E-7</v>
       </c>
-      <c r="S105" s="104">
+      <c r="S105" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T105" s="104">
+      <c r="T105" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12125,11 +12387,11 @@
         <f t="shared" si="19"/>
         <v>1.1199341207966639E-6</v>
       </c>
-      <c r="L106" s="104">
+      <c r="L106" s="93">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M106" s="104">
+      <c r="M106" s="93">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12145,11 +12407,11 @@
         <f t="shared" si="7"/>
         <v>7.7408279028394735E-8</v>
       </c>
-      <c r="S106" s="104">
+      <c r="S106" s="93">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T106" s="104">
+      <c r="T106" s="93">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12167,7 +12429,7 @@
       </c>
     </row>
     <row r="108" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="N108" s="104" t="s">
+      <c r="N108" s="93" t="s">
         <v>199</v>
       </c>
       <c r="O108">
@@ -12178,7 +12440,7 @@
         <f>SUM(P42:P106)</f>
         <v>80.573925783148752</v>
       </c>
-      <c r="U108" s="104" t="s">
+      <c r="U108" s="93" t="s">
         <v>203</v>
       </c>
       <c r="V108">
@@ -12215,7 +12477,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12226,200 +12488,200 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="91" t="s">
+      <c r="F6" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="89" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="89">
         <v>20</v>
       </c>
-      <c r="C7" s="91">
-        <v>0</v>
-      </c>
-      <c r="D7" s="91">
+      <c r="C7" s="89">
+        <v>0</v>
+      </c>
+      <c r="D7" s="89">
         <v>1</v>
       </c>
-      <c r="E7" s="91">
+      <c r="E7" s="89">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="F7" s="91">
+      <c r="F7" s="89">
         <v>0.5</v>
       </c>
-      <c r="G7" s="91">
+      <c r="G7" s="89">
         <v>50</v>
       </c>
-      <c r="H7" s="91">
+      <c r="H7" s="89">
         <v>999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="91">
+      <c r="B8" s="89">
         <v>20</v>
       </c>
-      <c r="C8" s="91">
-        <v>0</v>
-      </c>
-      <c r="D8" s="91">
+      <c r="C8" s="89">
+        <v>0</v>
+      </c>
+      <c r="D8" s="89">
         <v>1</v>
       </c>
-      <c r="E8" s="91">
+      <c r="E8" s="89">
         <v>0.03</v>
       </c>
-      <c r="F8" s="91">
+      <c r="F8" s="89">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G8" s="91">
+      <c r="G8" s="89">
         <v>50</v>
       </c>
-      <c r="H8" s="91">
+      <c r="H8" s="89">
         <v>999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="91">
+      <c r="B9" s="89">
         <v>10</v>
       </c>
-      <c r="C9" s="91">
+      <c r="C9" s="89">
         <v>50</v>
       </c>
-      <c r="D9" s="91">
+      <c r="D9" s="89">
         <v>1</v>
       </c>
-      <c r="E9" s="91">
+      <c r="E9" s="89">
         <v>0.03</v>
       </c>
-      <c r="F9" s="91">
+      <c r="F9" s="89">
         <v>0.6</v>
       </c>
-      <c r="G9" s="91">
+      <c r="G9" s="89">
         <v>50</v>
       </c>
-      <c r="H9" s="91">
+      <c r="H9" s="89">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="91">
+      <c r="B10" s="89">
         <v>20</v>
       </c>
-      <c r="C10" s="91">
-        <v>0</v>
-      </c>
-      <c r="D10" s="91">
+      <c r="C10" s="89">
+        <v>0</v>
+      </c>
+      <c r="D10" s="89">
         <v>1</v>
       </c>
-      <c r="E10" s="91">
+      <c r="E10" s="89">
         <v>0.03</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="89">
         <v>0.6</v>
       </c>
-      <c r="G10" s="91">
+      <c r="G10" s="89">
         <v>50</v>
       </c>
-      <c r="H10" s="91">
+      <c r="H10" s="89">
         <v>999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="91">
+      <c r="B11" s="89">
         <v>20</v>
       </c>
-      <c r="C11" s="91">
+      <c r="C11" s="89">
         <v>50</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="89">
         <v>1</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="89">
         <v>0.03</v>
       </c>
-      <c r="F11" s="91">
+      <c r="F11" s="89">
         <v>0.6</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="89">
         <v>50</v>
       </c>
-      <c r="H11" s="91">
+      <c r="H11" s="89">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="91">
+      <c r="B12" s="89">
         <v>20</v>
       </c>
-      <c r="C12" s="91">
+      <c r="C12" s="89">
         <v>50</v>
       </c>
-      <c r="D12" s="91">
+      <c r="D12" s="89">
         <v>2</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="89">
         <v>0.03</v>
       </c>
-      <c r="F12" s="91">
+      <c r="F12" s="89">
         <v>0.7</v>
       </c>
-      <c r="G12" s="91">
+      <c r="G12" s="89">
         <v>50</v>
       </c>
-      <c r="H12" s="91">
+      <c r="H12" s="89">
         <v>20</v>
       </c>
     </row>
@@ -12437,7 +12699,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12525,7 +12787,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>139</v>
       </c>
       <c r="C8" s="18"/>
@@ -12605,10 +12867,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>82</v>
       </c>
     </row>
@@ -12648,130 +12910,130 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="53">
-        <v>0</v>
-      </c>
-      <c r="B7" s="54">
+      <c r="A7" s="52">
+        <v>0</v>
+      </c>
+      <c r="B7" s="53">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="55">
+      <c r="A8" s="54">
         <v>1</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="55">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="55">
+      <c r="A9" s="54">
         <v>2</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="55">
         <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="55">
+      <c r="A10" s="54">
         <v>3</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="55">
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="55">
+      <c r="A11" s="54">
         <v>4</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="55">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="55">
+      <c r="A12" s="54">
         <v>5</v>
       </c>
-      <c r="B12" s="56">
+      <c r="B12" s="55">
         <v>0.03</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="55">
+      <c r="A13" s="54">
         <v>6</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="55">
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="55">
+      <c r="A14" s="54">
         <v>7</v>
       </c>
-      <c r="B14" s="56">
+      <c r="B14" s="55">
         <v>0.02</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="55">
+      <c r="A15" s="54">
         <v>8</v>
       </c>
-      <c r="B15" s="56">
+      <c r="B15" s="55">
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="55">
+      <c r="A16" s="54">
         <v>9</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="55">
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="55">
+      <c r="A17" s="54">
         <v>10</v>
       </c>
-      <c r="B17" s="56">
+      <c r="B17" s="55">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="55">
+      <c r="A18" s="54">
         <v>11</v>
       </c>
-      <c r="B18" s="56">
+      <c r="B18" s="55">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
@@ -12853,18 +13115,18 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>186</v>
       </c>
     </row>
@@ -12875,232 +13137,232 @@
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="79" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="90">
         <v>40360</v>
       </c>
-      <c r="C7" s="80">
+      <c r="C7" s="79">
         <v>30</v>
       </c>
-      <c r="D7" s="93">
-        <v>0</v>
-      </c>
-      <c r="E7" s="93">
-        <v>0</v>
-      </c>
-      <c r="F7" s="93">
+      <c r="D7" s="91">
+        <v>0</v>
+      </c>
+      <c r="E7" s="91">
+        <v>0</v>
+      </c>
+      <c r="F7" s="91">
         <v>25</v>
       </c>
-      <c r="G7" s="93">
+      <c r="G7" s="91">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="92">
+      <c r="B8" s="90">
         <v>40725</v>
       </c>
-      <c r="C8" s="80">
+      <c r="C8" s="79">
         <v>30</v>
       </c>
-      <c r="D8" s="93">
-        <v>0</v>
-      </c>
-      <c r="E8" s="93">
-        <v>0</v>
-      </c>
-      <c r="F8" s="93">
+      <c r="D8" s="91">
+        <v>0</v>
+      </c>
+      <c r="E8" s="91">
+        <v>0</v>
+      </c>
+      <c r="F8" s="91">
         <v>26</v>
       </c>
-      <c r="G8" s="93">
+      <c r="G8" s="91">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="92">
+      <c r="B9" s="90">
         <v>40725</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="79">
         <v>15</v>
       </c>
-      <c r="D9" s="93">
-        <v>0</v>
-      </c>
-      <c r="E9" s="93">
-        <v>0</v>
-      </c>
-      <c r="F9" s="93">
+      <c r="D9" s="91">
+        <v>0</v>
+      </c>
+      <c r="E9" s="91">
+        <v>0</v>
+      </c>
+      <c r="F9" s="91">
         <v>11</v>
       </c>
-      <c r="G9" s="93">
+      <c r="G9" s="91">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="92">
+      <c r="B10" s="90">
         <v>40725</v>
       </c>
-      <c r="C10" s="80">
+      <c r="C10" s="79">
         <v>15</v>
       </c>
-      <c r="D10" s="93">
-        <v>0</v>
-      </c>
-      <c r="E10" s="93">
-        <v>0</v>
-      </c>
-      <c r="F10" s="93">
+      <c r="D10" s="91">
+        <v>0</v>
+      </c>
+      <c r="E10" s="91">
+        <v>0</v>
+      </c>
+      <c r="F10" s="91">
         <v>11</v>
       </c>
-      <c r="G10" s="93">
+      <c r="G10" s="91">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="92">
+      <c r="B11" s="90">
         <v>41091</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="79">
         <v>30</v>
       </c>
-      <c r="D11" s="93">
-        <v>0</v>
-      </c>
-      <c r="E11" s="93">
-        <v>0</v>
-      </c>
-      <c r="F11" s="93">
+      <c r="D11" s="91">
+        <v>0</v>
+      </c>
+      <c r="E11" s="91">
+        <v>0</v>
+      </c>
+      <c r="F11" s="91">
         <v>27</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="91">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="92">
+      <c r="B12" s="90">
         <v>41456</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="79">
         <v>30</v>
       </c>
-      <c r="D12" s="93">
-        <v>0</v>
-      </c>
-      <c r="E12" s="93">
-        <v>0</v>
-      </c>
-      <c r="F12" s="93">
+      <c r="D12" s="91">
+        <v>0</v>
+      </c>
+      <c r="E12" s="91">
+        <v>0</v>
+      </c>
+      <c r="F12" s="91">
         <v>28</v>
       </c>
-      <c r="G12" s="93">
+      <c r="G12" s="91">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="92">
+      <c r="B13" s="90">
         <v>41821</v>
       </c>
-      <c r="C13" s="80">
+      <c r="C13" s="79">
         <v>30</v>
       </c>
-      <c r="D13" s="93">
-        <v>0</v>
-      </c>
-      <c r="E13" s="93">
-        <v>0</v>
-      </c>
-      <c r="F13" s="93">
+      <c r="D13" s="91">
+        <v>0</v>
+      </c>
+      <c r="E13" s="91">
+        <v>0</v>
+      </c>
+      <c r="F13" s="91">
         <v>29</v>
       </c>
-      <c r="G13" s="93">
+      <c r="G13" s="91">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="92">
+      <c r="B14" s="90">
         <v>42186</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C14" s="79">
         <v>20</v>
       </c>
-      <c r="D14" s="93">
-        <v>0</v>
-      </c>
-      <c r="E14" s="93">
-        <v>0</v>
-      </c>
-      <c r="F14" s="93">
+      <c r="D14" s="91">
+        <v>0</v>
+      </c>
+      <c r="E14" s="91">
+        <v>0</v>
+      </c>
+      <c r="F14" s="91">
         <v>20</v>
       </c>
-      <c r="G14" s="93">
+      <c r="G14" s="91">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="92">
+      <c r="B15" s="90">
         <v>42186</v>
       </c>
-      <c r="C15" s="80">
+      <c r="C15" s="79">
         <v>20</v>
       </c>
-      <c r="D15" s="93">
-        <v>0</v>
-      </c>
-      <c r="E15" s="93">
-        <v>0</v>
-      </c>
-      <c r="F15" s="93">
+      <c r="D15" s="91">
+        <v>0</v>
+      </c>
+      <c r="E15" s="91">
+        <v>0</v>
+      </c>
+      <c r="F15" s="91">
         <v>20</v>
       </c>
-      <c r="G15" s="93">
+      <c r="G15" s="91">
         <v>0</v>
       </c>
     </row>
@@ -13158,7 +13420,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="37"/>
@@ -13200,15 +13462,15 @@
       <c r="A5" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="94" t="s">
+      <c r="C5" s="107"/>
+      <c r="D5" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="42" t="s">
         <v>79</v>
       </c>
@@ -13219,22 +13481,22 @@
       <c r="A6" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="98" t="s">
+      <c r="F6" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="98"/>
+      <c r="G6" s="108"/>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
     </row>
@@ -13258,10 +13520,10 @@
       <c r="C9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="95"/>
+      <c r="E9" s="105"/>
       <c r="F9" s="38" t="s">
         <v>64</v>
       </c>
@@ -13270,19 +13532,19 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99" t="s">
+      <c r="C10" s="109"/>
+      <c r="D10" s="109" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
@@ -13290,21 +13552,21 @@
       <c r="C11" s="37"/>
     </row>
     <row r="12" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="95" t="s">
+      <c r="C12" s="107"/>
+      <c r="D12" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95" t="s">
+      <c r="E12" s="105"/>
+      <c r="F12" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="95"/>
+      <c r="G12" s="105"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>

--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="13" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="2" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="225">
   <si>
     <t>Notes</t>
   </si>
@@ -1160,34 +1160,6 @@
   - yos 20-30: 65% of FAS
   - yos &gt; 30:    75% of FAS
 NonService connected: 40% of FAS</t>
-  </si>
-  <si>
-    <r>
-      <t>Death after retirement
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Do not plan to model</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>qxd.fire</t>
@@ -1757,6 +1729,23 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death after retirement
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modeling:
+- assuming all disabilities  are service connceted.
+- QSSs' benefits are modeled as a fixed proportion of the pension received by the deceased member immediately preceding the date of death.
+   - Tier 1: 80%  
+   - Tier 2: 80%
+   - Tier 3/4: 60%
+   - Tier 5:  60%
+   - Tier 6: 80% </t>
+  </si>
+  <si>
+    <t>factor.ca.disb</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +1974,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2184,9 +2173,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2271,6 +2257,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2421,13 +2413,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>742164</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>190326</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2459,13 +2451,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1981200</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2475,7 +2467,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8763000" y="7315200"/>
+          <a:off x="8763000" y="9124950"/>
           <a:ext cx="6953250" cy="6115050"/>
           <a:chOff x="6134100" y="1276350"/>
           <a:chExt cx="7219048" cy="6038509"/>
@@ -3916,22 +3908,22 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111" t="s">
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="57" t="s">
         <v>94</v>
       </c>
@@ -4714,7 +4706,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:G27"/>
+      <selection activeCell="B32" sqref="B32:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6639,56 +6631,56 @@
     </row>
     <row r="4" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="B4" s="87" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="D4" s="76" t="s">
         <v>123</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="107"/>
+      <c r="G4" s="106"/>
     </row>
     <row r="5" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="87" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="76" t="s">
+      <c r="F5" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="105" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" s="105"/>
+      <c r="G5" s="104"/>
     </row>
     <row r="6" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="112" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="A6" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
     </row>
     <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -6791,10 +6783,10 @@
         <v>85</v>
       </c>
       <c r="B5" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="79" t="s">
         <v>150</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -7031,10 +7023,10 @@
         <v>97</v>
       </c>
       <c r="B5" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="79" t="s">
         <v>152</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -7243,10 +7235,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7300,31 +7292,31 @@
       <c r="A4" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="113" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
+      <c r="B4" s="112" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
     </row>
     <row r="7" spans="1:7" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
-        <v>131</v>
+      <c r="A7" s="115" t="s">
+        <v>222</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>76</v>
@@ -7332,10 +7324,10 @@
       <c r="C7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="105" t="s">
+      <c r="D7" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="107"/>
+      <c r="E7" s="106"/>
       <c r="F7" s="8" t="s">
         <v>64</v>
       </c>
@@ -7343,26 +7335,39 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+    <row r="8" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="115"/>
+      <c r="B8" s="116" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B8:G8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
@@ -7406,7 +7411,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="85" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -7416,19 +7421,19 @@
       <c r="D3" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="83" t="s">
-        <v>133</v>
-      </c>
       <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="84">
+      <c r="A6" s="83">
         <v>20</v>
       </c>
       <c r="B6" s="53">
@@ -7441,7 +7446,7 @@
       <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="85">
+      <c r="A7" s="84">
         <v>25</v>
       </c>
       <c r="B7" s="55">
@@ -7454,7 +7459,7 @@
       <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="85">
+      <c r="A8" s="84">
         <v>30</v>
       </c>
       <c r="B8" s="55">
@@ -7467,7 +7472,7 @@
       <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="85">
+      <c r="A9" s="84">
         <v>35</v>
       </c>
       <c r="B9" s="55">
@@ -7480,7 +7485,7 @@
       <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="85">
+      <c r="A10" s="84">
         <v>40</v>
       </c>
       <c r="B10" s="55">
@@ -7493,7 +7498,7 @@
       <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="85">
+      <c r="A11" s="84">
         <v>45</v>
       </c>
       <c r="B11" s="55">
@@ -7506,7 +7511,7 @@
       <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="85">
+      <c r="A12" s="84">
         <v>50</v>
       </c>
       <c r="B12" s="55">
@@ -7519,7 +7524,7 @@
       <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="85">
+      <c r="A13" s="84">
         <v>55</v>
       </c>
       <c r="B13" s="55">
@@ -7532,7 +7537,7 @@
       <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="85">
+      <c r="A14" s="84">
         <v>60</v>
       </c>
       <c r="B14" s="55">
@@ -7546,7 +7551,7 @@
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -7563,7 +7568,7 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -7588,7 +7593,7 @@
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>68</v>
@@ -7597,7 +7602,7 @@
         <v>69</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>71</v>
@@ -7608,113 +7613,113 @@
     </row>
     <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="101" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="101" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" s="101" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="98" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="101" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="113" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="113"/>
+      <c r="G5" s="101" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="99" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="102" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="102" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="102" t="s">
-        <v>216</v>
-      </c>
-      <c r="F4" s="102" t="s">
-        <v>213</v>
-      </c>
-      <c r="G4" s="102" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="99" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="102" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="102" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" s="114" t="s">
+      <c r="B6" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="G5" s="102" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="98" t="s">
-        <v>209</v>
-      </c>
-      <c r="B6" s="99" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="102" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="114" t="s">
-        <v>218</v>
-      </c>
-      <c r="F6" s="114"/>
-      <c r="G6" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="H6" s="102" t="s">
-        <v>218</v>
+      <c r="E6" s="113" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="113"/>
+      <c r="G6" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" s="101" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
-      <c r="B7" s="99" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" s="102" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="102" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="114" t="s">
-        <v>219</v>
-      </c>
-      <c r="F7" s="114"/>
-      <c r="G7" s="102" t="s">
-        <v>219</v>
-      </c>
-      <c r="H7" s="102" t="s">
-        <v>221</v>
+      <c r="B7" s="98" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="101" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="113"/>
+      <c r="G7" s="101" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" s="101" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="1:8" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="36"/>
-      <c r="C9" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="101"/>
+      <c r="C9" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="100"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
@@ -7724,7 +7729,7 @@
     <row r="13" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
-      <c r="G13" s="101"/>
+      <c r="G13" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7747,7 +7752,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7771,8 +7776,8 @@
     </row>
     <row r="5" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="88" t="s">
-        <v>149</v>
+      <c r="B5" s="87" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7803,116 +7808,116 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="10" max="12" width="10.5703125" style="93" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="93" customWidth="1"/>
+    <col min="10" max="12" width="10.5703125" style="92" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="92" customWidth="1"/>
     <col min="14" max="14" width="13.140625" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12" style="93" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="93" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="93" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="93" customWidth="1"/>
+    <col min="17" max="17" width="12" style="92" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="92" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="92" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="92" customWidth="1"/>
     <col min="21" max="21" width="13.140625" customWidth="1"/>
     <col min="22" max="22" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="J5" s="115" t="s">
-        <v>189</v>
-      </c>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115" t="s">
-        <v>202</v>
-      </c>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
-      <c r="W5" s="115"/>
+      <c r="J5" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114" t="s">
+        <v>201</v>
+      </c>
+      <c r="R5" s="114"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="114"/>
+      <c r="W5" s="114"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>97</v>
       </c>
       <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
         <v>195</v>
       </c>
-      <c r="D6" t="s">
-        <v>196</v>
-      </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G6" t="s">
         <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I6" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="K6" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="K6" s="94" t="s">
+      <c r="L6" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="L6" s="94" t="s">
+      <c r="M6" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="M6" s="94" t="s">
-        <v>194</v>
-      </c>
-      <c r="N6" s="94" t="s">
-        <v>198</v>
-      </c>
-      <c r="O6" s="94" t="s">
+      <c r="N6" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="O6" s="93" t="s">
+        <v>199</v>
+      </c>
+      <c r="P6" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="P6" s="94" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q6" s="96" t="s">
+      <c r="Q6" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="R6" s="95" t="s">
         <v>191</v>
       </c>
-      <c r="R6" s="96" t="s">
+      <c r="S6" s="95" t="s">
         <v>192</v>
       </c>
-      <c r="S6" s="96" t="s">
+      <c r="T6" s="95" t="s">
         <v>193</v>
       </c>
-      <c r="T6" s="96" t="s">
-        <v>194</v>
-      </c>
-      <c r="U6" s="96" t="s">
-        <v>198</v>
-      </c>
-      <c r="V6" s="96" t="s">
+      <c r="U6" s="95" t="s">
+        <v>197</v>
+      </c>
+      <c r="V6" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="W6" s="95" t="s">
         <v>200</v>
-      </c>
-      <c r="W6" s="96" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>20</v>
       </c>
-      <c r="C7" s="95">
+      <c r="C7" s="94">
         <v>3.3416560000000002E-4</v>
       </c>
       <c r="D7">
@@ -8854,18 +8859,18 @@
         <f t="shared" si="2"/>
         <v>4.4189770091659719</v>
       </c>
-      <c r="J42" s="93">
+      <c r="J42" s="92">
         <f>E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K42" s="93">
+      <c r="K42" s="92">
         <f>J42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="L42" s="93">
-        <v>0</v>
-      </c>
-      <c r="M42" s="93">
+      <c r="L42" s="92">
+        <v>0</v>
+      </c>
+      <c r="M42" s="92">
         <f>$E$42</f>
         <v>6.7984261679476479</v>
       </c>
@@ -8919,18 +8924,18 @@
         <f t="shared" si="2"/>
         <v>4.8425189594291114</v>
       </c>
-      <c r="J43" s="93">
+      <c r="J43" s="92">
         <f t="shared" ref="J43:J46" si="4">E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K43" s="93">
+      <c r="K43" s="92">
         <f>K42*1.05 +J43</f>
         <v>13.936773644292678</v>
       </c>
-      <c r="L43" s="93">
-        <v>0</v>
-      </c>
-      <c r="M43" s="93">
+      <c r="L43" s="92">
+        <v>0</v>
+      </c>
+      <c r="M43" s="92">
         <f t="shared" ref="M43:M106" si="5">$E$42</f>
         <v>6.7984261679476479</v>
       </c>
@@ -8984,18 +8989,18 @@
         <f t="shared" si="2"/>
         <v>5.296327078090318</v>
       </c>
-      <c r="J44" s="93">
+      <c r="J44" s="92">
         <f t="shared" si="4"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K44" s="93">
+      <c r="K44" s="92">
         <f>K43*1.05 + J44</f>
         <v>21.432038494454961</v>
       </c>
-      <c r="L44" s="93">
-        <v>0</v>
-      </c>
-      <c r="M44" s="93">
+      <c r="L44" s="92">
+        <v>0</v>
+      </c>
+      <c r="M44" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9049,18 +9054,18 @@
         <f t="shared" si="2"/>
         <v>5.7823210346221279</v>
       </c>
-      <c r="J45" s="93">
+      <c r="J45" s="92">
         <f t="shared" si="4"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K45" s="93">
+      <c r="K45" s="92">
         <f t="shared" ref="K45:K46" si="11">K44*1.05 + J45</f>
         <v>29.30206658712536</v>
       </c>
-      <c r="L45" s="93">
-        <v>0</v>
-      </c>
-      <c r="M45" s="93">
+      <c r="L45" s="92">
+        <v>0</v>
+      </c>
+      <c r="M45" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9114,18 +9119,18 @@
         <f t="shared" si="2"/>
         <v>6.3025345790545186</v>
       </c>
-      <c r="J46" s="93">
+      <c r="J46" s="92">
         <f t="shared" si="4"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K46" s="93">
+      <c r="K46" s="92">
         <f t="shared" si="11"/>
         <v>37.565596084429274</v>
       </c>
-      <c r="L46" s="93">
-        <v>0</v>
-      </c>
-      <c r="M46" s="93">
+      <c r="L46" s="92">
+        <v>0</v>
+      </c>
+      <c r="M46" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9179,11 +9184,11 @@
         <f t="shared" si="2"/>
         <v>6.9448610739782888</v>
       </c>
-      <c r="L47" s="93">
+      <c r="L47" s="92">
         <f>$E$42 + K46</f>
         <v>44.36402225237692</v>
       </c>
-      <c r="M47" s="93">
+      <c r="M47" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9237,11 +9242,11 @@
         <f t="shared" si="2"/>
         <v>7.5441768629549353</v>
       </c>
-      <c r="L48" s="93">
+      <c r="L48" s="92">
         <f>$E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M48" s="93">
+      <c r="M48" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9295,11 +9300,11 @@
         <f t="shared" si="2"/>
         <v>8.1847583090861988</v>
       </c>
-      <c r="L49" s="93">
+      <c r="L49" s="92">
         <f t="shared" ref="L49:L56" si="12">$E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M49" s="93">
+      <c r="M49" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9353,11 +9358,11 @@
         <f t="shared" si="2"/>
         <v>8.8691734435528868</v>
       </c>
-      <c r="L50" s="93">
+      <c r="L50" s="92">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M50" s="93">
+      <c r="M50" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9411,11 +9416,11 @@
         <f t="shared" si="2"/>
         <v>9.2904591821216496</v>
       </c>
-      <c r="L51" s="93">
+      <c r="L51" s="92">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M51" s="93">
+      <c r="M51" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9441,7 +9446,7 @@
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B52" s="97">
+      <c r="B52" s="96">
         <v>65</v>
       </c>
       <c r="C52">
@@ -9469,11 +9474,11 @@
         <f t="shared" si="2"/>
         <v>9.7317559932724294</v>
       </c>
-      <c r="L52" s="93">
+      <c r="L52" s="92">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M52" s="93">
+      <c r="M52" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9489,15 +9494,15 @@
         <f t="shared" si="7"/>
         <v>3.0927925753220662</v>
       </c>
-      <c r="Q52" s="93">
+      <c r="Q52" s="92">
         <f>$E$52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="R52" s="93">
+      <c r="R52" s="92">
         <f>Q52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="T52" s="93">
+      <c r="T52" s="92">
         <f t="shared" ref="T52:T106" si="13">$E$52</f>
         <v>10.813062214747143</v>
       </c>
@@ -9543,11 +9548,11 @@
         <f t="shared" si="2"/>
         <v>10.19401440295287</v>
       </c>
-      <c r="L53" s="93">
+      <c r="L53" s="92">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M53" s="93">
+      <c r="M53" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9563,15 +9568,15 @@
         <f t="shared" si="7"/>
         <v>2.8459311587651022</v>
       </c>
-      <c r="Q53" s="93">
+      <c r="Q53" s="92">
         <f t="shared" ref="Q53:Q56" si="14">$E$52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="R53" s="93">
+      <c r="R53" s="92">
         <f>R52*1.05 +Q53</f>
         <v>22.166777540231642</v>
       </c>
-      <c r="T53" s="93">
+      <c r="T53" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9617,11 +9622,11 @@
         <f t="shared" si="2"/>
         <v>10.678230087093132</v>
       </c>
-      <c r="L54" s="93">
+      <c r="L54" s="92">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M54" s="93">
+      <c r="M54" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9637,15 +9642,15 @@
         <f t="shared" si="7"/>
         <v>2.61617031790247</v>
       </c>
-      <c r="Q54" s="93">
+      <c r="Q54" s="92">
         <f t="shared" si="14"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="R54" s="93">
+      <c r="R54" s="92">
         <f>R53*1.05 + Q54</f>
         <v>34.088178631990367</v>
       </c>
-      <c r="T54" s="93">
+      <c r="T54" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9691,11 +9696,11 @@
         <f t="shared" si="2"/>
         <v>11.185446016230058</v>
       </c>
-      <c r="L55" s="93">
+      <c r="L55" s="92">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M55" s="93">
+      <c r="M55" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9711,15 +9716,15 @@
         <f t="shared" si="7"/>
         <v>2.4024576619956037</v>
       </c>
-      <c r="Q55" s="93">
+      <c r="Q55" s="92">
         <f t="shared" si="14"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="R55" s="93">
+      <c r="R55" s="92">
         <f t="shared" ref="R55:R56" si="16">R54*1.05 + Q55</f>
         <v>46.605649778337025</v>
       </c>
-      <c r="T55" s="93">
+      <c r="T55" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9765,11 +9770,11 @@
         <f t="shared" si="2"/>
         <v>11.716754702000985</v>
       </c>
-      <c r="L56" s="93">
+      <c r="L56" s="92">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M56" s="93">
+      <c r="M56" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9785,15 +9790,15 @@
         <f t="shared" si="7"/>
         <v>2.2031082478198898</v>
       </c>
-      <c r="Q56" s="93">
+      <c r="Q56" s="92">
         <f t="shared" si="14"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="R56" s="93">
+      <c r="R56" s="92">
         <f t="shared" si="16"/>
         <v>59.748994482001017</v>
       </c>
-      <c r="T56" s="93">
+      <c r="T56" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9839,11 +9844,11 @@
         <f t="shared" si="2"/>
         <v>12.273300550346033</v>
       </c>
-      <c r="L57" s="93">
+      <c r="L57" s="92">
         <f>$E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M57" s="93">
+      <c r="M57" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9859,11 +9864,11 @@
         <f t="shared" si="7"/>
         <v>2.0167671825163049</v>
       </c>
-      <c r="S57" s="93">
+      <c r="S57" s="92">
         <f>R56+$E$52</f>
         <v>70.562056696748158</v>
       </c>
-      <c r="T57" s="93">
+      <c r="T57" s="92">
         <f>$E$52</f>
         <v>10.813062214747143</v>
       </c>
@@ -9891,11 +9896,11 @@
         <f t="shared" si="0"/>
         <v>0.82856323681831068</v>
       </c>
-      <c r="L58" s="93">
+      <c r="L58" s="92">
         <f t="shared" ref="L58:L106" si="17">$E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M58" s="93">
+      <c r="M58" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9911,11 +9916,11 @@
         <f t="shared" si="7"/>
         <v>1.8430065541042151</v>
       </c>
-      <c r="S58" s="93">
+      <c r="S58" s="92">
         <f>$E$52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="T58" s="93">
+      <c r="T58" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9943,11 +9948,11 @@
         <f t="shared" si="0"/>
         <v>0.81235323675594462</v>
       </c>
-      <c r="L59" s="93">
+      <c r="L59" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M59" s="93">
+      <c r="M59" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9963,11 +9968,11 @@
         <f t="shared" si="7"/>
         <v>1.680883719605589</v>
       </c>
-      <c r="S59" s="93">
+      <c r="S59" s="92">
         <f t="shared" ref="S59:S106" si="18">$E$52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="T59" s="93">
+      <c r="T59" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9995,11 +10000,11 @@
         <f t="shared" si="0"/>
         <v>0.79465093201826931</v>
       </c>
-      <c r="L60" s="93">
+      <c r="L60" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M60" s="93">
+      <c r="M60" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10015,11 +10020,11 @@
         <f t="shared" si="7"/>
         <v>1.5295394697233526</v>
       </c>
-      <c r="S60" s="93">
+      <c r="S60" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T60" s="93">
+      <c r="T60" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10047,11 +10052,11 @@
         <f t="shared" si="0"/>
         <v>0.77533244251717404</v>
       </c>
-      <c r="L61" s="93">
+      <c r="L61" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M61" s="93">
+      <c r="M61" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10067,11 +10072,11 @@
         <f t="shared" si="7"/>
         <v>1.3882375386379853</v>
       </c>
-      <c r="S61" s="93">
+      <c r="S61" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T61" s="93">
+      <c r="T61" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10099,11 +10104,11 @@
         <f t="shared" si="0"/>
         <v>0.75429624270826012</v>
       </c>
-      <c r="L62" s="93">
+      <c r="L62" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M62" s="93">
+      <c r="M62" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10119,11 +10124,11 @@
         <f t="shared" si="7"/>
         <v>1.2563461326872842</v>
       </c>
-      <c r="S62" s="93">
+      <c r="S62" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T62" s="93">
+      <c r="T62" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10151,11 +10156,11 @@
         <f t="shared" si="0"/>
         <v>0.73148587333503878</v>
       </c>
-      <c r="L63" s="93">
+      <c r="L63" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M63" s="93">
+      <c r="M63" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10171,11 +10176,11 @@
         <f t="shared" si="7"/>
         <v>1.1333520692702026</v>
       </c>
-      <c r="S63" s="93">
+      <c r="S63" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T63" s="93">
+      <c r="T63" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10203,11 +10208,11 @@
         <f t="shared" si="0"/>
         <v>0.70688041756920683</v>
       </c>
-      <c r="L64" s="93">
+      <c r="L64" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M64" s="93">
+      <c r="M64" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10223,11 +10228,11 @@
         <f t="shared" si="7"/>
         <v>1.0188174740132456</v>
       </c>
-      <c r="S64" s="93">
+      <c r="S64" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T64" s="93">
+      <c r="T64" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10255,11 +10260,11 @@
         <f t="shared" si="0"/>
         <v>0.68045800767369868</v>
       </c>
-      <c r="L65" s="93">
+      <c r="L65" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M65" s="93">
+      <c r="M65" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10275,11 +10280,11 @@
         <f t="shared" si="7"/>
         <v>0.91231181507125081</v>
       </c>
-      <c r="S65" s="93">
+      <c r="S65" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T65" s="93">
+      <c r="T65" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10307,11 +10312,11 @@
         <f t="shared" si="0"/>
         <v>0.65219102597804091</v>
       </c>
-      <c r="L66" s="93">
+      <c r="L66" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M66" s="93">
+      <c r="M66" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10327,11 +10332,11 @@
         <f t="shared" si="7"/>
         <v>0.81340778474747322</v>
       </c>
-      <c r="S66" s="93">
+      <c r="S66" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T66" s="93">
+      <c r="T66" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10359,11 +10364,11 @@
         <f t="shared" si="0"/>
         <v>0.62208579906438133</v>
       </c>
-      <c r="L67" s="93">
+      <c r="L67" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M67" s="93">
+      <c r="M67" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10379,11 +10384,11 @@
         <f t="shared" si="7"/>
         <v>0.72173094903319601</v>
       </c>
-      <c r="S67" s="93">
+      <c r="S67" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T67" s="93">
+      <c r="T67" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10411,11 +10416,11 @@
         <f t="shared" si="0"/>
         <v>0.58994718895047804</v>
       </c>
-      <c r="L68" s="93">
+      <c r="L68" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M68" s="93">
+      <c r="M68" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10431,11 +10436,11 @@
         <f t="shared" si="7"/>
         <v>0.63669246970930993</v>
       </c>
-      <c r="S68" s="93">
+      <c r="S68" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T68" s="93">
+      <c r="T68" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10463,11 +10468,11 @@
         <f t="shared" si="0"/>
         <v>0.55589613558373874</v>
       </c>
-      <c r="L69" s="93">
+      <c r="L69" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M69" s="93">
+      <c r="M69" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10483,11 +10488,11 @@
         <f t="shared" si="7"/>
         <v>0.55808682239463647</v>
       </c>
-      <c r="S69" s="93">
+      <c r="S69" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T69" s="93">
+      <c r="T69" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10515,11 +10520,11 @@
         <f t="shared" si="0"/>
         <v>0.52013014072015107</v>
       </c>
-      <c r="L70" s="93">
+      <c r="L70" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M70" s="93">
+      <c r="M70" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10535,11 +10540,11 @@
         <f t="shared" si="7"/>
         <v>0.48574872573970462</v>
       </c>
-      <c r="S70" s="93">
+      <c r="S70" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T70" s="93">
+      <c r="T70" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10567,11 +10572,11 @@
         <f t="shared" si="0"/>
         <v>0.48291255139771205</v>
       </c>
-      <c r="L71" s="93">
+      <c r="L71" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M71" s="93">
+      <c r="M71" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10587,11 +10592,11 @@
         <f t="shared" si="7"/>
         <v>0.41952676950903162</v>
       </c>
-      <c r="S71" s="93">
+      <c r="S71" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T71" s="93">
+      <c r="T71" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10619,11 +10624,11 @@
         <f t="shared" si="0"/>
         <v>0.44455624777516756</v>
       </c>
-      <c r="L72" s="93">
+      <c r="L72" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M72" s="93">
+      <c r="M72" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10639,11 +10644,11 @@
         <f t="shared" si="7"/>
         <v>0.35926047394183436</v>
       </c>
-      <c r="S72" s="93">
+      <c r="S72" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T72" s="93">
+      <c r="T72" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10671,11 +10676,11 @@
         <f t="shared" ref="D73:D106" si="19">D72*(1-C72)</f>
         <v>0.40540807054563471</v>
       </c>
-      <c r="L73" s="93">
+      <c r="L73" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M73" s="93">
+      <c r="M73" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10691,11 +10696,11 @@
         <f t="shared" si="7"/>
         <v>0.30476609196296539</v>
       </c>
-      <c r="S73" s="93">
+      <c r="S73" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T73" s="93">
+      <c r="T73" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10723,11 +10728,11 @@
         <f t="shared" si="19"/>
         <v>0.36496345429910237</v>
       </c>
-      <c r="L74" s="93">
+      <c r="L74" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M74" s="93">
+      <c r="M74" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10743,11 +10748,11 @@
         <f t="shared" si="7"/>
         <v>0.25522027380745999</v>
       </c>
-      <c r="S74" s="93">
+      <c r="S74" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T74" s="93">
+      <c r="T74" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10775,11 +10780,11 @@
         <f t="shared" si="19"/>
         <v>0.32375153217106822</v>
       </c>
-      <c r="L75" s="93">
+      <c r="L75" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M75" s="93">
+      <c r="M75" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10795,11 +10800,11 @@
         <f t="shared" si="7"/>
         <v>0.21060523391108546</v>
       </c>
-      <c r="S75" s="93">
+      <c r="S75" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T75" s="93">
+      <c r="T75" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10827,11 +10832,11 @@
         <f t="shared" si="19"/>
         <v>0.28244011143023273</v>
       </c>
-      <c r="L76" s="93">
+      <c r="L76" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M76" s="93">
+      <c r="M76" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10847,11 +10852,11 @@
         <f t="shared" si="7"/>
         <v>0.170913055150927</v>
       </c>
-      <c r="S76" s="93">
+      <c r="S76" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T76" s="93">
+      <c r="T76" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10879,11 +10884,11 @@
         <f t="shared" si="19"/>
         <v>0.24182729908718817</v>
       </c>
-      <c r="L77" s="93">
+      <c r="L77" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M77" s="93">
+      <c r="M77" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10899,11 +10904,11 @@
         <f t="shared" si="7"/>
         <v>0.13612745476963467</v>
       </c>
-      <c r="S77" s="93">
+      <c r="S77" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T77" s="93">
+      <c r="T77" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10931,11 +10936,11 @@
         <f t="shared" si="19"/>
         <v>0.20310084780351195</v>
       </c>
-      <c r="L78" s="93">
+      <c r="L78" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M78" s="93">
+      <c r="M78" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10951,11 +10956,11 @@
         <f t="shared" si="7"/>
         <v>0.10635151259503718</v>
       </c>
-      <c r="S78" s="93">
+      <c r="S78" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T78" s="93">
+      <c r="T78" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10983,11 +10988,11 @@
         <f t="shared" si="19"/>
         <v>0.16704293264795009</v>
       </c>
-      <c r="L79" s="93">
+      <c r="L79" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M79" s="93">
+      <c r="M79" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11003,11 +11008,11 @@
         <f t="shared" si="7"/>
         <v>8.1367613149169779E-2</v>
       </c>
-      <c r="S79" s="93">
+      <c r="S79" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T79" s="93">
+      <c r="T79" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11035,11 +11040,11 @@
         <f t="shared" si="19"/>
         <v>0.13433350212469566</v>
       </c>
-      <c r="L80" s="93">
+      <c r="L80" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M80" s="93">
+      <c r="M80" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11055,11 +11060,11 @@
         <f t="shared" si="7"/>
         <v>6.0869445207679951E-2</v>
       </c>
-      <c r="S80" s="93">
+      <c r="S80" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T80" s="93">
+      <c r="T80" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11087,11 +11092,11 @@
         <f t="shared" si="19"/>
         <v>0.10547923743049588</v>
       </c>
-      <c r="L81" s="93">
+      <c r="L81" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M81" s="93">
+      <c r="M81" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11107,11 +11112,11 @@
         <f t="shared" si="7"/>
         <v>4.4460416152917001E-2</v>
       </c>
-      <c r="S81" s="93">
+      <c r="S81" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T81" s="93">
+      <c r="T81" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11139,11 +11144,11 @@
         <f t="shared" si="19"/>
         <v>8.0763327010334174E-2</v>
       </c>
-      <c r="L82" s="93">
+      <c r="L82" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M82" s="93">
+      <c r="M82" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11159,11 +11164,11 @@
         <f t="shared" si="7"/>
         <v>3.1667390608636568E-2</v>
       </c>
-      <c r="S82" s="93">
+      <c r="S82" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T82" s="93">
+      <c r="T82" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11191,11 +11196,11 @@
         <f t="shared" si="19"/>
         <v>6.0228312276585545E-2</v>
       </c>
-      <c r="L83" s="93">
+      <c r="L83" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M83" s="93">
+      <c r="M83" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11211,11 +11216,11 @@
         <f t="shared" si="7"/>
         <v>2.1967989233155204E-2</v>
       </c>
-      <c r="S83" s="93">
+      <c r="S83" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T83" s="93">
+      <c r="T83" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11243,11 +11248,11 @@
         <f t="shared" si="19"/>
         <v>4.3692973821657315E-2</v>
       </c>
-      <c r="L84" s="93">
+      <c r="L84" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M84" s="93">
+      <c r="M84" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11263,11 +11268,11 @@
         <f t="shared" si="7"/>
         <v>1.482493349748654E-2</v>
       </c>
-      <c r="S84" s="93">
+      <c r="S84" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T84" s="93">
+      <c r="T84" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11295,11 +11300,11 @@
         <f t="shared" si="19"/>
         <v>3.1079476740244239E-2</v>
       </c>
-      <c r="L85" s="93">
+      <c r="L85" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M85" s="93">
+      <c r="M85" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11315,11 +11320,11 @@
         <f t="shared" si="7"/>
         <v>9.8094889738961286E-3</v>
       </c>
-      <c r="S85" s="93">
+      <c r="S85" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T85" s="93">
+      <c r="T85" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11347,11 +11352,11 @@
         <f t="shared" si="19"/>
         <v>2.1473236209615078E-2</v>
       </c>
-      <c r="L86" s="93">
+      <c r="L86" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M86" s="93">
+      <c r="M86" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11367,11 +11372,11 @@
         <f t="shared" si="7"/>
         <v>6.3046607473727888E-3</v>
       </c>
-      <c r="S86" s="93">
+      <c r="S86" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T86" s="93">
+      <c r="T86" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11399,11 +11404,11 @@
         <f t="shared" si="19"/>
         <v>1.4547741507732977E-2</v>
       </c>
-      <c r="L87" s="93">
+      <c r="L87" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M87" s="93">
+      <c r="M87" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11419,11 +11424,11 @@
         <f t="shared" si="7"/>
         <v>3.9732997707342494E-3</v>
       </c>
-      <c r="S87" s="93">
+      <c r="S87" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T87" s="93">
+      <c r="T87" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11451,11 +11456,11 @@
         <f t="shared" si="19"/>
         <v>9.5553150262579004E-3</v>
       </c>
-      <c r="L88" s="93">
+      <c r="L88" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M88" s="93">
+      <c r="M88" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11471,11 +11476,11 @@
         <f t="shared" si="7"/>
         <v>2.4276848160192815E-3</v>
       </c>
-      <c r="S88" s="93">
+      <c r="S88" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T88" s="93">
+      <c r="T88" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11503,11 +11508,11 @@
         <f t="shared" si="19"/>
         <v>6.1567784145890453E-3</v>
       </c>
-      <c r="L89" s="93">
+      <c r="L89" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M89" s="93">
+      <c r="M89" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11523,11 +11528,11 @@
         <f t="shared" si="7"/>
         <v>1.4550983606719764E-3</v>
       </c>
-      <c r="S89" s="93">
+      <c r="S89" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T89" s="93">
+      <c r="T89" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11555,11 +11560,11 @@
         <f t="shared" si="19"/>
         <v>3.8498272922810836E-3</v>
       </c>
-      <c r="L90" s="93">
+      <c r="L90" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M90" s="93">
+      <c r="M90" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11575,11 +11580,11 @@
         <f t="shared" si="7"/>
         <v>8.4639211880216847E-4</v>
       </c>
-      <c r="S90" s="93">
+      <c r="S90" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T90" s="93">
+      <c r="T90" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11607,11 +11612,11 @@
         <f t="shared" si="19"/>
         <v>2.3735383096026431E-3</v>
       </c>
-      <c r="L91" s="93">
+      <c r="L91" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M91" s="93">
+      <c r="M91" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11627,11 +11632,11 @@
         <f t="shared" si="7"/>
         <v>4.8542053578656802E-4</v>
       </c>
-      <c r="S91" s="93">
+      <c r="S91" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T91" s="93">
+      <c r="T91" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11659,11 +11664,11 @@
         <f t="shared" si="19"/>
         <v>1.429140645748086E-3</v>
       </c>
-      <c r="L92" s="93">
+      <c r="L92" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M92" s="93">
+      <c r="M92" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11679,11 +11684,11 @@
         <f t="shared" si="7"/>
         <v>2.7188697719497088E-4</v>
       </c>
-      <c r="S92" s="93">
+      <c r="S92" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T92" s="93">
+      <c r="T92" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11711,11 +11716,11 @@
         <f t="shared" si="19"/>
         <v>8.5748438744885159E-4</v>
       </c>
-      <c r="L93" s="93">
+      <c r="L93" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M93" s="93">
+      <c r="M93" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11731,11 +11736,11 @@
         <f t="shared" si="7"/>
         <v>1.5175087099254185E-4</v>
       </c>
-      <c r="S93" s="93">
+      <c r="S93" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T93" s="93">
+      <c r="T93" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11763,11 +11768,11 @@
         <f t="shared" si="19"/>
         <v>5.1449063246931091E-4</v>
       </c>
-      <c r="L94" s="93">
+      <c r="L94" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M94" s="93">
+      <c r="M94" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11783,11 +11788,11 @@
         <f t="shared" si="7"/>
         <v>8.4698160553976846E-5</v>
       </c>
-      <c r="S94" s="93">
+      <c r="S94" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T94" s="93">
+      <c r="T94" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11815,11 +11820,11 @@
         <f t="shared" si="19"/>
         <v>3.0869437948158654E-4</v>
       </c>
-      <c r="L95" s="93">
+      <c r="L95" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M95" s="93">
+      <c r="M95" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11835,11 +11840,11 @@
         <f t="shared" si="7"/>
         <v>4.7273391937103357E-5</v>
       </c>
-      <c r="S95" s="93">
+      <c r="S95" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T95" s="93">
+      <c r="T95" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11867,11 +11872,11 @@
         <f t="shared" si="19"/>
         <v>1.8521662768895193E-4</v>
       </c>
-      <c r="L96" s="93">
+      <c r="L96" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M96" s="93">
+      <c r="M96" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11887,11 +11892,11 @@
         <f t="shared" si="7"/>
         <v>2.6385148988150714E-5</v>
       </c>
-      <c r="S96" s="93">
+      <c r="S96" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T96" s="93">
+      <c r="T96" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11919,11 +11924,11 @@
         <f t="shared" si="19"/>
         <v>1.1112997661337116E-4</v>
       </c>
-      <c r="L97" s="93">
+      <c r="L97" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M97" s="93">
+      <c r="M97" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11939,11 +11944,11 @@
         <f t="shared" si="7"/>
         <v>1.4726594784084121E-5</v>
       </c>
-      <c r="S97" s="93">
+      <c r="S97" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T97" s="93">
+      <c r="T97" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11971,11 +11976,11 @@
         <f t="shared" si="19"/>
         <v>6.6677985968022693E-5</v>
       </c>
-      <c r="L98" s="93">
+      <c r="L98" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M98" s="93">
+      <c r="M98" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11991,11 +11996,11 @@
         <f t="shared" si="7"/>
         <v>8.2194947632097419E-6</v>
       </c>
-      <c r="S98" s="93">
+      <c r="S98" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T98" s="93">
+      <c r="T98" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12023,11 +12028,11 @@
         <f t="shared" si="19"/>
         <v>4.0006791580813616E-5</v>
       </c>
-      <c r="L99" s="93">
+      <c r="L99" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M99" s="93">
+      <c r="M99" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12043,11 +12048,11 @@
         <f t="shared" si="7"/>
         <v>4.587624984117065E-6</v>
       </c>
-      <c r="S99" s="93">
+      <c r="S99" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T99" s="93">
+      <c r="T99" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12075,11 +12080,11 @@
         <f t="shared" si="19"/>
         <v>2.400407494848817E-5</v>
       </c>
-      <c r="L100" s="93">
+      <c r="L100" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M100" s="93">
+      <c r="M100" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12095,11 +12100,11 @@
         <f t="shared" si="7"/>
         <v>2.5605348748560373E-6</v>
       </c>
-      <c r="S100" s="93">
+      <c r="S100" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T100" s="93">
+      <c r="T100" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12127,11 +12132,11 @@
         <f t="shared" si="19"/>
         <v>1.4402444969092902E-5</v>
       </c>
-      <c r="L101" s="93">
+      <c r="L101" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M101" s="93">
+      <c r="M101" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12147,11 +12152,11 @@
         <f t="shared" si="7"/>
         <v>1.429135744105695E-6</v>
       </c>
-      <c r="S101" s="93">
+      <c r="S101" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T101" s="93">
+      <c r="T101" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12179,11 +12184,11 @@
         <f t="shared" si="19"/>
         <v>8.6414669814557416E-6</v>
       </c>
-      <c r="L102" s="93">
+      <c r="L102" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M102" s="93">
+      <c r="M102" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12199,11 +12204,11 @@
         <f t="shared" si="7"/>
         <v>7.9765715950085294E-7</v>
       </c>
-      <c r="S102" s="93">
+      <c r="S102" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T102" s="93">
+      <c r="T102" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12231,11 +12236,11 @@
         <f t="shared" si="19"/>
         <v>5.1848801888734449E-6</v>
       </c>
-      <c r="L103" s="93">
+      <c r="L103" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M103" s="93">
+      <c r="M103" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12251,11 +12256,11 @@
         <f t="shared" si="7"/>
         <v>4.4520399600047596E-7</v>
       </c>
-      <c r="S103" s="93">
+      <c r="S103" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T103" s="93">
+      <c r="T103" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12283,11 +12288,11 @@
         <f t="shared" si="19"/>
         <v>3.1109281133240667E-6</v>
       </c>
-      <c r="L104" s="93">
+      <c r="L104" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M104" s="93">
+      <c r="M104" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12303,11 +12308,11 @@
         <f t="shared" si="7"/>
         <v>2.4848595125607966E-7</v>
       </c>
-      <c r="S104" s="93">
+      <c r="S104" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T104" s="93">
+      <c r="T104" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12335,11 +12340,11 @@
         <f t="shared" si="19"/>
         <v>1.8665568679944399E-6</v>
       </c>
-      <c r="L105" s="93">
+      <c r="L105" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M105" s="93">
+      <c r="M105" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12355,11 +12360,11 @@
         <f t="shared" si="7"/>
         <v>1.3868983325920723E-7</v>
       </c>
-      <c r="S105" s="93">
+      <c r="S105" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T105" s="93">
+      <c r="T105" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12387,11 +12392,11 @@
         <f t="shared" si="19"/>
         <v>1.1199341207966639E-6</v>
       </c>
-      <c r="L106" s="93">
+      <c r="L106" s="92">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M106" s="93">
+      <c r="M106" s="92">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12407,11 +12412,11 @@
         <f t="shared" si="7"/>
         <v>7.7408279028394735E-8</v>
       </c>
-      <c r="S106" s="93">
+      <c r="S106" s="92">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T106" s="93">
+      <c r="T106" s="92">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12429,8 +12434,8 @@
       </c>
     </row>
     <row r="108" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="N108" s="93" t="s">
-        <v>199</v>
+      <c r="N108" s="92" t="s">
+        <v>198</v>
       </c>
       <c r="O108">
         <f>SUM(O42:O106)</f>
@@ -12440,8 +12445,8 @@
         <f>SUM(P42:P106)</f>
         <v>80.573925783148752</v>
       </c>
-      <c r="U108" s="93" t="s">
-        <v>203</v>
+      <c r="U108" s="92" t="s">
+        <v>202</v>
       </c>
       <c r="V108">
         <f>SUM(V42:V106)</f>
@@ -12474,20 +12479,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>87</v>
       </c>
@@ -12495,193 +12503,214 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="88" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="G6" s="88" t="s">
+        <v>224</v>
+      </c>
+      <c r="H6" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="88" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="89" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="89" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="89" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="89" t="s">
-        <v>171</v>
-      </c>
-      <c r="G6" s="89" t="s">
-        <v>169</v>
-      </c>
-      <c r="H6" s="89" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
+      <c r="B7" s="88">
+        <v>20</v>
+      </c>
+      <c r="C7" s="88">
+        <v>0</v>
+      </c>
+      <c r="D7" s="88">
+        <v>1</v>
+      </c>
+      <c r="E7" s="88">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="F7" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="88">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="88">
+        <v>50</v>
+      </c>
+      <c r="I7" s="88">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="89">
+      <c r="B8" s="88">
         <v>20</v>
       </c>
-      <c r="C7" s="89">
-        <v>0</v>
-      </c>
-      <c r="D7" s="89">
+      <c r="C8" s="88">
+        <v>0</v>
+      </c>
+      <c r="D8" s="88">
         <v>1</v>
       </c>
-      <c r="E7" s="89">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="F7" s="89">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="89">
+      <c r="E8" s="88">
+        <v>0.03</v>
+      </c>
+      <c r="F8" s="88">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G8" s="88">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="88">
         <v>50</v>
       </c>
-      <c r="H7" s="89">
+      <c r="I8" s="88">
         <v>999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="89">
+      <c r="B9" s="88">
+        <v>10</v>
+      </c>
+      <c r="C9" s="88">
+        <v>50</v>
+      </c>
+      <c r="D9" s="88">
+        <v>1</v>
+      </c>
+      <c r="E9" s="88">
+        <v>0.03</v>
+      </c>
+      <c r="F9" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="H9" s="88">
+        <v>50</v>
+      </c>
+      <c r="I9" s="88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="88">
         <v>20</v>
       </c>
-      <c r="C8" s="89">
-        <v>0</v>
-      </c>
-      <c r="D8" s="89">
+      <c r="C10" s="88">
+        <v>0</v>
+      </c>
+      <c r="D10" s="88">
         <v>1</v>
       </c>
-      <c r="E8" s="89">
+      <c r="E10" s="88">
         <v>0.03</v>
       </c>
-      <c r="F8" s="89">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G8" s="89">
+      <c r="F10" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="G10" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="H10" s="88">
         <v>50</v>
       </c>
-      <c r="H8" s="89">
+      <c r="I10" s="88">
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="89">
-        <v>10</v>
-      </c>
-      <c r="C9" s="89">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="88">
+        <v>20</v>
+      </c>
+      <c r="C11" s="88">
         <v>50</v>
       </c>
-      <c r="D9" s="89">
+      <c r="D11" s="88">
         <v>1</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E11" s="88">
         <v>0.03</v>
       </c>
-      <c r="F9" s="89">
+      <c r="F11" s="88">
         <v>0.6</v>
       </c>
-      <c r="G9" s="89">
+      <c r="G11" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="H11" s="88">
         <v>50</v>
       </c>
-      <c r="H9" s="89">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="89">
+      <c r="I11" s="88">
         <v>20</v>
       </c>
-      <c r="C10" s="89">
-        <v>0</v>
-      </c>
-      <c r="D10" s="89">
-        <v>1</v>
-      </c>
-      <c r="E10" s="89">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="88">
+        <v>20</v>
+      </c>
+      <c r="C12" s="88">
+        <v>50</v>
+      </c>
+      <c r="D12" s="88">
+        <v>2</v>
+      </c>
+      <c r="E12" s="88">
         <v>0.03</v>
       </c>
-      <c r="F10" s="89">
-        <v>0.6</v>
-      </c>
-      <c r="G10" s="89">
+      <c r="F12" s="88">
+        <v>0.7</v>
+      </c>
+      <c r="G12" s="88">
+        <v>0.8</v>
+      </c>
+      <c r="H12" s="88">
         <v>50</v>
       </c>
-      <c r="H10" s="89">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="89">
-        <v>20</v>
-      </c>
-      <c r="C11" s="89">
-        <v>50</v>
-      </c>
-      <c r="D11" s="89">
-        <v>1</v>
-      </c>
-      <c r="E11" s="89">
-        <v>0.03</v>
-      </c>
-      <c r="F11" s="89">
-        <v>0.6</v>
-      </c>
-      <c r="G11" s="89">
-        <v>50</v>
-      </c>
-      <c r="H11" s="89">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="89">
-        <v>20</v>
-      </c>
-      <c r="C12" s="89">
-        <v>50</v>
-      </c>
-      <c r="D12" s="89">
-        <v>2</v>
-      </c>
-      <c r="E12" s="89">
-        <v>0.03</v>
-      </c>
-      <c r="F12" s="89">
-        <v>0.7</v>
-      </c>
-      <c r="G12" s="89">
-        <v>50</v>
-      </c>
-      <c r="H12" s="89">
+      <c r="I12" s="88">
         <v>20</v>
       </c>
     </row>
@@ -12711,10 +12740,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -12788,7 +12817,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="18"/>
     </row>
@@ -12863,7 +12892,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -13127,7 +13156,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -13138,237 +13167,237 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="C6" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="D6" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="E6" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="F6" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="G6" s="79" t="s">
         <v>178</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="90">
+        <v>179</v>
+      </c>
+      <c r="B7" s="89">
         <v>40360</v>
       </c>
       <c r="C7" s="79">
         <v>30</v>
       </c>
-      <c r="D7" s="91">
-        <v>0</v>
-      </c>
-      <c r="E7" s="91">
-        <v>0</v>
-      </c>
-      <c r="F7" s="91">
+      <c r="D7" s="90">
+        <v>0</v>
+      </c>
+      <c r="E7" s="90">
+        <v>0</v>
+      </c>
+      <c r="F7" s="90">
         <v>25</v>
       </c>
-      <c r="G7" s="91">
+      <c r="G7" s="90">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="90">
+        <v>180</v>
+      </c>
+      <c r="B8" s="89">
         <v>40725</v>
       </c>
       <c r="C8" s="79">
         <v>30</v>
       </c>
-      <c r="D8" s="91">
-        <v>0</v>
-      </c>
-      <c r="E8" s="91">
-        <v>0</v>
-      </c>
-      <c r="F8" s="91">
+      <c r="D8" s="90">
+        <v>0</v>
+      </c>
+      <c r="E8" s="90">
+        <v>0</v>
+      </c>
+      <c r="F8" s="90">
         <v>26</v>
       </c>
-      <c r="G8" s="91">
+      <c r="G8" s="90">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="90">
+        <v>181</v>
+      </c>
+      <c r="B9" s="89">
         <v>40725</v>
       </c>
       <c r="C9" s="79">
         <v>15</v>
       </c>
-      <c r="D9" s="91">
-        <v>0</v>
-      </c>
-      <c r="E9" s="91">
-        <v>0</v>
-      </c>
-      <c r="F9" s="91">
+      <c r="D9" s="90">
+        <v>0</v>
+      </c>
+      <c r="E9" s="90">
+        <v>0</v>
+      </c>
+      <c r="F9" s="90">
         <v>11</v>
       </c>
-      <c r="G9" s="91">
+      <c r="G9" s="90">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="90">
+        <v>182</v>
+      </c>
+      <c r="B10" s="89">
         <v>40725</v>
       </c>
       <c r="C10" s="79">
         <v>15</v>
       </c>
-      <c r="D10" s="91">
-        <v>0</v>
-      </c>
-      <c r="E10" s="91">
-        <v>0</v>
-      </c>
-      <c r="F10" s="91">
+      <c r="D10" s="90">
+        <v>0</v>
+      </c>
+      <c r="E10" s="90">
+        <v>0</v>
+      </c>
+      <c r="F10" s="90">
         <v>11</v>
       </c>
-      <c r="G10" s="91">
+      <c r="G10" s="90">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="90">
+        <v>180</v>
+      </c>
+      <c r="B11" s="89">
         <v>41091</v>
       </c>
       <c r="C11" s="79">
         <v>30</v>
       </c>
-      <c r="D11" s="91">
-        <v>0</v>
-      </c>
-      <c r="E11" s="91">
-        <v>0</v>
-      </c>
-      <c r="F11" s="91">
+      <c r="D11" s="90">
+        <v>0</v>
+      </c>
+      <c r="E11" s="90">
+        <v>0</v>
+      </c>
+      <c r="F11" s="90">
         <v>27</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="90">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="90">
+        <v>180</v>
+      </c>
+      <c r="B12" s="89">
         <v>41456</v>
       </c>
       <c r="C12" s="79">
         <v>30</v>
       </c>
-      <c r="D12" s="91">
-        <v>0</v>
-      </c>
-      <c r="E12" s="91">
-        <v>0</v>
-      </c>
-      <c r="F12" s="91">
+      <c r="D12" s="90">
+        <v>0</v>
+      </c>
+      <c r="E12" s="90">
+        <v>0</v>
+      </c>
+      <c r="F12" s="90">
         <v>28</v>
       </c>
-      <c r="G12" s="91">
+      <c r="G12" s="90">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" s="90">
+        <v>183</v>
+      </c>
+      <c r="B13" s="89">
         <v>41821</v>
       </c>
       <c r="C13" s="79">
         <v>30</v>
       </c>
-      <c r="D13" s="91">
-        <v>0</v>
-      </c>
-      <c r="E13" s="91">
-        <v>0</v>
-      </c>
-      <c r="F13" s="91">
+      <c r="D13" s="90">
+        <v>0</v>
+      </c>
+      <c r="E13" s="90">
+        <v>0</v>
+      </c>
+      <c r="F13" s="90">
         <v>29</v>
       </c>
-      <c r="G13" s="91">
+      <c r="G13" s="90">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="90">
+        <v>183</v>
+      </c>
+      <c r="B14" s="89">
         <v>42186</v>
       </c>
       <c r="C14" s="79">
         <v>20</v>
       </c>
-      <c r="D14" s="91">
-        <v>0</v>
-      </c>
-      <c r="E14" s="91">
-        <v>0</v>
-      </c>
-      <c r="F14" s="91">
+      <c r="D14" s="90">
+        <v>0</v>
+      </c>
+      <c r="E14" s="90">
+        <v>0</v>
+      </c>
+      <c r="F14" s="90">
         <v>20</v>
       </c>
-      <c r="G14" s="91">
+      <c r="G14" s="90">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="90">
+        <v>181</v>
+      </c>
+      <c r="B15" s="89">
         <v>42186</v>
       </c>
       <c r="C15" s="79">
         <v>20</v>
       </c>
-      <c r="D15" s="91">
-        <v>0</v>
-      </c>
-      <c r="E15" s="91">
-        <v>0</v>
-      </c>
-      <c r="F15" s="91">
+      <c r="D15" s="90">
+        <v>0</v>
+      </c>
+      <c r="E15" s="90">
+        <v>0</v>
+      </c>
+      <c r="F15" s="90">
         <v>20</v>
       </c>
-      <c r="G15" s="91">
+      <c r="G15" s="90">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E16" s="30"/>
       <c r="G16" s="30"/>
@@ -13462,15 +13491,15 @@
       <c r="A5" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="104" t="s">
+      <c r="C5" s="106"/>
+      <c r="D5" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
       <c r="G5" s="42" t="s">
         <v>79</v>
       </c>
@@ -13493,10 +13522,10 @@
       <c r="E6" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="108" t="s">
+      <c r="F6" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="108"/>
+      <c r="G6" s="107"/>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
     </row>
@@ -13520,10 +13549,10 @@
       <c r="C9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="105"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="38" t="s">
         <v>64</v>
       </c>
@@ -13533,18 +13562,18 @@
     </row>
     <row r="10" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="109" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
@@ -13555,18 +13584,18 @@
       <c r="A12" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="107"/>
-      <c r="D12" s="105" t="s">
+      <c r="C12" s="106"/>
+      <c r="D12" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105" t="s">
+      <c r="E12" s="104"/>
+      <c r="F12" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="105"/>
+      <c r="G12" s="104"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>

--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="2" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -1529,9 +1529,6 @@
     <t>r.vben</t>
   </si>
   <si>
-    <t>H12</t>
-  </si>
-  <si>
     <t>factor.ca</t>
   </si>
   <si>
@@ -1746,6 +1743,9 @@
   </si>
   <si>
     <t>factor.ca.disb</t>
+  </si>
+  <si>
+    <t>I12</t>
   </si>
 </sst>
 </file>
@@ -2252,17 +2252,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6673,7 +6673,7 @@
     </row>
     <row r="6" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="111" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="111"/>
       <c r="C6" s="111"/>
@@ -7237,7 +7237,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
@@ -7315,8 +7315,8 @@
       <c r="G5" s="105"/>
     </row>
     <row r="7" spans="1:7" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="115" t="s">
-        <v>222</v>
+      <c r="A7" s="113" t="s">
+        <v>221</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>76</v>
@@ -7336,15 +7336,15 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="115"/>
-      <c r="B8" s="116" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -7384,7 +7384,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7593,7 +7593,7 @@
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>68</v>
@@ -7602,7 +7602,7 @@
         <v>69</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>71</v>
@@ -7613,89 +7613,89 @@
     </row>
     <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="101" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4" s="101" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E4" s="101" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="101" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G4" s="101" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" s="101" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" s="101" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="113" t="s">
-        <v>216</v>
-      </c>
-      <c r="F5" s="113"/>
+        <v>212</v>
+      </c>
+      <c r="E5" s="115" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="115"/>
       <c r="G5" s="101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" s="113" t="s">
-        <v>217</v>
-      </c>
-      <c r="F6" s="113"/>
+        <v>216</v>
+      </c>
+      <c r="E6" s="115" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="115"/>
       <c r="G6" s="101" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H6" s="101" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" s="101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>214</v>
-      </c>
-      <c r="E7" s="113" t="s">
-        <v>218</v>
-      </c>
-      <c r="F7" s="113"/>
+        <v>213</v>
+      </c>
+      <c r="E7" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="115"/>
       <c r="G7" s="101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H7" s="101" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7822,95 +7822,95 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C2">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="J5" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114" t="s">
-        <v>201</v>
-      </c>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
+      <c r="J5" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>97</v>
       </c>
       <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" t="s">
         <v>194</v>
       </c>
-      <c r="D6" t="s">
-        <v>195</v>
-      </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G6" t="s">
         <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J6" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="J6" s="93" t="s">
+      <c r="K6" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="K6" s="93" t="s">
+      <c r="L6" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="L6" s="93" t="s">
+      <c r="M6" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="M6" s="93" t="s">
-        <v>193</v>
-      </c>
       <c r="N6" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O6" s="93" t="s">
+        <v>198</v>
+      </c>
+      <c r="P6" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="P6" s="93" t="s">
-        <v>200</v>
-      </c>
       <c r="Q6" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="R6" s="95" t="s">
         <v>190</v>
       </c>
-      <c r="R6" s="95" t="s">
+      <c r="S6" s="95" t="s">
         <v>191</v>
       </c>
-      <c r="S6" s="95" t="s">
+      <c r="T6" s="95" t="s">
         <v>192</v>
       </c>
-      <c r="T6" s="95" t="s">
-        <v>193</v>
-      </c>
       <c r="U6" s="95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V6" s="95" t="s">
+        <v>198</v>
+      </c>
+      <c r="W6" s="95" t="s">
         <v>199</v>
-      </c>
-      <c r="W6" s="95" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
@@ -12435,7 +12435,7 @@
     </row>
     <row r="108" spans="2:23" x14ac:dyDescent="0.25">
       <c r="N108" s="92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O108">
         <f>SUM(O42:O106)</f>
@@ -12446,7 +12446,7 @@
         <v>80.573925783148752</v>
       </c>
       <c r="U108" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V108">
         <f>SUM(V42:V106)</f>
@@ -12481,8 +12481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12508,7 +12508,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -12528,10 +12528,10 @@
         <v>166</v>
       </c>
       <c r="F6" s="88" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G6" s="88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H6" s="88" t="s">
         <v>168</v>
@@ -13156,7 +13156,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -13167,30 +13167,30 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="C6" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="D6" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="E6" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="F6" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="G6" s="79" t="s">
         <v>177</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" s="89">
         <v>40360</v>
@@ -13213,7 +13213,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="89">
         <v>40725</v>
@@ -13236,7 +13236,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9" s="89">
         <v>40725</v>
@@ -13259,7 +13259,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" s="89">
         <v>40725</v>
@@ -13282,7 +13282,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="89">
         <v>41091</v>
@@ -13305,7 +13305,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" s="89">
         <v>41456</v>
@@ -13328,7 +13328,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="89">
         <v>41821</v>
@@ -13351,7 +13351,7 @@
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B14" s="89">
         <v>42186</v>
@@ -13374,7 +13374,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" s="89">
         <v>42186</v>
@@ -13397,7 +13397,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E16" s="30"/>
       <c r="G16" s="30"/>

--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -7237,7 +7237,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
@@ -12482,7 +12482,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12676,7 +12676,7 @@
         <v>0.6</v>
       </c>
       <c r="G11" s="88">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H11" s="88">
         <v>50</v>

--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="227">
   <si>
     <t>Notes</t>
   </si>
@@ -1298,6 +1298,381 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">No vestinguntil retirement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No active members, do not need to model </t>
+  </si>
+  <si>
+    <t>Benefit
+AV2015 pdf p79, p92
+CAFR2015, p126</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Only 22 older members in 2015, will not model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Need to evaluate if the death benefits are worth modeling. 
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Refund of contribution with interest. 
+ - limited pension for qualified survivor. </t>
+    </r>
+  </si>
+  <si>
+    <t>Return of contribution</t>
+  </si>
+  <si>
+    <t>No refund</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">refund contribution with interest
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(Do not model for now)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">refund contribution with interest
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(Do not model for now)</t>
+    </r>
+  </si>
+  <si>
+    <t>Healthy mortality table is used for disabled?</t>
+  </si>
+  <si>
+    <t>qxt.fire.yos</t>
+  </si>
+  <si>
+    <t>qxt.plc.yos</t>
+  </si>
+  <si>
+    <t>qxt.fire.age</t>
+  </si>
+  <si>
+    <t>qxt.plc.age</t>
+  </si>
+  <si>
+    <t>Modeling of contingent annuity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modeled as 60% contingent annuity for tier 3, 4, 5
+Modeled as 70% contingent annuity for tier 6. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modeled as 100% contingent annuity
+Notes: 
+1. Tier 1 is so small that the approximation would not have a big impact on over results. 
+2. For Tier 2, it requires 25 yos for the benefit factor to be greater than 50%. The average retirement age is around 50, so there may not be a great number of retirees whose benefit factors are greater than 50%.  
+</t>
+  </si>
+  <si>
+    <t>tier</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>r.yos</t>
+  </si>
+  <si>
+    <t>r.age</t>
+  </si>
+  <si>
+    <t>fasyears</t>
+  </si>
+  <si>
+    <t>cola</t>
+  </si>
+  <si>
+    <t>v.yos</t>
+  </si>
+  <si>
+    <t>r.vben</t>
+  </si>
+  <si>
+    <t>factor.ca</t>
+  </si>
+  <si>
+    <r>
+      <t>Question: 
+  - (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SOLVED</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) No vested term for Tier 1, 2, 4?(SOLVED, do not need to model 1,2, no vesting for 4)
+  - Are the term benefits life annuity or contingent annuity? (Currently modeld as life annuity)
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Date Established</t>
+  </si>
+  <si>
+    <t>Initial Years</t>
+  </si>
+  <si>
+    <t>Initial Amount</t>
+  </si>
+  <si>
+    <t>Annual Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Years remaining </t>
+  </si>
+  <si>
+    <t>Outstanding Balance</t>
+  </si>
+  <si>
+    <t>Actuarial Loss**</t>
+  </si>
+  <si>
+    <t>Actuarial Loss</t>
+  </si>
+  <si>
+    <t>Change in Assumptions</t>
+  </si>
+  <si>
+    <t>Plan Amendment</t>
+  </si>
+  <si>
+    <t>Actuarial Gain</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>G15</t>
+  </si>
+  <si>
+    <t>fas</t>
+  </si>
+  <si>
+    <t>salary(fas)</t>
+  </si>
+  <si>
+    <t>Retire at age55</t>
+  </si>
+  <si>
+    <t>Bx</t>
+  </si>
+  <si>
+    <t>DROP pay</t>
+  </si>
+  <si>
+    <t>DROP account</t>
+  </si>
+  <si>
+    <t>DROP cash flow</t>
+  </si>
+  <si>
+    <t>la cash flow</t>
+  </si>
+  <si>
+    <t>qxm</t>
+  </si>
+  <si>
+    <t>survival</t>
+  </si>
+  <si>
+    <t>Disc Rate</t>
+  </si>
+  <si>
+    <t>Disc factor</t>
+  </si>
+  <si>
+    <t>PV at 55</t>
+  </si>
+  <si>
+    <t>DROP cf disc</t>
+  </si>
+  <si>
+    <t>la cf disc</t>
+  </si>
+  <si>
+    <t>Retire at age65</t>
+  </si>
+  <si>
+    <t>PV at 65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tier1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tier4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eligibility </t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Eligible for Service retirement</t>
+  </si>
+  <si>
+    <t>Service connected</t>
+  </si>
+  <si>
+    <t>yos &gt;=20</t>
+  </si>
+  <si>
+    <t>100% accrued retirement benefit
+Not to sceed 50% Normal pension base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% of normal pension base </t>
+  </si>
+  <si>
+    <t>yos&gt;=20</t>
+  </si>
+  <si>
+    <t>100% accrued retirement benefit
+Not to sceed 55% Normal pension base</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">55% of Normal pension base if yos &gt;=25, otherwise 50% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(only need to model 55%)</t>
+    </r>
+  </si>
+  <si>
+    <t>yos&gt;=10</t>
+  </si>
+  <si>
+    <t>80% accrued retirement benefit
+Not to sceed 40% Normal pension base</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>75% of FAS</t>
+  </si>
+  <si>
+    <t>For former Tier 2: 100% accrued benefit, not to exceed 55% of NPB
+For others: 40% of FAS</t>
+  </si>
+  <si>
+    <t>80% of FAS</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death after retirement
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modeling:
+- assuming all disabilities  are service connceted.
+- QSSs' benefits are modeled as a fixed proportion of the pension received by the deceased member immediately preceding the date of death.
+   - Tier 1: 80%  
+   - Tier 2: 80%
+   - Tier 3/4: 60%
+   - Tier 5:  60%
+   - Tier 6: 80% </t>
+  </si>
+  <si>
+    <t>factor.ca.disb</t>
+  </si>
+  <si>
     <r>
       <t>Tier 1:
  - Normal contribution rate 6%
@@ -1351,7 +1726,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>exempt if yos&gt;=33</t>
+      <t>exempt if yos&gt;33</t>
     </r>
     <r>
       <rPr>
@@ -1364,388 +1739,19 @@
       <t xml:space="preserve">
 Tier 6
  - Normal contribuiton rate 11%
- - 9% if yos&gt;=25 (plus 2% of the 11% to support health benefit, exempt if yos &gt; 25)
- - exempt if yos &gt;= 33 
+ - 2% of the 11% to support health benefit, exempt if yos &gt; 25
+ - exempt if yos &gt;=33 
 (See CAFR 2015 p124)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">No vestinguntil retirement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No active members, do not need to model </t>
-  </si>
-  <si>
-    <t>Benefit
-AV2015 pdf p79, p92
-CAFR2015, p126</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Only 22 older members in 2015, will not model</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Need to evaluate if the death benefits are worth modeling. 
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Refund of contribution with interest. 
- - limited pension for qualified survivor. </t>
-    </r>
-  </si>
-  <si>
-    <t>Return of contribution</t>
-  </si>
-  <si>
-    <t>No refund</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">refund contribution with interest
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-(Do not model for now)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">refund contribution with interest
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-(Do not model for now)</t>
-    </r>
-  </si>
-  <si>
-    <t>Healthy mortality table is used for disabled?</t>
-  </si>
-  <si>
-    <t>qxt.fire.yos</t>
-  </si>
-  <si>
-    <t>qxt.plc.yos</t>
-  </si>
-  <si>
-    <t>qxt.fire.age</t>
-  </si>
-  <si>
-    <t>qxt.plc.age</t>
-  </si>
-  <si>
-    <t>Modeling of contingent annuity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modeled as 60% contingent annuity for tier 3, 4, 5
-Modeled as 70% contingent annuity for tier 6. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modeled as 100% contingent annuity
-Notes: 
-1. Tier 1 is so small that the approximation would not have a big impact on over results. 
-2. For Tier 2, it requires 25 yos for the benefit factor to be greater than 50%. The average retirement age is around 50, so there may not be a great number of retirees whose benefit factors are greater than 50%.  
-</t>
-  </si>
-  <si>
-    <t>tier</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>r.yos</t>
-  </si>
-  <si>
-    <t>r.age</t>
-  </si>
-  <si>
-    <t>fasyears</t>
-  </si>
-  <si>
-    <t>cola</t>
-  </si>
-  <si>
-    <t>v.yos</t>
-  </si>
-  <si>
-    <t>r.vben</t>
-  </si>
-  <si>
-    <t>factor.ca</t>
-  </si>
-  <si>
-    <r>
-      <t>Question: 
-  - (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SOLVED</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) No vested term for Tier 1, 2, 4?(SOLVED, do not need to model 1,2, no vesting for 4)
-  - Are the term benefits life annuity or contingent annuity? (Currently modeld as life annuity)
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Date Established</t>
-  </si>
-  <si>
-    <t>Initial Years</t>
-  </si>
-  <si>
-    <t>Initial Amount</t>
-  </si>
-  <si>
-    <t>Annual Payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Years remaining </t>
-  </si>
-  <si>
-    <t>Outstanding Balance</t>
-  </si>
-  <si>
-    <t>Actuarial Loss**</t>
-  </si>
-  <si>
-    <t>Actuarial Loss</t>
-  </si>
-  <si>
-    <t>Change in Assumptions</t>
-  </si>
-  <si>
-    <t>Plan Amendment</t>
-  </si>
-  <si>
-    <t>Actuarial Gain</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>G15</t>
-  </si>
-  <si>
-    <t>fas</t>
-  </si>
-  <si>
-    <t>salary(fas)</t>
-  </si>
-  <si>
-    <t>Retire at age55</t>
-  </si>
-  <si>
-    <t>Bx</t>
-  </si>
-  <si>
-    <t>DROP pay</t>
-  </si>
-  <si>
-    <t>DROP account</t>
-  </si>
-  <si>
-    <t>DROP cash flow</t>
-  </si>
-  <si>
-    <t>la cash flow</t>
-  </si>
-  <si>
-    <t>qxm</t>
-  </si>
-  <si>
-    <t>survival</t>
-  </si>
-  <si>
-    <t>Disc Rate</t>
-  </si>
-  <si>
-    <t>Disc factor</t>
-  </si>
-  <si>
-    <t>PV at 55</t>
-  </si>
-  <si>
-    <t>DROP cf disc</t>
-  </si>
-  <si>
-    <t>la cf disc</t>
-  </si>
-  <si>
-    <t>Retire at age65</t>
-  </si>
-  <si>
-    <t>PV at 65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tier1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tier4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eligibility </t>
-  </si>
-  <si>
-    <t>Benefit</t>
-  </si>
-  <si>
-    <t>Eligible for Service retirement</t>
-  </si>
-  <si>
-    <t>Service connected</t>
-  </si>
-  <si>
-    <t>yos &gt;=20</t>
-  </si>
-  <si>
-    <t>100% accrued retirement benefit
-Not to sceed 50% Normal pension base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50% of normal pension base </t>
-  </si>
-  <si>
-    <t>yos&gt;=20</t>
-  </si>
-  <si>
-    <t>100% accrued retirement benefit
-Not to sceed 55% Normal pension base</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">55% of Normal pension base if yos &gt;=25, otherwise 50% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(only need to model 55%)</t>
-    </r>
-  </si>
-  <si>
-    <t>yos&gt;=10</t>
-  </si>
-  <si>
-    <t>80% accrued retirement benefit
-Not to sceed 40% Normal pension base</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>75% of FAS</t>
-  </si>
-  <si>
-    <t>For former Tier 2: 100% accrued benefit, not to exceed 55% of NPB
-For others: 40% of FAS</t>
-  </si>
-  <si>
-    <t>80% of FAS</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death after retirement
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modeling:
-- assuming all disabilities  are service connceted.
-- QSSs' benefits are modeled as a fixed proportion of the pension received by the deceased member immediately preceding the date of death.
-   - Tier 1: 80%  
-   - Tier 2: 80%
-   - Tier 3/4: 60%
-   - Tier 5:  60%
-   - Tier 6: 80% </t>
-  </si>
-  <si>
-    <t>factor.ca.disb</t>
-  </si>
-  <si>
-    <t>I12</t>
+    <t>EEC.exempt.yos</t>
+  </si>
+  <si>
+    <t>EEC.rate</t>
+  </si>
+  <si>
+    <t>K12</t>
   </si>
 </sst>
 </file>
@@ -6631,19 +6637,19 @@
     </row>
     <row r="4" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="B4" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="D4" s="76" t="s">
         <v>123</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F4" s="104" t="s">
         <v>124</v>
@@ -6652,28 +6658,28 @@
     </row>
     <row r="5" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="76" t="s">
+      <c r="F5" s="104" t="s">
         <v>146</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="104" t="s">
-        <v>147</v>
       </c>
       <c r="G5" s="104"/>
     </row>
     <row r="6" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="111" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="111"/>
       <c r="C6" s="111"/>
@@ -6783,10 +6789,10 @@
         <v>85</v>
       </c>
       <c r="B5" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="79" t="s">
         <v>149</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -7023,10 +7029,10 @@
         <v>97</v>
       </c>
       <c r="B5" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="79" t="s">
         <v>151</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -7238,7 +7244,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7316,7 +7322,7 @@
     </row>
     <row r="7" spans="1:7" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>76</v>
@@ -7338,7 +7344,7 @@
     <row r="8" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="113"/>
       <c r="B8" s="114" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C8" s="114"/>
       <c r="D8" s="114"/>
@@ -7593,7 +7599,7 @@
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>68</v>
@@ -7602,7 +7608,7 @@
         <v>69</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>71</v>
@@ -7613,89 +7619,89 @@
     </row>
     <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" s="98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="101" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" s="101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E4" s="101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F4" s="101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G4" s="101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" s="101" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" s="101" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E5" s="115" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F5" s="115"/>
       <c r="G5" s="101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E6" s="115" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F6" s="115"/>
       <c r="G6" s="101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H6" s="101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" s="101" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E7" s="115" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F7" s="115"/>
       <c r="G7" s="101" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H7" s="101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7714,7 +7720,7 @@
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" s="99"/>
       <c r="E9" s="99"/>
@@ -7777,7 +7783,7 @@
     <row r="5" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7822,7 +7828,7 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2">
         <v>7.4999999999999997E-2</v>
@@ -7830,7 +7836,7 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J5" s="116" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K5" s="116"/>
       <c r="L5" s="116"/>
@@ -7839,7 +7845,7 @@
       <c r="O5" s="116"/>
       <c r="P5" s="116"/>
       <c r="Q5" s="116" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R5" s="116"/>
       <c r="S5" s="116"/>
@@ -7853,64 +7859,64 @@
         <v>97</v>
       </c>
       <c r="C6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" t="s">
         <v>193</v>
       </c>
-      <c r="D6" t="s">
-        <v>194</v>
-      </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G6" t="s">
         <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J6" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="J6" s="93" t="s">
+      <c r="K6" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="K6" s="93" t="s">
+      <c r="L6" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="L6" s="93" t="s">
+      <c r="M6" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="M6" s="93" t="s">
-        <v>192</v>
-      </c>
       <c r="N6" s="93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O6" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="P6" s="93" t="s">
         <v>198</v>
       </c>
-      <c r="P6" s="93" t="s">
-        <v>199</v>
-      </c>
       <c r="Q6" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="R6" s="95" t="s">
         <v>189</v>
       </c>
-      <c r="R6" s="95" t="s">
+      <c r="S6" s="95" t="s">
         <v>190</v>
       </c>
-      <c r="S6" s="95" t="s">
+      <c r="T6" s="95" t="s">
         <v>191</v>
       </c>
-      <c r="T6" s="95" t="s">
-        <v>192</v>
-      </c>
       <c r="U6" s="95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V6" s="95" t="s">
+        <v>197</v>
+      </c>
+      <c r="W6" s="95" t="s">
         <v>198</v>
-      </c>
-      <c r="W6" s="95" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
@@ -12435,7 +12441,7 @@
     </row>
     <row r="108" spans="2:23" x14ac:dyDescent="0.25">
       <c r="N108" s="92" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O108">
         <f>SUM(O42:O106)</f>
@@ -12446,7 +12452,7 @@
         <v>80.573925783148752</v>
       </c>
       <c r="U108" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V108">
         <f>SUM(V42:V106)</f>
@@ -12479,23 +12485,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>87</v>
       </c>
@@ -12503,46 +12510,52 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="88" t="s">
+        <v>225</v>
+      </c>
+      <c r="K6" s="88" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
         <v>156</v>
-      </c>
-      <c r="B6" s="88" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="88" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>223</v>
-      </c>
-      <c r="H6" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="I6" s="88" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
-        <v>157</v>
       </c>
       <c r="B7" s="88">
         <v>20</v>
@@ -12568,10 +12581,16 @@
       <c r="I7" s="88">
         <v>999</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="88">
+        <v>0.06</v>
+      </c>
+      <c r="K7" s="88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="88">
         <v>20</v>
@@ -12597,10 +12616,16 @@
       <c r="I8" s="88">
         <v>999</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="88">
+        <v>0.06</v>
+      </c>
+      <c r="K8" s="88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="88">
         <v>10</v>
@@ -12626,10 +12651,16 @@
       <c r="I9" s="88">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="88">
+        <v>0.08</v>
+      </c>
+      <c r="K9" s="88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="88">
         <v>20</v>
@@ -12655,10 +12686,16 @@
       <c r="I10" s="88">
         <v>999</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="88">
+        <v>0.08</v>
+      </c>
+      <c r="K10" s="88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" s="88">
         <v>20</v>
@@ -12684,10 +12721,16 @@
       <c r="I11" s="88">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="88">
+        <v>0.09</v>
+      </c>
+      <c r="K11" s="88">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" s="88">
         <v>20</v>
@@ -12712,6 +12755,12 @@
       </c>
       <c r="I12" s="88">
         <v>20</v>
+      </c>
+      <c r="J12" s="88">
+        <v>0.11</v>
+      </c>
+      <c r="K12" s="88">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -12761,8 +12810,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12817,7 +12866,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="C8" s="18"/>
     </row>
@@ -13156,7 +13205,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -13167,30 +13216,30 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="79" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="C6" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="D6" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="E6" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="F6" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="G6" s="79" t="s">
         <v>176</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" s="89">
         <v>40360</v>
@@ -13213,7 +13262,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="89">
         <v>40725</v>
@@ -13236,7 +13285,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" s="89">
         <v>40725</v>
@@ -13259,7 +13308,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" s="89">
         <v>40725</v>
@@ -13282,7 +13331,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="89">
         <v>41091</v>
@@ -13305,7 +13354,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="89">
         <v>41456</v>
@@ -13328,7 +13377,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B13" s="89">
         <v>41821</v>
@@ -13351,7 +13400,7 @@
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" s="89">
         <v>42186</v>
@@ -13374,7 +13423,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="89">
         <v>42186</v>
@@ -13397,7 +13446,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E16" s="30"/>
       <c r="G16" s="30"/>
@@ -13562,14 +13611,14 @@
     </row>
     <row r="10" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="108"/>
       <c r="D10" s="108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10" s="108"/>
       <c r="F10" s="108"/>

--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="248">
   <si>
     <t>Notes</t>
   </si>
@@ -1490,48 +1490,6 @@
     </r>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Date Established</t>
-  </si>
-  <si>
-    <t>Initial Years</t>
-  </si>
-  <si>
-    <t>Initial Amount</t>
-  </si>
-  <si>
-    <t>Annual Payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Years remaining </t>
-  </si>
-  <si>
-    <t>Outstanding Balance</t>
-  </si>
-  <si>
-    <t>Actuarial Loss**</t>
-  </si>
-  <si>
-    <t>Actuarial Loss</t>
-  </si>
-  <si>
-    <t>Change in Assumptions</t>
-  </si>
-  <si>
-    <t>Plan Amendment</t>
-  </si>
-  <si>
-    <t>Actuarial Gain</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>G15</t>
-  </si>
-  <si>
     <t>fas</t>
   </si>
   <si>
@@ -1753,6 +1711,283 @@
   <si>
     <t>K12</t>
   </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Date
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Established</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Initial </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Amount</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Initial
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Period</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Outstanding </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Balance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Years
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Remaining</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Unfunded Actuarial Accrued Liability</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Experience Loss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Assumption Change</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Experience Gain</t>
+    </r>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Plan Amendment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Asset Method Change</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Plan Amendment</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Original Base</t>
+    </r>
+  </si>
+  <si>
+    <t>Experience Gain</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Annual </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Payment</t>
+    </r>
+  </si>
+  <si>
+    <t>AV2015 pdf page 62-68</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>year.est</t>
+  </si>
+  <si>
+    <t>init.amount</t>
+  </si>
+  <si>
+    <t>init.period</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>year.remaining</t>
+  </si>
+  <si>
+    <t>annual.payment</t>
+  </si>
+  <si>
+    <t>Unfunded</t>
+  </si>
+  <si>
+    <t>Actuarial</t>
+  </si>
+  <si>
+    <t>Accrued</t>
+  </si>
+  <si>
+    <t>Liability</t>
+  </si>
+  <si>
+    <t>Unfunded Actuarial Accrued Liability</t>
+  </si>
+  <si>
+    <t>amort.method</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>I122</t>
+  </si>
 </sst>
 </file>
 
@@ -1763,7 +1998,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1910,6 +2145,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1980,7 +2221,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2200,8 +2441,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2269,6 +2508,70 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3914,22 +4217,22 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110" t="s">
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="57" t="s">
         <v>94</v>
       </c>
@@ -6651,10 +6954,10 @@
       <c r="E4" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F4" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="106"/>
+      <c r="G4" s="104"/>
     </row>
     <row r="5" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
@@ -6672,21 +6975,21 @@
       <c r="E5" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="104"/>
+      <c r="G5" s="102"/>
     </row>
     <row r="6" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
     </row>
     <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -7298,31 +7601,31 @@
       <c r="A4" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
     </row>
     <row r="5" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
     </row>
     <row r="7" spans="1:7" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113" t="s">
-        <v>220</v>
+      <c r="A7" s="111" t="s">
+        <v>206</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>76</v>
@@ -7330,10 +7633,10 @@
       <c r="C7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="106"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="8" t="s">
         <v>64</v>
       </c>
@@ -7342,15 +7645,15 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113"/>
-      <c r="B8" s="114" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="112" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -7599,7 +7902,7 @@
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="34" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>68</v>
@@ -7608,7 +7911,7 @@
         <v>69</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>71</v>
@@ -7619,113 +7922,113 @@
     </row>
     <row r="4" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="99" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="99" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="99" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="113"/>
+      <c r="G5" s="99" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="98" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="101" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="101" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="101" t="s">
-        <v>213</v>
-      </c>
-      <c r="F4" s="101" t="s">
-        <v>210</v>
-      </c>
-      <c r="G4" s="101" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="98" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="101" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="101" t="s">
-        <v>211</v>
-      </c>
-      <c r="E5" s="115" t="s">
-        <v>214</v>
-      </c>
-      <c r="F5" s="115"/>
-      <c r="G5" s="101" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="98" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="101" t="s">
-        <v>219</v>
-      </c>
       <c r="D6" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="E6" s="115" t="s">
-        <v>215</v>
-      </c>
-      <c r="F6" s="115"/>
-      <c r="G6" s="101" t="s">
-        <v>215</v>
-      </c>
-      <c r="H6" s="101" t="s">
-        <v>215</v>
+        <v>201</v>
+      </c>
+      <c r="E6" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="113"/>
+      <c r="G6" s="99" t="s">
+        <v>201</v>
+      </c>
+      <c r="H6" s="99" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="113"/>
+      <c r="G7" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" s="99" t="s">
         <v>204</v>
-      </c>
-      <c r="C7" s="101" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="101" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="115" t="s">
-        <v>216</v>
-      </c>
-      <c r="F7" s="115"/>
-      <c r="G7" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="H7" s="101" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
     </row>
     <row r="9" spans="1:8" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="36"/>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="100"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="98"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
@@ -7735,7 +8038,7 @@
     <row r="13" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
-      <c r="G13" s="100"/>
+      <c r="G13" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7814,116 +8117,116 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="10" max="12" width="10.5703125" style="92" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="92" customWidth="1"/>
+    <col min="10" max="12" width="10.5703125" style="90" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="90" customWidth="1"/>
     <col min="14" max="14" width="13.140625" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12" style="92" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="92" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="92" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="92" customWidth="1"/>
+    <col min="17" max="17" width="12" style="90" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="90" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="90" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="90" customWidth="1"/>
     <col min="21" max="21" width="13.140625" customWidth="1"/>
     <col min="22" max="22" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C2">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="J5" s="116" t="s">
-        <v>186</v>
-      </c>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116" t="s">
-        <v>199</v>
-      </c>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
+      <c r="J5" s="114" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="R5" s="114"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="114"/>
+      <c r="W5" s="114"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="G6" t="s">
         <v>85</v>
       </c>
       <c r="H6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J6" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="K6" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="L6" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="M6" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="N6" s="91" t="s">
+        <v>181</v>
+      </c>
+      <c r="O6" s="91" t="s">
+        <v>183</v>
+      </c>
+      <c r="P6" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="I6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J6" s="93" t="s">
-        <v>188</v>
-      </c>
-      <c r="K6" s="93" t="s">
-        <v>189</v>
-      </c>
-      <c r="L6" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="M6" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="N6" s="93" t="s">
-        <v>195</v>
-      </c>
-      <c r="O6" s="93" t="s">
-        <v>197</v>
-      </c>
-      <c r="P6" s="93" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q6" s="95" t="s">
-        <v>188</v>
-      </c>
-      <c r="R6" s="95" t="s">
-        <v>189</v>
-      </c>
-      <c r="S6" s="95" t="s">
-        <v>190</v>
-      </c>
-      <c r="T6" s="95" t="s">
-        <v>191</v>
-      </c>
-      <c r="U6" s="95" t="s">
-        <v>195</v>
-      </c>
-      <c r="V6" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="W6" s="95" t="s">
-        <v>198</v>
+      <c r="Q6" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="R6" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="S6" s="93" t="s">
+        <v>176</v>
+      </c>
+      <c r="T6" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="U6" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="V6" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="W6" s="93" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>20</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="92">
         <v>3.3416560000000002E-4</v>
       </c>
       <c r="D7">
@@ -8865,18 +9168,18 @@
         <f t="shared" si="2"/>
         <v>4.4189770091659719</v>
       </c>
-      <c r="J42" s="92">
+      <c r="J42" s="90">
         <f>E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K42" s="92">
+      <c r="K42" s="90">
         <f>J42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="L42" s="92">
-        <v>0</v>
-      </c>
-      <c r="M42" s="92">
+      <c r="L42" s="90">
+        <v>0</v>
+      </c>
+      <c r="M42" s="90">
         <f>$E$42</f>
         <v>6.7984261679476479</v>
       </c>
@@ -8930,18 +9233,18 @@
         <f t="shared" si="2"/>
         <v>4.8425189594291114</v>
       </c>
-      <c r="J43" s="92">
+      <c r="J43" s="90">
         <f t="shared" ref="J43:J46" si="4">E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K43" s="92">
+      <c r="K43" s="90">
         <f>K42*1.05 +J43</f>
         <v>13.936773644292678</v>
       </c>
-      <c r="L43" s="92">
-        <v>0</v>
-      </c>
-      <c r="M43" s="92">
+      <c r="L43" s="90">
+        <v>0</v>
+      </c>
+      <c r="M43" s="90">
         <f t="shared" ref="M43:M106" si="5">$E$42</f>
         <v>6.7984261679476479</v>
       </c>
@@ -8995,18 +9298,18 @@
         <f t="shared" si="2"/>
         <v>5.296327078090318</v>
       </c>
-      <c r="J44" s="92">
+      <c r="J44" s="90">
         <f t="shared" si="4"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K44" s="92">
+      <c r="K44" s="90">
         <f>K43*1.05 + J44</f>
         <v>21.432038494454961</v>
       </c>
-      <c r="L44" s="92">
-        <v>0</v>
-      </c>
-      <c r="M44" s="92">
+      <c r="L44" s="90">
+        <v>0</v>
+      </c>
+      <c r="M44" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9060,18 +9363,18 @@
         <f t="shared" si="2"/>
         <v>5.7823210346221279</v>
       </c>
-      <c r="J45" s="92">
+      <c r="J45" s="90">
         <f t="shared" si="4"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K45" s="92">
+      <c r="K45" s="90">
         <f t="shared" ref="K45:K46" si="11">K44*1.05 + J45</f>
         <v>29.30206658712536</v>
       </c>
-      <c r="L45" s="92">
-        <v>0</v>
-      </c>
-      <c r="M45" s="92">
+      <c r="L45" s="90">
+        <v>0</v>
+      </c>
+      <c r="M45" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9125,18 +9428,18 @@
         <f t="shared" si="2"/>
         <v>6.3025345790545186</v>
       </c>
-      <c r="J46" s="92">
+      <c r="J46" s="90">
         <f t="shared" si="4"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="K46" s="92">
+      <c r="K46" s="90">
         <f t="shared" si="11"/>
         <v>37.565596084429274</v>
       </c>
-      <c r="L46" s="92">
-        <v>0</v>
-      </c>
-      <c r="M46" s="92">
+      <c r="L46" s="90">
+        <v>0</v>
+      </c>
+      <c r="M46" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9190,11 +9493,11 @@
         <f t="shared" si="2"/>
         <v>6.9448610739782888</v>
       </c>
-      <c r="L47" s="92">
+      <c r="L47" s="90">
         <f>$E$42 + K46</f>
         <v>44.36402225237692</v>
       </c>
-      <c r="M47" s="92">
+      <c r="M47" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9248,11 +9551,11 @@
         <f t="shared" si="2"/>
         <v>7.5441768629549353</v>
       </c>
-      <c r="L48" s="92">
+      <c r="L48" s="90">
         <f>$E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M48" s="92">
+      <c r="M48" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9306,11 +9609,11 @@
         <f t="shared" si="2"/>
         <v>8.1847583090861988</v>
       </c>
-      <c r="L49" s="92">
+      <c r="L49" s="90">
         <f t="shared" ref="L49:L56" si="12">$E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M49" s="92">
+      <c r="M49" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9364,11 +9667,11 @@
         <f t="shared" si="2"/>
         <v>8.8691734435528868</v>
       </c>
-      <c r="L50" s="92">
+      <c r="L50" s="90">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M50" s="92">
+      <c r="M50" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9422,11 +9725,11 @@
         <f t="shared" si="2"/>
         <v>9.2904591821216496</v>
       </c>
-      <c r="L51" s="92">
+      <c r="L51" s="90">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M51" s="92">
+      <c r="M51" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9452,7 +9755,7 @@
       </c>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B52" s="96">
+      <c r="B52" s="94">
         <v>65</v>
       </c>
       <c r="C52">
@@ -9480,11 +9783,11 @@
         <f t="shared" si="2"/>
         <v>9.7317559932724294</v>
       </c>
-      <c r="L52" s="92">
+      <c r="L52" s="90">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M52" s="92">
+      <c r="M52" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9500,15 +9803,15 @@
         <f t="shared" si="7"/>
         <v>3.0927925753220662</v>
       </c>
-      <c r="Q52" s="92">
+      <c r="Q52" s="90">
         <f>$E$52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="R52" s="92">
+      <c r="R52" s="90">
         <f>Q52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="T52" s="92">
+      <c r="T52" s="90">
         <f t="shared" ref="T52:T106" si="13">$E$52</f>
         <v>10.813062214747143</v>
       </c>
@@ -9554,11 +9857,11 @@
         <f t="shared" si="2"/>
         <v>10.19401440295287</v>
       </c>
-      <c r="L53" s="92">
+      <c r="L53" s="90">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M53" s="92">
+      <c r="M53" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9574,15 +9877,15 @@
         <f t="shared" si="7"/>
         <v>2.8459311587651022</v>
       </c>
-      <c r="Q53" s="92">
+      <c r="Q53" s="90">
         <f t="shared" ref="Q53:Q56" si="14">$E$52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="R53" s="92">
+      <c r="R53" s="90">
         <f>R52*1.05 +Q53</f>
         <v>22.166777540231642</v>
       </c>
-      <c r="T53" s="92">
+      <c r="T53" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9628,11 +9931,11 @@
         <f t="shared" si="2"/>
         <v>10.678230087093132</v>
       </c>
-      <c r="L54" s="92">
+      <c r="L54" s="90">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M54" s="92">
+      <c r="M54" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9648,15 +9951,15 @@
         <f t="shared" si="7"/>
         <v>2.61617031790247</v>
       </c>
-      <c r="Q54" s="92">
+      <c r="Q54" s="90">
         <f t="shared" si="14"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="R54" s="92">
+      <c r="R54" s="90">
         <f>R53*1.05 + Q54</f>
         <v>34.088178631990367</v>
       </c>
-      <c r="T54" s="92">
+      <c r="T54" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9702,11 +10005,11 @@
         <f t="shared" si="2"/>
         <v>11.185446016230058</v>
       </c>
-      <c r="L55" s="92">
+      <c r="L55" s="90">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M55" s="92">
+      <c r="M55" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9722,15 +10025,15 @@
         <f t="shared" si="7"/>
         <v>2.4024576619956037</v>
       </c>
-      <c r="Q55" s="92">
+      <c r="Q55" s="90">
         <f t="shared" si="14"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="R55" s="92">
+      <c r="R55" s="90">
         <f t="shared" ref="R55:R56" si="16">R54*1.05 + Q55</f>
         <v>46.605649778337025</v>
       </c>
-      <c r="T55" s="92">
+      <c r="T55" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9776,11 +10079,11 @@
         <f t="shared" si="2"/>
         <v>11.716754702000985</v>
       </c>
-      <c r="L56" s="92">
+      <c r="L56" s="90">
         <f t="shared" si="12"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M56" s="92">
+      <c r="M56" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9796,15 +10099,15 @@
         <f t="shared" si="7"/>
         <v>2.2031082478198898</v>
       </c>
-      <c r="Q56" s="92">
+      <c r="Q56" s="90">
         <f t="shared" si="14"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="R56" s="92">
+      <c r="R56" s="90">
         <f t="shared" si="16"/>
         <v>59.748994482001017</v>
       </c>
-      <c r="T56" s="92">
+      <c r="T56" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9850,11 +10153,11 @@
         <f t="shared" si="2"/>
         <v>12.273300550346033</v>
       </c>
-      <c r="L57" s="92">
+      <c r="L57" s="90">
         <f>$E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M57" s="92">
+      <c r="M57" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9870,11 +10173,11 @@
         <f t="shared" si="7"/>
         <v>2.0167671825163049</v>
       </c>
-      <c r="S57" s="92">
+      <c r="S57" s="90">
         <f>R56+$E$52</f>
         <v>70.562056696748158</v>
       </c>
-      <c r="T57" s="92">
+      <c r="T57" s="90">
         <f>$E$52</f>
         <v>10.813062214747143</v>
       </c>
@@ -9902,11 +10205,11 @@
         <f t="shared" si="0"/>
         <v>0.82856323681831068</v>
       </c>
-      <c r="L58" s="92">
+      <c r="L58" s="90">
         <f t="shared" ref="L58:L106" si="17">$E$42</f>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M58" s="92">
+      <c r="M58" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9922,11 +10225,11 @@
         <f t="shared" si="7"/>
         <v>1.8430065541042151</v>
       </c>
-      <c r="S58" s="92">
+      <c r="S58" s="90">
         <f>$E$52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="T58" s="92">
+      <c r="T58" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -9954,11 +10257,11 @@
         <f t="shared" si="0"/>
         <v>0.81235323675594462</v>
       </c>
-      <c r="L59" s="92">
+      <c r="L59" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M59" s="92">
+      <c r="M59" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -9974,11 +10277,11 @@
         <f t="shared" si="7"/>
         <v>1.680883719605589</v>
       </c>
-      <c r="S59" s="92">
+      <c r="S59" s="90">
         <f t="shared" ref="S59:S106" si="18">$E$52</f>
         <v>10.813062214747143</v>
       </c>
-      <c r="T59" s="92">
+      <c r="T59" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10006,11 +10309,11 @@
         <f t="shared" si="0"/>
         <v>0.79465093201826931</v>
       </c>
-      <c r="L60" s="92">
+      <c r="L60" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M60" s="92">
+      <c r="M60" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10026,11 +10329,11 @@
         <f t="shared" si="7"/>
         <v>1.5295394697233526</v>
       </c>
-      <c r="S60" s="92">
+      <c r="S60" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T60" s="92">
+      <c r="T60" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10058,11 +10361,11 @@
         <f t="shared" si="0"/>
         <v>0.77533244251717404</v>
       </c>
-      <c r="L61" s="92">
+      <c r="L61" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M61" s="92">
+      <c r="M61" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10078,11 +10381,11 @@
         <f t="shared" si="7"/>
         <v>1.3882375386379853</v>
       </c>
-      <c r="S61" s="92">
+      <c r="S61" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T61" s="92">
+      <c r="T61" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10110,11 +10413,11 @@
         <f t="shared" si="0"/>
         <v>0.75429624270826012</v>
       </c>
-      <c r="L62" s="92">
+      <c r="L62" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M62" s="92">
+      <c r="M62" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10130,11 +10433,11 @@
         <f t="shared" si="7"/>
         <v>1.2563461326872842</v>
       </c>
-      <c r="S62" s="92">
+      <c r="S62" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T62" s="92">
+      <c r="T62" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10162,11 +10465,11 @@
         <f t="shared" si="0"/>
         <v>0.73148587333503878</v>
       </c>
-      <c r="L63" s="92">
+      <c r="L63" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M63" s="92">
+      <c r="M63" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10182,11 +10485,11 @@
         <f t="shared" si="7"/>
         <v>1.1333520692702026</v>
       </c>
-      <c r="S63" s="92">
+      <c r="S63" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T63" s="92">
+      <c r="T63" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10214,11 +10517,11 @@
         <f t="shared" si="0"/>
         <v>0.70688041756920683</v>
       </c>
-      <c r="L64" s="92">
+      <c r="L64" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M64" s="92">
+      <c r="M64" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10234,11 +10537,11 @@
         <f t="shared" si="7"/>
         <v>1.0188174740132456</v>
       </c>
-      <c r="S64" s="92">
+      <c r="S64" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T64" s="92">
+      <c r="T64" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10266,11 +10569,11 @@
         <f t="shared" si="0"/>
         <v>0.68045800767369868</v>
       </c>
-      <c r="L65" s="92">
+      <c r="L65" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M65" s="92">
+      <c r="M65" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10286,11 +10589,11 @@
         <f t="shared" si="7"/>
         <v>0.91231181507125081</v>
       </c>
-      <c r="S65" s="92">
+      <c r="S65" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T65" s="92">
+      <c r="T65" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10318,11 +10621,11 @@
         <f t="shared" si="0"/>
         <v>0.65219102597804091</v>
       </c>
-      <c r="L66" s="92">
+      <c r="L66" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M66" s="92">
+      <c r="M66" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10338,11 +10641,11 @@
         <f t="shared" si="7"/>
         <v>0.81340778474747322</v>
       </c>
-      <c r="S66" s="92">
+      <c r="S66" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T66" s="92">
+      <c r="T66" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10370,11 +10673,11 @@
         <f t="shared" si="0"/>
         <v>0.62208579906438133</v>
       </c>
-      <c r="L67" s="92">
+      <c r="L67" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M67" s="92">
+      <c r="M67" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10390,11 +10693,11 @@
         <f t="shared" si="7"/>
         <v>0.72173094903319601</v>
       </c>
-      <c r="S67" s="92">
+      <c r="S67" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T67" s="92">
+      <c r="T67" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10422,11 +10725,11 @@
         <f t="shared" si="0"/>
         <v>0.58994718895047804</v>
       </c>
-      <c r="L68" s="92">
+      <c r="L68" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M68" s="92">
+      <c r="M68" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10442,11 +10745,11 @@
         <f t="shared" si="7"/>
         <v>0.63669246970930993</v>
       </c>
-      <c r="S68" s="92">
+      <c r="S68" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T68" s="92">
+      <c r="T68" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10474,11 +10777,11 @@
         <f t="shared" si="0"/>
         <v>0.55589613558373874</v>
       </c>
-      <c r="L69" s="92">
+      <c r="L69" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M69" s="92">
+      <c r="M69" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10494,11 +10797,11 @@
         <f t="shared" si="7"/>
         <v>0.55808682239463647</v>
       </c>
-      <c r="S69" s="92">
+      <c r="S69" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T69" s="92">
+      <c r="T69" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10526,11 +10829,11 @@
         <f t="shared" si="0"/>
         <v>0.52013014072015107</v>
       </c>
-      <c r="L70" s="92">
+      <c r="L70" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M70" s="92">
+      <c r="M70" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10546,11 +10849,11 @@
         <f t="shared" si="7"/>
         <v>0.48574872573970462</v>
       </c>
-      <c r="S70" s="92">
+      <c r="S70" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T70" s="92">
+      <c r="T70" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10578,11 +10881,11 @@
         <f t="shared" si="0"/>
         <v>0.48291255139771205</v>
       </c>
-      <c r="L71" s="92">
+      <c r="L71" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M71" s="92">
+      <c r="M71" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10598,11 +10901,11 @@
         <f t="shared" si="7"/>
         <v>0.41952676950903162</v>
       </c>
-      <c r="S71" s="92">
+      <c r="S71" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T71" s="92">
+      <c r="T71" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10630,11 +10933,11 @@
         <f t="shared" si="0"/>
         <v>0.44455624777516756</v>
       </c>
-      <c r="L72" s="92">
+      <c r="L72" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M72" s="92">
+      <c r="M72" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10650,11 +10953,11 @@
         <f t="shared" si="7"/>
         <v>0.35926047394183436</v>
       </c>
-      <c r="S72" s="92">
+      <c r="S72" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T72" s="92">
+      <c r="T72" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10682,11 +10985,11 @@
         <f t="shared" ref="D73:D106" si="19">D72*(1-C72)</f>
         <v>0.40540807054563471</v>
       </c>
-      <c r="L73" s="92">
+      <c r="L73" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M73" s="92">
+      <c r="M73" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10702,11 +11005,11 @@
         <f t="shared" si="7"/>
         <v>0.30476609196296539</v>
       </c>
-      <c r="S73" s="92">
+      <c r="S73" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T73" s="92">
+      <c r="T73" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10734,11 +11037,11 @@
         <f t="shared" si="19"/>
         <v>0.36496345429910237</v>
       </c>
-      <c r="L74" s="92">
+      <c r="L74" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M74" s="92">
+      <c r="M74" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10754,11 +11057,11 @@
         <f t="shared" si="7"/>
         <v>0.25522027380745999</v>
       </c>
-      <c r="S74" s="92">
+      <c r="S74" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T74" s="92">
+      <c r="T74" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10786,11 +11089,11 @@
         <f t="shared" si="19"/>
         <v>0.32375153217106822</v>
       </c>
-      <c r="L75" s="92">
+      <c r="L75" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M75" s="92">
+      <c r="M75" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10806,11 +11109,11 @@
         <f t="shared" si="7"/>
         <v>0.21060523391108546</v>
       </c>
-      <c r="S75" s="92">
+      <c r="S75" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T75" s="92">
+      <c r="T75" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10838,11 +11141,11 @@
         <f t="shared" si="19"/>
         <v>0.28244011143023273</v>
       </c>
-      <c r="L76" s="92">
+      <c r="L76" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M76" s="92">
+      <c r="M76" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10858,11 +11161,11 @@
         <f t="shared" si="7"/>
         <v>0.170913055150927</v>
       </c>
-      <c r="S76" s="92">
+      <c r="S76" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T76" s="92">
+      <c r="T76" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10890,11 +11193,11 @@
         <f t="shared" si="19"/>
         <v>0.24182729908718817</v>
       </c>
-      <c r="L77" s="92">
+      <c r="L77" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M77" s="92">
+      <c r="M77" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10910,11 +11213,11 @@
         <f t="shared" si="7"/>
         <v>0.13612745476963467</v>
       </c>
-      <c r="S77" s="92">
+      <c r="S77" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T77" s="92">
+      <c r="T77" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10942,11 +11245,11 @@
         <f t="shared" si="19"/>
         <v>0.20310084780351195</v>
       </c>
-      <c r="L78" s="92">
+      <c r="L78" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M78" s="92">
+      <c r="M78" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -10962,11 +11265,11 @@
         <f t="shared" si="7"/>
         <v>0.10635151259503718</v>
       </c>
-      <c r="S78" s="92">
+      <c r="S78" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T78" s="92">
+      <c r="T78" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -10994,11 +11297,11 @@
         <f t="shared" si="19"/>
         <v>0.16704293264795009</v>
       </c>
-      <c r="L79" s="92">
+      <c r="L79" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M79" s="92">
+      <c r="M79" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11014,11 +11317,11 @@
         <f t="shared" si="7"/>
         <v>8.1367613149169779E-2</v>
       </c>
-      <c r="S79" s="92">
+      <c r="S79" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T79" s="92">
+      <c r="T79" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11046,11 +11349,11 @@
         <f t="shared" si="19"/>
         <v>0.13433350212469566</v>
       </c>
-      <c r="L80" s="92">
+      <c r="L80" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M80" s="92">
+      <c r="M80" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11066,11 +11369,11 @@
         <f t="shared" si="7"/>
         <v>6.0869445207679951E-2</v>
       </c>
-      <c r="S80" s="92">
+      <c r="S80" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T80" s="92">
+      <c r="T80" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11098,11 +11401,11 @@
         <f t="shared" si="19"/>
         <v>0.10547923743049588</v>
       </c>
-      <c r="L81" s="92">
+      <c r="L81" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M81" s="92">
+      <c r="M81" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11118,11 +11421,11 @@
         <f t="shared" si="7"/>
         <v>4.4460416152917001E-2</v>
       </c>
-      <c r="S81" s="92">
+      <c r="S81" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T81" s="92">
+      <c r="T81" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11150,11 +11453,11 @@
         <f t="shared" si="19"/>
         <v>8.0763327010334174E-2</v>
       </c>
-      <c r="L82" s="92">
+      <c r="L82" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M82" s="92">
+      <c r="M82" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11170,11 +11473,11 @@
         <f t="shared" si="7"/>
         <v>3.1667390608636568E-2</v>
       </c>
-      <c r="S82" s="92">
+      <c r="S82" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T82" s="92">
+      <c r="T82" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11202,11 +11505,11 @@
         <f t="shared" si="19"/>
         <v>6.0228312276585545E-2</v>
       </c>
-      <c r="L83" s="92">
+      <c r="L83" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M83" s="92">
+      <c r="M83" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11222,11 +11525,11 @@
         <f t="shared" si="7"/>
         <v>2.1967989233155204E-2</v>
       </c>
-      <c r="S83" s="92">
+      <c r="S83" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T83" s="92">
+      <c r="T83" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11254,11 +11557,11 @@
         <f t="shared" si="19"/>
         <v>4.3692973821657315E-2</v>
       </c>
-      <c r="L84" s="92">
+      <c r="L84" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M84" s="92">
+      <c r="M84" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11274,11 +11577,11 @@
         <f t="shared" si="7"/>
         <v>1.482493349748654E-2</v>
       </c>
-      <c r="S84" s="92">
+      <c r="S84" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T84" s="92">
+      <c r="T84" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11306,11 +11609,11 @@
         <f t="shared" si="19"/>
         <v>3.1079476740244239E-2</v>
       </c>
-      <c r="L85" s="92">
+      <c r="L85" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M85" s="92">
+      <c r="M85" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11326,11 +11629,11 @@
         <f t="shared" si="7"/>
         <v>9.8094889738961286E-3</v>
       </c>
-      <c r="S85" s="92">
+      <c r="S85" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T85" s="92">
+      <c r="T85" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11358,11 +11661,11 @@
         <f t="shared" si="19"/>
         <v>2.1473236209615078E-2</v>
       </c>
-      <c r="L86" s="92">
+      <c r="L86" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M86" s="92">
+      <c r="M86" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11378,11 +11681,11 @@
         <f t="shared" si="7"/>
         <v>6.3046607473727888E-3</v>
       </c>
-      <c r="S86" s="92">
+      <c r="S86" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T86" s="92">
+      <c r="T86" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11410,11 +11713,11 @@
         <f t="shared" si="19"/>
         <v>1.4547741507732977E-2</v>
       </c>
-      <c r="L87" s="92">
+      <c r="L87" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M87" s="92">
+      <c r="M87" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11430,11 +11733,11 @@
         <f t="shared" si="7"/>
         <v>3.9732997707342494E-3</v>
       </c>
-      <c r="S87" s="92">
+      <c r="S87" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T87" s="92">
+      <c r="T87" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11462,11 +11765,11 @@
         <f t="shared" si="19"/>
         <v>9.5553150262579004E-3</v>
       </c>
-      <c r="L88" s="92">
+      <c r="L88" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M88" s="92">
+      <c r="M88" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11482,11 +11785,11 @@
         <f t="shared" si="7"/>
         <v>2.4276848160192815E-3</v>
       </c>
-      <c r="S88" s="92">
+      <c r="S88" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T88" s="92">
+      <c r="T88" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11514,11 +11817,11 @@
         <f t="shared" si="19"/>
         <v>6.1567784145890453E-3</v>
       </c>
-      <c r="L89" s="92">
+      <c r="L89" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M89" s="92">
+      <c r="M89" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11534,11 +11837,11 @@
         <f t="shared" si="7"/>
         <v>1.4550983606719764E-3</v>
       </c>
-      <c r="S89" s="92">
+      <c r="S89" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T89" s="92">
+      <c r="T89" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11566,11 +11869,11 @@
         <f t="shared" si="19"/>
         <v>3.8498272922810836E-3</v>
       </c>
-      <c r="L90" s="92">
+      <c r="L90" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M90" s="92">
+      <c r="M90" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11586,11 +11889,11 @@
         <f t="shared" si="7"/>
         <v>8.4639211880216847E-4</v>
       </c>
-      <c r="S90" s="92">
+      <c r="S90" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T90" s="92">
+      <c r="T90" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11618,11 +11921,11 @@
         <f t="shared" si="19"/>
         <v>2.3735383096026431E-3</v>
       </c>
-      <c r="L91" s="92">
+      <c r="L91" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M91" s="92">
+      <c r="M91" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11638,11 +11941,11 @@
         <f t="shared" si="7"/>
         <v>4.8542053578656802E-4</v>
       </c>
-      <c r="S91" s="92">
+      <c r="S91" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T91" s="92">
+      <c r="T91" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11670,11 +11973,11 @@
         <f t="shared" si="19"/>
         <v>1.429140645748086E-3</v>
       </c>
-      <c r="L92" s="92">
+      <c r="L92" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M92" s="92">
+      <c r="M92" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11690,11 +11993,11 @@
         <f t="shared" si="7"/>
         <v>2.7188697719497088E-4</v>
       </c>
-      <c r="S92" s="92">
+      <c r="S92" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T92" s="92">
+      <c r="T92" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11722,11 +12025,11 @@
         <f t="shared" si="19"/>
         <v>8.5748438744885159E-4</v>
       </c>
-      <c r="L93" s="92">
+      <c r="L93" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M93" s="92">
+      <c r="M93" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11742,11 +12045,11 @@
         <f t="shared" si="7"/>
         <v>1.5175087099254185E-4</v>
       </c>
-      <c r="S93" s="92">
+      <c r="S93" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T93" s="92">
+      <c r="T93" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11774,11 +12077,11 @@
         <f t="shared" si="19"/>
         <v>5.1449063246931091E-4</v>
       </c>
-      <c r="L94" s="92">
+      <c r="L94" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M94" s="92">
+      <c r="M94" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11794,11 +12097,11 @@
         <f t="shared" si="7"/>
         <v>8.4698160553976846E-5</v>
       </c>
-      <c r="S94" s="92">
+      <c r="S94" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T94" s="92">
+      <c r="T94" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11826,11 +12129,11 @@
         <f t="shared" si="19"/>
         <v>3.0869437948158654E-4</v>
       </c>
-      <c r="L95" s="92">
+      <c r="L95" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M95" s="92">
+      <c r="M95" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11846,11 +12149,11 @@
         <f t="shared" si="7"/>
         <v>4.7273391937103357E-5</v>
       </c>
-      <c r="S95" s="92">
+      <c r="S95" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T95" s="92">
+      <c r="T95" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11878,11 +12181,11 @@
         <f t="shared" si="19"/>
         <v>1.8521662768895193E-4</v>
       </c>
-      <c r="L96" s="92">
+      <c r="L96" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M96" s="92">
+      <c r="M96" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11898,11 +12201,11 @@
         <f t="shared" si="7"/>
         <v>2.6385148988150714E-5</v>
       </c>
-      <c r="S96" s="92">
+      <c r="S96" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T96" s="92">
+      <c r="T96" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11930,11 +12233,11 @@
         <f t="shared" si="19"/>
         <v>1.1112997661337116E-4</v>
       </c>
-      <c r="L97" s="92">
+      <c r="L97" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M97" s="92">
+      <c r="M97" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -11950,11 +12253,11 @@
         <f t="shared" si="7"/>
         <v>1.4726594784084121E-5</v>
       </c>
-      <c r="S97" s="92">
+      <c r="S97" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T97" s="92">
+      <c r="T97" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -11982,11 +12285,11 @@
         <f t="shared" si="19"/>
         <v>6.6677985968022693E-5</v>
       </c>
-      <c r="L98" s="92">
+      <c r="L98" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M98" s="92">
+      <c r="M98" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12002,11 +12305,11 @@
         <f t="shared" si="7"/>
         <v>8.2194947632097419E-6</v>
       </c>
-      <c r="S98" s="92">
+      <c r="S98" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T98" s="92">
+      <c r="T98" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12034,11 +12337,11 @@
         <f t="shared" si="19"/>
         <v>4.0006791580813616E-5</v>
       </c>
-      <c r="L99" s="92">
+      <c r="L99" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M99" s="92">
+      <c r="M99" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12054,11 +12357,11 @@
         <f t="shared" si="7"/>
         <v>4.587624984117065E-6</v>
       </c>
-      <c r="S99" s="92">
+      <c r="S99" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T99" s="92">
+      <c r="T99" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12086,11 +12389,11 @@
         <f t="shared" si="19"/>
         <v>2.400407494848817E-5</v>
       </c>
-      <c r="L100" s="92">
+      <c r="L100" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M100" s="92">
+      <c r="M100" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12106,11 +12409,11 @@
         <f t="shared" si="7"/>
         <v>2.5605348748560373E-6</v>
       </c>
-      <c r="S100" s="92">
+      <c r="S100" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T100" s="92">
+      <c r="T100" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12138,11 +12441,11 @@
         <f t="shared" si="19"/>
         <v>1.4402444969092902E-5</v>
       </c>
-      <c r="L101" s="92">
+      <c r="L101" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M101" s="92">
+      <c r="M101" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12158,11 +12461,11 @@
         <f t="shared" si="7"/>
         <v>1.429135744105695E-6</v>
       </c>
-      <c r="S101" s="92">
+      <c r="S101" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T101" s="92">
+      <c r="T101" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12190,11 +12493,11 @@
         <f t="shared" si="19"/>
         <v>8.6414669814557416E-6</v>
       </c>
-      <c r="L102" s="92">
+      <c r="L102" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M102" s="92">
+      <c r="M102" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12210,11 +12513,11 @@
         <f t="shared" si="7"/>
         <v>7.9765715950085294E-7</v>
       </c>
-      <c r="S102" s="92">
+      <c r="S102" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T102" s="92">
+      <c r="T102" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12242,11 +12545,11 @@
         <f t="shared" si="19"/>
         <v>5.1848801888734449E-6</v>
       </c>
-      <c r="L103" s="92">
+      <c r="L103" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M103" s="92">
+      <c r="M103" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12262,11 +12565,11 @@
         <f t="shared" si="7"/>
         <v>4.4520399600047596E-7</v>
       </c>
-      <c r="S103" s="92">
+      <c r="S103" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T103" s="92">
+      <c r="T103" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12294,11 +12597,11 @@
         <f t="shared" si="19"/>
         <v>3.1109281133240667E-6</v>
       </c>
-      <c r="L104" s="92">
+      <c r="L104" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M104" s="92">
+      <c r="M104" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12314,11 +12617,11 @@
         <f t="shared" si="7"/>
         <v>2.4848595125607966E-7</v>
       </c>
-      <c r="S104" s="92">
+      <c r="S104" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T104" s="92">
+      <c r="T104" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12346,11 +12649,11 @@
         <f t="shared" si="19"/>
         <v>1.8665568679944399E-6</v>
       </c>
-      <c r="L105" s="92">
+      <c r="L105" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M105" s="92">
+      <c r="M105" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12366,11 +12669,11 @@
         <f t="shared" si="7"/>
         <v>1.3868983325920723E-7</v>
       </c>
-      <c r="S105" s="92">
+      <c r="S105" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T105" s="92">
+      <c r="T105" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12398,11 +12701,11 @@
         <f t="shared" si="19"/>
         <v>1.1199341207966639E-6</v>
       </c>
-      <c r="L106" s="92">
+      <c r="L106" s="90">
         <f t="shared" si="17"/>
         <v>6.7984261679476479</v>
       </c>
-      <c r="M106" s="92">
+      <c r="M106" s="90">
         <f t="shared" si="5"/>
         <v>6.7984261679476479</v>
       </c>
@@ -12418,11 +12721,11 @@
         <f t="shared" si="7"/>
         <v>7.7408279028394735E-8</v>
       </c>
-      <c r="S106" s="92">
+      <c r="S106" s="90">
         <f t="shared" si="18"/>
         <v>10.813062214747143</v>
       </c>
-      <c r="T106" s="92">
+      <c r="T106" s="90">
         <f t="shared" si="13"/>
         <v>10.813062214747143</v>
       </c>
@@ -12440,8 +12743,8 @@
       </c>
     </row>
     <row r="108" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="N108" s="92" t="s">
-        <v>196</v>
+      <c r="N108" s="90" t="s">
+        <v>182</v>
       </c>
       <c r="O108">
         <f>SUM(O42:O106)</f>
@@ -12451,8 +12754,8 @@
         <f>SUM(P42:P106)</f>
         <v>80.573925783148752</v>
       </c>
-      <c r="U108" s="92" t="s">
-        <v>200</v>
+      <c r="U108" s="90" t="s">
+        <v>186</v>
       </c>
       <c r="V108">
         <f>SUM(V42:V106)</f>
@@ -12487,8 +12790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12515,7 +12818,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12538,7 +12841,7 @@
         <v>168</v>
       </c>
       <c r="G6" s="88" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="H6" s="88" t="s">
         <v>167</v>
@@ -12547,10 +12850,10 @@
         <v>166</v>
       </c>
       <c r="J6" s="88" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="K6" s="88" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12810,7 +13113,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -12866,7 +13169,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C8" s="18"/>
     </row>
@@ -12890,7 +13193,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -13176,286 +13479,3200 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" style="37" customWidth="1"/>
+    <col min="4" max="8" width="32.28515625" style="125" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="15" max="19" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>87</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>88</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="F3" s="128">
+        <f>5698407*9</f>
+        <v>51285663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="79" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="89">
-        <v>40360</v>
-      </c>
-      <c r="C7" s="79">
+    </row>
+    <row r="6" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="119" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="116" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="124" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="124" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="124" t="s">
+        <v>218</v>
+      </c>
+      <c r="G6" s="124" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6" s="126" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="131" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="132" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" s="132" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="132" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="132" t="s">
+        <v>237</v>
+      </c>
+      <c r="H7" s="133" t="s">
+        <v>238</v>
+      </c>
+      <c r="I7" s="136" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="121">
+        <v>42185</v>
+      </c>
+      <c r="D8" s="135">
+        <v>170907119</v>
+      </c>
+      <c r="E8" s="134">
+        <v>22</v>
+      </c>
+      <c r="F8" s="135">
+        <v>170907119</v>
+      </c>
+      <c r="G8" s="134">
+        <v>22</v>
+      </c>
+      <c r="H8" s="135">
+        <v>14974146</v>
+      </c>
+      <c r="I8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="117" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="121">
+        <v>39629</v>
+      </c>
+      <c r="D9" s="127">
+        <v>-632245519</v>
+      </c>
+      <c r="E9" s="127">
+        <v>29</v>
+      </c>
+      <c r="F9" s="127">
+        <v>-708502016</v>
+      </c>
+      <c r="G9" s="127">
+        <v>22</v>
+      </c>
+      <c r="H9" s="127">
+        <v>-44598831</v>
+      </c>
+      <c r="I9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="122">
+        <v>39994</v>
+      </c>
+      <c r="D10" s="128">
+        <v>53442825</v>
+      </c>
+      <c r="E10" s="128">
+        <v>15</v>
+      </c>
+      <c r="F10" s="128">
+        <v>45090011</v>
+      </c>
+      <c r="G10" s="128">
+        <v>9</v>
+      </c>
+      <c r="H10" s="128">
+        <v>5698407</v>
+      </c>
+      <c r="I10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="122">
+        <v>40359</v>
+      </c>
+      <c r="D11" s="128">
+        <v>210742926</v>
+      </c>
+      <c r="E11" s="128">
+        <v>15</v>
+      </c>
+      <c r="F11" s="128">
+        <v>186383774</v>
+      </c>
+      <c r="G11" s="128">
+        <v>10</v>
+      </c>
+      <c r="H11" s="128">
+        <v>21534522</v>
+      </c>
+      <c r="I11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="122">
+        <v>40359</v>
+      </c>
+      <c r="D12" s="128">
+        <v>1450331</v>
+      </c>
+      <c r="E12" s="128">
+        <v>27</v>
+      </c>
+      <c r="F12" s="128">
+        <v>1559364</v>
+      </c>
+      <c r="G12" s="128">
+        <v>22</v>
+      </c>
+      <c r="H12" s="128">
+        <v>98159</v>
+      </c>
+      <c r="I12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="122">
+        <v>40724</v>
+      </c>
+      <c r="D13" s="128">
+        <v>203104597</v>
+      </c>
+      <c r="E13" s="128">
+        <v>15</v>
+      </c>
+      <c r="F13" s="128">
+        <v>186609704</v>
+      </c>
+      <c r="G13" s="128">
+        <v>11</v>
+      </c>
+      <c r="H13" s="128">
+        <v>19908600</v>
+      </c>
+      <c r="I13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="122">
+        <v>40724</v>
+      </c>
+      <c r="D14" s="128">
+        <v>344553091</v>
+      </c>
+      <c r="E14" s="128">
+        <v>26</v>
+      </c>
+      <c r="F14" s="128">
+        <v>363842159</v>
+      </c>
+      <c r="G14" s="128">
+        <v>22</v>
+      </c>
+      <c r="H14" s="128">
+        <v>22903160</v>
+      </c>
+      <c r="I14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="122">
+        <v>41090</v>
+      </c>
+      <c r="D15" s="128">
+        <v>238453071</v>
+      </c>
+      <c r="E15" s="128">
+        <v>20</v>
+      </c>
+      <c r="F15" s="128">
+        <v>239527934</v>
+      </c>
+      <c r="G15" s="128">
+        <v>17</v>
+      </c>
+      <c r="H15" s="128">
+        <v>18122308</v>
+      </c>
+      <c r="I15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="122">
+        <v>41455</v>
+      </c>
+      <c r="D16" s="128">
+        <v>73947281</v>
+      </c>
+      <c r="E16" s="128">
+        <v>20</v>
+      </c>
+      <c r="F16" s="128">
+        <v>74325698</v>
+      </c>
+      <c r="G16" s="128">
+        <v>18</v>
+      </c>
+      <c r="H16" s="128">
+        <v>5391012</v>
+      </c>
+      <c r="I16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="122">
+        <v>41820</v>
+      </c>
+      <c r="D17" s="128">
+        <v>-212930921</v>
+      </c>
+      <c r="E17" s="128">
+        <v>20</v>
+      </c>
+      <c r="F17" s="128">
+        <v>-213508592</v>
+      </c>
+      <c r="G17" s="128">
+        <v>19</v>
+      </c>
+      <c r="H17" s="128">
+        <v>-14891008</v>
+      </c>
+      <c r="I17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="122">
+        <v>41820</v>
+      </c>
+      <c r="D18" s="128">
+        <v>-65152628</v>
+      </c>
+      <c r="E18" s="128">
+        <v>25</v>
+      </c>
+      <c r="F18" s="128">
+        <v>-65987717</v>
+      </c>
+      <c r="G18" s="128">
+        <v>24</v>
+      </c>
+      <c r="H18" s="128">
+        <v>-3919453</v>
+      </c>
+      <c r="I18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="122">
+        <v>42185</v>
+      </c>
+      <c r="D19" s="128">
+        <v>-288914220</v>
+      </c>
+      <c r="E19" s="128">
+        <v>20</v>
+      </c>
+      <c r="F19" s="129">
+        <v>-288914220</v>
+      </c>
+      <c r="G19" s="128">
+        <v>20</v>
+      </c>
+      <c r="H19" s="129">
+        <v>-19427680</v>
+      </c>
+      <c r="I19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="121">
+        <v>32689</v>
+      </c>
+      <c r="D20" s="127">
+        <v>-15977993</v>
+      </c>
+      <c r="E20" s="127">
+        <v>14</v>
+      </c>
+      <c r="F20" s="127">
+        <v>-8169236</v>
+      </c>
+      <c r="G20" s="127">
+        <v>4</v>
+      </c>
+      <c r="H20" s="127">
+        <v>-2144800</v>
+      </c>
+      <c r="I20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="122">
+        <v>33054</v>
+      </c>
+      <c r="D21" s="128">
+        <v>279608</v>
+      </c>
+      <c r="E21" s="128">
+        <v>15</v>
+      </c>
+      <c r="F21" s="128">
+        <v>166625</v>
+      </c>
+      <c r="G21" s="128">
+        <v>5</v>
+      </c>
+      <c r="H21" s="128">
+        <v>35567</v>
+      </c>
+      <c r="I21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="122">
+        <v>33054</v>
+      </c>
+      <c r="D22" s="128">
+        <v>-6281127</v>
+      </c>
+      <c r="E22" s="128">
+        <v>15</v>
+      </c>
+      <c r="F22" s="128">
+        <v>-3743077</v>
+      </c>
+      <c r="G22" s="128">
+        <v>5</v>
+      </c>
+      <c r="H22" s="128">
+        <v>-798975</v>
+      </c>
+      <c r="I22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="122">
+        <v>33785</v>
+      </c>
+      <c r="D23" s="128">
+        <v>2454735</v>
+      </c>
+      <c r="E23" s="128">
+        <v>17</v>
+      </c>
+      <c r="F23" s="128">
+        <v>1803591</v>
+      </c>
+      <c r="G23" s="128">
+        <v>7</v>
+      </c>
+      <c r="H23" s="128">
+        <v>283932</v>
+      </c>
+      <c r="I23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="122">
+        <v>34880</v>
+      </c>
+      <c r="D24" s="128">
+        <v>-20329471</v>
+      </c>
+      <c r="E24" s="128">
+        <v>20</v>
+      </c>
+      <c r="F24" s="128">
+        <v>-18086022</v>
+      </c>
+      <c r="G24" s="128">
+        <v>10</v>
+      </c>
+      <c r="H24" s="128">
+        <v>-2089634</v>
+      </c>
+      <c r="I24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="122">
+        <v>35246</v>
+      </c>
+      <c r="D25" s="128">
+        <v>2832341</v>
+      </c>
+      <c r="E25" s="128">
+        <v>21</v>
+      </c>
+      <c r="F25" s="128">
+        <v>2637271</v>
+      </c>
+      <c r="G25" s="128">
+        <v>11</v>
+      </c>
+      <c r="H25" s="128">
+        <v>281359</v>
+      </c>
+      <c r="I25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="118" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="122">
+        <v>35246</v>
+      </c>
+      <c r="D26" s="128">
+        <v>-18309076</v>
+      </c>
+      <c r="E26" s="128">
+        <v>21</v>
+      </c>
+      <c r="F26" s="128">
+        <v>-17048086</v>
+      </c>
+      <c r="G26" s="128">
+        <v>11</v>
+      </c>
+      <c r="H26" s="128">
+        <v>-1818788</v>
+      </c>
+      <c r="I26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="122">
+        <v>35976</v>
+      </c>
+      <c r="D27" s="128">
+        <v>5510715</v>
+      </c>
+      <c r="E27" s="128">
+        <v>23</v>
+      </c>
+      <c r="F27" s="128">
+        <v>5526362</v>
+      </c>
+      <c r="G27" s="128">
+        <v>13</v>
+      </c>
+      <c r="H27" s="128">
+        <v>514542</v>
+      </c>
+      <c r="I27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="122">
+        <v>35976</v>
+      </c>
+      <c r="D28" s="128">
+        <v>9268417</v>
+      </c>
+      <c r="E28" s="128">
+        <v>23</v>
+      </c>
+      <c r="F28" s="128">
+        <v>9294733</v>
+      </c>
+      <c r="G28" s="128">
+        <v>13</v>
+      </c>
+      <c r="H28" s="128">
+        <v>865404</v>
+      </c>
+      <c r="I28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="122">
+        <v>36707</v>
+      </c>
+      <c r="D29" s="128">
+        <v>949873</v>
+      </c>
+      <c r="E29" s="128">
+        <v>25</v>
+      </c>
+      <c r="F29" s="128">
+        <v>1009291</v>
+      </c>
+      <c r="G29" s="128">
+        <v>15</v>
+      </c>
+      <c r="H29" s="128">
+        <v>83969</v>
+      </c>
+      <c r="I29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="122">
+        <v>37072</v>
+      </c>
+      <c r="D30" s="128">
+        <v>-39924972</v>
+      </c>
+      <c r="E30" s="128">
+        <v>11</v>
+      </c>
+      <c r="F30" s="128">
+        <v>-6513673</v>
+      </c>
+      <c r="G30" s="128">
+        <v>1</v>
+      </c>
+      <c r="H30" s="128">
+        <v>-6513673</v>
+      </c>
+      <c r="I30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" s="122">
+        <v>37072</v>
+      </c>
+      <c r="D31" s="128">
+        <v>-29148684</v>
+      </c>
+      <c r="E31" s="128">
+        <v>26</v>
+      </c>
+      <c r="F31" s="128">
+        <v>-31736428</v>
+      </c>
+      <c r="G31" s="128">
+        <v>16</v>
+      </c>
+      <c r="H31" s="128">
+        <v>-2513088</v>
+      </c>
+      <c r="I31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="122">
+        <v>37437</v>
+      </c>
+      <c r="D32" s="128">
+        <v>110014634</v>
+      </c>
+      <c r="E32" s="128">
+        <v>12</v>
+      </c>
+      <c r="F32" s="128">
+        <v>32874358</v>
+      </c>
+      <c r="G32" s="128">
+        <v>2</v>
+      </c>
+      <c r="H32" s="128">
+        <v>16709189</v>
+      </c>
+      <c r="I32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="122">
+        <v>37802</v>
+      </c>
+      <c r="D33" s="128">
+        <v>151681782</v>
+      </c>
+      <c r="E33" s="128">
+        <v>13</v>
+      </c>
+      <c r="F33" s="128">
+        <v>62698016</v>
+      </c>
+      <c r="G33" s="128">
+        <v>3</v>
+      </c>
+      <c r="H33" s="128">
+        <v>21594795</v>
+      </c>
+      <c r="I33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="122">
+        <v>38168</v>
+      </c>
+      <c r="D34" s="128">
+        <v>10104562</v>
+      </c>
+      <c r="E34" s="128">
+        <v>14</v>
+      </c>
+      <c r="F34" s="128">
+        <v>5166265</v>
+      </c>
+      <c r="G34" s="128">
+        <v>4</v>
+      </c>
+      <c r="H34" s="128">
+        <v>1356382</v>
+      </c>
+      <c r="I34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" s="122">
+        <v>38168</v>
+      </c>
+      <c r="D35" s="128">
+        <v>-8698728</v>
+      </c>
+      <c r="E35" s="128">
+        <v>29</v>
+      </c>
+      <c r="F35" s="128">
+        <v>-10055165</v>
+      </c>
+      <c r="G35" s="128">
+        <v>19</v>
+      </c>
+      <c r="H35" s="128">
+        <v>-701290</v>
+      </c>
+      <c r="I35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="122">
+        <v>38533</v>
+      </c>
+      <c r="D36" s="128">
+        <v>21605884</v>
+      </c>
+      <c r="E36" s="128">
+        <v>15</v>
+      </c>
+      <c r="F36" s="128">
+        <v>12875476</v>
+      </c>
+      <c r="G36" s="128">
+        <v>5</v>
+      </c>
+      <c r="H36" s="128">
+        <v>2748323</v>
+      </c>
+      <c r="I36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="122">
+        <v>38533</v>
+      </c>
+      <c r="D37" s="128">
+        <v>27253819</v>
+      </c>
+      <c r="E37" s="128">
         <v>30</v>
       </c>
-      <c r="D7" s="90">
-        <v>0</v>
-      </c>
-      <c r="E7" s="90">
-        <v>0</v>
-      </c>
-      <c r="F7" s="90">
+      <c r="F37" s="128">
+        <v>32026629</v>
+      </c>
+      <c r="G37" s="128">
+        <v>20</v>
+      </c>
+      <c r="H37" s="128">
+        <v>2153591</v>
+      </c>
+      <c r="I37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" s="122">
+        <v>38898</v>
+      </c>
+      <c r="D38" s="128">
+        <v>16400257</v>
+      </c>
+      <c r="E38" s="128">
+        <v>15</v>
+      </c>
+      <c r="F38" s="128">
+        <v>10992586</v>
+      </c>
+      <c r="G38" s="128">
+        <v>6</v>
+      </c>
+      <c r="H38" s="128">
+        <v>1986977</v>
+      </c>
+      <c r="I38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="122">
+        <v>38898</v>
+      </c>
+      <c r="D39" s="128">
+        <v>29340123</v>
+      </c>
+      <c r="E39" s="128">
+        <v>30</v>
+      </c>
+      <c r="F39" s="128">
+        <v>33977506</v>
+      </c>
+      <c r="G39" s="128">
+        <v>21</v>
+      </c>
+      <c r="H39" s="128">
+        <v>2208183</v>
+      </c>
+      <c r="I39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" s="122">
+        <v>39263</v>
+      </c>
+      <c r="D40" s="128">
+        <v>-20934587</v>
+      </c>
+      <c r="E40" s="128">
+        <v>21</v>
+      </c>
+      <c r="F40" s="128">
+        <v>-20388022</v>
+      </c>
+      <c r="G40" s="128">
+        <v>13</v>
+      </c>
+      <c r="H40" s="128">
+        <v>-1898265</v>
+      </c>
+      <c r="I40" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" s="122">
+        <v>39263</v>
+      </c>
+      <c r="D41" s="128">
+        <v>-5027630</v>
+      </c>
+      <c r="E41" s="128">
+        <v>30</v>
+      </c>
+      <c r="F41" s="128">
+        <v>-5761499</v>
+      </c>
+      <c r="G41" s="128">
+        <v>22</v>
+      </c>
+      <c r="H41" s="128">
+        <v>-362675</v>
+      </c>
+      <c r="I41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="117" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" s="121">
+        <v>39629</v>
+      </c>
+      <c r="D42" s="127">
+        <v>-18292189</v>
+      </c>
+      <c r="E42" s="127">
+        <v>17</v>
+      </c>
+      <c r="F42" s="127">
+        <v>-16018591</v>
+      </c>
+      <c r="G42" s="127">
+        <v>10</v>
+      </c>
+      <c r="H42" s="127">
+        <v>-1850766</v>
+      </c>
+      <c r="I42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="122">
+        <v>39629</v>
+      </c>
+      <c r="D43" s="128">
+        <v>8034472</v>
+      </c>
+      <c r="E43" s="128">
+        <v>30</v>
+      </c>
+      <c r="F43" s="128">
+        <v>9093221</v>
+      </c>
+      <c r="G43" s="128">
+        <v>23</v>
+      </c>
+      <c r="H43" s="128">
+        <v>555518</v>
+      </c>
+      <c r="I43" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C44" s="122">
+        <v>39994</v>
+      </c>
+      <c r="D44" s="128">
+        <v>10158177</v>
+      </c>
+      <c r="E44" s="128">
+        <v>15</v>
+      </c>
+      <c r="F44" s="128">
+        <v>8570512</v>
+      </c>
+      <c r="G44" s="128">
+        <v>9</v>
+      </c>
+      <c r="H44" s="128">
+        <v>1083128</v>
+      </c>
+      <c r="I44" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="122">
+        <v>40359</v>
+      </c>
+      <c r="D45" s="128">
+        <v>2144522</v>
+      </c>
+      <c r="E45" s="128">
+        <v>15</v>
+      </c>
+      <c r="F45" s="128">
+        <v>1896643</v>
+      </c>
+      <c r="G45" s="128">
+        <v>10</v>
+      </c>
+      <c r="H45" s="128">
+        <v>219135</v>
+      </c>
+      <c r="I45" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="122">
+        <v>40359</v>
+      </c>
+      <c r="D46" s="128">
+        <v>25997606</v>
+      </c>
+      <c r="E46" s="128">
+        <v>30</v>
+      </c>
+      <c r="F46" s="128">
+        <v>28549757</v>
+      </c>
+      <c r="G46" s="128">
         <v>25</v>
       </c>
-      <c r="G7" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="89">
-        <v>40725</v>
-      </c>
-      <c r="C8" s="79">
+      <c r="H46" s="128">
+        <v>1651439</v>
+      </c>
+      <c r="I46" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="118" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="122">
+        <v>40724</v>
+      </c>
+      <c r="D47" s="128">
+        <v>-18044</v>
+      </c>
+      <c r="E47" s="128">
         <v>30</v>
       </c>
-      <c r="D8" s="90">
-        <v>0</v>
-      </c>
-      <c r="E8" s="90">
-        <v>0</v>
-      </c>
-      <c r="F8" s="90">
+      <c r="F47" s="128">
+        <v>-19490</v>
+      </c>
+      <c r="G47" s="128">
         <v>26</v>
       </c>
-      <c r="G8" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="89">
-        <v>40725</v>
-      </c>
-      <c r="C9" s="79">
+      <c r="H47" s="128">
+        <v>-1100</v>
+      </c>
+      <c r="I47" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" s="122">
+        <v>40724</v>
+      </c>
+      <c r="D48" s="128">
+        <v>1095451</v>
+      </c>
+      <c r="E48" s="128">
         <v>15</v>
       </c>
-      <c r="D9" s="90">
-        <v>0</v>
-      </c>
-      <c r="E9" s="90">
-        <v>0</v>
-      </c>
-      <c r="F9" s="90">
+      <c r="F48" s="128">
+        <v>1006485</v>
+      </c>
+      <c r="G48" s="128">
         <v>11</v>
       </c>
-      <c r="G9" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="B10" s="89">
-        <v>40725</v>
-      </c>
-      <c r="C10" s="79">
+      <c r="H48" s="128">
+        <v>107378</v>
+      </c>
+      <c r="I48" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49" s="122">
+        <v>40724</v>
+      </c>
+      <c r="D49" s="128">
+        <v>25593931</v>
+      </c>
+      <c r="E49" s="128">
+        <v>30</v>
+      </c>
+      <c r="F49" s="128">
+        <v>27643126</v>
+      </c>
+      <c r="G49" s="128">
+        <v>26</v>
+      </c>
+      <c r="H49" s="128">
+        <v>1559561</v>
+      </c>
+      <c r="I49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="122">
+        <v>41090</v>
+      </c>
+      <c r="D50" s="128">
+        <v>10983184</v>
+      </c>
+      <c r="E50" s="128">
+        <v>20</v>
+      </c>
+      <c r="F50" s="128">
+        <v>11032691</v>
+      </c>
+      <c r="G50" s="128">
+        <v>17</v>
+      </c>
+      <c r="H50" s="128">
+        <v>834716</v>
+      </c>
+      <c r="I50" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" s="122">
+        <v>41455</v>
+      </c>
+      <c r="D51" s="128">
+        <v>6011719</v>
+      </c>
+      <c r="E51" s="128">
+        <v>20</v>
+      </c>
+      <c r="F51" s="128">
+        <v>6042484</v>
+      </c>
+      <c r="G51" s="128">
+        <v>18</v>
+      </c>
+      <c r="H51" s="128">
+        <v>438275</v>
+      </c>
+      <c r="I51" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="C52" s="122">
+        <v>41820</v>
+      </c>
+      <c r="D52" s="128">
+        <v>-15610972</v>
+      </c>
+      <c r="E52" s="128">
+        <v>20</v>
+      </c>
+      <c r="F52" s="128">
+        <v>-15653324</v>
+      </c>
+      <c r="G52" s="128">
+        <v>19</v>
+      </c>
+      <c r="H52" s="128">
+        <v>-1091730</v>
+      </c>
+      <c r="I52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="122">
+        <v>41820</v>
+      </c>
+      <c r="D53" s="128">
+        <v>-3528915</v>
+      </c>
+      <c r="E53" s="128">
+        <v>25</v>
+      </c>
+      <c r="F53" s="128">
+        <v>-3574147</v>
+      </c>
+      <c r="G53" s="128">
+        <v>24</v>
+      </c>
+      <c r="H53" s="128">
+        <v>-212293</v>
+      </c>
+      <c r="I53" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" s="122">
+        <v>42185</v>
+      </c>
+      <c r="D54" s="128">
+        <v>-46361062</v>
+      </c>
+      <c r="E54" s="128">
+        <v>20</v>
+      </c>
+      <c r="F54" s="129">
+        <v>-46361062</v>
+      </c>
+      <c r="G54" s="128">
+        <v>20</v>
+      </c>
+      <c r="H54" s="129">
+        <v>-3117492</v>
+      </c>
+      <c r="I54" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="121">
+        <v>32689</v>
+      </c>
+      <c r="D55" s="127">
+        <v>-6262457</v>
+      </c>
+      <c r="E55" s="127">
+        <v>14</v>
+      </c>
+      <c r="F55" s="127">
+        <v>-3201873</v>
+      </c>
+      <c r="G55" s="127">
+        <v>4</v>
+      </c>
+      <c r="H55" s="127">
+        <v>-840639</v>
+      </c>
+      <c r="I55" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" s="122">
+        <v>33054</v>
+      </c>
+      <c r="D56" s="128">
+        <v>109592</v>
+      </c>
+      <c r="E56" s="128">
         <v>15</v>
       </c>
-      <c r="D10" s="90">
-        <v>0</v>
-      </c>
-      <c r="E10" s="90">
-        <v>0</v>
-      </c>
-      <c r="F10" s="90">
+      <c r="F56" s="128">
+        <v>65309</v>
+      </c>
+      <c r="G56" s="128">
+        <v>5</v>
+      </c>
+      <c r="H56" s="128">
+        <v>13940</v>
+      </c>
+      <c r="I56" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="122">
+        <v>33054</v>
+      </c>
+      <c r="D57" s="128">
+        <v>-2461841</v>
+      </c>
+      <c r="E57" s="128">
+        <v>15</v>
+      </c>
+      <c r="F57" s="128">
+        <v>-1467071</v>
+      </c>
+      <c r="G57" s="128">
+        <v>5</v>
+      </c>
+      <c r="H57" s="128">
+        <v>-313152</v>
+      </c>
+      <c r="I57" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C58" s="122">
+        <v>33785</v>
+      </c>
+      <c r="D58" s="128">
+        <v>962115</v>
+      </c>
+      <c r="E58" s="128">
+        <v>17</v>
+      </c>
+      <c r="F58" s="128">
+        <v>706904</v>
+      </c>
+      <c r="G58" s="128">
+        <v>7</v>
+      </c>
+      <c r="H58" s="128">
+        <v>111285</v>
+      </c>
+      <c r="I58" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="122">
+        <v>34880</v>
+      </c>
+      <c r="D59" s="128">
+        <v>-7967987</v>
+      </c>
+      <c r="E59" s="128">
+        <v>20</v>
+      </c>
+      <c r="F59" s="128">
+        <v>-7088682</v>
+      </c>
+      <c r="G59" s="128">
+        <v>10</v>
+      </c>
+      <c r="H59" s="128">
+        <v>-819016</v>
+      </c>
+      <c r="I59" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" s="122">
+        <v>35246</v>
+      </c>
+      <c r="D60" s="128">
+        <v>1110115</v>
+      </c>
+      <c r="E60" s="128">
+        <v>21</v>
+      </c>
+      <c r="F60" s="128">
+        <v>1033661</v>
+      </c>
+      <c r="G60" s="128">
         <v>11</v>
       </c>
-      <c r="G10" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="89">
-        <v>41091</v>
-      </c>
-      <c r="C11" s="79">
+      <c r="H60" s="128">
+        <v>110277</v>
+      </c>
+      <c r="I60" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="118" t="s">
+        <v>226</v>
+      </c>
+      <c r="C61" s="122">
+        <v>35246</v>
+      </c>
+      <c r="D61" s="128">
+        <v>-7176108</v>
+      </c>
+      <c r="E61" s="128">
+        <v>21</v>
+      </c>
+      <c r="F61" s="128">
+        <v>-6681874</v>
+      </c>
+      <c r="G61" s="128">
+        <v>11</v>
+      </c>
+      <c r="H61" s="128">
+        <v>-712861</v>
+      </c>
+      <c r="I61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62" s="122">
+        <v>35976</v>
+      </c>
+      <c r="D62" s="128">
+        <v>2159884</v>
+      </c>
+      <c r="E62" s="128">
+        <v>23</v>
+      </c>
+      <c r="F62" s="128">
+        <v>2166018</v>
+      </c>
+      <c r="G62" s="128">
+        <v>13</v>
+      </c>
+      <c r="H62" s="128">
+        <v>201671</v>
+      </c>
+      <c r="I62" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" s="122">
+        <v>35976</v>
+      </c>
+      <c r="D63" s="128">
+        <v>3632689</v>
+      </c>
+      <c r="E63" s="128">
+        <v>23</v>
+      </c>
+      <c r="F63" s="128">
+        <v>3643005</v>
+      </c>
+      <c r="G63" s="128">
+        <v>13</v>
+      </c>
+      <c r="H63" s="128">
+        <v>339189</v>
+      </c>
+      <c r="I63" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" s="122">
+        <v>36707</v>
+      </c>
+      <c r="D64" s="128">
+        <v>370129</v>
+      </c>
+      <c r="E64" s="128">
+        <v>25</v>
+      </c>
+      <c r="F64" s="128">
+        <v>393281</v>
+      </c>
+      <c r="G64" s="128">
+        <v>15</v>
+      </c>
+      <c r="H64" s="128">
+        <v>32719</v>
+      </c>
+      <c r="I64" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="C65" s="122">
+        <v>37072</v>
+      </c>
+      <c r="D65" s="128">
+        <v>-9231354</v>
+      </c>
+      <c r="E65" s="128">
+        <v>11</v>
+      </c>
+      <c r="F65" s="128">
+        <v>-1506076</v>
+      </c>
+      <c r="G65" s="128">
+        <v>1</v>
+      </c>
+      <c r="H65" s="128">
+        <v>-1506076</v>
+      </c>
+      <c r="I65" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C66" s="122">
+        <v>37072</v>
+      </c>
+      <c r="D66" s="128">
+        <v>-4878745</v>
+      </c>
+      <c r="E66" s="128">
+        <v>26</v>
+      </c>
+      <c r="F66" s="128">
+        <v>-5311867</v>
+      </c>
+      <c r="G66" s="128">
+        <v>16</v>
+      </c>
+      <c r="H66" s="128">
+        <v>-420627</v>
+      </c>
+      <c r="I66" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C67" s="122">
+        <v>37437</v>
+      </c>
+      <c r="D67" s="128">
+        <v>18536288</v>
+      </c>
+      <c r="E67" s="128">
+        <v>12</v>
+      </c>
+      <c r="F67" s="128">
+        <v>5538977</v>
+      </c>
+      <c r="G67" s="128">
+        <v>2</v>
+      </c>
+      <c r="H67" s="128">
+        <v>2815319</v>
+      </c>
+      <c r="I67" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="122">
+        <v>37802</v>
+      </c>
+      <c r="D68" s="128">
+        <v>59690449</v>
+      </c>
+      <c r="E68" s="128">
+        <v>13</v>
+      </c>
+      <c r="F68" s="128">
+        <v>24673184</v>
+      </c>
+      <c r="G68" s="128">
+        <v>3</v>
+      </c>
+      <c r="H68" s="128">
+        <v>8498073</v>
+      </c>
+      <c r="I68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" s="122">
+        <v>38168</v>
+      </c>
+      <c r="D69" s="128">
+        <v>10147466</v>
+      </c>
+      <c r="E69" s="128">
+        <v>14</v>
+      </c>
+      <c r="F69" s="128">
+        <v>5188202</v>
+      </c>
+      <c r="G69" s="128">
+        <v>4</v>
+      </c>
+      <c r="H69" s="128">
+        <v>1362141</v>
+      </c>
+      <c r="I69" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" s="122">
+        <v>38168</v>
+      </c>
+      <c r="D70" s="128">
+        <v>-5220974</v>
+      </c>
+      <c r="E70" s="128">
+        <v>29</v>
+      </c>
+      <c r="F70" s="128">
+        <v>-6035109</v>
+      </c>
+      <c r="G70" s="128">
+        <v>19</v>
+      </c>
+      <c r="H70" s="128">
+        <v>-420914</v>
+      </c>
+      <c r="I70" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="122">
+        <v>38533</v>
+      </c>
+      <c r="D71" s="128">
+        <v>13244413</v>
+      </c>
+      <c r="E71" s="128">
+        <v>15</v>
+      </c>
+      <c r="F71" s="128">
+        <v>7892672</v>
+      </c>
+      <c r="G71" s="128">
+        <v>5</v>
+      </c>
+      <c r="H71" s="128">
+        <v>1684723</v>
+      </c>
+      <c r="I71" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C72" s="122">
+        <v>38533</v>
+      </c>
+      <c r="D72" s="128">
+        <v>14033320</v>
+      </c>
+      <c r="E72" s="128">
         <v>30</v>
       </c>
-      <c r="D11" s="90">
-        <v>0</v>
-      </c>
-      <c r="E11" s="90">
-        <v>0</v>
-      </c>
-      <c r="F11" s="90">
+      <c r="F72" s="128">
+        <v>16490896</v>
+      </c>
+      <c r="G72" s="128">
+        <v>20</v>
+      </c>
+      <c r="H72" s="128">
+        <v>1108910</v>
+      </c>
+      <c r="I72" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" s="122">
+        <v>38898</v>
+      </c>
+      <c r="D73" s="128">
+        <v>6063600</v>
+      </c>
+      <c r="E73" s="128">
+        <v>15</v>
+      </c>
+      <c r="F73" s="128">
+        <v>4064244</v>
+      </c>
+      <c r="G73" s="128">
+        <v>6</v>
+      </c>
+      <c r="H73" s="128">
+        <v>734637</v>
+      </c>
+      <c r="I73" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" s="122">
+        <v>38898</v>
+      </c>
+      <c r="D74" s="128">
+        <v>14561746</v>
+      </c>
+      <c r="E74" s="128">
+        <v>30</v>
+      </c>
+      <c r="F74" s="128">
+        <v>16863317</v>
+      </c>
+      <c r="G74" s="128">
+        <v>21</v>
+      </c>
+      <c r="H74" s="128">
+        <v>1095940</v>
+      </c>
+      <c r="I74" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" s="122">
+        <v>39263</v>
+      </c>
+      <c r="D75" s="128">
+        <v>-8926309</v>
+      </c>
+      <c r="E75" s="128">
+        <v>21</v>
+      </c>
+      <c r="F75" s="128">
+        <v>-8693261</v>
+      </c>
+      <c r="G75" s="128">
+        <v>13</v>
+      </c>
+      <c r="H75" s="128">
+        <v>-809403</v>
+      </c>
+      <c r="I75" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="122">
+        <v>39263</v>
+      </c>
+      <c r="D76" s="128">
+        <v>-3015790</v>
+      </c>
+      <c r="E76" s="128">
+        <v>30</v>
+      </c>
+      <c r="F76" s="128">
+        <v>-3455996</v>
+      </c>
+      <c r="G76" s="128">
+        <v>22</v>
+      </c>
+      <c r="H76" s="128">
+        <v>-217548</v>
+      </c>
+      <c r="I76" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" s="117" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" s="121">
+        <v>39629</v>
+      </c>
+      <c r="D77" s="127">
+        <v>-4429445</v>
+      </c>
+      <c r="E77" s="127">
+        <v>17</v>
+      </c>
+      <c r="F77" s="127">
+        <v>-3878895</v>
+      </c>
+      <c r="G77" s="127">
+        <v>10</v>
+      </c>
+      <c r="H77" s="127">
+        <v>-448162</v>
+      </c>
+      <c r="I77" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C78" s="122">
+        <v>39629</v>
+      </c>
+      <c r="D78" s="128">
+        <v>10599393</v>
+      </c>
+      <c r="E78" s="128">
+        <v>30</v>
+      </c>
+      <c r="F78" s="128">
+        <v>11996135</v>
+      </c>
+      <c r="G78" s="128">
+        <v>23</v>
+      </c>
+      <c r="H78" s="128">
+        <v>732862</v>
+      </c>
+      <c r="I78" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C79" s="122">
+        <v>39994</v>
+      </c>
+      <c r="D79" s="128">
+        <v>11924683</v>
+      </c>
+      <c r="E79" s="128">
+        <v>15</v>
+      </c>
+      <c r="F79" s="128">
+        <v>10060922</v>
+      </c>
+      <c r="G79" s="128">
+        <v>9</v>
+      </c>
+      <c r="H79" s="128">
+        <v>1271484</v>
+      </c>
+      <c r="I79" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80" s="122">
+        <v>40359</v>
+      </c>
+      <c r="D80" s="128">
+        <v>4794050</v>
+      </c>
+      <c r="E80" s="128">
+        <v>15</v>
+      </c>
+      <c r="F80" s="128">
+        <v>4239921</v>
+      </c>
+      <c r="G80" s="128">
+        <v>10</v>
+      </c>
+      <c r="H80" s="128">
+        <v>489875</v>
+      </c>
+      <c r="I80" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" s="122">
+        <v>40359</v>
+      </c>
+      <c r="D81" s="128">
+        <v>12948180</v>
+      </c>
+      <c r="E81" s="128">
+        <v>30</v>
+      </c>
+      <c r="F81" s="128">
+        <v>14219285</v>
+      </c>
+      <c r="G81" s="128">
+        <v>25</v>
+      </c>
+      <c r="H81" s="128">
+        <v>822504</v>
+      </c>
+      <c r="I81" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="118" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" s="122">
+        <v>40724</v>
+      </c>
+      <c r="D82" s="128">
+        <v>1483135</v>
+      </c>
+      <c r="E82" s="128">
+        <v>30</v>
+      </c>
+      <c r="F82" s="128">
+        <v>1601883</v>
+      </c>
+      <c r="G82" s="128">
+        <v>26</v>
+      </c>
+      <c r="H82" s="128">
+        <v>90375</v>
+      </c>
+      <c r="I82" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C83" s="122">
+        <v>40724</v>
+      </c>
+      <c r="D83" s="128">
+        <v>5867945</v>
+      </c>
+      <c r="E83" s="128">
+        <v>15</v>
+      </c>
+      <c r="F83" s="128">
+        <v>5391388</v>
+      </c>
+      <c r="G83" s="128">
+        <v>11</v>
+      </c>
+      <c r="H83" s="128">
+        <v>575184</v>
+      </c>
+      <c r="I83" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" s="122">
+        <v>40724</v>
+      </c>
+      <c r="D84" s="128">
+        <v>12753767</v>
+      </c>
+      <c r="E84" s="128">
+        <v>30</v>
+      </c>
+      <c r="F84" s="128">
+        <v>13774906</v>
+      </c>
+      <c r="G84" s="128">
+        <v>26</v>
+      </c>
+      <c r="H84" s="128">
+        <v>777148</v>
+      </c>
+      <c r="I84" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" s="122">
+        <v>41090</v>
+      </c>
+      <c r="D85" s="128">
+        <v>9377426</v>
+      </c>
+      <c r="E85" s="128">
+        <v>20</v>
+      </c>
+      <c r="F85" s="128">
+        <v>9419696</v>
+      </c>
+      <c r="G85" s="128">
+        <v>17</v>
+      </c>
+      <c r="H85" s="128">
+        <v>712679</v>
+      </c>
+      <c r="I85" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C86" s="122">
+        <v>41455</v>
+      </c>
+      <c r="D86" s="128">
+        <v>6625380</v>
+      </c>
+      <c r="E86" s="128">
+        <v>20</v>
+      </c>
+      <c r="F86" s="128">
+        <v>6659284</v>
+      </c>
+      <c r="G86" s="128">
+        <v>18</v>
+      </c>
+      <c r="H86" s="128">
+        <v>483013</v>
+      </c>
+      <c r="I86" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="C87" s="122">
+        <v>41820</v>
+      </c>
+      <c r="D87" s="128">
+        <v>-11060872</v>
+      </c>
+      <c r="E87" s="128">
+        <v>20</v>
+      </c>
+      <c r="F87" s="128">
+        <v>-11090879</v>
+      </c>
+      <c r="G87" s="128">
+        <v>19</v>
+      </c>
+      <c r="H87" s="128">
+        <v>-773526</v>
+      </c>
+      <c r="I87" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" s="122">
+        <v>41820</v>
+      </c>
+      <c r="D88" s="128">
+        <v>9988189</v>
+      </c>
+      <c r="E88" s="128">
+        <v>25</v>
+      </c>
+      <c r="F88" s="128">
+        <v>10116212</v>
+      </c>
+      <c r="G88" s="128">
+        <v>24</v>
+      </c>
+      <c r="H88" s="128">
+        <v>600870</v>
+      </c>
+      <c r="I88" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B89" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89" s="122">
+        <v>42185</v>
+      </c>
+      <c r="D89" s="128">
+        <v>-16640244</v>
+      </c>
+      <c r="E89" s="128">
+        <v>20</v>
+      </c>
+      <c r="F89" s="129">
+        <v>-16640244</v>
+      </c>
+      <c r="G89" s="128">
+        <v>20</v>
+      </c>
+      <c r="H89" s="129">
+        <v>-1118953</v>
+      </c>
+      <c r="I89" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" s="117" t="s">
+        <v>228</v>
+      </c>
+      <c r="C90" s="121">
+        <v>37437</v>
+      </c>
+      <c r="D90" s="127">
+        <v>-157564364</v>
+      </c>
+      <c r="E90" s="127">
         <v>27</v>
       </c>
-      <c r="G11" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" s="89">
-        <v>41456</v>
-      </c>
-      <c r="C12" s="79">
+      <c r="F90" s="127">
+        <v>-175359657</v>
+      </c>
+      <c r="G90" s="127">
+        <v>17</v>
+      </c>
+      <c r="H90" s="127">
+        <v>-13267437</v>
+      </c>
+      <c r="I90" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B91" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="C91" s="122">
+        <v>37802</v>
+      </c>
+      <c r="D91" s="128">
+        <v>-314459851</v>
+      </c>
+      <c r="E91" s="128">
+        <v>13</v>
+      </c>
+      <c r="F91" s="128">
+        <v>-129982707</v>
+      </c>
+      <c r="G91" s="128">
+        <v>3</v>
+      </c>
+      <c r="H91" s="128">
+        <v>-44769357</v>
+      </c>
+      <c r="I91" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" s="122">
+        <v>38168</v>
+      </c>
+      <c r="D92" s="128">
+        <v>106500938</v>
+      </c>
+      <c r="E92" s="128">
+        <v>14</v>
+      </c>
+      <c r="F92" s="128">
+        <v>54451853</v>
+      </c>
+      <c r="G92" s="128">
+        <v>4</v>
+      </c>
+      <c r="H92" s="128">
+        <v>14296114</v>
+      </c>
+      <c r="I92" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B93" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93" s="122">
+        <v>38168</v>
+      </c>
+      <c r="D93" s="128">
+        <v>-242147820</v>
+      </c>
+      <c r="E93" s="128">
+        <v>29</v>
+      </c>
+      <c r="F93" s="128">
+        <v>-279907155</v>
+      </c>
+      <c r="G93" s="128">
+        <v>19</v>
+      </c>
+      <c r="H93" s="128">
+        <v>-19521929</v>
+      </c>
+      <c r="I93" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C94" s="122">
+        <v>38533</v>
+      </c>
+      <c r="D94" s="128">
+        <v>241854245</v>
+      </c>
+      <c r="E94" s="128">
+        <v>15</v>
+      </c>
+      <c r="F94" s="128">
+        <v>144126876</v>
+      </c>
+      <c r="G94" s="128">
+        <v>5</v>
+      </c>
+      <c r="H94" s="128">
+        <v>30764476</v>
+      </c>
+      <c r="I94" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B95" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C95" s="122">
+        <v>38533</v>
+      </c>
+      <c r="D95" s="128">
+        <v>421011169</v>
+      </c>
+      <c r="E95" s="128">
         <v>30</v>
       </c>
-      <c r="D12" s="90">
-        <v>0</v>
-      </c>
-      <c r="E12" s="90">
-        <v>0</v>
-      </c>
-      <c r="F12" s="90">
-        <v>28</v>
-      </c>
-      <c r="G12" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="89">
-        <v>41821</v>
-      </c>
-      <c r="C13" s="79">
+      <c r="F95" s="128">
+        <v>494740512</v>
+      </c>
+      <c r="G95" s="128">
+        <v>20</v>
+      </c>
+      <c r="H95" s="128">
+        <v>33268214</v>
+      </c>
+      <c r="I95" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B96" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" s="122">
+        <v>38898</v>
+      </c>
+      <c r="D96" s="128">
+        <v>64026458</v>
+      </c>
+      <c r="E96" s="128">
+        <v>15</v>
+      </c>
+      <c r="F96" s="128">
+        <v>42914963</v>
+      </c>
+      <c r="G96" s="128">
+        <v>6</v>
+      </c>
+      <c r="H96" s="128">
+        <v>7757140</v>
+      </c>
+      <c r="I96" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B97" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C97" s="122">
+        <v>38898</v>
+      </c>
+      <c r="D97" s="128">
+        <v>291388037</v>
+      </c>
+      <c r="E97" s="128">
         <v>30</v>
       </c>
-      <c r="D13" s="90">
-        <v>0</v>
-      </c>
-      <c r="E13" s="90">
-        <v>0</v>
-      </c>
-      <c r="F13" s="90">
-        <v>29</v>
-      </c>
-      <c r="G13" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="89">
-        <v>42186</v>
-      </c>
-      <c r="C14" s="79">
+      <c r="F97" s="128">
+        <v>337443657</v>
+      </c>
+      <c r="G97" s="128">
+        <v>21</v>
+      </c>
+      <c r="H97" s="128">
+        <v>21930315</v>
+      </c>
+      <c r="I97" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B98" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="C98" s="122">
+        <v>39263</v>
+      </c>
+      <c r="D98" s="128">
+        <v>-200979530</v>
+      </c>
+      <c r="E98" s="128">
+        <v>21</v>
+      </c>
+      <c r="F98" s="128">
+        <v>-195732314</v>
+      </c>
+      <c r="G98" s="128">
+        <v>13</v>
+      </c>
+      <c r="H98" s="128">
+        <v>-18224028</v>
+      </c>
+      <c r="I98" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C99" s="122">
+        <v>39263</v>
+      </c>
+      <c r="D99" s="128">
+        <v>-71262522</v>
+      </c>
+      <c r="E99" s="128">
+        <v>30</v>
+      </c>
+      <c r="F99" s="128">
+        <v>-81664512</v>
+      </c>
+      <c r="G99" s="128">
+        <v>22</v>
+      </c>
+      <c r="H99" s="128">
+        <v>-5140623</v>
+      </c>
+      <c r="I99" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B100" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="C100" s="122">
+        <v>39629</v>
+      </c>
+      <c r="D100" s="128">
+        <v>-79435149</v>
+      </c>
+      <c r="E100" s="128">
+        <v>17</v>
+      </c>
+      <c r="F100" s="128">
+        <v>-69561879</v>
+      </c>
+      <c r="G100" s="128">
+        <v>10</v>
+      </c>
+      <c r="H100" s="128">
+        <v>-8037083</v>
+      </c>
+      <c r="I100" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B101" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C101" s="122">
+        <v>39629</v>
+      </c>
+      <c r="D101" s="128">
+        <v>312669142</v>
+      </c>
+      <c r="E101" s="128">
+        <v>30</v>
+      </c>
+      <c r="F101" s="128">
+        <v>353871292</v>
+      </c>
+      <c r="G101" s="128">
+        <v>23</v>
+      </c>
+      <c r="H101" s="128">
+        <v>21618528</v>
+      </c>
+      <c r="I101" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B102" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102" s="122">
+        <v>39994</v>
+      </c>
+      <c r="D102" s="128">
+        <v>357256711</v>
+      </c>
+      <c r="E102" s="128">
+        <v>15</v>
+      </c>
+      <c r="F102" s="128">
+        <v>301419495</v>
+      </c>
+      <c r="G102" s="128">
+        <v>9</v>
+      </c>
+      <c r="H102" s="128">
+        <v>38092937</v>
+      </c>
+      <c r="I102" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B103" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" s="122">
+        <v>40359</v>
+      </c>
+      <c r="D103" s="128">
+        <v>207594800</v>
+      </c>
+      <c r="E103" s="128">
+        <v>15</v>
+      </c>
+      <c r="F103" s="128">
+        <v>183599531</v>
+      </c>
+      <c r="G103" s="128">
+        <v>10</v>
+      </c>
+      <c r="H103" s="128">
+        <v>21212834</v>
+      </c>
+      <c r="I103" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B104" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C104" s="122">
+        <v>40359</v>
+      </c>
+      <c r="D104" s="128">
+        <v>277673454</v>
+      </c>
+      <c r="E104" s="128">
+        <v>30</v>
+      </c>
+      <c r="F104" s="128">
+        <v>304932284</v>
+      </c>
+      <c r="G104" s="128">
+        <v>25</v>
+      </c>
+      <c r="H104" s="128">
+        <v>17638581</v>
+      </c>
+      <c r="I104" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B105" s="118" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" s="122">
+        <v>40724</v>
+      </c>
+      <c r="D105" s="128">
+        <v>5693576</v>
+      </c>
+      <c r="E105" s="128">
+        <v>30</v>
+      </c>
+      <c r="F105" s="128">
+        <v>6149437</v>
+      </c>
+      <c r="G105" s="128">
+        <v>26</v>
+      </c>
+      <c r="H105" s="128">
+        <v>346937</v>
+      </c>
+      <c r="I105" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C106" s="122">
+        <v>40724</v>
+      </c>
+      <c r="D106" s="128">
+        <v>125215079</v>
+      </c>
+      <c r="E106" s="128">
+        <v>15</v>
+      </c>
+      <c r="F106" s="128">
+        <v>115045890</v>
+      </c>
+      <c r="G106" s="128">
+        <v>11</v>
+      </c>
+      <c r="H106" s="128">
+        <v>12273760</v>
+      </c>
+      <c r="I106" t="s">
+        <v>246</v>
+      </c>
+      <c r="L106" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="M106" t="s">
+        <v>240</v>
+      </c>
+      <c r="N106" t="s">
+        <v>241</v>
+      </c>
+      <c r="O106" t="s">
+        <v>242</v>
+      </c>
+      <c r="P106" s="29">
+        <v>42185</v>
+      </c>
+      <c r="Q106" s="30">
+        <v>170907119</v>
+      </c>
+      <c r="R106">
+        <v>22</v>
+      </c>
+      <c r="S106" s="30">
+        <v>170907119</v>
+      </c>
+      <c r="T106">
+        <v>22</v>
+      </c>
+      <c r="U106" s="30">
+        <v>14974146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B107" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C107" s="122">
+        <v>40724</v>
+      </c>
+      <c r="D107" s="128">
+        <v>244615700</v>
+      </c>
+      <c r="E107" s="128">
+        <v>30</v>
+      </c>
+      <c r="F107" s="128">
+        <v>264201033</v>
+      </c>
+      <c r="G107" s="128">
+        <v>26</v>
+      </c>
+      <c r="H107" s="128">
+        <v>14905607</v>
+      </c>
+      <c r="I107" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="B108" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C108" s="122">
+        <v>41090</v>
+      </c>
+      <c r="D108" s="128">
+        <v>248617082</v>
+      </c>
+      <c r="E108" s="128">
         <v>20</v>
       </c>
-      <c r="D14" s="90">
-        <v>0</v>
-      </c>
-      <c r="E14" s="90">
-        <v>0</v>
-      </c>
-      <c r="F14" s="90">
+      <c r="F108" s="128">
+        <v>249737761</v>
+      </c>
+      <c r="G108" s="128">
+        <v>17</v>
+      </c>
+      <c r="H108" s="128">
+        <v>18894767</v>
+      </c>
+      <c r="I108" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="B109" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109" s="122">
+        <v>41455</v>
+      </c>
+      <c r="D109" s="128">
+        <v>115390840</v>
+      </c>
+      <c r="E109" s="128">
         <v>20</v>
       </c>
-      <c r="G14" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" s="89">
-        <v>42186</v>
-      </c>
-      <c r="C15" s="79">
+      <c r="F109" s="128">
+        <v>115981341</v>
+      </c>
+      <c r="G109" s="128">
+        <v>18</v>
+      </c>
+      <c r="H109" s="128">
+        <v>8412390</v>
+      </c>
+      <c r="I109" t="s">
+        <v>246</v>
+      </c>
+      <c r="O109" s="30"/>
+      <c r="Q109" s="30"/>
+      <c r="S109" s="30"/>
+    </row>
+    <row r="110" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="B110" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" s="122">
+        <v>41820</v>
+      </c>
+      <c r="D110" s="128">
+        <v>-246417577</v>
+      </c>
+      <c r="E110" s="128">
         <v>20</v>
       </c>
-      <c r="D15" s="90">
-        <v>0</v>
-      </c>
-      <c r="E15" s="90">
-        <v>0</v>
-      </c>
-      <c r="F15" s="90">
+      <c r="F110" s="128">
+        <v>-247086097</v>
+      </c>
+      <c r="G110" s="128">
+        <v>19</v>
+      </c>
+      <c r="H110" s="128">
+        <v>-17232847</v>
+      </c>
+      <c r="I110" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="B111" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="C111" s="122">
+        <v>41820</v>
+      </c>
+      <c r="D111" s="128">
+        <v>35896722</v>
+      </c>
+      <c r="E111" s="128">
+        <v>25</v>
+      </c>
+      <c r="F111" s="128">
+        <v>36356826</v>
+      </c>
+      <c r="G111" s="128">
+        <v>24</v>
+      </c>
+      <c r="H111" s="128">
+        <v>2159476</v>
+      </c>
+      <c r="I111" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="B112" t="s">
+        <v>229</v>
+      </c>
+      <c r="C112" s="123">
+        <v>42185</v>
+      </c>
+      <c r="D112" s="125">
+        <v>-458582182</v>
+      </c>
+      <c r="E112" s="125">
         <v>20</v>
       </c>
-      <c r="G15" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="G16" s="30"/>
+      <c r="F112" s="125">
+        <v>-458582182</v>
+      </c>
+      <c r="G112" s="125">
+        <v>20</v>
+      </c>
+      <c r="H112" s="125">
+        <v>-30836792</v>
+      </c>
+      <c r="I112" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="120"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13540,15 +16757,15 @@
       <c r="A5" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="103" t="s">
+      <c r="C5" s="104"/>
+      <c r="D5" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
       <c r="G5" s="42" t="s">
         <v>79</v>
       </c>
@@ -13571,10 +16788,10 @@
       <c r="E6" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="107" t="s">
+      <c r="F6" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="107"/>
+      <c r="G6" s="105"/>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
     </row>
@@ -13598,10 +16815,10 @@
       <c r="C9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="104"/>
+      <c r="E9" s="102"/>
       <c r="F9" s="38" t="s">
         <v>64</v>
       </c>
@@ -13613,16 +16830,16 @@
       <c r="A10" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108" t="s">
+      <c r="C10" s="106"/>
+      <c r="D10" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
@@ -13633,18 +16850,18 @@
       <c r="A12" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="104" t="s">
+      <c r="C12" s="104"/>
+      <c r="D12" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104" t="s">
+      <c r="E12" s="102"/>
+      <c r="F12" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="104"/>
+      <c r="G12" s="102"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>

--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="7" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="Death_sum" sheetId="17" r:id="rId17"/>
     <sheet name="Death_dec" sheetId="5" r:id="rId18"/>
     <sheet name="DROP cashflow" sheetId="25" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="26" r:id="rId20"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -1993,10 +1994,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -2216,12 +2219,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2573,8 +2577,24 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="172" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="16" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -13074,13 +13094,181 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16990</v>
+      </c>
+      <c r="B2">
+        <v>607</v>
+      </c>
+      <c r="C2">
+        <v>919</v>
+      </c>
+      <c r="D2">
+        <f>100*(B2-C2)/A2</f>
+        <v>-1.8363743378457917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>17347</v>
+      </c>
+      <c r="B3">
+        <v>632</v>
+      </c>
+      <c r="C3">
+        <v>970</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D11" si="0">100*(B3-C3)/A3</f>
+        <v>-1.9484637113045484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>18302</v>
+      </c>
+      <c r="B4">
+        <v>634</v>
+      </c>
+      <c r="C4">
+        <v>1104</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-2.5680253524205003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>19190</v>
+      </c>
+      <c r="B5">
+        <v>609</v>
+      </c>
+      <c r="C5">
+        <v>1050</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-2.2980719124544033</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20176</v>
+      </c>
+      <c r="B6">
+        <v>616</v>
+      </c>
+      <c r="C6">
+        <v>1149</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-2.6417525773195876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>21139</v>
+      </c>
+      <c r="B7">
+        <v>586</v>
+      </c>
+      <c r="C7">
+        <v>1267</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-3.2215336581673686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>22019</v>
+      </c>
+      <c r="B8">
+        <v>538</v>
+      </c>
+      <c r="C8">
+        <v>1212</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-3.0609927789636222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>22971</v>
+      </c>
+      <c r="B9">
+        <v>537</v>
+      </c>
+      <c r="C9">
+        <v>1283</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-3.2475730268599539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>32920</v>
+      </c>
+      <c r="B10">
+        <v>538</v>
+      </c>
+      <c r="C10">
+        <v>1350</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-2.4665856622114215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>24871</v>
+      </c>
+      <c r="B11">
+        <v>539</v>
+      </c>
+      <c r="C11">
+        <v>1416</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-3.5261951670620402</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13113,7 +13301,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -13481,8 +13669,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13602,7 +13790,7 @@
       <c r="E8" s="134">
         <v>22</v>
       </c>
-      <c r="F8" s="135">
+      <c r="F8" s="137">
         <v>170907119</v>
       </c>
       <c r="G8" s="134">
@@ -13631,7 +13819,7 @@
       <c r="E9" s="127">
         <v>29</v>
       </c>
-      <c r="F9" s="127">
+      <c r="F9" s="138">
         <v>-708502016</v>
       </c>
       <c r="G9" s="127">
@@ -13660,7 +13848,7 @@
       <c r="E10" s="128">
         <v>15</v>
       </c>
-      <c r="F10" s="128">
+      <c r="F10" s="139">
         <v>45090011</v>
       </c>
       <c r="G10" s="128">
@@ -13689,7 +13877,7 @@
       <c r="E11" s="128">
         <v>15</v>
       </c>
-      <c r="F11" s="128">
+      <c r="F11" s="139">
         <v>186383774</v>
       </c>
       <c r="G11" s="128">
@@ -13718,7 +13906,7 @@
       <c r="E12" s="128">
         <v>27</v>
       </c>
-      <c r="F12" s="128">
+      <c r="F12" s="139">
         <v>1559364</v>
       </c>
       <c r="G12" s="128">
@@ -13747,7 +13935,7 @@
       <c r="E13" s="128">
         <v>15</v>
       </c>
-      <c r="F13" s="128">
+      <c r="F13" s="139">
         <v>186609704</v>
       </c>
       <c r="G13" s="128">
@@ -13776,7 +13964,7 @@
       <c r="E14" s="128">
         <v>26</v>
       </c>
-      <c r="F14" s="128">
+      <c r="F14" s="139">
         <v>363842159</v>
       </c>
       <c r="G14" s="128">
@@ -13805,7 +13993,7 @@
       <c r="E15" s="128">
         <v>20</v>
       </c>
-      <c r="F15" s="128">
+      <c r="F15" s="139">
         <v>239527934</v>
       </c>
       <c r="G15" s="128">
@@ -13834,7 +14022,7 @@
       <c r="E16" s="128">
         <v>20</v>
       </c>
-      <c r="F16" s="128">
+      <c r="F16" s="139">
         <v>74325698</v>
       </c>
       <c r="G16" s="128">
@@ -13863,7 +14051,7 @@
       <c r="E17" s="128">
         <v>20</v>
       </c>
-      <c r="F17" s="128">
+      <c r="F17" s="139">
         <v>-213508592</v>
       </c>
       <c r="G17" s="128">
@@ -13892,7 +14080,7 @@
       <c r="E18" s="128">
         <v>25</v>
       </c>
-      <c r="F18" s="128">
+      <c r="F18" s="139">
         <v>-65987717</v>
       </c>
       <c r="G18" s="128">
@@ -13921,7 +14109,7 @@
       <c r="E19" s="128">
         <v>20</v>
       </c>
-      <c r="F19" s="129">
+      <c r="F19" s="140">
         <v>-288914220</v>
       </c>
       <c r="G19" s="128">
@@ -13950,7 +14138,7 @@
       <c r="E20" s="127">
         <v>14</v>
       </c>
-      <c r="F20" s="127">
+      <c r="F20" s="138">
         <v>-8169236</v>
       </c>
       <c r="G20" s="127">
@@ -13979,7 +14167,7 @@
       <c r="E21" s="128">
         <v>15</v>
       </c>
-      <c r="F21" s="128">
+      <c r="F21" s="139">
         <v>166625</v>
       </c>
       <c r="G21" s="128">
@@ -14008,7 +14196,7 @@
       <c r="E22" s="128">
         <v>15</v>
       </c>
-      <c r="F22" s="128">
+      <c r="F22" s="139">
         <v>-3743077</v>
       </c>
       <c r="G22" s="128">
@@ -14037,7 +14225,7 @@
       <c r="E23" s="128">
         <v>17</v>
       </c>
-      <c r="F23" s="128">
+      <c r="F23" s="139">
         <v>1803591</v>
       </c>
       <c r="G23" s="128">
@@ -14066,7 +14254,7 @@
       <c r="E24" s="128">
         <v>20</v>
       </c>
-      <c r="F24" s="128">
+      <c r="F24" s="139">
         <v>-18086022</v>
       </c>
       <c r="G24" s="128">
@@ -14095,7 +14283,7 @@
       <c r="E25" s="128">
         <v>21</v>
       </c>
-      <c r="F25" s="128">
+      <c r="F25" s="139">
         <v>2637271</v>
       </c>
       <c r="G25" s="128">
@@ -14124,7 +14312,7 @@
       <c r="E26" s="128">
         <v>21</v>
       </c>
-      <c r="F26" s="128">
+      <c r="F26" s="139">
         <v>-17048086</v>
       </c>
       <c r="G26" s="128">
@@ -14153,7 +14341,7 @@
       <c r="E27" s="128">
         <v>23</v>
       </c>
-      <c r="F27" s="128">
+      <c r="F27" s="139">
         <v>5526362</v>
       </c>
       <c r="G27" s="128">
@@ -14182,7 +14370,7 @@
       <c r="E28" s="128">
         <v>23</v>
       </c>
-      <c r="F28" s="128">
+      <c r="F28" s="139">
         <v>9294733</v>
       </c>
       <c r="G28" s="128">
@@ -14211,7 +14399,7 @@
       <c r="E29" s="128">
         <v>25</v>
       </c>
-      <c r="F29" s="128">
+      <c r="F29" s="139">
         <v>1009291</v>
       </c>
       <c r="G29" s="128">
@@ -14240,7 +14428,7 @@
       <c r="E30" s="128">
         <v>11</v>
       </c>
-      <c r="F30" s="128">
+      <c r="F30" s="139">
         <v>-6513673</v>
       </c>
       <c r="G30" s="128">
@@ -14269,7 +14457,7 @@
       <c r="E31" s="128">
         <v>26</v>
       </c>
-      <c r="F31" s="128">
+      <c r="F31" s="139">
         <v>-31736428</v>
       </c>
       <c r="G31" s="128">
@@ -14298,7 +14486,7 @@
       <c r="E32" s="128">
         <v>12</v>
       </c>
-      <c r="F32" s="128">
+      <c r="F32" s="139">
         <v>32874358</v>
       </c>
       <c r="G32" s="128">
@@ -14327,7 +14515,7 @@
       <c r="E33" s="128">
         <v>13</v>
       </c>
-      <c r="F33" s="128">
+      <c r="F33" s="139">
         <v>62698016</v>
       </c>
       <c r="G33" s="128">
@@ -14356,7 +14544,7 @@
       <c r="E34" s="128">
         <v>14</v>
       </c>
-      <c r="F34" s="128">
+      <c r="F34" s="139">
         <v>5166265</v>
       </c>
       <c r="G34" s="128">
@@ -14385,7 +14573,7 @@
       <c r="E35" s="128">
         <v>29</v>
       </c>
-      <c r="F35" s="128">
+      <c r="F35" s="139">
         <v>-10055165</v>
       </c>
       <c r="G35" s="128">
@@ -14414,7 +14602,7 @@
       <c r="E36" s="128">
         <v>15</v>
       </c>
-      <c r="F36" s="128">
+      <c r="F36" s="139">
         <v>12875476</v>
       </c>
       <c r="G36" s="128">
@@ -14443,7 +14631,7 @@
       <c r="E37" s="128">
         <v>30</v>
       </c>
-      <c r="F37" s="128">
+      <c r="F37" s="139">
         <v>32026629</v>
       </c>
       <c r="G37" s="128">
@@ -14472,7 +14660,7 @@
       <c r="E38" s="128">
         <v>15</v>
       </c>
-      <c r="F38" s="128">
+      <c r="F38" s="139">
         <v>10992586</v>
       </c>
       <c r="G38" s="128">
@@ -14501,7 +14689,7 @@
       <c r="E39" s="128">
         <v>30</v>
       </c>
-      <c r="F39" s="128">
+      <c r="F39" s="139">
         <v>33977506</v>
       </c>
       <c r="G39" s="128">
@@ -14530,7 +14718,7 @@
       <c r="E40" s="128">
         <v>21</v>
       </c>
-      <c r="F40" s="128">
+      <c r="F40" s="139">
         <v>-20388022</v>
       </c>
       <c r="G40" s="128">
@@ -14559,7 +14747,7 @@
       <c r="E41" s="128">
         <v>30</v>
       </c>
-      <c r="F41" s="128">
+      <c r="F41" s="139">
         <v>-5761499</v>
       </c>
       <c r="G41" s="128">
@@ -14588,7 +14776,7 @@
       <c r="E42" s="127">
         <v>17</v>
       </c>
-      <c r="F42" s="127">
+      <c r="F42" s="138">
         <v>-16018591</v>
       </c>
       <c r="G42" s="127">
@@ -14617,7 +14805,7 @@
       <c r="E43" s="128">
         <v>30</v>
       </c>
-      <c r="F43" s="128">
+      <c r="F43" s="139">
         <v>9093221</v>
       </c>
       <c r="G43" s="128">
@@ -14646,7 +14834,7 @@
       <c r="E44" s="128">
         <v>15</v>
       </c>
-      <c r="F44" s="128">
+      <c r="F44" s="139">
         <v>8570512</v>
       </c>
       <c r="G44" s="128">
@@ -14675,7 +14863,7 @@
       <c r="E45" s="128">
         <v>15</v>
       </c>
-      <c r="F45" s="128">
+      <c r="F45" s="139">
         <v>1896643</v>
       </c>
       <c r="G45" s="128">
@@ -14704,7 +14892,7 @@
       <c r="E46" s="128">
         <v>30</v>
       </c>
-      <c r="F46" s="128">
+      <c r="F46" s="139">
         <v>28549757</v>
       </c>
       <c r="G46" s="128">
@@ -14733,7 +14921,7 @@
       <c r="E47" s="128">
         <v>30</v>
       </c>
-      <c r="F47" s="128">
+      <c r="F47" s="139">
         <v>-19490</v>
       </c>
       <c r="G47" s="128">
@@ -14762,7 +14950,7 @@
       <c r="E48" s="128">
         <v>15</v>
       </c>
-      <c r="F48" s="128">
+      <c r="F48" s="139">
         <v>1006485</v>
       </c>
       <c r="G48" s="128">
@@ -14791,7 +14979,7 @@
       <c r="E49" s="128">
         <v>30</v>
       </c>
-      <c r="F49" s="128">
+      <c r="F49" s="139">
         <v>27643126</v>
       </c>
       <c r="G49" s="128">
@@ -14820,7 +15008,7 @@
       <c r="E50" s="128">
         <v>20</v>
       </c>
-      <c r="F50" s="128">
+      <c r="F50" s="139">
         <v>11032691</v>
       </c>
       <c r="G50" s="128">
@@ -14849,7 +15037,7 @@
       <c r="E51" s="128">
         <v>20</v>
       </c>
-      <c r="F51" s="128">
+      <c r="F51" s="139">
         <v>6042484</v>
       </c>
       <c r="G51" s="128">
@@ -14878,7 +15066,7 @@
       <c r="E52" s="128">
         <v>20</v>
       </c>
-      <c r="F52" s="128">
+      <c r="F52" s="139">
         <v>-15653324</v>
       </c>
       <c r="G52" s="128">
@@ -14907,7 +15095,7 @@
       <c r="E53" s="128">
         <v>25</v>
       </c>
-      <c r="F53" s="128">
+      <c r="F53" s="139">
         <v>-3574147</v>
       </c>
       <c r="G53" s="128">
@@ -14936,7 +15124,7 @@
       <c r="E54" s="128">
         <v>20</v>
       </c>
-      <c r="F54" s="129">
+      <c r="F54" s="140">
         <v>-46361062</v>
       </c>
       <c r="G54" s="128">
@@ -14965,7 +15153,7 @@
       <c r="E55" s="127">
         <v>14</v>
       </c>
-      <c r="F55" s="127">
+      <c r="F55" s="138">
         <v>-3201873</v>
       </c>
       <c r="G55" s="127">
@@ -14994,7 +15182,7 @@
       <c r="E56" s="128">
         <v>15</v>
       </c>
-      <c r="F56" s="128">
+      <c r="F56" s="139">
         <v>65309</v>
       </c>
       <c r="G56" s="128">
@@ -15023,7 +15211,7 @@
       <c r="E57" s="128">
         <v>15</v>
       </c>
-      <c r="F57" s="128">
+      <c r="F57" s="139">
         <v>-1467071</v>
       </c>
       <c r="G57" s="128">
@@ -15052,7 +15240,7 @@
       <c r="E58" s="128">
         <v>17</v>
       </c>
-      <c r="F58" s="128">
+      <c r="F58" s="139">
         <v>706904</v>
       </c>
       <c r="G58" s="128">
@@ -15081,7 +15269,7 @@
       <c r="E59" s="128">
         <v>20</v>
       </c>
-      <c r="F59" s="128">
+      <c r="F59" s="139">
         <v>-7088682</v>
       </c>
       <c r="G59" s="128">
@@ -15110,7 +15298,7 @@
       <c r="E60" s="128">
         <v>21</v>
       </c>
-      <c r="F60" s="128">
+      <c r="F60" s="139">
         <v>1033661</v>
       </c>
       <c r="G60" s="128">
@@ -15139,7 +15327,7 @@
       <c r="E61" s="128">
         <v>21</v>
       </c>
-      <c r="F61" s="128">
+      <c r="F61" s="139">
         <v>-6681874</v>
       </c>
       <c r="G61" s="128">
@@ -15168,7 +15356,7 @@
       <c r="E62" s="128">
         <v>23</v>
       </c>
-      <c r="F62" s="128">
+      <c r="F62" s="139">
         <v>2166018</v>
       </c>
       <c r="G62" s="128">
@@ -15197,7 +15385,7 @@
       <c r="E63" s="128">
         <v>23</v>
       </c>
-      <c r="F63" s="128">
+      <c r="F63" s="139">
         <v>3643005</v>
       </c>
       <c r="G63" s="128">
@@ -15226,7 +15414,7 @@
       <c r="E64" s="128">
         <v>25</v>
       </c>
-      <c r="F64" s="128">
+      <c r="F64" s="139">
         <v>393281</v>
       </c>
       <c r="G64" s="128">
@@ -15255,7 +15443,7 @@
       <c r="E65" s="128">
         <v>11</v>
       </c>
-      <c r="F65" s="128">
+      <c r="F65" s="139">
         <v>-1506076</v>
       </c>
       <c r="G65" s="128">
@@ -15284,7 +15472,7 @@
       <c r="E66" s="128">
         <v>26</v>
       </c>
-      <c r="F66" s="128">
+      <c r="F66" s="139">
         <v>-5311867</v>
       </c>
       <c r="G66" s="128">
@@ -15313,7 +15501,7 @@
       <c r="E67" s="128">
         <v>12</v>
       </c>
-      <c r="F67" s="128">
+      <c r="F67" s="139">
         <v>5538977</v>
       </c>
       <c r="G67" s="128">
@@ -15342,7 +15530,7 @@
       <c r="E68" s="128">
         <v>13</v>
       </c>
-      <c r="F68" s="128">
+      <c r="F68" s="139">
         <v>24673184</v>
       </c>
       <c r="G68" s="128">
@@ -15371,7 +15559,7 @@
       <c r="E69" s="128">
         <v>14</v>
       </c>
-      <c r="F69" s="128">
+      <c r="F69" s="139">
         <v>5188202</v>
       </c>
       <c r="G69" s="128">
@@ -15400,7 +15588,7 @@
       <c r="E70" s="128">
         <v>29</v>
       </c>
-      <c r="F70" s="128">
+      <c r="F70" s="139">
         <v>-6035109</v>
       </c>
       <c r="G70" s="128">
@@ -15429,7 +15617,7 @@
       <c r="E71" s="128">
         <v>15</v>
       </c>
-      <c r="F71" s="128">
+      <c r="F71" s="139">
         <v>7892672</v>
       </c>
       <c r="G71" s="128">
@@ -15458,7 +15646,7 @@
       <c r="E72" s="128">
         <v>30</v>
       </c>
-      <c r="F72" s="128">
+      <c r="F72" s="139">
         <v>16490896</v>
       </c>
       <c r="G72" s="128">
@@ -15487,7 +15675,7 @@
       <c r="E73" s="128">
         <v>15</v>
       </c>
-      <c r="F73" s="128">
+      <c r="F73" s="139">
         <v>4064244</v>
       </c>
       <c r="G73" s="128">
@@ -15516,7 +15704,7 @@
       <c r="E74" s="128">
         <v>30</v>
       </c>
-      <c r="F74" s="128">
+      <c r="F74" s="139">
         <v>16863317</v>
       </c>
       <c r="G74" s="128">
@@ -15545,7 +15733,7 @@
       <c r="E75" s="128">
         <v>21</v>
       </c>
-      <c r="F75" s="128">
+      <c r="F75" s="139">
         <v>-8693261</v>
       </c>
       <c r="G75" s="128">
@@ -15574,7 +15762,7 @@
       <c r="E76" s="128">
         <v>30</v>
       </c>
-      <c r="F76" s="128">
+      <c r="F76" s="139">
         <v>-3455996</v>
       </c>
       <c r="G76" s="128">
@@ -15603,7 +15791,7 @@
       <c r="E77" s="127">
         <v>17</v>
       </c>
-      <c r="F77" s="127">
+      <c r="F77" s="138">
         <v>-3878895</v>
       </c>
       <c r="G77" s="127">
@@ -15632,7 +15820,7 @@
       <c r="E78" s="128">
         <v>30</v>
       </c>
-      <c r="F78" s="128">
+      <c r="F78" s="139">
         <v>11996135</v>
       </c>
       <c r="G78" s="128">
@@ -15661,7 +15849,7 @@
       <c r="E79" s="128">
         <v>15</v>
       </c>
-      <c r="F79" s="128">
+      <c r="F79" s="139">
         <v>10060922</v>
       </c>
       <c r="G79" s="128">
@@ -15690,7 +15878,7 @@
       <c r="E80" s="128">
         <v>15</v>
       </c>
-      <c r="F80" s="128">
+      <c r="F80" s="139">
         <v>4239921</v>
       </c>
       <c r="G80" s="128">
@@ -15719,7 +15907,7 @@
       <c r="E81" s="128">
         <v>30</v>
       </c>
-      <c r="F81" s="128">
+      <c r="F81" s="139">
         <v>14219285</v>
       </c>
       <c r="G81" s="128">
@@ -15748,7 +15936,7 @@
       <c r="E82" s="128">
         <v>30</v>
       </c>
-      <c r="F82" s="128">
+      <c r="F82" s="139">
         <v>1601883</v>
       </c>
       <c r="G82" s="128">
@@ -15777,7 +15965,7 @@
       <c r="E83" s="128">
         <v>15</v>
       </c>
-      <c r="F83" s="128">
+      <c r="F83" s="139">
         <v>5391388</v>
       </c>
       <c r="G83" s="128">
@@ -15806,7 +15994,7 @@
       <c r="E84" s="128">
         <v>30</v>
       </c>
-      <c r="F84" s="128">
+      <c r="F84" s="139">
         <v>13774906</v>
       </c>
       <c r="G84" s="128">
@@ -15835,7 +16023,7 @@
       <c r="E85" s="128">
         <v>20</v>
       </c>
-      <c r="F85" s="128">
+      <c r="F85" s="139">
         <v>9419696</v>
       </c>
       <c r="G85" s="128">
@@ -15864,7 +16052,7 @@
       <c r="E86" s="128">
         <v>20</v>
       </c>
-      <c r="F86" s="128">
+      <c r="F86" s="139">
         <v>6659284</v>
       </c>
       <c r="G86" s="128">
@@ -15893,7 +16081,7 @@
       <c r="E87" s="128">
         <v>20</v>
       </c>
-      <c r="F87" s="128">
+      <c r="F87" s="139">
         <v>-11090879</v>
       </c>
       <c r="G87" s="128">
@@ -15922,7 +16110,7 @@
       <c r="E88" s="128">
         <v>25</v>
       </c>
-      <c r="F88" s="128">
+      <c r="F88" s="139">
         <v>10116212</v>
       </c>
       <c r="G88" s="128">
@@ -15951,7 +16139,7 @@
       <c r="E89" s="128">
         <v>20</v>
       </c>
-      <c r="F89" s="129">
+      <c r="F89" s="140">
         <v>-16640244</v>
       </c>
       <c r="G89" s="128">
@@ -15980,7 +16168,7 @@
       <c r="E90" s="127">
         <v>27</v>
       </c>
-      <c r="F90" s="127">
+      <c r="F90" s="138">
         <v>-175359657</v>
       </c>
       <c r="G90" s="127">
@@ -16009,7 +16197,7 @@
       <c r="E91" s="128">
         <v>13</v>
       </c>
-      <c r="F91" s="128">
+      <c r="F91" s="139">
         <v>-129982707</v>
       </c>
       <c r="G91" s="128">
@@ -16038,7 +16226,7 @@
       <c r="E92" s="128">
         <v>14</v>
       </c>
-      <c r="F92" s="128">
+      <c r="F92" s="139">
         <v>54451853</v>
       </c>
       <c r="G92" s="128">
@@ -16067,7 +16255,7 @@
       <c r="E93" s="128">
         <v>29</v>
       </c>
-      <c r="F93" s="128">
+      <c r="F93" s="139">
         <v>-279907155</v>
       </c>
       <c r="G93" s="128">
@@ -16096,7 +16284,7 @@
       <c r="E94" s="128">
         <v>15</v>
       </c>
-      <c r="F94" s="128">
+      <c r="F94" s="139">
         <v>144126876</v>
       </c>
       <c r="G94" s="128">
@@ -16125,7 +16313,7 @@
       <c r="E95" s="128">
         <v>30</v>
       </c>
-      <c r="F95" s="128">
+      <c r="F95" s="139">
         <v>494740512</v>
       </c>
       <c r="G95" s="128">
@@ -16154,7 +16342,7 @@
       <c r="E96" s="128">
         <v>15</v>
       </c>
-      <c r="F96" s="128">
+      <c r="F96" s="139">
         <v>42914963</v>
       </c>
       <c r="G96" s="128">
@@ -16183,7 +16371,7 @@
       <c r="E97" s="128">
         <v>30</v>
       </c>
-      <c r="F97" s="128">
+      <c r="F97" s="139">
         <v>337443657</v>
       </c>
       <c r="G97" s="128">
@@ -16212,7 +16400,7 @@
       <c r="E98" s="128">
         <v>21</v>
       </c>
-      <c r="F98" s="128">
+      <c r="F98" s="139">
         <v>-195732314</v>
       </c>
       <c r="G98" s="128">
@@ -16241,7 +16429,7 @@
       <c r="E99" s="128">
         <v>30</v>
       </c>
-      <c r="F99" s="128">
+      <c r="F99" s="139">
         <v>-81664512</v>
       </c>
       <c r="G99" s="128">
@@ -16270,7 +16458,7 @@
       <c r="E100" s="128">
         <v>17</v>
       </c>
-      <c r="F100" s="128">
+      <c r="F100" s="139">
         <v>-69561879</v>
       </c>
       <c r="G100" s="128">
@@ -16299,7 +16487,7 @@
       <c r="E101" s="128">
         <v>30</v>
       </c>
-      <c r="F101" s="128">
+      <c r="F101" s="139">
         <v>353871292</v>
       </c>
       <c r="G101" s="128">
@@ -16328,7 +16516,7 @@
       <c r="E102" s="128">
         <v>15</v>
       </c>
-      <c r="F102" s="128">
+      <c r="F102" s="139">
         <v>301419495</v>
       </c>
       <c r="G102" s="128">
@@ -16357,7 +16545,7 @@
       <c r="E103" s="128">
         <v>15</v>
       </c>
-      <c r="F103" s="128">
+      <c r="F103" s="139">
         <v>183599531</v>
       </c>
       <c r="G103" s="128">
@@ -16386,7 +16574,7 @@
       <c r="E104" s="128">
         <v>30</v>
       </c>
-      <c r="F104" s="128">
+      <c r="F104" s="139">
         <v>304932284</v>
       </c>
       <c r="G104" s="128">
@@ -16415,7 +16603,7 @@
       <c r="E105" s="128">
         <v>30</v>
       </c>
-      <c r="F105" s="128">
+      <c r="F105" s="139">
         <v>6149437</v>
       </c>
       <c r="G105" s="128">
@@ -16444,7 +16632,7 @@
       <c r="E106" s="128">
         <v>15</v>
       </c>
-      <c r="F106" s="128">
+      <c r="F106" s="139">
         <v>115045890</v>
       </c>
       <c r="G106" s="128">
@@ -16503,7 +16691,7 @@
       <c r="E107" s="128">
         <v>30</v>
       </c>
-      <c r="F107" s="128">
+      <c r="F107" s="139">
         <v>264201033</v>
       </c>
       <c r="G107" s="128">
@@ -16532,7 +16720,7 @@
       <c r="E108" s="128">
         <v>20</v>
       </c>
-      <c r="F108" s="128">
+      <c r="F108" s="139">
         <v>249737761</v>
       </c>
       <c r="G108" s="128">
@@ -16561,7 +16749,7 @@
       <c r="E109" s="128">
         <v>20</v>
       </c>
-      <c r="F109" s="128">
+      <c r="F109" s="139">
         <v>115981341</v>
       </c>
       <c r="G109" s="128">
@@ -16593,7 +16781,7 @@
       <c r="E110" s="128">
         <v>20</v>
       </c>
-      <c r="F110" s="128">
+      <c r="F110" s="139">
         <v>-247086097</v>
       </c>
       <c r="G110" s="128">
@@ -16622,7 +16810,7 @@
       <c r="E111" s="128">
         <v>25</v>
       </c>
-      <c r="F111" s="128">
+      <c r="F111" s="139">
         <v>36356826</v>
       </c>
       <c r="G111" s="128">
@@ -16651,7 +16839,7 @@
       <c r="E112" s="125">
         <v>20</v>
       </c>
-      <c r="F112" s="125">
+      <c r="F112" s="141">
         <v>-458582182</v>
       </c>
       <c r="G112" s="125">

--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="7" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -19,19 +19,20 @@
     <sheet name="Assumptions" sheetId="3" r:id="rId5"/>
     <sheet name="SalaryGrowth" sheetId="11" r:id="rId6"/>
     <sheet name="Init_amort" sheetId="18" r:id="rId7"/>
-    <sheet name="External_Fund" sheetId="19" r:id="rId8"/>
-    <sheet name="Ret_sum" sheetId="12" r:id="rId9"/>
-    <sheet name="Ret_dec" sheetId="9" r:id="rId10"/>
-    <sheet name="Ret_bfactor" sheetId="13" r:id="rId11"/>
-    <sheet name="Term_sum" sheetId="15" r:id="rId12"/>
-    <sheet name="Term_dec1" sheetId="8" r:id="rId13"/>
-    <sheet name="Term_dec2" sheetId="23" r:id="rId14"/>
-    <sheet name="Disb_sum" sheetId="16" r:id="rId15"/>
-    <sheet name="Disb_dec" sheetId="10" r:id="rId16"/>
-    <sheet name="Death_sum" sheetId="17" r:id="rId17"/>
-    <sheet name="Death_dec" sheetId="5" r:id="rId18"/>
-    <sheet name="DROP cashflow" sheetId="25" r:id="rId19"/>
-    <sheet name="Sheet1" sheetId="26" r:id="rId20"/>
+    <sheet name="Init_unrecReturn" sheetId="27" r:id="rId8"/>
+    <sheet name="External_Fund" sheetId="19" r:id="rId9"/>
+    <sheet name="Ret_sum" sheetId="12" r:id="rId10"/>
+    <sheet name="Ret_dec" sheetId="9" r:id="rId11"/>
+    <sheet name="Ret_bfactor" sheetId="13" r:id="rId12"/>
+    <sheet name="Term_sum" sheetId="15" r:id="rId13"/>
+    <sheet name="Term_dec1" sheetId="8" r:id="rId14"/>
+    <sheet name="Term_dec2" sheetId="23" r:id="rId15"/>
+    <sheet name="Disb_sum" sheetId="16" r:id="rId16"/>
+    <sheet name="Disb_dec" sheetId="10" r:id="rId17"/>
+    <sheet name="Death_sum" sheetId="17" r:id="rId18"/>
+    <sheet name="Death_dec" sheetId="5" r:id="rId19"/>
+    <sheet name="DROP cashflow" sheetId="25" r:id="rId20"/>
+    <sheet name="Sheet1" sheetId="26" r:id="rId21"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="255">
   <si>
     <t>Notes</t>
   </si>
@@ -1989,17 +1990,40 @@
   <si>
     <t>I122</t>
   </si>
+  <si>
+    <t>AV2015 pdf page 20</t>
+  </si>
+  <si>
+    <t>Original amount</t>
+  </si>
+  <si>
+    <t>DeferredReturn</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>Note:
+The unrecognzied returns are associated with assets of retirement fund and health insurance fund combined. 
+In the model, the deferred returns must be adjusted so that the total deferred return is equal to the difference between the initial AA and MA.
+Only effective when modeling all tiers together.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -2225,7 +2249,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2471,47 +2495,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
@@ -2577,19 +2562,61 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="16" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4203,11 +4230,311 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="33.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="127"/>
+      <c r="D5" s="124" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="128" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="128"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="125"/>
+      <c r="F9" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="129" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="125" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="127"/>
+      <c r="D12" s="125" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="125"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="39"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+    </row>
+    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+      <selection activeCell="F8" activeCellId="1" sqref="C8:C32 F8:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4237,22 +4564,22 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108" t="s">
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
+      <c r="A6" s="130"/>
       <c r="B6" s="57" t="s">
         <v>94</v>
       </c>
@@ -5029,7 +5356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G72"/>
@@ -6906,7 +7233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G16"/>
@@ -6974,10 +7301,10 @@
       <c r="E4" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="104"/>
+      <c r="G4" s="127"/>
     </row>
     <row r="5" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
@@ -6995,21 +7322,21 @@
       <c r="E5" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="125" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="102"/>
+      <c r="G5" s="125"/>
     </row>
     <row r="6" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="132" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
     </row>
     <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -7070,7 +7397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:I28"/>
@@ -7311,7 +7638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -7561,7 +7888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G12"/>
@@ -7621,30 +7948,30 @@
       <c r="A4" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
     </row>
     <row r="5" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
     </row>
     <row r="7" spans="1:7" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="134" t="s">
         <v>206</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -7653,10 +7980,10 @@
       <c r="C7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="104"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="8" t="s">
         <v>64</v>
       </c>
@@ -7665,15 +7992,15 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
-      <c r="B8" s="112" t="s">
+      <c r="A8" s="134"/>
+      <c r="B8" s="135" t="s">
         <v>207</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -7707,7 +8034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:I21"/>
@@ -7892,7 +8219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H13"/>
@@ -7973,10 +8300,10 @@
       <c r="D5" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="136" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="113"/>
+      <c r="F5" s="136"/>
       <c r="G5" s="99" t="s">
         <v>203</v>
       </c>
@@ -7994,10 +8321,10 @@
       <c r="D6" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="E6" s="113" t="s">
+      <c r="E6" s="136" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="113"/>
+      <c r="F6" s="136"/>
       <c r="G6" s="99" t="s">
         <v>201</v>
       </c>
@@ -8016,10 +8343,10 @@
       <c r="D7" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="136" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="113"/>
+      <c r="F7" s="136"/>
       <c r="G7" s="99" t="s">
         <v>202</v>
       </c>
@@ -8075,7 +8402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:B6"/>
@@ -8123,7 +8450,295 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="88" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="88" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="88">
+        <v>20</v>
+      </c>
+      <c r="C7" s="88">
+        <v>0</v>
+      </c>
+      <c r="D7" s="88">
+        <v>1</v>
+      </c>
+      <c r="E7" s="88">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="F7" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="88">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="88">
+        <v>50</v>
+      </c>
+      <c r="I7" s="88">
+        <v>999</v>
+      </c>
+      <c r="J7" s="88">
+        <v>0.06</v>
+      </c>
+      <c r="K7" s="88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="88">
+        <v>20</v>
+      </c>
+      <c r="C8" s="88">
+        <v>0</v>
+      </c>
+      <c r="D8" s="88">
+        <v>1</v>
+      </c>
+      <c r="E8" s="88">
+        <v>0.03</v>
+      </c>
+      <c r="F8" s="88">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G8" s="88">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="88">
+        <v>50</v>
+      </c>
+      <c r="I8" s="88">
+        <v>999</v>
+      </c>
+      <c r="J8" s="88">
+        <v>0.06</v>
+      </c>
+      <c r="K8" s="88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="88">
+        <v>10</v>
+      </c>
+      <c r="C9" s="88">
+        <v>50</v>
+      </c>
+      <c r="D9" s="88">
+        <v>1</v>
+      </c>
+      <c r="E9" s="88">
+        <v>0.03</v>
+      </c>
+      <c r="F9" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="H9" s="88">
+        <v>50</v>
+      </c>
+      <c r="I9" s="88">
+        <v>10</v>
+      </c>
+      <c r="J9" s="88">
+        <v>0.08</v>
+      </c>
+      <c r="K9" s="88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="88">
+        <v>20</v>
+      </c>
+      <c r="C10" s="88">
+        <v>0</v>
+      </c>
+      <c r="D10" s="88">
+        <v>1</v>
+      </c>
+      <c r="E10" s="88">
+        <v>0.03</v>
+      </c>
+      <c r="F10" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="G10" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="H10" s="88">
+        <v>50</v>
+      </c>
+      <c r="I10" s="88">
+        <v>999</v>
+      </c>
+      <c r="J10" s="88">
+        <v>0.08</v>
+      </c>
+      <c r="K10" s="88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="88">
+        <v>20</v>
+      </c>
+      <c r="C11" s="88">
+        <v>50</v>
+      </c>
+      <c r="D11" s="88">
+        <v>1</v>
+      </c>
+      <c r="E11" s="88">
+        <v>0.03</v>
+      </c>
+      <c r="F11" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="88">
+        <v>0.7</v>
+      </c>
+      <c r="H11" s="88">
+        <v>50</v>
+      </c>
+      <c r="I11" s="88">
+        <v>20</v>
+      </c>
+      <c r="J11" s="88">
+        <v>0.09</v>
+      </c>
+      <c r="K11" s="88">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="88">
+        <v>20</v>
+      </c>
+      <c r="C12" s="88">
+        <v>50</v>
+      </c>
+      <c r="D12" s="88">
+        <v>2</v>
+      </c>
+      <c r="E12" s="88">
+        <v>0.03</v>
+      </c>
+      <c r="F12" s="88">
+        <v>0.7</v>
+      </c>
+      <c r="G12" s="88">
+        <v>0.8</v>
+      </c>
+      <c r="H12" s="88">
+        <v>50</v>
+      </c>
+      <c r="I12" s="88">
+        <v>20</v>
+      </c>
+      <c r="J12" s="88">
+        <v>0.11</v>
+      </c>
+      <c r="K12" s="88">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W109"/>
   <sheetViews>
@@ -8158,24 +8773,24 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="J5" s="114" t="s">
+      <c r="J5" s="137" t="s">
         <v>172</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114" t="s">
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137" t="s">
         <v>185</v>
       </c>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -12806,299 +13421,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="88" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="88" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>208</v>
-      </c>
-      <c r="H6" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="I6" s="88" t="s">
-        <v>166</v>
-      </c>
-      <c r="J6" s="88" t="s">
-        <v>211</v>
-      </c>
-      <c r="K6" s="88" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="88">
-        <v>20</v>
-      </c>
-      <c r="C7" s="88">
-        <v>0</v>
-      </c>
-      <c r="D7" s="88">
-        <v>1</v>
-      </c>
-      <c r="E7" s="88">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="F7" s="88">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="88">
-        <v>0.8</v>
-      </c>
-      <c r="H7" s="88">
-        <v>50</v>
-      </c>
-      <c r="I7" s="88">
-        <v>999</v>
-      </c>
-      <c r="J7" s="88">
-        <v>0.06</v>
-      </c>
-      <c r="K7" s="88">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="88">
-        <v>20</v>
-      </c>
-      <c r="C8" s="88">
-        <v>0</v>
-      </c>
-      <c r="D8" s="88">
-        <v>1</v>
-      </c>
-      <c r="E8" s="88">
-        <v>0.03</v>
-      </c>
-      <c r="F8" s="88">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G8" s="88">
-        <v>0.8</v>
-      </c>
-      <c r="H8" s="88">
-        <v>50</v>
-      </c>
-      <c r="I8" s="88">
-        <v>999</v>
-      </c>
-      <c r="J8" s="88">
-        <v>0.06</v>
-      </c>
-      <c r="K8" s="88">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="88">
-        <v>10</v>
-      </c>
-      <c r="C9" s="88">
-        <v>50</v>
-      </c>
-      <c r="D9" s="88">
-        <v>1</v>
-      </c>
-      <c r="E9" s="88">
-        <v>0.03</v>
-      </c>
-      <c r="F9" s="88">
-        <v>0.6</v>
-      </c>
-      <c r="G9" s="88">
-        <v>0.6</v>
-      </c>
-      <c r="H9" s="88">
-        <v>50</v>
-      </c>
-      <c r="I9" s="88">
-        <v>10</v>
-      </c>
-      <c r="J9" s="88">
-        <v>0.08</v>
-      </c>
-      <c r="K9" s="88">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="88">
-        <v>20</v>
-      </c>
-      <c r="C10" s="88">
-        <v>0</v>
-      </c>
-      <c r="D10" s="88">
-        <v>1</v>
-      </c>
-      <c r="E10" s="88">
-        <v>0.03</v>
-      </c>
-      <c r="F10" s="88">
-        <v>0.6</v>
-      </c>
-      <c r="G10" s="88">
-        <v>0.6</v>
-      </c>
-      <c r="H10" s="88">
-        <v>50</v>
-      </c>
-      <c r="I10" s="88">
-        <v>999</v>
-      </c>
-      <c r="J10" s="88">
-        <v>0.08</v>
-      </c>
-      <c r="K10" s="88">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="88">
-        <v>20</v>
-      </c>
-      <c r="C11" s="88">
-        <v>50</v>
-      </c>
-      <c r="D11" s="88">
-        <v>1</v>
-      </c>
-      <c r="E11" s="88">
-        <v>0.03</v>
-      </c>
-      <c r="F11" s="88">
-        <v>0.6</v>
-      </c>
-      <c r="G11" s="88">
-        <v>0.7</v>
-      </c>
-      <c r="H11" s="88">
-        <v>50</v>
-      </c>
-      <c r="I11" s="88">
-        <v>20</v>
-      </c>
-      <c r="J11" s="88">
-        <v>0.09</v>
-      </c>
-      <c r="K11" s="88">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="88">
-        <v>20</v>
-      </c>
-      <c r="C12" s="88">
-        <v>50</v>
-      </c>
-      <c r="D12" s="88">
-        <v>2</v>
-      </c>
-      <c r="E12" s="88">
-        <v>0.03</v>
-      </c>
-      <c r="F12" s="88">
-        <v>0.7</v>
-      </c>
-      <c r="G12" s="88">
-        <v>0.8</v>
-      </c>
-      <c r="H12" s="88">
-        <v>50</v>
-      </c>
-      <c r="I12" s="88">
-        <v>20</v>
-      </c>
-      <c r="J12" s="88">
-        <v>0.11</v>
-      </c>
-      <c r="K12" s="88">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -13670,7 +13997,7 @@
   <dimension ref="A1:U113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13678,7 +14005,7 @@
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" style="37" customWidth="1"/>
-    <col min="4" max="8" width="32.28515625" style="125" customWidth="1"/>
+    <col min="4" max="8" width="32.28515625" style="112" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="15" max="19" width="14.5703125" customWidth="1"/>
   </cols>
@@ -13703,10 +14030,7 @@
       <c r="B3" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="F3" s="128">
-        <f>5698407*9</f>
-        <v>51285663</v>
-      </c>
+      <c r="F3" s="115"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -13720,57 +14044,57 @@
       <c r="B5" s="29"/>
     </row>
     <row r="6" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="102" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="124" t="s">
+      <c r="E6" s="111" t="s">
         <v>217</v>
       </c>
-      <c r="F6" s="124" t="s">
+      <c r="F6" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="111" t="s">
         <v>219</v>
       </c>
-      <c r="H6" s="126" t="s">
+      <c r="H6" s="113" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="117" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="131" t="s">
+      <c r="C7" s="118" t="s">
         <v>233</v>
       </c>
-      <c r="D7" s="132" t="s">
+      <c r="D7" s="119" t="s">
         <v>234</v>
       </c>
-      <c r="E7" s="132" t="s">
+      <c r="E7" s="119" t="s">
         <v>235</v>
       </c>
-      <c r="F7" s="132" t="s">
+      <c r="F7" s="119" t="s">
         <v>236</v>
       </c>
-      <c r="G7" s="132" t="s">
+      <c r="G7" s="119" t="s">
         <v>237</v>
       </c>
-      <c r="H7" s="133" t="s">
+      <c r="H7" s="120" t="s">
         <v>238</v>
       </c>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="123" t="s">
         <v>244</v>
       </c>
     </row>
@@ -13778,25 +14102,25 @@
       <c r="A8" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="C8" s="121">
+      <c r="C8" s="108">
         <v>42185</v>
       </c>
-      <c r="D8" s="135">
+      <c r="D8" s="122">
         <v>170907119</v>
       </c>
-      <c r="E8" s="134">
+      <c r="E8" s="121">
         <v>22</v>
       </c>
-      <c r="F8" s="137">
+      <c r="F8" s="138">
         <v>170907119</v>
       </c>
-      <c r="G8" s="134">
+      <c r="G8" s="121">
         <v>22</v>
       </c>
-      <c r="H8" s="135">
+      <c r="H8" s="122">
         <v>14974146</v>
       </c>
       <c r="I8" t="s">
@@ -13807,25 +14131,25 @@
       <c r="A9" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="104" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="121">
+      <c r="C9" s="108">
         <v>39629</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D9" s="114">
         <v>-632245519</v>
       </c>
-      <c r="E9" s="127">
+      <c r="E9" s="114">
         <v>29</v>
       </c>
-      <c r="F9" s="138">
+      <c r="F9" s="139">
         <v>-708502016</v>
       </c>
-      <c r="G9" s="127">
+      <c r="G9" s="114">
         <v>22</v>
       </c>
-      <c r="H9" s="127">
+      <c r="H9" s="114">
         <v>-44598831</v>
       </c>
       <c r="I9" t="s">
@@ -13836,25 +14160,25 @@
       <c r="A10" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="122">
+      <c r="C10" s="109">
         <v>39994</v>
       </c>
-      <c r="D10" s="128">
+      <c r="D10" s="115">
         <v>53442825</v>
       </c>
-      <c r="E10" s="128">
+      <c r="E10" s="115">
         <v>15</v>
       </c>
-      <c r="F10" s="139">
+      <c r="F10" s="140">
         <v>45090011</v>
       </c>
-      <c r="G10" s="128">
+      <c r="G10" s="115">
         <v>9</v>
       </c>
-      <c r="H10" s="128">
+      <c r="H10" s="115">
         <v>5698407</v>
       </c>
       <c r="I10" t="s">
@@ -13865,25 +14189,25 @@
       <c r="A11" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="122">
+      <c r="C11" s="109">
         <v>40359</v>
       </c>
-      <c r="D11" s="128">
+      <c r="D11" s="115">
         <v>210742926</v>
       </c>
-      <c r="E11" s="128">
+      <c r="E11" s="115">
         <v>15</v>
       </c>
-      <c r="F11" s="139">
+      <c r="F11" s="140">
         <v>186383774</v>
       </c>
-      <c r="G11" s="128">
+      <c r="G11" s="115">
         <v>10</v>
       </c>
-      <c r="H11" s="128">
+      <c r="H11" s="115">
         <v>21534522</v>
       </c>
       <c r="I11" t="s">
@@ -13894,25 +14218,25 @@
       <c r="A12" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="122">
+      <c r="C12" s="109">
         <v>40359</v>
       </c>
-      <c r="D12" s="128">
+      <c r="D12" s="115">
         <v>1450331</v>
       </c>
-      <c r="E12" s="128">
+      <c r="E12" s="115">
         <v>27</v>
       </c>
-      <c r="F12" s="139">
+      <c r="F12" s="140">
         <v>1559364</v>
       </c>
-      <c r="G12" s="128">
+      <c r="G12" s="115">
         <v>22</v>
       </c>
-      <c r="H12" s="128">
+      <c r="H12" s="115">
         <v>98159</v>
       </c>
       <c r="I12" t="s">
@@ -13923,25 +14247,25 @@
       <c r="A13" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="122">
+      <c r="C13" s="109">
         <v>40724</v>
       </c>
-      <c r="D13" s="128">
+      <c r="D13" s="115">
         <v>203104597</v>
       </c>
-      <c r="E13" s="128">
+      <c r="E13" s="115">
         <v>15</v>
       </c>
-      <c r="F13" s="139">
+      <c r="F13" s="140">
         <v>186609704</v>
       </c>
-      <c r="G13" s="128">
+      <c r="G13" s="115">
         <v>11</v>
       </c>
-      <c r="H13" s="128">
+      <c r="H13" s="115">
         <v>19908600</v>
       </c>
       <c r="I13" t="s">
@@ -13952,25 +14276,25 @@
       <c r="A14" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C14" s="122">
+      <c r="C14" s="109">
         <v>40724</v>
       </c>
-      <c r="D14" s="128">
+      <c r="D14" s="115">
         <v>344553091</v>
       </c>
-      <c r="E14" s="128">
+      <c r="E14" s="115">
         <v>26</v>
       </c>
-      <c r="F14" s="139">
+      <c r="F14" s="140">
         <v>363842159</v>
       </c>
-      <c r="G14" s="128">
+      <c r="G14" s="115">
         <v>22</v>
       </c>
-      <c r="H14" s="128">
+      <c r="H14" s="115">
         <v>22903160</v>
       </c>
       <c r="I14" t="s">
@@ -13981,25 +14305,25 @@
       <c r="A15" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C15" s="122">
+      <c r="C15" s="109">
         <v>41090</v>
       </c>
-      <c r="D15" s="128">
+      <c r="D15" s="115">
         <v>238453071</v>
       </c>
-      <c r="E15" s="128">
+      <c r="E15" s="115">
         <v>20</v>
       </c>
-      <c r="F15" s="139">
+      <c r="F15" s="140">
         <v>239527934</v>
       </c>
-      <c r="G15" s="128">
+      <c r="G15" s="115">
         <v>17</v>
       </c>
-      <c r="H15" s="128">
+      <c r="H15" s="115">
         <v>18122308</v>
       </c>
       <c r="I15" t="s">
@@ -14010,25 +14334,25 @@
       <c r="A16" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="122">
+      <c r="C16" s="109">
         <v>41455</v>
       </c>
-      <c r="D16" s="128">
+      <c r="D16" s="115">
         <v>73947281</v>
       </c>
-      <c r="E16" s="128">
+      <c r="E16" s="115">
         <v>20</v>
       </c>
-      <c r="F16" s="139">
+      <c r="F16" s="140">
         <v>74325698</v>
       </c>
-      <c r="G16" s="128">
+      <c r="G16" s="115">
         <v>18</v>
       </c>
-      <c r="H16" s="128">
+      <c r="H16" s="115">
         <v>5391012</v>
       </c>
       <c r="I16" t="s">
@@ -14039,25 +14363,25 @@
       <c r="A17" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="122">
+      <c r="C17" s="109">
         <v>41820</v>
       </c>
-      <c r="D17" s="128">
+      <c r="D17" s="115">
         <v>-212930921</v>
       </c>
-      <c r="E17" s="128">
+      <c r="E17" s="115">
         <v>20</v>
       </c>
-      <c r="F17" s="139">
+      <c r="F17" s="140">
         <v>-213508592</v>
       </c>
-      <c r="G17" s="128">
+      <c r="G17" s="115">
         <v>19</v>
       </c>
-      <c r="H17" s="128">
+      <c r="H17" s="115">
         <v>-14891008</v>
       </c>
       <c r="I17" t="s">
@@ -14068,25 +14392,25 @@
       <c r="A18" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="122">
+      <c r="C18" s="109">
         <v>41820</v>
       </c>
-      <c r="D18" s="128">
+      <c r="D18" s="115">
         <v>-65152628</v>
       </c>
-      <c r="E18" s="128">
+      <c r="E18" s="115">
         <v>25</v>
       </c>
-      <c r="F18" s="139">
+      <c r="F18" s="140">
         <v>-65987717</v>
       </c>
-      <c r="G18" s="128">
+      <c r="G18" s="115">
         <v>24</v>
       </c>
-      <c r="H18" s="128">
+      <c r="H18" s="115">
         <v>-3919453</v>
       </c>
       <c r="I18" t="s">
@@ -14097,25 +14421,25 @@
       <c r="A19" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="122">
+      <c r="C19" s="109">
         <v>42185</v>
       </c>
-      <c r="D19" s="128">
+      <c r="D19" s="115">
         <v>-288914220</v>
       </c>
-      <c r="E19" s="128">
+      <c r="E19" s="115">
         <v>20</v>
       </c>
-      <c r="F19" s="140">
+      <c r="F19" s="141">
         <v>-288914220</v>
       </c>
-      <c r="G19" s="128">
+      <c r="G19" s="115">
         <v>20</v>
       </c>
-      <c r="H19" s="129">
+      <c r="H19" s="116">
         <v>-19427680</v>
       </c>
       <c r="I19" t="s">
@@ -14126,25 +14450,25 @@
       <c r="A20" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="104" t="s">
         <v>222</v>
       </c>
-      <c r="C20" s="121">
+      <c r="C20" s="108">
         <v>32689</v>
       </c>
-      <c r="D20" s="127">
+      <c r="D20" s="114">
         <v>-15977993</v>
       </c>
-      <c r="E20" s="127">
+      <c r="E20" s="114">
         <v>14</v>
       </c>
-      <c r="F20" s="138">
+      <c r="F20" s="139">
         <v>-8169236</v>
       </c>
-      <c r="G20" s="127">
+      <c r="G20" s="114">
         <v>4</v>
       </c>
-      <c r="H20" s="127">
+      <c r="H20" s="114">
         <v>-2144800</v>
       </c>
       <c r="I20" t="s">
@@ -14155,25 +14479,25 @@
       <c r="A21" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="122">
+      <c r="C21" s="109">
         <v>33054</v>
       </c>
-      <c r="D21" s="128">
+      <c r="D21" s="115">
         <v>279608</v>
       </c>
-      <c r="E21" s="128">
+      <c r="E21" s="115">
         <v>15</v>
       </c>
-      <c r="F21" s="139">
+      <c r="F21" s="140">
         <v>166625</v>
       </c>
-      <c r="G21" s="128">
+      <c r="G21" s="115">
         <v>5</v>
       </c>
-      <c r="H21" s="128">
+      <c r="H21" s="115">
         <v>35567</v>
       </c>
       <c r="I21" t="s">
@@ -14184,25 +14508,25 @@
       <c r="A22" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C22" s="122">
+      <c r="C22" s="109">
         <v>33054</v>
       </c>
-      <c r="D22" s="128">
+      <c r="D22" s="115">
         <v>-6281127</v>
       </c>
-      <c r="E22" s="128">
+      <c r="E22" s="115">
         <v>15</v>
       </c>
-      <c r="F22" s="139">
+      <c r="F22" s="140">
         <v>-3743077</v>
       </c>
-      <c r="G22" s="128">
+      <c r="G22" s="115">
         <v>5</v>
       </c>
-      <c r="H22" s="128">
+      <c r="H22" s="115">
         <v>-798975</v>
       </c>
       <c r="I22" t="s">
@@ -14213,25 +14537,25 @@
       <c r="A23" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C23" s="122">
+      <c r="C23" s="109">
         <v>33785</v>
       </c>
-      <c r="D23" s="128">
+      <c r="D23" s="115">
         <v>2454735</v>
       </c>
-      <c r="E23" s="128">
+      <c r="E23" s="115">
         <v>17</v>
       </c>
-      <c r="F23" s="139">
+      <c r="F23" s="140">
         <v>1803591</v>
       </c>
-      <c r="G23" s="128">
+      <c r="G23" s="115">
         <v>7</v>
       </c>
-      <c r="H23" s="128">
+      <c r="H23" s="115">
         <v>283932</v>
       </c>
       <c r="I23" t="s">
@@ -14242,25 +14566,25 @@
       <c r="A24" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C24" s="122">
+      <c r="C24" s="109">
         <v>34880</v>
       </c>
-      <c r="D24" s="128">
+      <c r="D24" s="115">
         <v>-20329471</v>
       </c>
-      <c r="E24" s="128">
+      <c r="E24" s="115">
         <v>20</v>
       </c>
-      <c r="F24" s="139">
+      <c r="F24" s="140">
         <v>-18086022</v>
       </c>
-      <c r="G24" s="128">
+      <c r="G24" s="115">
         <v>10</v>
       </c>
-      <c r="H24" s="128">
+      <c r="H24" s="115">
         <v>-2089634</v>
       </c>
       <c r="I24" t="s">
@@ -14271,25 +14595,25 @@
       <c r="A25" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="C25" s="122">
+      <c r="C25" s="109">
         <v>35246</v>
       </c>
-      <c r="D25" s="128">
+      <c r="D25" s="115">
         <v>2832341</v>
       </c>
-      <c r="E25" s="128">
+      <c r="E25" s="115">
         <v>21</v>
       </c>
-      <c r="F25" s="139">
+      <c r="F25" s="140">
         <v>2637271</v>
       </c>
-      <c r="G25" s="128">
+      <c r="G25" s="115">
         <v>11</v>
       </c>
-      <c r="H25" s="128">
+      <c r="H25" s="115">
         <v>281359</v>
       </c>
       <c r="I25" t="s">
@@ -14300,25 +14624,25 @@
       <c r="A26" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="C26" s="122">
+      <c r="C26" s="109">
         <v>35246</v>
       </c>
-      <c r="D26" s="128">
+      <c r="D26" s="115">
         <v>-18309076</v>
       </c>
-      <c r="E26" s="128">
+      <c r="E26" s="115">
         <v>21</v>
       </c>
-      <c r="F26" s="139">
+      <c r="F26" s="140">
         <v>-17048086</v>
       </c>
-      <c r="G26" s="128">
+      <c r="G26" s="115">
         <v>11</v>
       </c>
-      <c r="H26" s="128">
+      <c r="H26" s="115">
         <v>-1818788</v>
       </c>
       <c r="I26" t="s">
@@ -14329,25 +14653,25 @@
       <c r="A27" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="118" t="s">
+      <c r="B27" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="C27" s="122">
+      <c r="C27" s="109">
         <v>35976</v>
       </c>
-      <c r="D27" s="128">
+      <c r="D27" s="115">
         <v>5510715</v>
       </c>
-      <c r="E27" s="128">
+      <c r="E27" s="115">
         <v>23</v>
       </c>
-      <c r="F27" s="139">
+      <c r="F27" s="140">
         <v>5526362</v>
       </c>
-      <c r="G27" s="128">
+      <c r="G27" s="115">
         <v>13</v>
       </c>
-      <c r="H27" s="128">
+      <c r="H27" s="115">
         <v>514542</v>
       </c>
       <c r="I27" t="s">
@@ -14358,25 +14682,25 @@
       <c r="A28" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C28" s="122">
+      <c r="C28" s="109">
         <v>35976</v>
       </c>
-      <c r="D28" s="128">
+      <c r="D28" s="115">
         <v>9268417</v>
       </c>
-      <c r="E28" s="128">
+      <c r="E28" s="115">
         <v>23</v>
       </c>
-      <c r="F28" s="139">
+      <c r="F28" s="140">
         <v>9294733</v>
       </c>
-      <c r="G28" s="128">
+      <c r="G28" s="115">
         <v>13</v>
       </c>
-      <c r="H28" s="128">
+      <c r="H28" s="115">
         <v>865404</v>
       </c>
       <c r="I28" t="s">
@@ -14387,25 +14711,25 @@
       <c r="A29" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B29" s="118" t="s">
+      <c r="B29" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="C29" s="122">
+      <c r="C29" s="109">
         <v>36707</v>
       </c>
-      <c r="D29" s="128">
+      <c r="D29" s="115">
         <v>949873</v>
       </c>
-      <c r="E29" s="128">
+      <c r="E29" s="115">
         <v>25</v>
       </c>
-      <c r="F29" s="139">
+      <c r="F29" s="140">
         <v>1009291</v>
       </c>
-      <c r="G29" s="128">
+      <c r="G29" s="115">
         <v>15</v>
       </c>
-      <c r="H29" s="128">
+      <c r="H29" s="115">
         <v>83969</v>
       </c>
       <c r="I29" t="s">
@@ -14416,25 +14740,25 @@
       <c r="A30" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B30" s="118" t="s">
+      <c r="B30" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="C30" s="122">
+      <c r="C30" s="109">
         <v>37072</v>
       </c>
-      <c r="D30" s="128">
+      <c r="D30" s="115">
         <v>-39924972</v>
       </c>
-      <c r="E30" s="128">
+      <c r="E30" s="115">
         <v>11</v>
       </c>
-      <c r="F30" s="139">
+      <c r="F30" s="140">
         <v>-6513673</v>
       </c>
-      <c r="G30" s="128">
+      <c r="G30" s="115">
         <v>1</v>
       </c>
-      <c r="H30" s="128">
+      <c r="H30" s="115">
         <v>-6513673</v>
       </c>
       <c r="I30" t="s">
@@ -14445,25 +14769,25 @@
       <c r="A31" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="118" t="s">
+      <c r="B31" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C31" s="122">
+      <c r="C31" s="109">
         <v>37072</v>
       </c>
-      <c r="D31" s="128">
+      <c r="D31" s="115">
         <v>-29148684</v>
       </c>
-      <c r="E31" s="128">
+      <c r="E31" s="115">
         <v>26</v>
       </c>
-      <c r="F31" s="139">
+      <c r="F31" s="140">
         <v>-31736428</v>
       </c>
-      <c r="G31" s="128">
+      <c r="G31" s="115">
         <v>16</v>
       </c>
-      <c r="H31" s="128">
+      <c r="H31" s="115">
         <v>-2513088</v>
       </c>
       <c r="I31" t="s">
@@ -14474,25 +14798,25 @@
       <c r="A32" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="118" t="s">
+      <c r="B32" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C32" s="122">
+      <c r="C32" s="109">
         <v>37437</v>
       </c>
-      <c r="D32" s="128">
+      <c r="D32" s="115">
         <v>110014634</v>
       </c>
-      <c r="E32" s="128">
+      <c r="E32" s="115">
         <v>12</v>
       </c>
-      <c r="F32" s="139">
+      <c r="F32" s="140">
         <v>32874358</v>
       </c>
-      <c r="G32" s="128">
+      <c r="G32" s="115">
         <v>2</v>
       </c>
-      <c r="H32" s="128">
+      <c r="H32" s="115">
         <v>16709189</v>
       </c>
       <c r="I32" t="s">
@@ -14503,25 +14827,25 @@
       <c r="A33" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C33" s="122">
+      <c r="C33" s="109">
         <v>37802</v>
       </c>
-      <c r="D33" s="128">
+      <c r="D33" s="115">
         <v>151681782</v>
       </c>
-      <c r="E33" s="128">
+      <c r="E33" s="115">
         <v>13</v>
       </c>
-      <c r="F33" s="139">
+      <c r="F33" s="140">
         <v>62698016</v>
       </c>
-      <c r="G33" s="128">
+      <c r="G33" s="115">
         <v>3</v>
       </c>
-      <c r="H33" s="128">
+      <c r="H33" s="115">
         <v>21594795</v>
       </c>
       <c r="I33" t="s">
@@ -14532,25 +14856,25 @@
       <c r="A34" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B34" s="118" t="s">
+      <c r="B34" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C34" s="122">
+      <c r="C34" s="109">
         <v>38168</v>
       </c>
-      <c r="D34" s="128">
+      <c r="D34" s="115">
         <v>10104562</v>
       </c>
-      <c r="E34" s="128">
+      <c r="E34" s="115">
         <v>14</v>
       </c>
-      <c r="F34" s="139">
+      <c r="F34" s="140">
         <v>5166265</v>
       </c>
-      <c r="G34" s="128">
+      <c r="G34" s="115">
         <v>4</v>
       </c>
-      <c r="H34" s="128">
+      <c r="H34" s="115">
         <v>1356382</v>
       </c>
       <c r="I34" t="s">
@@ -14561,25 +14885,25 @@
       <c r="A35" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C35" s="122">
+      <c r="C35" s="109">
         <v>38168</v>
       </c>
-      <c r="D35" s="128">
+      <c r="D35" s="115">
         <v>-8698728</v>
       </c>
-      <c r="E35" s="128">
+      <c r="E35" s="115">
         <v>29</v>
       </c>
-      <c r="F35" s="139">
+      <c r="F35" s="140">
         <v>-10055165</v>
       </c>
-      <c r="G35" s="128">
+      <c r="G35" s="115">
         <v>19</v>
       </c>
-      <c r="H35" s="128">
+      <c r="H35" s="115">
         <v>-701290</v>
       </c>
       <c r="I35" t="s">
@@ -14590,25 +14914,25 @@
       <c r="A36" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="118" t="s">
+      <c r="B36" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C36" s="122">
+      <c r="C36" s="109">
         <v>38533</v>
       </c>
-      <c r="D36" s="128">
+      <c r="D36" s="115">
         <v>21605884</v>
       </c>
-      <c r="E36" s="128">
+      <c r="E36" s="115">
         <v>15</v>
       </c>
-      <c r="F36" s="139">
+      <c r="F36" s="140">
         <v>12875476</v>
       </c>
-      <c r="G36" s="128">
+      <c r="G36" s="115">
         <v>5</v>
       </c>
-      <c r="H36" s="128">
+      <c r="H36" s="115">
         <v>2748323</v>
       </c>
       <c r="I36" t="s">
@@ -14619,25 +14943,25 @@
       <c r="A37" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C37" s="122">
+      <c r="C37" s="109">
         <v>38533</v>
       </c>
-      <c r="D37" s="128">
+      <c r="D37" s="115">
         <v>27253819</v>
       </c>
-      <c r="E37" s="128">
+      <c r="E37" s="115">
         <v>30</v>
       </c>
-      <c r="F37" s="139">
+      <c r="F37" s="140">
         <v>32026629</v>
       </c>
-      <c r="G37" s="128">
+      <c r="G37" s="115">
         <v>20</v>
       </c>
-      <c r="H37" s="128">
+      <c r="H37" s="115">
         <v>2153591</v>
       </c>
       <c r="I37" t="s">
@@ -14648,25 +14972,25 @@
       <c r="A38" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="118" t="s">
+      <c r="B38" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C38" s="122">
+      <c r="C38" s="109">
         <v>38898</v>
       </c>
-      <c r="D38" s="128">
+      <c r="D38" s="115">
         <v>16400257</v>
       </c>
-      <c r="E38" s="128">
+      <c r="E38" s="115">
         <v>15</v>
       </c>
-      <c r="F38" s="139">
+      <c r="F38" s="140">
         <v>10992586</v>
       </c>
-      <c r="G38" s="128">
+      <c r="G38" s="115">
         <v>6</v>
       </c>
-      <c r="H38" s="128">
+      <c r="H38" s="115">
         <v>1986977</v>
       </c>
       <c r="I38" t="s">
@@ -14677,25 +15001,25 @@
       <c r="A39" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="118" t="s">
+      <c r="B39" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="122">
+      <c r="C39" s="109">
         <v>38898</v>
       </c>
-      <c r="D39" s="128">
+      <c r="D39" s="115">
         <v>29340123</v>
       </c>
-      <c r="E39" s="128">
+      <c r="E39" s="115">
         <v>30</v>
       </c>
-      <c r="F39" s="139">
+      <c r="F39" s="140">
         <v>33977506</v>
       </c>
-      <c r="G39" s="128">
+      <c r="G39" s="115">
         <v>21</v>
       </c>
-      <c r="H39" s="128">
+      <c r="H39" s="115">
         <v>2208183</v>
       </c>
       <c r="I39" t="s">
@@ -14706,25 +15030,25 @@
       <c r="A40" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="118" t="s">
+      <c r="B40" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="C40" s="122">
+      <c r="C40" s="109">
         <v>39263</v>
       </c>
-      <c r="D40" s="128">
+      <c r="D40" s="115">
         <v>-20934587</v>
       </c>
-      <c r="E40" s="128">
+      <c r="E40" s="115">
         <v>21</v>
       </c>
-      <c r="F40" s="139">
+      <c r="F40" s="140">
         <v>-20388022</v>
       </c>
-      <c r="G40" s="128">
+      <c r="G40" s="115">
         <v>13</v>
       </c>
-      <c r="H40" s="128">
+      <c r="H40" s="115">
         <v>-1898265</v>
       </c>
       <c r="I40" t="s">
@@ -14735,25 +15059,25 @@
       <c r="A41" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B41" s="118" t="s">
+      <c r="B41" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C41" s="122">
+      <c r="C41" s="109">
         <v>39263</v>
       </c>
-      <c r="D41" s="128">
+      <c r="D41" s="115">
         <v>-5027630</v>
       </c>
-      <c r="E41" s="128">
+      <c r="E41" s="115">
         <v>30</v>
       </c>
-      <c r="F41" s="139">
+      <c r="F41" s="140">
         <v>-5761499</v>
       </c>
-      <c r="G41" s="128">
+      <c r="G41" s="115">
         <v>22</v>
       </c>
-      <c r="H41" s="128">
+      <c r="H41" s="115">
         <v>-362675</v>
       </c>
       <c r="I41" t="s">
@@ -14764,25 +15088,25 @@
       <c r="A42" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="117" t="s">
+      <c r="B42" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="C42" s="121">
+      <c r="C42" s="108">
         <v>39629</v>
       </c>
-      <c r="D42" s="127">
+      <c r="D42" s="114">
         <v>-18292189</v>
       </c>
-      <c r="E42" s="127">
+      <c r="E42" s="114">
         <v>17</v>
       </c>
-      <c r="F42" s="138">
+      <c r="F42" s="139">
         <v>-16018591</v>
       </c>
-      <c r="G42" s="127">
+      <c r="G42" s="114">
         <v>10</v>
       </c>
-      <c r="H42" s="127">
+      <c r="H42" s="114">
         <v>-1850766</v>
       </c>
       <c r="I42" t="s">
@@ -14793,25 +15117,25 @@
       <c r="A43" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="118" t="s">
+      <c r="B43" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="122">
+      <c r="C43" s="109">
         <v>39629</v>
       </c>
-      <c r="D43" s="128">
+      <c r="D43" s="115">
         <v>8034472</v>
       </c>
-      <c r="E43" s="128">
+      <c r="E43" s="115">
         <v>30</v>
       </c>
-      <c r="F43" s="139">
+      <c r="F43" s="140">
         <v>9093221</v>
       </c>
-      <c r="G43" s="128">
+      <c r="G43" s="115">
         <v>23</v>
       </c>
-      <c r="H43" s="128">
+      <c r="H43" s="115">
         <v>555518</v>
       </c>
       <c r="I43" t="s">
@@ -14822,25 +15146,25 @@
       <c r="A44" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="118" t="s">
+      <c r="B44" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C44" s="122">
+      <c r="C44" s="109">
         <v>39994</v>
       </c>
-      <c r="D44" s="128">
+      <c r="D44" s="115">
         <v>10158177</v>
       </c>
-      <c r="E44" s="128">
+      <c r="E44" s="115">
         <v>15</v>
       </c>
-      <c r="F44" s="139">
+      <c r="F44" s="140">
         <v>8570512</v>
       </c>
-      <c r="G44" s="128">
+      <c r="G44" s="115">
         <v>9</v>
       </c>
-      <c r="H44" s="128">
+      <c r="H44" s="115">
         <v>1083128</v>
       </c>
       <c r="I44" t="s">
@@ -14851,25 +15175,25 @@
       <c r="A45" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B45" s="118" t="s">
+      <c r="B45" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C45" s="122">
+      <c r="C45" s="109">
         <v>40359</v>
       </c>
-      <c r="D45" s="128">
+      <c r="D45" s="115">
         <v>2144522</v>
       </c>
-      <c r="E45" s="128">
+      <c r="E45" s="115">
         <v>15</v>
       </c>
-      <c r="F45" s="139">
+      <c r="F45" s="140">
         <v>1896643</v>
       </c>
-      <c r="G45" s="128">
+      <c r="G45" s="115">
         <v>10</v>
       </c>
-      <c r="H45" s="128">
+      <c r="H45" s="115">
         <v>219135</v>
       </c>
       <c r="I45" t="s">
@@ -14880,25 +15204,25 @@
       <c r="A46" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B46" s="118" t="s">
+      <c r="B46" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C46" s="122">
+      <c r="C46" s="109">
         <v>40359</v>
       </c>
-      <c r="D46" s="128">
+      <c r="D46" s="115">
         <v>25997606</v>
       </c>
-      <c r="E46" s="128">
+      <c r="E46" s="115">
         <v>30</v>
       </c>
-      <c r="F46" s="139">
+      <c r="F46" s="140">
         <v>28549757</v>
       </c>
-      <c r="G46" s="128">
+      <c r="G46" s="115">
         <v>25</v>
       </c>
-      <c r="H46" s="128">
+      <c r="H46" s="115">
         <v>1651439</v>
       </c>
       <c r="I46" t="s">
@@ -14909,25 +15233,25 @@
       <c r="A47" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B47" s="118" t="s">
+      <c r="B47" s="105" t="s">
         <v>227</v>
       </c>
-      <c r="C47" s="122">
+      <c r="C47" s="109">
         <v>40724</v>
       </c>
-      <c r="D47" s="128">
+      <c r="D47" s="115">
         <v>-18044</v>
       </c>
-      <c r="E47" s="128">
+      <c r="E47" s="115">
         <v>30</v>
       </c>
-      <c r="F47" s="139">
+      <c r="F47" s="140">
         <v>-19490</v>
       </c>
-      <c r="G47" s="128">
+      <c r="G47" s="115">
         <v>26</v>
       </c>
-      <c r="H47" s="128">
+      <c r="H47" s="115">
         <v>-1100</v>
       </c>
       <c r="I47" t="s">
@@ -14938,25 +15262,25 @@
       <c r="A48" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="118" t="s">
+      <c r="B48" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C48" s="122">
+      <c r="C48" s="109">
         <v>40724</v>
       </c>
-      <c r="D48" s="128">
+      <c r="D48" s="115">
         <v>1095451</v>
       </c>
-      <c r="E48" s="128">
+      <c r="E48" s="115">
         <v>15</v>
       </c>
-      <c r="F48" s="139">
+      <c r="F48" s="140">
         <v>1006485</v>
       </c>
-      <c r="G48" s="128">
+      <c r="G48" s="115">
         <v>11</v>
       </c>
-      <c r="H48" s="128">
+      <c r="H48" s="115">
         <v>107378</v>
       </c>
       <c r="I48" t="s">
@@ -14967,25 +15291,25 @@
       <c r="A49" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B49" s="118" t="s">
+      <c r="B49" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C49" s="122">
+      <c r="C49" s="109">
         <v>40724</v>
       </c>
-      <c r="D49" s="128">
+      <c r="D49" s="115">
         <v>25593931</v>
       </c>
-      <c r="E49" s="128">
+      <c r="E49" s="115">
         <v>30</v>
       </c>
-      <c r="F49" s="139">
+      <c r="F49" s="140">
         <v>27643126</v>
       </c>
-      <c r="G49" s="128">
+      <c r="G49" s="115">
         <v>26</v>
       </c>
-      <c r="H49" s="128">
+      <c r="H49" s="115">
         <v>1559561</v>
       </c>
       <c r="I49" t="s">
@@ -14996,25 +15320,25 @@
       <c r="A50" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B50" s="118" t="s">
+      <c r="B50" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C50" s="122">
+      <c r="C50" s="109">
         <v>41090</v>
       </c>
-      <c r="D50" s="128">
+      <c r="D50" s="115">
         <v>10983184</v>
       </c>
-      <c r="E50" s="128">
+      <c r="E50" s="115">
         <v>20</v>
       </c>
-      <c r="F50" s="139">
+      <c r="F50" s="140">
         <v>11032691</v>
       </c>
-      <c r="G50" s="128">
+      <c r="G50" s="115">
         <v>17</v>
       </c>
-      <c r="H50" s="128">
+      <c r="H50" s="115">
         <v>834716</v>
       </c>
       <c r="I50" t="s">
@@ -15025,25 +15349,25 @@
       <c r="A51" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="118" t="s">
+      <c r="B51" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C51" s="122">
+      <c r="C51" s="109">
         <v>41455</v>
       </c>
-      <c r="D51" s="128">
+      <c r="D51" s="115">
         <v>6011719</v>
       </c>
-      <c r="E51" s="128">
+      <c r="E51" s="115">
         <v>20</v>
       </c>
-      <c r="F51" s="139">
+      <c r="F51" s="140">
         <v>6042484</v>
       </c>
-      <c r="G51" s="128">
+      <c r="G51" s="115">
         <v>18</v>
       </c>
-      <c r="H51" s="128">
+      <c r="H51" s="115">
         <v>438275</v>
       </c>
       <c r="I51" t="s">
@@ -15054,25 +15378,25 @@
       <c r="A52" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B52" s="118" t="s">
+      <c r="B52" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="C52" s="122">
+      <c r="C52" s="109">
         <v>41820</v>
       </c>
-      <c r="D52" s="128">
+      <c r="D52" s="115">
         <v>-15610972</v>
       </c>
-      <c r="E52" s="128">
+      <c r="E52" s="115">
         <v>20</v>
       </c>
-      <c r="F52" s="139">
+      <c r="F52" s="140">
         <v>-15653324</v>
       </c>
-      <c r="G52" s="128">
+      <c r="G52" s="115">
         <v>19</v>
       </c>
-      <c r="H52" s="128">
+      <c r="H52" s="115">
         <v>-1091730</v>
       </c>
       <c r="I52" t="s">
@@ -15083,25 +15407,25 @@
       <c r="A53" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B53" s="118" t="s">
+      <c r="B53" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C53" s="122">
+      <c r="C53" s="109">
         <v>41820</v>
       </c>
-      <c r="D53" s="128">
+      <c r="D53" s="115">
         <v>-3528915</v>
       </c>
-      <c r="E53" s="128">
+      <c r="E53" s="115">
         <v>25</v>
       </c>
-      <c r="F53" s="139">
+      <c r="F53" s="140">
         <v>-3574147</v>
       </c>
-      <c r="G53" s="128">
+      <c r="G53" s="115">
         <v>24</v>
       </c>
-      <c r="H53" s="128">
+      <c r="H53" s="115">
         <v>-212293</v>
       </c>
       <c r="I53" t="s">
@@ -15112,25 +15436,25 @@
       <c r="A54" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="118" t="s">
+      <c r="B54" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="C54" s="122">
+      <c r="C54" s="109">
         <v>42185</v>
       </c>
-      <c r="D54" s="128">
+      <c r="D54" s="115">
         <v>-46361062</v>
       </c>
-      <c r="E54" s="128">
+      <c r="E54" s="115">
         <v>20</v>
       </c>
-      <c r="F54" s="140">
+      <c r="F54" s="141">
         <v>-46361062</v>
       </c>
-      <c r="G54" s="128">
+      <c r="G54" s="115">
         <v>20</v>
       </c>
-      <c r="H54" s="129">
+      <c r="H54" s="116">
         <v>-3117492</v>
       </c>
       <c r="I54" t="s">
@@ -15141,25 +15465,25 @@
       <c r="A55" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B55" s="117" t="s">
+      <c r="B55" s="104" t="s">
         <v>222</v>
       </c>
-      <c r="C55" s="121">
+      <c r="C55" s="108">
         <v>32689</v>
       </c>
-      <c r="D55" s="127">
+      <c r="D55" s="114">
         <v>-6262457</v>
       </c>
-      <c r="E55" s="127">
+      <c r="E55" s="114">
         <v>14</v>
       </c>
-      <c r="F55" s="138">
+      <c r="F55" s="139">
         <v>-3201873</v>
       </c>
-      <c r="G55" s="127">
+      <c r="G55" s="114">
         <v>4</v>
       </c>
-      <c r="H55" s="127">
+      <c r="H55" s="114">
         <v>-840639</v>
       </c>
       <c r="I55" t="s">
@@ -15170,25 +15494,25 @@
       <c r="A56" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B56" s="118" t="s">
+      <c r="B56" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="C56" s="122">
+      <c r="C56" s="109">
         <v>33054</v>
       </c>
-      <c r="D56" s="128">
+      <c r="D56" s="115">
         <v>109592</v>
       </c>
-      <c r="E56" s="128">
+      <c r="E56" s="115">
         <v>15</v>
       </c>
-      <c r="F56" s="139">
+      <c r="F56" s="140">
         <v>65309</v>
       </c>
-      <c r="G56" s="128">
+      <c r="G56" s="115">
         <v>5</v>
       </c>
-      <c r="H56" s="128">
+      <c r="H56" s="115">
         <v>13940</v>
       </c>
       <c r="I56" t="s">
@@ -15199,25 +15523,25 @@
       <c r="A57" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B57" s="118" t="s">
+      <c r="B57" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C57" s="122">
+      <c r="C57" s="109">
         <v>33054</v>
       </c>
-      <c r="D57" s="128">
+      <c r="D57" s="115">
         <v>-2461841</v>
       </c>
-      <c r="E57" s="128">
+      <c r="E57" s="115">
         <v>15</v>
       </c>
-      <c r="F57" s="139">
+      <c r="F57" s="140">
         <v>-1467071</v>
       </c>
-      <c r="G57" s="128">
+      <c r="G57" s="115">
         <v>5</v>
       </c>
-      <c r="H57" s="128">
+      <c r="H57" s="115">
         <v>-313152</v>
       </c>
       <c r="I57" t="s">
@@ -15228,25 +15552,25 @@
       <c r="A58" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="118" t="s">
+      <c r="B58" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C58" s="122">
+      <c r="C58" s="109">
         <v>33785</v>
       </c>
-      <c r="D58" s="128">
+      <c r="D58" s="115">
         <v>962115</v>
       </c>
-      <c r="E58" s="128">
+      <c r="E58" s="115">
         <v>17</v>
       </c>
-      <c r="F58" s="139">
+      <c r="F58" s="140">
         <v>706904</v>
       </c>
-      <c r="G58" s="128">
+      <c r="G58" s="115">
         <v>7</v>
       </c>
-      <c r="H58" s="128">
+      <c r="H58" s="115">
         <v>111285</v>
       </c>
       <c r="I58" t="s">
@@ -15257,25 +15581,25 @@
       <c r="A59" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C59" s="122">
+      <c r="C59" s="109">
         <v>34880</v>
       </c>
-      <c r="D59" s="128">
+      <c r="D59" s="115">
         <v>-7967987</v>
       </c>
-      <c r="E59" s="128">
+      <c r="E59" s="115">
         <v>20</v>
       </c>
-      <c r="F59" s="139">
+      <c r="F59" s="140">
         <v>-7088682</v>
       </c>
-      <c r="G59" s="128">
+      <c r="G59" s="115">
         <v>10</v>
       </c>
-      <c r="H59" s="128">
+      <c r="H59" s="115">
         <v>-819016</v>
       </c>
       <c r="I59" t="s">
@@ -15286,25 +15610,25 @@
       <c r="A60" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B60" s="118" t="s">
+      <c r="B60" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="C60" s="122">
+      <c r="C60" s="109">
         <v>35246</v>
       </c>
-      <c r="D60" s="128">
+      <c r="D60" s="115">
         <v>1110115</v>
       </c>
-      <c r="E60" s="128">
+      <c r="E60" s="115">
         <v>21</v>
       </c>
-      <c r="F60" s="139">
+      <c r="F60" s="140">
         <v>1033661</v>
       </c>
-      <c r="G60" s="128">
+      <c r="G60" s="115">
         <v>11</v>
       </c>
-      <c r="H60" s="128">
+      <c r="H60" s="115">
         <v>110277</v>
       </c>
       <c r="I60" t="s">
@@ -15315,25 +15639,25 @@
       <c r="A61" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B61" s="118" t="s">
+      <c r="B61" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="C61" s="122">
+      <c r="C61" s="109">
         <v>35246</v>
       </c>
-      <c r="D61" s="128">
+      <c r="D61" s="115">
         <v>-7176108</v>
       </c>
-      <c r="E61" s="128">
+      <c r="E61" s="115">
         <v>21</v>
       </c>
-      <c r="F61" s="139">
+      <c r="F61" s="140">
         <v>-6681874</v>
       </c>
-      <c r="G61" s="128">
+      <c r="G61" s="115">
         <v>11</v>
       </c>
-      <c r="H61" s="128">
+      <c r="H61" s="115">
         <v>-712861</v>
       </c>
       <c r="I61" t="s">
@@ -15344,25 +15668,25 @@
       <c r="A62" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="118" t="s">
+      <c r="B62" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="C62" s="122">
+      <c r="C62" s="109">
         <v>35976</v>
       </c>
-      <c r="D62" s="128">
+      <c r="D62" s="115">
         <v>2159884</v>
       </c>
-      <c r="E62" s="128">
+      <c r="E62" s="115">
         <v>23</v>
       </c>
-      <c r="F62" s="139">
+      <c r="F62" s="140">
         <v>2166018</v>
       </c>
-      <c r="G62" s="128">
+      <c r="G62" s="115">
         <v>13</v>
       </c>
-      <c r="H62" s="128">
+      <c r="H62" s="115">
         <v>201671</v>
       </c>
       <c r="I62" t="s">
@@ -15373,25 +15697,25 @@
       <c r="A63" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B63" s="118" t="s">
+      <c r="B63" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C63" s="122">
+      <c r="C63" s="109">
         <v>35976</v>
       </c>
-      <c r="D63" s="128">
+      <c r="D63" s="115">
         <v>3632689</v>
       </c>
-      <c r="E63" s="128">
+      <c r="E63" s="115">
         <v>23</v>
       </c>
-      <c r="F63" s="139">
+      <c r="F63" s="140">
         <v>3643005</v>
       </c>
-      <c r="G63" s="128">
+      <c r="G63" s="115">
         <v>13</v>
       </c>
-      <c r="H63" s="128">
+      <c r="H63" s="115">
         <v>339189</v>
       </c>
       <c r="I63" t="s">
@@ -15402,25 +15726,25 @@
       <c r="A64" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B64" s="118" t="s">
+      <c r="B64" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="C64" s="122">
+      <c r="C64" s="109">
         <v>36707</v>
       </c>
-      <c r="D64" s="128">
+      <c r="D64" s="115">
         <v>370129</v>
       </c>
-      <c r="E64" s="128">
+      <c r="E64" s="115">
         <v>25</v>
       </c>
-      <c r="F64" s="139">
+      <c r="F64" s="140">
         <v>393281</v>
       </c>
-      <c r="G64" s="128">
+      <c r="G64" s="115">
         <v>15</v>
       </c>
-      <c r="H64" s="128">
+      <c r="H64" s="115">
         <v>32719</v>
       </c>
       <c r="I64" t="s">
@@ -15431,25 +15755,25 @@
       <c r="A65" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B65" s="118" t="s">
+      <c r="B65" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="C65" s="122">
+      <c r="C65" s="109">
         <v>37072</v>
       </c>
-      <c r="D65" s="128">
+      <c r="D65" s="115">
         <v>-9231354</v>
       </c>
-      <c r="E65" s="128">
+      <c r="E65" s="115">
         <v>11</v>
       </c>
-      <c r="F65" s="139">
+      <c r="F65" s="140">
         <v>-1506076</v>
       </c>
-      <c r="G65" s="128">
+      <c r="G65" s="115">
         <v>1</v>
       </c>
-      <c r="H65" s="128">
+      <c r="H65" s="115">
         <v>-1506076</v>
       </c>
       <c r="I65" t="s">
@@ -15460,25 +15784,25 @@
       <c r="A66" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B66" s="118" t="s">
+      <c r="B66" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C66" s="122">
+      <c r="C66" s="109">
         <v>37072</v>
       </c>
-      <c r="D66" s="128">
+      <c r="D66" s="115">
         <v>-4878745</v>
       </c>
-      <c r="E66" s="128">
+      <c r="E66" s="115">
         <v>26</v>
       </c>
-      <c r="F66" s="139">
+      <c r="F66" s="140">
         <v>-5311867</v>
       </c>
-      <c r="G66" s="128">
+      <c r="G66" s="115">
         <v>16</v>
       </c>
-      <c r="H66" s="128">
+      <c r="H66" s="115">
         <v>-420627</v>
       </c>
       <c r="I66" t="s">
@@ -15489,25 +15813,25 @@
       <c r="A67" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B67" s="118" t="s">
+      <c r="B67" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C67" s="122">
+      <c r="C67" s="109">
         <v>37437</v>
       </c>
-      <c r="D67" s="128">
+      <c r="D67" s="115">
         <v>18536288</v>
       </c>
-      <c r="E67" s="128">
+      <c r="E67" s="115">
         <v>12</v>
       </c>
-      <c r="F67" s="139">
+      <c r="F67" s="140">
         <v>5538977</v>
       </c>
-      <c r="G67" s="128">
+      <c r="G67" s="115">
         <v>2</v>
       </c>
-      <c r="H67" s="128">
+      <c r="H67" s="115">
         <v>2815319</v>
       </c>
       <c r="I67" t="s">
@@ -15518,25 +15842,25 @@
       <c r="A68" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B68" s="118" t="s">
+      <c r="B68" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C68" s="122">
+      <c r="C68" s="109">
         <v>37802</v>
       </c>
-      <c r="D68" s="128">
+      <c r="D68" s="115">
         <v>59690449</v>
       </c>
-      <c r="E68" s="128">
+      <c r="E68" s="115">
         <v>13</v>
       </c>
-      <c r="F68" s="139">
+      <c r="F68" s="140">
         <v>24673184</v>
       </c>
-      <c r="G68" s="128">
+      <c r="G68" s="115">
         <v>3</v>
       </c>
-      <c r="H68" s="128">
+      <c r="H68" s="115">
         <v>8498073</v>
       </c>
       <c r="I68" t="s">
@@ -15547,25 +15871,25 @@
       <c r="A69" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B69" s="118" t="s">
+      <c r="B69" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C69" s="122">
+      <c r="C69" s="109">
         <v>38168</v>
       </c>
-      <c r="D69" s="128">
+      <c r="D69" s="115">
         <v>10147466</v>
       </c>
-      <c r="E69" s="128">
+      <c r="E69" s="115">
         <v>14</v>
       </c>
-      <c r="F69" s="139">
+      <c r="F69" s="140">
         <v>5188202</v>
       </c>
-      <c r="G69" s="128">
+      <c r="G69" s="115">
         <v>4</v>
       </c>
-      <c r="H69" s="128">
+      <c r="H69" s="115">
         <v>1362141</v>
       </c>
       <c r="I69" t="s">
@@ -15576,25 +15900,25 @@
       <c r="A70" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B70" s="118" t="s">
+      <c r="B70" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C70" s="122">
+      <c r="C70" s="109">
         <v>38168</v>
       </c>
-      <c r="D70" s="128">
+      <c r="D70" s="115">
         <v>-5220974</v>
       </c>
-      <c r="E70" s="128">
+      <c r="E70" s="115">
         <v>29</v>
       </c>
-      <c r="F70" s="139">
+      <c r="F70" s="140">
         <v>-6035109</v>
       </c>
-      <c r="G70" s="128">
+      <c r="G70" s="115">
         <v>19</v>
       </c>
-      <c r="H70" s="128">
+      <c r="H70" s="115">
         <v>-420914</v>
       </c>
       <c r="I70" t="s">
@@ -15605,25 +15929,25 @@
       <c r="A71" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B71" s="118" t="s">
+      <c r="B71" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C71" s="122">
+      <c r="C71" s="109">
         <v>38533</v>
       </c>
-      <c r="D71" s="128">
+      <c r="D71" s="115">
         <v>13244413</v>
       </c>
-      <c r="E71" s="128">
+      <c r="E71" s="115">
         <v>15</v>
       </c>
-      <c r="F71" s="139">
+      <c r="F71" s="140">
         <v>7892672</v>
       </c>
-      <c r="G71" s="128">
+      <c r="G71" s="115">
         <v>5</v>
       </c>
-      <c r="H71" s="128">
+      <c r="H71" s="115">
         <v>1684723</v>
       </c>
       <c r="I71" t="s">
@@ -15634,25 +15958,25 @@
       <c r="A72" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B72" s="118" t="s">
+      <c r="B72" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C72" s="122">
+      <c r="C72" s="109">
         <v>38533</v>
       </c>
-      <c r="D72" s="128">
+      <c r="D72" s="115">
         <v>14033320</v>
       </c>
-      <c r="E72" s="128">
+      <c r="E72" s="115">
         <v>30</v>
       </c>
-      <c r="F72" s="139">
+      <c r="F72" s="140">
         <v>16490896</v>
       </c>
-      <c r="G72" s="128">
+      <c r="G72" s="115">
         <v>20</v>
       </c>
-      <c r="H72" s="128">
+      <c r="H72" s="115">
         <v>1108910</v>
       </c>
       <c r="I72" t="s">
@@ -15663,25 +15987,25 @@
       <c r="A73" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="118" t="s">
+      <c r="B73" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C73" s="122">
+      <c r="C73" s="109">
         <v>38898</v>
       </c>
-      <c r="D73" s="128">
+      <c r="D73" s="115">
         <v>6063600</v>
       </c>
-      <c r="E73" s="128">
+      <c r="E73" s="115">
         <v>15</v>
       </c>
-      <c r="F73" s="139">
+      <c r="F73" s="140">
         <v>4064244</v>
       </c>
-      <c r="G73" s="128">
+      <c r="G73" s="115">
         <v>6</v>
       </c>
-      <c r="H73" s="128">
+      <c r="H73" s="115">
         <v>734637</v>
       </c>
       <c r="I73" t="s">
@@ -15692,25 +16016,25 @@
       <c r="A74" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B74" s="118" t="s">
+      <c r="B74" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C74" s="122">
+      <c r="C74" s="109">
         <v>38898</v>
       </c>
-      <c r="D74" s="128">
+      <c r="D74" s="115">
         <v>14561746</v>
       </c>
-      <c r="E74" s="128">
+      <c r="E74" s="115">
         <v>30</v>
       </c>
-      <c r="F74" s="139">
+      <c r="F74" s="140">
         <v>16863317</v>
       </c>
-      <c r="G74" s="128">
+      <c r="G74" s="115">
         <v>21</v>
       </c>
-      <c r="H74" s="128">
+      <c r="H74" s="115">
         <v>1095940</v>
       </c>
       <c r="I74" t="s">
@@ -15721,25 +16045,25 @@
       <c r="A75" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B75" s="118" t="s">
+      <c r="B75" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="C75" s="122">
+      <c r="C75" s="109">
         <v>39263</v>
       </c>
-      <c r="D75" s="128">
+      <c r="D75" s="115">
         <v>-8926309</v>
       </c>
-      <c r="E75" s="128">
+      <c r="E75" s="115">
         <v>21</v>
       </c>
-      <c r="F75" s="139">
+      <c r="F75" s="140">
         <v>-8693261</v>
       </c>
-      <c r="G75" s="128">
+      <c r="G75" s="115">
         <v>13</v>
       </c>
-      <c r="H75" s="128">
+      <c r="H75" s="115">
         <v>-809403</v>
       </c>
       <c r="I75" t="s">
@@ -15750,25 +16074,25 @@
       <c r="A76" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="118" t="s">
+      <c r="B76" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C76" s="122">
+      <c r="C76" s="109">
         <v>39263</v>
       </c>
-      <c r="D76" s="128">
+      <c r="D76" s="115">
         <v>-3015790</v>
       </c>
-      <c r="E76" s="128">
+      <c r="E76" s="115">
         <v>30</v>
       </c>
-      <c r="F76" s="139">
+      <c r="F76" s="140">
         <v>-3455996</v>
       </c>
-      <c r="G76" s="128">
+      <c r="G76" s="115">
         <v>22</v>
       </c>
-      <c r="H76" s="128">
+      <c r="H76" s="115">
         <v>-217548</v>
       </c>
       <c r="I76" t="s">
@@ -15779,25 +16103,25 @@
       <c r="A77" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B77" s="117" t="s">
+      <c r="B77" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="C77" s="121">
+      <c r="C77" s="108">
         <v>39629</v>
       </c>
-      <c r="D77" s="127">
+      <c r="D77" s="114">
         <v>-4429445</v>
       </c>
-      <c r="E77" s="127">
+      <c r="E77" s="114">
         <v>17</v>
       </c>
-      <c r="F77" s="138">
+      <c r="F77" s="139">
         <v>-3878895</v>
       </c>
-      <c r="G77" s="127">
+      <c r="G77" s="114">
         <v>10</v>
       </c>
-      <c r="H77" s="127">
+      <c r="H77" s="114">
         <v>-448162</v>
       </c>
       <c r="I77" t="s">
@@ -15808,25 +16132,25 @@
       <c r="A78" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B78" s="118" t="s">
+      <c r="B78" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C78" s="122">
+      <c r="C78" s="109">
         <v>39629</v>
       </c>
-      <c r="D78" s="128">
+      <c r="D78" s="115">
         <v>10599393</v>
       </c>
-      <c r="E78" s="128">
+      <c r="E78" s="115">
         <v>30</v>
       </c>
-      <c r="F78" s="139">
+      <c r="F78" s="140">
         <v>11996135</v>
       </c>
-      <c r="G78" s="128">
+      <c r="G78" s="115">
         <v>23</v>
       </c>
-      <c r="H78" s="128">
+      <c r="H78" s="115">
         <v>732862</v>
       </c>
       <c r="I78" t="s">
@@ -15837,25 +16161,25 @@
       <c r="A79" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B79" s="118" t="s">
+      <c r="B79" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C79" s="122">
+      <c r="C79" s="109">
         <v>39994</v>
       </c>
-      <c r="D79" s="128">
+      <c r="D79" s="115">
         <v>11924683</v>
       </c>
-      <c r="E79" s="128">
+      <c r="E79" s="115">
         <v>15</v>
       </c>
-      <c r="F79" s="139">
+      <c r="F79" s="140">
         <v>10060922</v>
       </c>
-      <c r="G79" s="128">
+      <c r="G79" s="115">
         <v>9</v>
       </c>
-      <c r="H79" s="128">
+      <c r="H79" s="115">
         <v>1271484</v>
       </c>
       <c r="I79" t="s">
@@ -15866,25 +16190,25 @@
       <c r="A80" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B80" s="118" t="s">
+      <c r="B80" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C80" s="122">
+      <c r="C80" s="109">
         <v>40359</v>
       </c>
-      <c r="D80" s="128">
+      <c r="D80" s="115">
         <v>4794050</v>
       </c>
-      <c r="E80" s="128">
+      <c r="E80" s="115">
         <v>15</v>
       </c>
-      <c r="F80" s="139">
+      <c r="F80" s="140">
         <v>4239921</v>
       </c>
-      <c r="G80" s="128">
+      <c r="G80" s="115">
         <v>10</v>
       </c>
-      <c r="H80" s="128">
+      <c r="H80" s="115">
         <v>489875</v>
       </c>
       <c r="I80" t="s">
@@ -15895,25 +16219,25 @@
       <c r="A81" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="118" t="s">
+      <c r="B81" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C81" s="122">
+      <c r="C81" s="109">
         <v>40359</v>
       </c>
-      <c r="D81" s="128">
+      <c r="D81" s="115">
         <v>12948180</v>
       </c>
-      <c r="E81" s="128">
+      <c r="E81" s="115">
         <v>30</v>
       </c>
-      <c r="F81" s="139">
+      <c r="F81" s="140">
         <v>14219285</v>
       </c>
-      <c r="G81" s="128">
+      <c r="G81" s="115">
         <v>25</v>
       </c>
-      <c r="H81" s="128">
+      <c r="H81" s="115">
         <v>822504</v>
       </c>
       <c r="I81" t="s">
@@ -15924,25 +16248,25 @@
       <c r="A82" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B82" s="118" t="s">
+      <c r="B82" s="105" t="s">
         <v>227</v>
       </c>
-      <c r="C82" s="122">
+      <c r="C82" s="109">
         <v>40724</v>
       </c>
-      <c r="D82" s="128">
+      <c r="D82" s="115">
         <v>1483135</v>
       </c>
-      <c r="E82" s="128">
+      <c r="E82" s="115">
         <v>30</v>
       </c>
-      <c r="F82" s="139">
+      <c r="F82" s="140">
         <v>1601883</v>
       </c>
-      <c r="G82" s="128">
+      <c r="G82" s="115">
         <v>26</v>
       </c>
-      <c r="H82" s="128">
+      <c r="H82" s="115">
         <v>90375</v>
       </c>
       <c r="I82" t="s">
@@ -15953,25 +16277,25 @@
       <c r="A83" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B83" s="118" t="s">
+      <c r="B83" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C83" s="122">
+      <c r="C83" s="109">
         <v>40724</v>
       </c>
-      <c r="D83" s="128">
+      <c r="D83" s="115">
         <v>5867945</v>
       </c>
-      <c r="E83" s="128">
+      <c r="E83" s="115">
         <v>15</v>
       </c>
-      <c r="F83" s="139">
+      <c r="F83" s="140">
         <v>5391388</v>
       </c>
-      <c r="G83" s="128">
+      <c r="G83" s="115">
         <v>11</v>
       </c>
-      <c r="H83" s="128">
+      <c r="H83" s="115">
         <v>575184</v>
       </c>
       <c r="I83" t="s">
@@ -15982,25 +16306,25 @@
       <c r="A84" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B84" s="118" t="s">
+      <c r="B84" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C84" s="122">
+      <c r="C84" s="109">
         <v>40724</v>
       </c>
-      <c r="D84" s="128">
+      <c r="D84" s="115">
         <v>12753767</v>
       </c>
-      <c r="E84" s="128">
+      <c r="E84" s="115">
         <v>30</v>
       </c>
-      <c r="F84" s="139">
+      <c r="F84" s="140">
         <v>13774906</v>
       </c>
-      <c r="G84" s="128">
+      <c r="G84" s="115">
         <v>26</v>
       </c>
-      <c r="H84" s="128">
+      <c r="H84" s="115">
         <v>777148</v>
       </c>
       <c r="I84" t="s">
@@ -16011,25 +16335,25 @@
       <c r="A85" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B85" s="118" t="s">
+      <c r="B85" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C85" s="122">
+      <c r="C85" s="109">
         <v>41090</v>
       </c>
-      <c r="D85" s="128">
+      <c r="D85" s="115">
         <v>9377426</v>
       </c>
-      <c r="E85" s="128">
+      <c r="E85" s="115">
         <v>20</v>
       </c>
-      <c r="F85" s="139">
+      <c r="F85" s="140">
         <v>9419696</v>
       </c>
-      <c r="G85" s="128">
+      <c r="G85" s="115">
         <v>17</v>
       </c>
-      <c r="H85" s="128">
+      <c r="H85" s="115">
         <v>712679</v>
       </c>
       <c r="I85" t="s">
@@ -16040,25 +16364,25 @@
       <c r="A86" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B86" s="118" t="s">
+      <c r="B86" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C86" s="122">
+      <c r="C86" s="109">
         <v>41455</v>
       </c>
-      <c r="D86" s="128">
+      <c r="D86" s="115">
         <v>6625380</v>
       </c>
-      <c r="E86" s="128">
+      <c r="E86" s="115">
         <v>20</v>
       </c>
-      <c r="F86" s="139">
+      <c r="F86" s="140">
         <v>6659284</v>
       </c>
-      <c r="G86" s="128">
+      <c r="G86" s="115">
         <v>18</v>
       </c>
-      <c r="H86" s="128">
+      <c r="H86" s="115">
         <v>483013</v>
       </c>
       <c r="I86" t="s">
@@ -16069,25 +16393,25 @@
       <c r="A87" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B87" s="118" t="s">
+      <c r="B87" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="C87" s="122">
+      <c r="C87" s="109">
         <v>41820</v>
       </c>
-      <c r="D87" s="128">
+      <c r="D87" s="115">
         <v>-11060872</v>
       </c>
-      <c r="E87" s="128">
+      <c r="E87" s="115">
         <v>20</v>
       </c>
-      <c r="F87" s="139">
+      <c r="F87" s="140">
         <v>-11090879</v>
       </c>
-      <c r="G87" s="128">
+      <c r="G87" s="115">
         <v>19</v>
       </c>
-      <c r="H87" s="128">
+      <c r="H87" s="115">
         <v>-773526</v>
       </c>
       <c r="I87" t="s">
@@ -16098,25 +16422,25 @@
       <c r="A88" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B88" s="118" t="s">
+      <c r="B88" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C88" s="122">
+      <c r="C88" s="109">
         <v>41820</v>
       </c>
-      <c r="D88" s="128">
+      <c r="D88" s="115">
         <v>9988189</v>
       </c>
-      <c r="E88" s="128">
+      <c r="E88" s="115">
         <v>25</v>
       </c>
-      <c r="F88" s="139">
+      <c r="F88" s="140">
         <v>10116212</v>
       </c>
-      <c r="G88" s="128">
+      <c r="G88" s="115">
         <v>24</v>
       </c>
-      <c r="H88" s="128">
+      <c r="H88" s="115">
         <v>600870</v>
       </c>
       <c r="I88" t="s">
@@ -16127,25 +16451,25 @@
       <c r="A89" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B89" s="118" t="s">
+      <c r="B89" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="C89" s="122">
+      <c r="C89" s="109">
         <v>42185</v>
       </c>
-      <c r="D89" s="128">
+      <c r="D89" s="115">
         <v>-16640244</v>
       </c>
-      <c r="E89" s="128">
+      <c r="E89" s="115">
         <v>20</v>
       </c>
-      <c r="F89" s="140">
+      <c r="F89" s="141">
         <v>-16640244</v>
       </c>
-      <c r="G89" s="128">
+      <c r="G89" s="115">
         <v>20</v>
       </c>
-      <c r="H89" s="129">
+      <c r="H89" s="116">
         <v>-1118953</v>
       </c>
       <c r="I89" t="s">
@@ -16156,25 +16480,25 @@
       <c r="A90" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B90" s="117" t="s">
+      <c r="B90" s="104" t="s">
         <v>228</v>
       </c>
-      <c r="C90" s="121">
+      <c r="C90" s="108">
         <v>37437</v>
       </c>
-      <c r="D90" s="127">
+      <c r="D90" s="114">
         <v>-157564364</v>
       </c>
-      <c r="E90" s="127">
+      <c r="E90" s="114">
         <v>27</v>
       </c>
-      <c r="F90" s="138">
+      <c r="F90" s="139">
         <v>-175359657</v>
       </c>
-      <c r="G90" s="127">
+      <c r="G90" s="114">
         <v>17</v>
       </c>
-      <c r="H90" s="127">
+      <c r="H90" s="114">
         <v>-13267437</v>
       </c>
       <c r="I90" t="s">
@@ -16185,25 +16509,25 @@
       <c r="A91" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B91" s="118" t="s">
+      <c r="B91" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="C91" s="122">
+      <c r="C91" s="109">
         <v>37802</v>
       </c>
-      <c r="D91" s="128">
+      <c r="D91" s="115">
         <v>-314459851</v>
       </c>
-      <c r="E91" s="128">
+      <c r="E91" s="115">
         <v>13</v>
       </c>
-      <c r="F91" s="139">
+      <c r="F91" s="140">
         <v>-129982707</v>
       </c>
-      <c r="G91" s="128">
+      <c r="G91" s="115">
         <v>3</v>
       </c>
-      <c r="H91" s="128">
+      <c r="H91" s="115">
         <v>-44769357</v>
       </c>
       <c r="I91" t="s">
@@ -16214,25 +16538,25 @@
       <c r="A92" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B92" s="118" t="s">
+      <c r="B92" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C92" s="122">
+      <c r="C92" s="109">
         <v>38168</v>
       </c>
-      <c r="D92" s="128">
+      <c r="D92" s="115">
         <v>106500938</v>
       </c>
-      <c r="E92" s="128">
+      <c r="E92" s="115">
         <v>14</v>
       </c>
-      <c r="F92" s="139">
+      <c r="F92" s="140">
         <v>54451853</v>
       </c>
-      <c r="G92" s="128">
+      <c r="G92" s="115">
         <v>4</v>
       </c>
-      <c r="H92" s="128">
+      <c r="H92" s="115">
         <v>14296114</v>
       </c>
       <c r="I92" t="s">
@@ -16243,25 +16567,25 @@
       <c r="A93" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B93" s="118" t="s">
+      <c r="B93" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C93" s="122">
+      <c r="C93" s="109">
         <v>38168</v>
       </c>
-      <c r="D93" s="128">
+      <c r="D93" s="115">
         <v>-242147820</v>
       </c>
-      <c r="E93" s="128">
+      <c r="E93" s="115">
         <v>29</v>
       </c>
-      <c r="F93" s="139">
+      <c r="F93" s="140">
         <v>-279907155</v>
       </c>
-      <c r="G93" s="128">
+      <c r="G93" s="115">
         <v>19</v>
       </c>
-      <c r="H93" s="128">
+      <c r="H93" s="115">
         <v>-19521929</v>
       </c>
       <c r="I93" t="s">
@@ -16272,25 +16596,25 @@
       <c r="A94" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B94" s="118" t="s">
+      <c r="B94" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C94" s="122">
+      <c r="C94" s="109">
         <v>38533</v>
       </c>
-      <c r="D94" s="128">
+      <c r="D94" s="115">
         <v>241854245</v>
       </c>
-      <c r="E94" s="128">
+      <c r="E94" s="115">
         <v>15</v>
       </c>
-      <c r="F94" s="139">
+      <c r="F94" s="140">
         <v>144126876</v>
       </c>
-      <c r="G94" s="128">
+      <c r="G94" s="115">
         <v>5</v>
       </c>
-      <c r="H94" s="128">
+      <c r="H94" s="115">
         <v>30764476</v>
       </c>
       <c r="I94" t="s">
@@ -16301,25 +16625,25 @@
       <c r="A95" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B95" s="118" t="s">
+      <c r="B95" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C95" s="122">
+      <c r="C95" s="109">
         <v>38533</v>
       </c>
-      <c r="D95" s="128">
+      <c r="D95" s="115">
         <v>421011169</v>
       </c>
-      <c r="E95" s="128">
+      <c r="E95" s="115">
         <v>30</v>
       </c>
-      <c r="F95" s="139">
+      <c r="F95" s="140">
         <v>494740512</v>
       </c>
-      <c r="G95" s="128">
+      <c r="G95" s="115">
         <v>20</v>
       </c>
-      <c r="H95" s="128">
+      <c r="H95" s="115">
         <v>33268214</v>
       </c>
       <c r="I95" t="s">
@@ -16330,25 +16654,25 @@
       <c r="A96" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B96" s="118" t="s">
+      <c r="B96" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C96" s="122">
+      <c r="C96" s="109">
         <v>38898</v>
       </c>
-      <c r="D96" s="128">
+      <c r="D96" s="115">
         <v>64026458</v>
       </c>
-      <c r="E96" s="128">
+      <c r="E96" s="115">
         <v>15</v>
       </c>
-      <c r="F96" s="139">
+      <c r="F96" s="140">
         <v>42914963</v>
       </c>
-      <c r="G96" s="128">
+      <c r="G96" s="115">
         <v>6</v>
       </c>
-      <c r="H96" s="128">
+      <c r="H96" s="115">
         <v>7757140</v>
       </c>
       <c r="I96" t="s">
@@ -16359,25 +16683,25 @@
       <c r="A97" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B97" s="118" t="s">
+      <c r="B97" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C97" s="122">
+      <c r="C97" s="109">
         <v>38898</v>
       </c>
-      <c r="D97" s="128">
+      <c r="D97" s="115">
         <v>291388037</v>
       </c>
-      <c r="E97" s="128">
+      <c r="E97" s="115">
         <v>30</v>
       </c>
-      <c r="F97" s="139">
+      <c r="F97" s="140">
         <v>337443657</v>
       </c>
-      <c r="G97" s="128">
+      <c r="G97" s="115">
         <v>21</v>
       </c>
-      <c r="H97" s="128">
+      <c r="H97" s="115">
         <v>21930315</v>
       </c>
       <c r="I97" t="s">
@@ -16388,25 +16712,25 @@
       <c r="A98" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B98" s="118" t="s">
+      <c r="B98" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="C98" s="122">
+      <c r="C98" s="109">
         <v>39263</v>
       </c>
-      <c r="D98" s="128">
+      <c r="D98" s="115">
         <v>-200979530</v>
       </c>
-      <c r="E98" s="128">
+      <c r="E98" s="115">
         <v>21</v>
       </c>
-      <c r="F98" s="139">
+      <c r="F98" s="140">
         <v>-195732314</v>
       </c>
-      <c r="G98" s="128">
+      <c r="G98" s="115">
         <v>13</v>
       </c>
-      <c r="H98" s="128">
+      <c r="H98" s="115">
         <v>-18224028</v>
       </c>
       <c r="I98" t="s">
@@ -16417,25 +16741,25 @@
       <c r="A99" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B99" s="118" t="s">
+      <c r="B99" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C99" s="122">
+      <c r="C99" s="109">
         <v>39263</v>
       </c>
-      <c r="D99" s="128">
+      <c r="D99" s="115">
         <v>-71262522</v>
       </c>
-      <c r="E99" s="128">
+      <c r="E99" s="115">
         <v>30</v>
       </c>
-      <c r="F99" s="139">
+      <c r="F99" s="140">
         <v>-81664512</v>
       </c>
-      <c r="G99" s="128">
+      <c r="G99" s="115">
         <v>22</v>
       </c>
-      <c r="H99" s="128">
+      <c r="H99" s="115">
         <v>-5140623</v>
       </c>
       <c r="I99" t="s">
@@ -16446,25 +16770,25 @@
       <c r="A100" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B100" s="118" t="s">
+      <c r="B100" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="C100" s="122">
+      <c r="C100" s="109">
         <v>39629</v>
       </c>
-      <c r="D100" s="128">
+      <c r="D100" s="115">
         <v>-79435149</v>
       </c>
-      <c r="E100" s="128">
+      <c r="E100" s="115">
         <v>17</v>
       </c>
-      <c r="F100" s="139">
+      <c r="F100" s="140">
         <v>-69561879</v>
       </c>
-      <c r="G100" s="128">
+      <c r="G100" s="115">
         <v>10</v>
       </c>
-      <c r="H100" s="128">
+      <c r="H100" s="115">
         <v>-8037083</v>
       </c>
       <c r="I100" t="s">
@@ -16475,25 +16799,25 @@
       <c r="A101" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B101" s="118" t="s">
+      <c r="B101" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C101" s="122">
+      <c r="C101" s="109">
         <v>39629</v>
       </c>
-      <c r="D101" s="128">
+      <c r="D101" s="115">
         <v>312669142</v>
       </c>
-      <c r="E101" s="128">
+      <c r="E101" s="115">
         <v>30</v>
       </c>
-      <c r="F101" s="139">
+      <c r="F101" s="140">
         <v>353871292</v>
       </c>
-      <c r="G101" s="128">
+      <c r="G101" s="115">
         <v>23</v>
       </c>
-      <c r="H101" s="128">
+      <c r="H101" s="115">
         <v>21618528</v>
       </c>
       <c r="I101" t="s">
@@ -16504,25 +16828,25 @@
       <c r="A102" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B102" s="118" t="s">
+      <c r="B102" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C102" s="122">
+      <c r="C102" s="109">
         <v>39994</v>
       </c>
-      <c r="D102" s="128">
+      <c r="D102" s="115">
         <v>357256711</v>
       </c>
-      <c r="E102" s="128">
+      <c r="E102" s="115">
         <v>15</v>
       </c>
-      <c r="F102" s="139">
+      <c r="F102" s="140">
         <v>301419495</v>
       </c>
-      <c r="G102" s="128">
+      <c r="G102" s="115">
         <v>9</v>
       </c>
-      <c r="H102" s="128">
+      <c r="H102" s="115">
         <v>38092937</v>
       </c>
       <c r="I102" t="s">
@@ -16533,25 +16857,25 @@
       <c r="A103" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B103" s="118" t="s">
+      <c r="B103" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C103" s="122">
+      <c r="C103" s="109">
         <v>40359</v>
       </c>
-      <c r="D103" s="128">
+      <c r="D103" s="115">
         <v>207594800</v>
       </c>
-      <c r="E103" s="128">
+      <c r="E103" s="115">
         <v>15</v>
       </c>
-      <c r="F103" s="139">
+      <c r="F103" s="140">
         <v>183599531</v>
       </c>
-      <c r="G103" s="128">
+      <c r="G103" s="115">
         <v>10</v>
       </c>
-      <c r="H103" s="128">
+      <c r="H103" s="115">
         <v>21212834</v>
       </c>
       <c r="I103" t="s">
@@ -16562,25 +16886,25 @@
       <c r="A104" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B104" s="118" t="s">
+      <c r="B104" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C104" s="122">
+      <c r="C104" s="109">
         <v>40359</v>
       </c>
-      <c r="D104" s="128">
+      <c r="D104" s="115">
         <v>277673454</v>
       </c>
-      <c r="E104" s="128">
+      <c r="E104" s="115">
         <v>30</v>
       </c>
-      <c r="F104" s="139">
+      <c r="F104" s="140">
         <v>304932284</v>
       </c>
-      <c r="G104" s="128">
+      <c r="G104" s="115">
         <v>25</v>
       </c>
-      <c r="H104" s="128">
+      <c r="H104" s="115">
         <v>17638581</v>
       </c>
       <c r="I104" t="s">
@@ -16591,25 +16915,25 @@
       <c r="A105" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B105" s="118" t="s">
+      <c r="B105" s="105" t="s">
         <v>227</v>
       </c>
-      <c r="C105" s="122">
+      <c r="C105" s="109">
         <v>40724</v>
       </c>
-      <c r="D105" s="128">
+      <c r="D105" s="115">
         <v>5693576</v>
       </c>
-      <c r="E105" s="128">
+      <c r="E105" s="115">
         <v>30</v>
       </c>
-      <c r="F105" s="139">
+      <c r="F105" s="140">
         <v>6149437</v>
       </c>
-      <c r="G105" s="128">
+      <c r="G105" s="115">
         <v>26</v>
       </c>
-      <c r="H105" s="128">
+      <c r="H105" s="115">
         <v>346937</v>
       </c>
       <c r="I105" t="s">
@@ -16620,31 +16944,31 @@
       <c r="A106" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B106" s="118" t="s">
+      <c r="B106" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C106" s="122">
+      <c r="C106" s="109">
         <v>40724</v>
       </c>
-      <c r="D106" s="128">
+      <c r="D106" s="115">
         <v>125215079</v>
       </c>
-      <c r="E106" s="128">
+      <c r="E106" s="115">
         <v>15</v>
       </c>
-      <c r="F106" s="139">
+      <c r="F106" s="140">
         <v>115045890</v>
       </c>
-      <c r="G106" s="128">
+      <c r="G106" s="115">
         <v>11</v>
       </c>
-      <c r="H106" s="128">
+      <c r="H106" s="115">
         <v>12273760</v>
       </c>
       <c r="I106" t="s">
         <v>246</v>
       </c>
-      <c r="L106" s="120" t="s">
+      <c r="L106" s="107" t="s">
         <v>239</v>
       </c>
       <c r="M106" t="s">
@@ -16679,25 +17003,25 @@
       <c r="A107" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B107" s="118" t="s">
+      <c r="B107" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C107" s="122">
+      <c r="C107" s="109">
         <v>40724</v>
       </c>
-      <c r="D107" s="128">
+      <c r="D107" s="115">
         <v>244615700</v>
       </c>
-      <c r="E107" s="128">
+      <c r="E107" s="115">
         <v>30</v>
       </c>
-      <c r="F107" s="139">
+      <c r="F107" s="140">
         <v>264201033</v>
       </c>
-      <c r="G107" s="128">
+      <c r="G107" s="115">
         <v>26</v>
       </c>
-      <c r="H107" s="128">
+      <c r="H107" s="115">
         <v>14905607</v>
       </c>
       <c r="I107" t="s">
@@ -16708,25 +17032,25 @@
       <c r="A108" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="B108" s="118" t="s">
+      <c r="B108" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C108" s="122">
+      <c r="C108" s="109">
         <v>41090</v>
       </c>
-      <c r="D108" s="128">
+      <c r="D108" s="115">
         <v>248617082</v>
       </c>
-      <c r="E108" s="128">
+      <c r="E108" s="115">
         <v>20</v>
       </c>
-      <c r="F108" s="139">
+      <c r="F108" s="140">
         <v>249737761</v>
       </c>
-      <c r="G108" s="128">
+      <c r="G108" s="115">
         <v>17</v>
       </c>
-      <c r="H108" s="128">
+      <c r="H108" s="115">
         <v>18894767</v>
       </c>
       <c r="I108" t="s">
@@ -16737,25 +17061,25 @@
       <c r="A109" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="B109" s="118" t="s">
+      <c r="B109" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C109" s="122">
+      <c r="C109" s="109">
         <v>41455</v>
       </c>
-      <c r="D109" s="128">
+      <c r="D109" s="115">
         <v>115390840</v>
       </c>
-      <c r="E109" s="128">
+      <c r="E109" s="115">
         <v>20</v>
       </c>
-      <c r="F109" s="139">
+      <c r="F109" s="140">
         <v>115981341</v>
       </c>
-      <c r="G109" s="128">
+      <c r="G109" s="115">
         <v>18</v>
       </c>
-      <c r="H109" s="128">
+      <c r="H109" s="115">
         <v>8412390</v>
       </c>
       <c r="I109" t="s">
@@ -16769,25 +17093,25 @@
       <c r="A110" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="B110" s="118" t="s">
+      <c r="B110" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="C110" s="122">
+      <c r="C110" s="109">
         <v>41820</v>
       </c>
-      <c r="D110" s="128">
+      <c r="D110" s="115">
         <v>-246417577</v>
       </c>
-      <c r="E110" s="128">
+      <c r="E110" s="115">
         <v>20</v>
       </c>
-      <c r="F110" s="139">
+      <c r="F110" s="140">
         <v>-247086097</v>
       </c>
-      <c r="G110" s="128">
+      <c r="G110" s="115">
         <v>19</v>
       </c>
-      <c r="H110" s="128">
+      <c r="H110" s="115">
         <v>-17232847</v>
       </c>
       <c r="I110" t="s">
@@ -16798,25 +17122,25 @@
       <c r="A111" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="B111" s="118" t="s">
+      <c r="B111" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C111" s="122">
+      <c r="C111" s="109">
         <v>41820</v>
       </c>
-      <c r="D111" s="128">
+      <c r="D111" s="115">
         <v>35896722</v>
       </c>
-      <c r="E111" s="128">
+      <c r="E111" s="115">
         <v>25</v>
       </c>
-      <c r="F111" s="139">
+      <c r="F111" s="140">
         <v>36356826</v>
       </c>
-      <c r="G111" s="128">
+      <c r="G111" s="115">
         <v>24</v>
       </c>
-      <c r="H111" s="128">
+      <c r="H111" s="115">
         <v>2159476</v>
       </c>
       <c r="I111" t="s">
@@ -16830,22 +17154,22 @@
       <c r="B112" t="s">
         <v>229</v>
       </c>
-      <c r="C112" s="123">
+      <c r="C112" s="110">
         <v>42185</v>
       </c>
-      <c r="D112" s="125">
+      <c r="D112" s="112">
         <v>-458582182</v>
       </c>
-      <c r="E112" s="125">
+      <c r="E112" s="112">
         <v>20</v>
       </c>
-      <c r="F112" s="141">
+      <c r="F112" s="142">
         <v>-458582182</v>
       </c>
-      <c r="G112" s="125">
+      <c r="G112" s="112">
         <v>20</v>
       </c>
-      <c r="H112" s="125">
+      <c r="H112" s="112">
         <v>-30836792</v>
       </c>
       <c r="I112" t="s">
@@ -16853,7 +17177,7 @@
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="120"/>
+      <c r="B113" s="107"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -16865,6 +17189,157 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="51.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2016</v>
+      </c>
+      <c r="C7">
+        <v>145501004</v>
+      </c>
+      <c r="G7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2017</v>
+      </c>
+      <c r="C8">
+        <v>145501004</v>
+      </c>
+      <c r="G8">
+        <v>-643447599</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <f>G8/H8</f>
+        <v>-91921085.571428567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2018</v>
+      </c>
+      <c r="C9">
+        <v>145501004</v>
+      </c>
+      <c r="G9">
+        <v>1571818656</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I10" si="0">G9/H9</f>
+        <v>224545522.2857143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2019</v>
+      </c>
+      <c r="C10">
+        <v>145501004</v>
+      </c>
+      <c r="G10">
+        <v>77259408</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>12876568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2020</v>
+      </c>
+      <c r="C11">
+        <v>132624437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2021</v>
+      </c>
+      <c r="C12">
+        <v>-91921083</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="101" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1"/>
@@ -16881,304 +17356,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:I51"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.28515625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="33.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="103" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="105" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="102"/>
-      <c r="F9" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="106" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-    </row>
-    <row r="12" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="102" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="102"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="39"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-    </row>
-    <row r="37" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-    </row>
-    <row r="46" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="4"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:G10"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="15" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="Death_sum" sheetId="17" r:id="rId18"/>
     <sheet name="Death_dec" sheetId="5" r:id="rId19"/>
     <sheet name="DROP cashflow" sheetId="25" r:id="rId20"/>
-    <sheet name="Sheet1" sheetId="26" r:id="rId21"/>
+    <sheet name="GASB_cashflow" sheetId="26" r:id="rId21"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="267">
   <si>
     <t>Notes</t>
   </si>
@@ -2014,6 +2014,260 @@
 In the model, the deferred returns must be adjusted so that the total deferred return is equal to the difference between the initial AA and MA.
 Only effective when modeling all tiers together.</t>
   </si>
+  <si>
+    <t>G31</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Year
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Beginning
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>July 1,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Projected Beginning
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Plan Fiduciary
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Net Position
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(a)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Projected
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Total
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Contributions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(b)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Projected
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Benefit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Payments
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(c)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Projected
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Administrative
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Expenses
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(d)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Projected
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Investment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Earnings
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(e)</t>
+    </r>
+  </si>
+  <si>
+    <t>MA.GASB</t>
+  </si>
+  <si>
+    <t>C.GASB</t>
+  </si>
+  <si>
+    <t>B.GASB</t>
+  </si>
+  <si>
+    <t>AdminExp.GASB</t>
+  </si>
+  <si>
+    <t>InvIncome.GASB</t>
+  </si>
 </sst>
 </file>
 
@@ -2025,7 +2279,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2178,6 +2432,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2249,7 +2514,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2562,6 +2827,21 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2604,20 +2884,50 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4290,15 +4600,15 @@
       <c r="A5" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="124" t="s">
+      <c r="C5" s="132"/>
+      <c r="D5" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
       <c r="G5" s="42" t="s">
         <v>79</v>
       </c>
@@ -4321,10 +4631,10 @@
       <c r="E6" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="128" t="s">
+      <c r="F6" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="128"/>
+      <c r="G6" s="133"/>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
     </row>
@@ -4348,10 +4658,10 @@
       <c r="C9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="125"/>
+      <c r="E9" s="130"/>
       <c r="F9" s="38" t="s">
         <v>64</v>
       </c>
@@ -4363,16 +4673,16 @@
       <c r="A10" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129" t="s">
+      <c r="C10" s="134"/>
+      <c r="D10" s="134" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
@@ -4383,18 +4693,18 @@
       <c r="A12" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="125" t="s">
+      <c r="C12" s="132"/>
+      <c r="D12" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125" t="s">
+      <c r="E12" s="130"/>
+      <c r="F12" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="125"/>
+      <c r="G12" s="130"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
@@ -4564,22 +4874,22 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131" t="s">
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="130"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="57" t="s">
         <v>94</v>
       </c>
@@ -7301,10 +7611,10 @@
       <c r="E4" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="125" t="s">
+      <c r="F4" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="127"/>
+      <c r="G4" s="132"/>
     </row>
     <row r="5" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
@@ -7322,21 +7632,21 @@
       <c r="E5" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="125" t="s">
+      <c r="F5" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="125"/>
+      <c r="G5" s="130"/>
     </row>
     <row r="6" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
     </row>
     <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -7948,30 +8258,30 @@
       <c r="A4" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="138" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
     </row>
     <row r="5" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
     </row>
     <row r="7" spans="1:7" ht="304.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="139" t="s">
         <v>206</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -7980,10 +8290,10 @@
       <c r="C7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="125" t="s">
+      <c r="D7" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="127"/>
+      <c r="E7" s="132"/>
       <c r="F7" s="8" t="s">
         <v>64</v>
       </c>
@@ -7992,15 +8302,15 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="134"/>
-      <c r="B8" s="135" t="s">
+      <c r="A8" s="139"/>
+      <c r="B8" s="140" t="s">
         <v>207</v>
       </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -8300,10 +8610,10 @@
       <c r="D5" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="E5" s="141" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="136"/>
+      <c r="F5" s="141"/>
       <c r="G5" s="99" t="s">
         <v>203</v>
       </c>
@@ -8321,10 +8631,10 @@
       <c r="D6" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="141" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="136"/>
+      <c r="F6" s="141"/>
       <c r="G6" s="99" t="s">
         <v>201</v>
       </c>
@@ -8343,10 +8653,10 @@
       <c r="D7" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="136" t="s">
+      <c r="E7" s="141" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="136"/>
+      <c r="F7" s="141"/>
       <c r="G7" s="99" t="s">
         <v>202</v>
       </c>
@@ -8773,24 +9083,24 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="J5" s="137" t="s">
+      <c r="J5" s="142" t="s">
         <v>172</v>
       </c>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137" t="s">
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142" t="s">
         <v>185</v>
       </c>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="142"/>
+      <c r="T5" s="142"/>
+      <c r="U5" s="142"/>
+      <c r="V5" s="142"/>
+      <c r="W5" s="142"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -13423,10 +13733,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D11"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13434,157 +13744,571 @@
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="143" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="144" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="144" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="144" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="144" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" s="144" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="145" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="146" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="146" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" s="146" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="146" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" s="146" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="147">
+        <v>2014</v>
+      </c>
+      <c r="C7" s="148">
         <v>16990</v>
       </c>
-      <c r="B2">
+      <c r="D7" s="149">
         <v>607</v>
       </c>
-      <c r="C2">
+      <c r="E7" s="148">
         <v>919</v>
       </c>
-      <c r="D2">
-        <f>100*(B2-C2)/A2</f>
-        <v>-1.8363743378457917</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="F7" s="149">
+        <v>18</v>
+      </c>
+      <c r="G7" s="148">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="150">
+        <v>2015</v>
+      </c>
+      <c r="C8" s="151">
         <v>17347</v>
       </c>
-      <c r="B3">
+      <c r="D8" s="152">
         <v>632</v>
       </c>
-      <c r="C3">
+      <c r="E8" s="151">
         <v>970</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D11" si="0">100*(B3-C3)/A3</f>
-        <v>-1.9484637113045484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="F8" s="152">
+        <v>13</v>
+      </c>
+      <c r="G8" s="151">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="150">
+        <v>2016</v>
+      </c>
+      <c r="C9" s="151">
         <v>18302</v>
       </c>
-      <c r="B4">
+      <c r="D9" s="152">
         <v>634</v>
       </c>
-      <c r="C4">
+      <c r="E9" s="151">
         <v>1104</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>-2.5680253524205003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="F9" s="152">
+        <v>13</v>
+      </c>
+      <c r="G9" s="151">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="150">
+        <v>2017</v>
+      </c>
+      <c r="C10" s="151">
         <v>19190</v>
       </c>
-      <c r="B5">
+      <c r="D10" s="152">
         <v>609</v>
       </c>
-      <c r="C5">
+      <c r="E10" s="151">
         <v>1050</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>-2.2980719124544033</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="F10" s="152">
+        <v>13</v>
+      </c>
+      <c r="G10" s="151">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="150">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="151">
         <v>20176</v>
       </c>
-      <c r="B6">
+      <c r="D11" s="152">
         <v>616</v>
       </c>
-      <c r="C6">
+      <c r="E11" s="151">
         <v>1149</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>-2.6417525773195876</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="F11" s="152">
+        <v>13</v>
+      </c>
+      <c r="G11" s="151">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="150">
+        <v>2019</v>
+      </c>
+      <c r="C12" s="151">
         <v>21139</v>
       </c>
-      <c r="B7">
+      <c r="D12" s="152">
         <v>586</v>
       </c>
-      <c r="C7">
+      <c r="E12" s="151">
         <v>1267</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>-3.2215336581673686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="F12" s="152">
+        <v>12</v>
+      </c>
+      <c r="G12" s="151">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="150">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="151">
         <v>22019</v>
       </c>
-      <c r="B8">
+      <c r="D13" s="152">
         <v>538</v>
       </c>
-      <c r="C8">
+      <c r="E13" s="151">
         <v>1212</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>-3.0609927789636222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="F13" s="152">
+        <v>12</v>
+      </c>
+      <c r="G13" s="151">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="150">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="151">
         <v>22971</v>
       </c>
-      <c r="B9">
+      <c r="D14" s="152">
         <v>537</v>
       </c>
-      <c r="C9">
+      <c r="E14" s="151">
         <v>1283</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>-3.2475730268599539</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>32920</v>
-      </c>
-      <c r="B10">
+      <c r="F14" s="152">
+        <v>12</v>
+      </c>
+      <c r="G14" s="151">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="150">
+        <v>2022</v>
+      </c>
+      <c r="C15" s="151">
+        <v>23920</v>
+      </c>
+      <c r="D15" s="152">
         <v>538</v>
       </c>
-      <c r="C10">
+      <c r="E15" s="151">
         <v>1350</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>-2.4665856622114215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="F15" s="152">
+        <v>12</v>
+      </c>
+      <c r="G15" s="151">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="153">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="154">
         <v>24871</v>
       </c>
-      <c r="B11">
+      <c r="D16" s="155">
         <v>539</v>
       </c>
-      <c r="C11">
+      <c r="E16" s="154">
         <v>1416</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>-3.5261951670620402</v>
+      <c r="F16" s="155">
+        <v>12</v>
+      </c>
+      <c r="G16" s="154">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="150">
+        <v>2038</v>
+      </c>
+      <c r="C17" s="151">
+        <v>32905</v>
+      </c>
+      <c r="D17" s="152">
+        <v>197</v>
+      </c>
+      <c r="E17" s="151">
+        <v>2584</v>
+      </c>
+      <c r="F17" s="152">
+        <v>5</v>
+      </c>
+      <c r="G17" s="151">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="150">
+        <v>2039</v>
+      </c>
+      <c r="C18" s="151">
+        <v>32883</v>
+      </c>
+      <c r="D18" s="152">
+        <v>214</v>
+      </c>
+      <c r="E18" s="151">
+        <v>2667</v>
+      </c>
+      <c r="F18" s="152">
+        <v>4</v>
+      </c>
+      <c r="G18" s="151">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="150">
+        <v>2040</v>
+      </c>
+      <c r="C19" s="151">
+        <v>32791</v>
+      </c>
+      <c r="D19" s="152">
+        <v>174</v>
+      </c>
+      <c r="E19" s="151">
+        <v>2734</v>
+      </c>
+      <c r="F19" s="152">
+        <v>4</v>
+      </c>
+      <c r="G19" s="151">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="150">
+        <v>2041</v>
+      </c>
+      <c r="C20" s="151">
+        <v>32581</v>
+      </c>
+      <c r="D20" s="152">
+        <v>91</v>
+      </c>
+      <c r="E20" s="151">
+        <v>2785</v>
+      </c>
+      <c r="F20" s="152">
+        <v>3</v>
+      </c>
+      <c r="G20" s="151">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="153">
+        <v>2042</v>
+      </c>
+      <c r="C21" s="154">
+        <v>32213</v>
+      </c>
+      <c r="D21" s="155">
+        <v>74</v>
+      </c>
+      <c r="E21" s="154">
+        <v>2824</v>
+      </c>
+      <c r="F21" s="155">
+        <v>2</v>
+      </c>
+      <c r="G21" s="154">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="150">
+        <v>2082</v>
+      </c>
+      <c r="C22" s="151">
+        <v>1097</v>
+      </c>
+      <c r="D22" s="152">
+        <v>0</v>
+      </c>
+      <c r="E22" s="151">
+        <v>290</v>
+      </c>
+      <c r="F22" s="152">
+        <v>0</v>
+      </c>
+      <c r="G22" s="151">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="150">
+        <v>2083</v>
+      </c>
+      <c r="C23" s="151">
+        <v>877</v>
+      </c>
+      <c r="D23" s="152">
+        <v>0</v>
+      </c>
+      <c r="E23" s="151">
+        <v>239</v>
+      </c>
+      <c r="F23" s="152">
+        <v>0</v>
+      </c>
+      <c r="G23" s="151">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="150">
+        <v>2084</v>
+      </c>
+      <c r="C24" s="151">
+        <v>694</v>
+      </c>
+      <c r="D24" s="152">
+        <v>0</v>
+      </c>
+      <c r="E24" s="151">
+        <v>194</v>
+      </c>
+      <c r="F24" s="152">
+        <v>0</v>
+      </c>
+      <c r="G24" s="151">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="150">
+        <v>2085</v>
+      </c>
+      <c r="C25" s="151">
+        <v>543</v>
+      </c>
+      <c r="D25" s="152">
+        <v>0</v>
+      </c>
+      <c r="E25" s="151">
+        <v>156</v>
+      </c>
+      <c r="F25" s="152">
+        <v>0</v>
+      </c>
+      <c r="G25" s="151">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="153">
+        <v>2086</v>
+      </c>
+      <c r="C26" s="154">
+        <v>420</v>
+      </c>
+      <c r="D26" s="155">
+        <v>0</v>
+      </c>
+      <c r="E26" s="154">
+        <v>124</v>
+      </c>
+      <c r="F26" s="155">
+        <v>0</v>
+      </c>
+      <c r="G26" s="154">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="150">
+        <v>2101</v>
+      </c>
+      <c r="C27" s="151">
+        <v>2</v>
+      </c>
+      <c r="D27" s="152">
+        <v>0</v>
+      </c>
+      <c r="E27" s="151">
+        <v>1</v>
+      </c>
+      <c r="F27" s="152">
+        <v>0</v>
+      </c>
+      <c r="G27" s="151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="150">
+        <v>2102</v>
+      </c>
+      <c r="C28" s="151">
+        <v>2</v>
+      </c>
+      <c r="D28" s="152">
+        <v>0</v>
+      </c>
+      <c r="E28" s="151">
+        <v>1</v>
+      </c>
+      <c r="F28" s="152">
+        <v>0</v>
+      </c>
+      <c r="G28" s="151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="153">
+        <v>2103</v>
+      </c>
+      <c r="C29" s="154">
+        <v>1</v>
+      </c>
+      <c r="D29" s="155">
+        <v>0</v>
+      </c>
+      <c r="E29" s="154">
+        <v>0</v>
+      </c>
+      <c r="F29" s="155">
+        <v>0</v>
+      </c>
+      <c r="G29" s="154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="150">
+        <v>2115</v>
+      </c>
+      <c r="C30" s="151">
+        <v>0</v>
+      </c>
+      <c r="D30" s="152">
+        <v>0</v>
+      </c>
+      <c r="E30" s="151">
+        <v>0</v>
+      </c>
+      <c r="F30" s="152">
+        <v>0</v>
+      </c>
+      <c r="G30" s="151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="156">
+        <v>2116</v>
+      </c>
+      <c r="C31" s="157">
+        <v>0</v>
+      </c>
+      <c r="D31" s="152">
+        <v>0</v>
+      </c>
+      <c r="E31" s="151">
+        <v>0</v>
+      </c>
+      <c r="F31" s="152">
+        <v>0</v>
+      </c>
+      <c r="G31" s="151">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14114,7 +14838,7 @@
       <c r="E8" s="121">
         <v>22</v>
       </c>
-      <c r="F8" s="138">
+      <c r="F8" s="124">
         <v>170907119</v>
       </c>
       <c r="G8" s="121">
@@ -14143,7 +14867,7 @@
       <c r="E9" s="114">
         <v>29</v>
       </c>
-      <c r="F9" s="139">
+      <c r="F9" s="125">
         <v>-708502016</v>
       </c>
       <c r="G9" s="114">
@@ -14172,7 +14896,7 @@
       <c r="E10" s="115">
         <v>15</v>
       </c>
-      <c r="F10" s="140">
+      <c r="F10" s="126">
         <v>45090011</v>
       </c>
       <c r="G10" s="115">
@@ -14201,7 +14925,7 @@
       <c r="E11" s="115">
         <v>15</v>
       </c>
-      <c r="F11" s="140">
+      <c r="F11" s="126">
         <v>186383774</v>
       </c>
       <c r="G11" s="115">
@@ -14230,7 +14954,7 @@
       <c r="E12" s="115">
         <v>27</v>
       </c>
-      <c r="F12" s="140">
+      <c r="F12" s="126">
         <v>1559364</v>
       </c>
       <c r="G12" s="115">
@@ -14259,7 +14983,7 @@
       <c r="E13" s="115">
         <v>15</v>
       </c>
-      <c r="F13" s="140">
+      <c r="F13" s="126">
         <v>186609704</v>
       </c>
       <c r="G13" s="115">
@@ -14288,7 +15012,7 @@
       <c r="E14" s="115">
         <v>26</v>
       </c>
-      <c r="F14" s="140">
+      <c r="F14" s="126">
         <v>363842159</v>
       </c>
       <c r="G14" s="115">
@@ -14317,7 +15041,7 @@
       <c r="E15" s="115">
         <v>20</v>
       </c>
-      <c r="F15" s="140">
+      <c r="F15" s="126">
         <v>239527934</v>
       </c>
       <c r="G15" s="115">
@@ -14346,7 +15070,7 @@
       <c r="E16" s="115">
         <v>20</v>
       </c>
-      <c r="F16" s="140">
+      <c r="F16" s="126">
         <v>74325698</v>
       </c>
       <c r="G16" s="115">
@@ -14375,7 +15099,7 @@
       <c r="E17" s="115">
         <v>20</v>
       </c>
-      <c r="F17" s="140">
+      <c r="F17" s="126">
         <v>-213508592</v>
       </c>
       <c r="G17" s="115">
@@ -14404,7 +15128,7 @@
       <c r="E18" s="115">
         <v>25</v>
       </c>
-      <c r="F18" s="140">
+      <c r="F18" s="126">
         <v>-65987717</v>
       </c>
       <c r="G18" s="115">
@@ -14433,7 +15157,7 @@
       <c r="E19" s="115">
         <v>20</v>
       </c>
-      <c r="F19" s="141">
+      <c r="F19" s="127">
         <v>-288914220</v>
       </c>
       <c r="G19" s="115">
@@ -14462,7 +15186,7 @@
       <c r="E20" s="114">
         <v>14</v>
       </c>
-      <c r="F20" s="139">
+      <c r="F20" s="125">
         <v>-8169236</v>
       </c>
       <c r="G20" s="114">
@@ -14491,7 +15215,7 @@
       <c r="E21" s="115">
         <v>15</v>
       </c>
-      <c r="F21" s="140">
+      <c r="F21" s="126">
         <v>166625</v>
       </c>
       <c r="G21" s="115">
@@ -14520,7 +15244,7 @@
       <c r="E22" s="115">
         <v>15</v>
       </c>
-      <c r="F22" s="140">
+      <c r="F22" s="126">
         <v>-3743077</v>
       </c>
       <c r="G22" s="115">
@@ -14549,7 +15273,7 @@
       <c r="E23" s="115">
         <v>17</v>
       </c>
-      <c r="F23" s="140">
+      <c r="F23" s="126">
         <v>1803591</v>
       </c>
       <c r="G23" s="115">
@@ -14578,7 +15302,7 @@
       <c r="E24" s="115">
         <v>20</v>
       </c>
-      <c r="F24" s="140">
+      <c r="F24" s="126">
         <v>-18086022</v>
       </c>
       <c r="G24" s="115">
@@ -14607,7 +15331,7 @@
       <c r="E25" s="115">
         <v>21</v>
       </c>
-      <c r="F25" s="140">
+      <c r="F25" s="126">
         <v>2637271</v>
       </c>
       <c r="G25" s="115">
@@ -14636,7 +15360,7 @@
       <c r="E26" s="115">
         <v>21</v>
       </c>
-      <c r="F26" s="140">
+      <c r="F26" s="126">
         <v>-17048086</v>
       </c>
       <c r="G26" s="115">
@@ -14665,7 +15389,7 @@
       <c r="E27" s="115">
         <v>23</v>
       </c>
-      <c r="F27" s="140">
+      <c r="F27" s="126">
         <v>5526362</v>
       </c>
       <c r="G27" s="115">
@@ -14694,7 +15418,7 @@
       <c r="E28" s="115">
         <v>23</v>
       </c>
-      <c r="F28" s="140">
+      <c r="F28" s="126">
         <v>9294733</v>
       </c>
       <c r="G28" s="115">
@@ -14723,7 +15447,7 @@
       <c r="E29" s="115">
         <v>25</v>
       </c>
-      <c r="F29" s="140">
+      <c r="F29" s="126">
         <v>1009291</v>
       </c>
       <c r="G29" s="115">
@@ -14752,7 +15476,7 @@
       <c r="E30" s="115">
         <v>11</v>
       </c>
-      <c r="F30" s="140">
+      <c r="F30" s="126">
         <v>-6513673</v>
       </c>
       <c r="G30" s="115">
@@ -14781,7 +15505,7 @@
       <c r="E31" s="115">
         <v>26</v>
       </c>
-      <c r="F31" s="140">
+      <c r="F31" s="126">
         <v>-31736428</v>
       </c>
       <c r="G31" s="115">
@@ -14810,7 +15534,7 @@
       <c r="E32" s="115">
         <v>12</v>
       </c>
-      <c r="F32" s="140">
+      <c r="F32" s="126">
         <v>32874358</v>
       </c>
       <c r="G32" s="115">
@@ -14839,7 +15563,7 @@
       <c r="E33" s="115">
         <v>13</v>
       </c>
-      <c r="F33" s="140">
+      <c r="F33" s="126">
         <v>62698016</v>
       </c>
       <c r="G33" s="115">
@@ -14868,7 +15592,7 @@
       <c r="E34" s="115">
         <v>14</v>
       </c>
-      <c r="F34" s="140">
+      <c r="F34" s="126">
         <v>5166265</v>
       </c>
       <c r="G34" s="115">
@@ -14897,7 +15621,7 @@
       <c r="E35" s="115">
         <v>29</v>
       </c>
-      <c r="F35" s="140">
+      <c r="F35" s="126">
         <v>-10055165</v>
       </c>
       <c r="G35" s="115">
@@ -14926,7 +15650,7 @@
       <c r="E36" s="115">
         <v>15</v>
       </c>
-      <c r="F36" s="140">
+      <c r="F36" s="126">
         <v>12875476</v>
       </c>
       <c r="G36" s="115">
@@ -14955,7 +15679,7 @@
       <c r="E37" s="115">
         <v>30</v>
       </c>
-      <c r="F37" s="140">
+      <c r="F37" s="126">
         <v>32026629</v>
       </c>
       <c r="G37" s="115">
@@ -14984,7 +15708,7 @@
       <c r="E38" s="115">
         <v>15</v>
       </c>
-      <c r="F38" s="140">
+      <c r="F38" s="126">
         <v>10992586</v>
       </c>
       <c r="G38" s="115">
@@ -15013,7 +15737,7 @@
       <c r="E39" s="115">
         <v>30</v>
       </c>
-      <c r="F39" s="140">
+      <c r="F39" s="126">
         <v>33977506</v>
       </c>
       <c r="G39" s="115">
@@ -15042,7 +15766,7 @@
       <c r="E40" s="115">
         <v>21</v>
       </c>
-      <c r="F40" s="140">
+      <c r="F40" s="126">
         <v>-20388022</v>
       </c>
       <c r="G40" s="115">
@@ -15071,7 +15795,7 @@
       <c r="E41" s="115">
         <v>30</v>
       </c>
-      <c r="F41" s="140">
+      <c r="F41" s="126">
         <v>-5761499</v>
       </c>
       <c r="G41" s="115">
@@ -15100,7 +15824,7 @@
       <c r="E42" s="114">
         <v>17</v>
       </c>
-      <c r="F42" s="139">
+      <c r="F42" s="125">
         <v>-16018591</v>
       </c>
       <c r="G42" s="114">
@@ -15129,7 +15853,7 @@
       <c r="E43" s="115">
         <v>30</v>
       </c>
-      <c r="F43" s="140">
+      <c r="F43" s="126">
         <v>9093221</v>
       </c>
       <c r="G43" s="115">
@@ -15158,7 +15882,7 @@
       <c r="E44" s="115">
         <v>15</v>
       </c>
-      <c r="F44" s="140">
+      <c r="F44" s="126">
         <v>8570512</v>
       </c>
       <c r="G44" s="115">
@@ -15187,7 +15911,7 @@
       <c r="E45" s="115">
         <v>15</v>
       </c>
-      <c r="F45" s="140">
+      <c r="F45" s="126">
         <v>1896643</v>
       </c>
       <c r="G45" s="115">
@@ -15216,7 +15940,7 @@
       <c r="E46" s="115">
         <v>30</v>
       </c>
-      <c r="F46" s="140">
+      <c r="F46" s="126">
         <v>28549757</v>
       </c>
       <c r="G46" s="115">
@@ -15245,7 +15969,7 @@
       <c r="E47" s="115">
         <v>30</v>
       </c>
-      <c r="F47" s="140">
+      <c r="F47" s="126">
         <v>-19490</v>
       </c>
       <c r="G47" s="115">
@@ -15274,7 +15998,7 @@
       <c r="E48" s="115">
         <v>15</v>
       </c>
-      <c r="F48" s="140">
+      <c r="F48" s="126">
         <v>1006485</v>
       </c>
       <c r="G48" s="115">
@@ -15303,7 +16027,7 @@
       <c r="E49" s="115">
         <v>30</v>
       </c>
-      <c r="F49" s="140">
+      <c r="F49" s="126">
         <v>27643126</v>
       </c>
       <c r="G49" s="115">
@@ -15332,7 +16056,7 @@
       <c r="E50" s="115">
         <v>20</v>
       </c>
-      <c r="F50" s="140">
+      <c r="F50" s="126">
         <v>11032691</v>
       </c>
       <c r="G50" s="115">
@@ -15361,7 +16085,7 @@
       <c r="E51" s="115">
         <v>20</v>
       </c>
-      <c r="F51" s="140">
+      <c r="F51" s="126">
         <v>6042484</v>
       </c>
       <c r="G51" s="115">
@@ -15390,7 +16114,7 @@
       <c r="E52" s="115">
         <v>20</v>
       </c>
-      <c r="F52" s="140">
+      <c r="F52" s="126">
         <v>-15653324</v>
       </c>
       <c r="G52" s="115">
@@ -15419,7 +16143,7 @@
       <c r="E53" s="115">
         <v>25</v>
       </c>
-      <c r="F53" s="140">
+      <c r="F53" s="126">
         <v>-3574147</v>
       </c>
       <c r="G53" s="115">
@@ -15448,7 +16172,7 @@
       <c r="E54" s="115">
         <v>20</v>
       </c>
-      <c r="F54" s="141">
+      <c r="F54" s="127">
         <v>-46361062</v>
       </c>
       <c r="G54" s="115">
@@ -15477,7 +16201,7 @@
       <c r="E55" s="114">
         <v>14</v>
       </c>
-      <c r="F55" s="139">
+      <c r="F55" s="125">
         <v>-3201873</v>
       </c>
       <c r="G55" s="114">
@@ -15506,7 +16230,7 @@
       <c r="E56" s="115">
         <v>15</v>
       </c>
-      <c r="F56" s="140">
+      <c r="F56" s="126">
         <v>65309</v>
       </c>
       <c r="G56" s="115">
@@ -15535,7 +16259,7 @@
       <c r="E57" s="115">
         <v>15</v>
       </c>
-      <c r="F57" s="140">
+      <c r="F57" s="126">
         <v>-1467071</v>
       </c>
       <c r="G57" s="115">
@@ -15564,7 +16288,7 @@
       <c r="E58" s="115">
         <v>17</v>
       </c>
-      <c r="F58" s="140">
+      <c r="F58" s="126">
         <v>706904</v>
       </c>
       <c r="G58" s="115">
@@ -15593,7 +16317,7 @@
       <c r="E59" s="115">
         <v>20</v>
       </c>
-      <c r="F59" s="140">
+      <c r="F59" s="126">
         <v>-7088682</v>
       </c>
       <c r="G59" s="115">
@@ -15622,7 +16346,7 @@
       <c r="E60" s="115">
         <v>21</v>
       </c>
-      <c r="F60" s="140">
+      <c r="F60" s="126">
         <v>1033661</v>
       </c>
       <c r="G60" s="115">
@@ -15651,7 +16375,7 @@
       <c r="E61" s="115">
         <v>21</v>
       </c>
-      <c r="F61" s="140">
+      <c r="F61" s="126">
         <v>-6681874</v>
       </c>
       <c r="G61" s="115">
@@ -15680,7 +16404,7 @@
       <c r="E62" s="115">
         <v>23</v>
       </c>
-      <c r="F62" s="140">
+      <c r="F62" s="126">
         <v>2166018</v>
       </c>
       <c r="G62" s="115">
@@ -15709,7 +16433,7 @@
       <c r="E63" s="115">
         <v>23</v>
       </c>
-      <c r="F63" s="140">
+      <c r="F63" s="126">
         <v>3643005</v>
       </c>
       <c r="G63" s="115">
@@ -15738,7 +16462,7 @@
       <c r="E64" s="115">
         <v>25</v>
       </c>
-      <c r="F64" s="140">
+      <c r="F64" s="126">
         <v>393281</v>
       </c>
       <c r="G64" s="115">
@@ -15767,7 +16491,7 @@
       <c r="E65" s="115">
         <v>11</v>
       </c>
-      <c r="F65" s="140">
+      <c r="F65" s="126">
         <v>-1506076</v>
       </c>
       <c r="G65" s="115">
@@ -15796,7 +16520,7 @@
       <c r="E66" s="115">
         <v>26</v>
       </c>
-      <c r="F66" s="140">
+      <c r="F66" s="126">
         <v>-5311867</v>
       </c>
       <c r="G66" s="115">
@@ -15825,7 +16549,7 @@
       <c r="E67" s="115">
         <v>12</v>
       </c>
-      <c r="F67" s="140">
+      <c r="F67" s="126">
         <v>5538977</v>
       </c>
       <c r="G67" s="115">
@@ -15854,7 +16578,7 @@
       <c r="E68" s="115">
         <v>13</v>
       </c>
-      <c r="F68" s="140">
+      <c r="F68" s="126">
         <v>24673184</v>
       </c>
       <c r="G68" s="115">
@@ -15883,7 +16607,7 @@
       <c r="E69" s="115">
         <v>14</v>
       </c>
-      <c r="F69" s="140">
+      <c r="F69" s="126">
         <v>5188202</v>
       </c>
       <c r="G69" s="115">
@@ -15912,7 +16636,7 @@
       <c r="E70" s="115">
         <v>29</v>
       </c>
-      <c r="F70" s="140">
+      <c r="F70" s="126">
         <v>-6035109</v>
       </c>
       <c r="G70" s="115">
@@ -15941,7 +16665,7 @@
       <c r="E71" s="115">
         <v>15</v>
       </c>
-      <c r="F71" s="140">
+      <c r="F71" s="126">
         <v>7892672</v>
       </c>
       <c r="G71" s="115">
@@ -15970,7 +16694,7 @@
       <c r="E72" s="115">
         <v>30</v>
       </c>
-      <c r="F72" s="140">
+      <c r="F72" s="126">
         <v>16490896</v>
       </c>
       <c r="G72" s="115">
@@ -15999,7 +16723,7 @@
       <c r="E73" s="115">
         <v>15</v>
       </c>
-      <c r="F73" s="140">
+      <c r="F73" s="126">
         <v>4064244</v>
       </c>
       <c r="G73" s="115">
@@ -16028,7 +16752,7 @@
       <c r="E74" s="115">
         <v>30</v>
       </c>
-      <c r="F74" s="140">
+      <c r="F74" s="126">
         <v>16863317</v>
       </c>
       <c r="G74" s="115">
@@ -16057,7 +16781,7 @@
       <c r="E75" s="115">
         <v>21</v>
       </c>
-      <c r="F75" s="140">
+      <c r="F75" s="126">
         <v>-8693261</v>
       </c>
       <c r="G75" s="115">
@@ -16086,7 +16810,7 @@
       <c r="E76" s="115">
         <v>30</v>
       </c>
-      <c r="F76" s="140">
+      <c r="F76" s="126">
         <v>-3455996</v>
       </c>
       <c r="G76" s="115">
@@ -16115,7 +16839,7 @@
       <c r="E77" s="114">
         <v>17</v>
       </c>
-      <c r="F77" s="139">
+      <c r="F77" s="125">
         <v>-3878895</v>
       </c>
       <c r="G77" s="114">
@@ -16144,7 +16868,7 @@
       <c r="E78" s="115">
         <v>30</v>
       </c>
-      <c r="F78" s="140">
+      <c r="F78" s="126">
         <v>11996135</v>
       </c>
       <c r="G78" s="115">
@@ -16173,7 +16897,7 @@
       <c r="E79" s="115">
         <v>15</v>
       </c>
-      <c r="F79" s="140">
+      <c r="F79" s="126">
         <v>10060922</v>
       </c>
       <c r="G79" s="115">
@@ -16202,7 +16926,7 @@
       <c r="E80" s="115">
         <v>15</v>
       </c>
-      <c r="F80" s="140">
+      <c r="F80" s="126">
         <v>4239921</v>
       </c>
       <c r="G80" s="115">
@@ -16231,7 +16955,7 @@
       <c r="E81" s="115">
         <v>30</v>
       </c>
-      <c r="F81" s="140">
+      <c r="F81" s="126">
         <v>14219285</v>
       </c>
       <c r="G81" s="115">
@@ -16260,7 +16984,7 @@
       <c r="E82" s="115">
         <v>30</v>
       </c>
-      <c r="F82" s="140">
+      <c r="F82" s="126">
         <v>1601883</v>
       </c>
       <c r="G82" s="115">
@@ -16289,7 +17013,7 @@
       <c r="E83" s="115">
         <v>15</v>
       </c>
-      <c r="F83" s="140">
+      <c r="F83" s="126">
         <v>5391388</v>
       </c>
       <c r="G83" s="115">
@@ -16318,7 +17042,7 @@
       <c r="E84" s="115">
         <v>30</v>
       </c>
-      <c r="F84" s="140">
+      <c r="F84" s="126">
         <v>13774906</v>
       </c>
       <c r="G84" s="115">
@@ -16347,7 +17071,7 @@
       <c r="E85" s="115">
         <v>20</v>
       </c>
-      <c r="F85" s="140">
+      <c r="F85" s="126">
         <v>9419696</v>
       </c>
       <c r="G85" s="115">
@@ -16376,7 +17100,7 @@
       <c r="E86" s="115">
         <v>20</v>
       </c>
-      <c r="F86" s="140">
+      <c r="F86" s="126">
         <v>6659284</v>
       </c>
       <c r="G86" s="115">
@@ -16405,7 +17129,7 @@
       <c r="E87" s="115">
         <v>20</v>
       </c>
-      <c r="F87" s="140">
+      <c r="F87" s="126">
         <v>-11090879</v>
       </c>
       <c r="G87" s="115">
@@ -16434,7 +17158,7 @@
       <c r="E88" s="115">
         <v>25</v>
       </c>
-      <c r="F88" s="140">
+      <c r="F88" s="126">
         <v>10116212</v>
       </c>
       <c r="G88" s="115">
@@ -16463,7 +17187,7 @@
       <c r="E89" s="115">
         <v>20</v>
       </c>
-      <c r="F89" s="141">
+      <c r="F89" s="127">
         <v>-16640244</v>
       </c>
       <c r="G89" s="115">
@@ -16492,7 +17216,7 @@
       <c r="E90" s="114">
         <v>27</v>
       </c>
-      <c r="F90" s="139">
+      <c r="F90" s="125">
         <v>-175359657</v>
       </c>
       <c r="G90" s="114">
@@ -16521,7 +17245,7 @@
       <c r="E91" s="115">
         <v>13</v>
       </c>
-      <c r="F91" s="140">
+      <c r="F91" s="126">
         <v>-129982707</v>
       </c>
       <c r="G91" s="115">
@@ -16550,7 +17274,7 @@
       <c r="E92" s="115">
         <v>14</v>
       </c>
-      <c r="F92" s="140">
+      <c r="F92" s="126">
         <v>54451853</v>
       </c>
       <c r="G92" s="115">
@@ -16579,7 +17303,7 @@
       <c r="E93" s="115">
         <v>29</v>
       </c>
-      <c r="F93" s="140">
+      <c r="F93" s="126">
         <v>-279907155</v>
       </c>
       <c r="G93" s="115">
@@ -16608,7 +17332,7 @@
       <c r="E94" s="115">
         <v>15</v>
       </c>
-      <c r="F94" s="140">
+      <c r="F94" s="126">
         <v>144126876</v>
       </c>
       <c r="G94" s="115">
@@ -16637,7 +17361,7 @@
       <c r="E95" s="115">
         <v>30</v>
       </c>
-      <c r="F95" s="140">
+      <c r="F95" s="126">
         <v>494740512</v>
       </c>
       <c r="G95" s="115">
@@ -16666,7 +17390,7 @@
       <c r="E96" s="115">
         <v>15</v>
       </c>
-      <c r="F96" s="140">
+      <c r="F96" s="126">
         <v>42914963</v>
       </c>
       <c r="G96" s="115">
@@ -16695,7 +17419,7 @@
       <c r="E97" s="115">
         <v>30</v>
       </c>
-      <c r="F97" s="140">
+      <c r="F97" s="126">
         <v>337443657</v>
       </c>
       <c r="G97" s="115">
@@ -16724,7 +17448,7 @@
       <c r="E98" s="115">
         <v>21</v>
       </c>
-      <c r="F98" s="140">
+      <c r="F98" s="126">
         <v>-195732314</v>
       </c>
       <c r="G98" s="115">
@@ -16753,7 +17477,7 @@
       <c r="E99" s="115">
         <v>30</v>
       </c>
-      <c r="F99" s="140">
+      <c r="F99" s="126">
         <v>-81664512</v>
       </c>
       <c r="G99" s="115">
@@ -16782,7 +17506,7 @@
       <c r="E100" s="115">
         <v>17</v>
       </c>
-      <c r="F100" s="140">
+      <c r="F100" s="126">
         <v>-69561879</v>
       </c>
       <c r="G100" s="115">
@@ -16811,7 +17535,7 @@
       <c r="E101" s="115">
         <v>30</v>
       </c>
-      <c r="F101" s="140">
+      <c r="F101" s="126">
         <v>353871292</v>
       </c>
       <c r="G101" s="115">
@@ -16840,7 +17564,7 @@
       <c r="E102" s="115">
         <v>15</v>
       </c>
-      <c r="F102" s="140">
+      <c r="F102" s="126">
         <v>301419495</v>
       </c>
       <c r="G102" s="115">
@@ -16869,7 +17593,7 @@
       <c r="E103" s="115">
         <v>15</v>
       </c>
-      <c r="F103" s="140">
+      <c r="F103" s="126">
         <v>183599531</v>
       </c>
       <c r="G103" s="115">
@@ -16898,7 +17622,7 @@
       <c r="E104" s="115">
         <v>30</v>
       </c>
-      <c r="F104" s="140">
+      <c r="F104" s="126">
         <v>304932284</v>
       </c>
       <c r="G104" s="115">
@@ -16927,7 +17651,7 @@
       <c r="E105" s="115">
         <v>30</v>
       </c>
-      <c r="F105" s="140">
+      <c r="F105" s="126">
         <v>6149437</v>
       </c>
       <c r="G105" s="115">
@@ -16956,7 +17680,7 @@
       <c r="E106" s="115">
         <v>15</v>
       </c>
-      <c r="F106" s="140">
+      <c r="F106" s="126">
         <v>115045890</v>
       </c>
       <c r="G106" s="115">
@@ -17015,7 +17739,7 @@
       <c r="E107" s="115">
         <v>30</v>
       </c>
-      <c r="F107" s="140">
+      <c r="F107" s="126">
         <v>264201033</v>
       </c>
       <c r="G107" s="115">
@@ -17044,7 +17768,7 @@
       <c r="E108" s="115">
         <v>20</v>
       </c>
-      <c r="F108" s="140">
+      <c r="F108" s="126">
         <v>249737761</v>
       </c>
       <c r="G108" s="115">
@@ -17073,7 +17797,7 @@
       <c r="E109" s="115">
         <v>20</v>
       </c>
-      <c r="F109" s="140">
+      <c r="F109" s="126">
         <v>115981341</v>
       </c>
       <c r="G109" s="115">
@@ -17105,7 +17829,7 @@
       <c r="E110" s="115">
         <v>20</v>
       </c>
-      <c r="F110" s="140">
+      <c r="F110" s="126">
         <v>-247086097</v>
       </c>
       <c r="G110" s="115">
@@ -17134,7 +17858,7 @@
       <c r="E111" s="115">
         <v>25</v>
       </c>
-      <c r="F111" s="140">
+      <c r="F111" s="126">
         <v>36356826</v>
       </c>
       <c r="G111" s="115">
@@ -17163,7 +17887,7 @@
       <c r="E112" s="112">
         <v>20</v>
       </c>
-      <c r="F112" s="142">
+      <c r="F112" s="128">
         <v>-458582182</v>
       </c>
       <c r="G112" s="112">
@@ -17192,7 +17916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="268">
   <si>
     <t>Notes</t>
   </si>
@@ -1566,9 +1566,6 @@
     <t>EEC.rate</t>
   </si>
   <si>
-    <t>K12</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -2278,6 +2275,12 @@
   </si>
   <si>
     <t>Only model this type.</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>K13</t>
   </si>
 </sst>
 </file>
@@ -8925,13 +8928,13 @@
     </row>
     <row r="5" spans="1:8" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="143" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C5" s="98" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="98" t="s">
         <v>263</v>
-      </c>
-      <c r="D5" s="98" t="s">
-        <v>264</v>
       </c>
       <c r="E5" s="158" t="s">
         <v>196</v>
@@ -8967,7 +8970,7 @@
     </row>
     <row r="7" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="144" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" s="95" t="s">
         <v>188</v>
@@ -9005,7 +9008,7 @@
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D9" s="96"/>
       <c r="E9" s="96"/>
@@ -9087,10 +9090,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9117,7 +9120,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9362,6 +9365,41 @@
         <v>0.09</v>
       </c>
       <c r="K12" s="88">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="79" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="88">
+        <v>20</v>
+      </c>
+      <c r="C13" s="88">
+        <v>50</v>
+      </c>
+      <c r="D13" s="88">
+        <v>2</v>
+      </c>
+      <c r="E13" s="88">
+        <v>0.03</v>
+      </c>
+      <c r="F13" s="88">
+        <v>0.7</v>
+      </c>
+      <c r="G13" s="88">
+        <v>0.8</v>
+      </c>
+      <c r="H13" s="88">
+        <v>50</v>
+      </c>
+      <c r="I13" s="88">
+        <v>20</v>
+      </c>
+      <c r="J13" s="88">
+        <v>0.09</v>
+      </c>
+      <c r="K13" s="88">
         <v>33</v>
       </c>
     </row>
@@ -14087,7 +14125,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -14095,47 +14133,47 @@
         <v>87</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="68.25" x14ac:dyDescent="0.25">
       <c r="B5" s="128" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="D5" s="129" t="s">
         <v>250</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="E5" s="129" t="s">
         <v>251</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="F5" s="129" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="G5" s="129" t="s">
         <v>253</v>
-      </c>
-      <c r="G5" s="129" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B6" s="130" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" s="131" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="131" t="s">
         <v>255</v>
       </c>
-      <c r="D6" s="131" t="s">
+      <c r="E6" s="131" t="s">
         <v>256</v>
       </c>
-      <c r="E6" s="131" t="s">
+      <c r="F6" s="131" t="s">
         <v>257</v>
       </c>
-      <c r="F6" s="131" t="s">
+      <c r="G6" s="131" t="s">
         <v>258</v>
-      </c>
-      <c r="G6" s="131" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -14697,7 +14735,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -14736,7 +14774,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="268.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14753,7 +14791,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C8" s="18"/>
     </row>
@@ -15097,16 +15135,16 @@
         <v>87</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F3" s="114"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -15114,28 +15152,28 @@
     </row>
     <row r="6" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="101" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="D6" s="110" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="E6" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="110" t="s">
+      <c r="F6" s="110" t="s">
         <v>212</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="G6" s="110" t="s">
         <v>213</v>
       </c>
-      <c r="G6" s="110" t="s">
-        <v>214</v>
-      </c>
       <c r="H6" s="112" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15143,28 +15181,28 @@
         <v>153</v>
       </c>
       <c r="B7" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="D7" s="118" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="E7" s="118" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="118" t="s">
+      <c r="F7" s="118" t="s">
         <v>230</v>
       </c>
-      <c r="F7" s="118" t="s">
+      <c r="G7" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="G7" s="118" t="s">
+      <c r="H7" s="119" t="s">
         <v>232</v>
       </c>
-      <c r="H7" s="119" t="s">
-        <v>233</v>
-      </c>
       <c r="I7" s="122" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15172,7 +15210,7 @@
         <v>154</v>
       </c>
       <c r="B8" s="103" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C8" s="107">
         <v>42185</v>
@@ -15193,7 +15231,7 @@
         <v>14974146</v>
       </c>
       <c r="I8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15201,7 +15239,7 @@
         <v>155</v>
       </c>
       <c r="B9" s="103" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" s="107">
         <v>39629</v>
@@ -15222,7 +15260,7 @@
         <v>-44598831</v>
       </c>
       <c r="I9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15230,7 +15268,7 @@
         <v>155</v>
       </c>
       <c r="B10" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" s="108">
         <v>39994</v>
@@ -15251,7 +15289,7 @@
         <v>5698407</v>
       </c>
       <c r="I10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15259,7 +15297,7 @@
         <v>155</v>
       </c>
       <c r="B11" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C11" s="108">
         <v>40359</v>
@@ -15280,7 +15318,7 @@
         <v>21534522</v>
       </c>
       <c r="I11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15288,7 +15326,7 @@
         <v>155</v>
       </c>
       <c r="B12" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" s="108">
         <v>40359</v>
@@ -15309,7 +15347,7 @@
         <v>98159</v>
       </c>
       <c r="I12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15317,7 +15355,7 @@
         <v>155</v>
       </c>
       <c r="B13" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C13" s="108">
         <v>40724</v>
@@ -15338,7 +15376,7 @@
         <v>19908600</v>
       </c>
       <c r="I13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15346,7 +15384,7 @@
         <v>155</v>
       </c>
       <c r="B14" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C14" s="108">
         <v>40724</v>
@@ -15367,7 +15405,7 @@
         <v>22903160</v>
       </c>
       <c r="I14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15375,7 +15413,7 @@
         <v>155</v>
       </c>
       <c r="B15" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C15" s="108">
         <v>41090</v>
@@ -15396,7 +15434,7 @@
         <v>18122308</v>
       </c>
       <c r="I15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15404,7 +15442,7 @@
         <v>155</v>
       </c>
       <c r="B16" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C16" s="108">
         <v>41455</v>
@@ -15425,7 +15463,7 @@
         <v>5391012</v>
       </c>
       <c r="I16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15433,7 +15471,7 @@
         <v>155</v>
       </c>
       <c r="B17" s="104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" s="108">
         <v>41820</v>
@@ -15454,7 +15492,7 @@
         <v>-14891008</v>
       </c>
       <c r="I17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15462,7 +15500,7 @@
         <v>155</v>
       </c>
       <c r="B18" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C18" s="108">
         <v>41820</v>
@@ -15483,7 +15521,7 @@
         <v>-3919453</v>
       </c>
       <c r="I18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15491,7 +15529,7 @@
         <v>155</v>
       </c>
       <c r="B19" s="104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" s="108">
         <v>42185</v>
@@ -15512,7 +15550,7 @@
         <v>-19427680</v>
       </c>
       <c r="I19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15520,7 +15558,7 @@
         <v>156</v>
       </c>
       <c r="B20" s="103" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C20" s="107">
         <v>32689</v>
@@ -15541,7 +15579,7 @@
         <v>-2144800</v>
       </c>
       <c r="I20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15549,7 +15587,7 @@
         <v>156</v>
       </c>
       <c r="B21" s="104" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C21" s="108">
         <v>33054</v>
@@ -15570,7 +15608,7 @@
         <v>35567</v>
       </c>
       <c r="I21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15578,7 +15616,7 @@
         <v>156</v>
       </c>
       <c r="B22" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="108">
         <v>33054</v>
@@ -15599,7 +15637,7 @@
         <v>-798975</v>
       </c>
       <c r="I22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15607,7 +15645,7 @@
         <v>156</v>
       </c>
       <c r="B23" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C23" s="108">
         <v>33785</v>
@@ -15628,7 +15666,7 @@
         <v>283932</v>
       </c>
       <c r="I23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15636,7 +15674,7 @@
         <v>156</v>
       </c>
       <c r="B24" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C24" s="108">
         <v>34880</v>
@@ -15657,7 +15695,7 @@
         <v>-2089634</v>
       </c>
       <c r="I24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15665,7 +15703,7 @@
         <v>156</v>
       </c>
       <c r="B25" s="104" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C25" s="108">
         <v>35246</v>
@@ -15686,7 +15724,7 @@
         <v>281359</v>
       </c>
       <c r="I25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15694,7 +15732,7 @@
         <v>156</v>
       </c>
       <c r="B26" s="104" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C26" s="108">
         <v>35246</v>
@@ -15715,7 +15753,7 @@
         <v>-1818788</v>
       </c>
       <c r="I26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15723,7 +15761,7 @@
         <v>156</v>
       </c>
       <c r="B27" s="104" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C27" s="108">
         <v>35976</v>
@@ -15744,7 +15782,7 @@
         <v>514542</v>
       </c>
       <c r="I27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15752,7 +15790,7 @@
         <v>156</v>
       </c>
       <c r="B28" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C28" s="108">
         <v>35976</v>
@@ -15773,7 +15811,7 @@
         <v>865404</v>
       </c>
       <c r="I28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15781,7 +15819,7 @@
         <v>156</v>
       </c>
       <c r="B29" s="104" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C29" s="108">
         <v>36707</v>
@@ -15802,7 +15840,7 @@
         <v>83969</v>
       </c>
       <c r="I29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15810,7 +15848,7 @@
         <v>156</v>
       </c>
       <c r="B30" s="104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C30" s="108">
         <v>37072</v>
@@ -15831,7 +15869,7 @@
         <v>-6513673</v>
       </c>
       <c r="I30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15839,7 +15877,7 @@
         <v>156</v>
       </c>
       <c r="B31" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C31" s="108">
         <v>37072</v>
@@ -15860,7 +15898,7 @@
         <v>-2513088</v>
       </c>
       <c r="I31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15868,7 +15906,7 @@
         <v>156</v>
       </c>
       <c r="B32" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C32" s="108">
         <v>37437</v>
@@ -15889,7 +15927,7 @@
         <v>16709189</v>
       </c>
       <c r="I32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15897,7 +15935,7 @@
         <v>156</v>
       </c>
       <c r="B33" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C33" s="108">
         <v>37802</v>
@@ -15918,7 +15956,7 @@
         <v>21594795</v>
       </c>
       <c r="I33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15926,7 +15964,7 @@
         <v>156</v>
       </c>
       <c r="B34" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C34" s="108">
         <v>38168</v>
@@ -15947,7 +15985,7 @@
         <v>1356382</v>
       </c>
       <c r="I34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15955,7 +15993,7 @@
         <v>156</v>
       </c>
       <c r="B35" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C35" s="108">
         <v>38168</v>
@@ -15976,7 +16014,7 @@
         <v>-701290</v>
       </c>
       <c r="I35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15984,7 +16022,7 @@
         <v>156</v>
       </c>
       <c r="B36" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C36" s="108">
         <v>38533</v>
@@ -16005,7 +16043,7 @@
         <v>2748323</v>
       </c>
       <c r="I36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16013,7 +16051,7 @@
         <v>156</v>
       </c>
       <c r="B37" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C37" s="108">
         <v>38533</v>
@@ -16034,7 +16072,7 @@
         <v>2153591</v>
       </c>
       <c r="I37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16042,7 +16080,7 @@
         <v>156</v>
       </c>
       <c r="B38" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C38" s="108">
         <v>38898</v>
@@ -16063,7 +16101,7 @@
         <v>1986977</v>
       </c>
       <c r="I38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16071,7 +16109,7 @@
         <v>156</v>
       </c>
       <c r="B39" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C39" s="108">
         <v>38898</v>
@@ -16092,7 +16130,7 @@
         <v>2208183</v>
       </c>
       <c r="I39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16100,7 +16138,7 @@
         <v>156</v>
       </c>
       <c r="B40" s="104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="108">
         <v>39263</v>
@@ -16121,7 +16159,7 @@
         <v>-1898265</v>
       </c>
       <c r="I40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16129,7 +16167,7 @@
         <v>156</v>
       </c>
       <c r="B41" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C41" s="108">
         <v>39263</v>
@@ -16150,7 +16188,7 @@
         <v>-362675</v>
       </c>
       <c r="I41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16158,7 +16196,7 @@
         <v>156</v>
       </c>
       <c r="B42" s="103" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C42" s="107">
         <v>39629</v>
@@ -16179,7 +16217,7 @@
         <v>-1850766</v>
       </c>
       <c r="I42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16187,7 +16225,7 @@
         <v>156</v>
       </c>
       <c r="B43" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="108">
         <v>39629</v>
@@ -16208,7 +16246,7 @@
         <v>555518</v>
       </c>
       <c r="I43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16216,7 +16254,7 @@
         <v>156</v>
       </c>
       <c r="B44" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C44" s="108">
         <v>39994</v>
@@ -16237,7 +16275,7 @@
         <v>1083128</v>
       </c>
       <c r="I44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16245,7 +16283,7 @@
         <v>156</v>
       </c>
       <c r="B45" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C45" s="108">
         <v>40359</v>
@@ -16266,7 +16304,7 @@
         <v>219135</v>
       </c>
       <c r="I45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16274,7 +16312,7 @@
         <v>156</v>
       </c>
       <c r="B46" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C46" s="108">
         <v>40359</v>
@@ -16295,7 +16333,7 @@
         <v>1651439</v>
       </c>
       <c r="I46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16303,7 +16341,7 @@
         <v>156</v>
       </c>
       <c r="B47" s="104" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C47" s="108">
         <v>40724</v>
@@ -16324,7 +16362,7 @@
         <v>-1100</v>
       </c>
       <c r="I47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16332,7 +16370,7 @@
         <v>156</v>
       </c>
       <c r="B48" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C48" s="108">
         <v>40724</v>
@@ -16353,7 +16391,7 @@
         <v>107378</v>
       </c>
       <c r="I48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16361,7 +16399,7 @@
         <v>156</v>
       </c>
       <c r="B49" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C49" s="108">
         <v>40724</v>
@@ -16382,7 +16420,7 @@
         <v>1559561</v>
       </c>
       <c r="I49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16390,7 +16428,7 @@
         <v>156</v>
       </c>
       <c r="B50" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C50" s="108">
         <v>41090</v>
@@ -16411,7 +16449,7 @@
         <v>834716</v>
       </c>
       <c r="I50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16419,7 +16457,7 @@
         <v>156</v>
       </c>
       <c r="B51" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C51" s="108">
         <v>41455</v>
@@ -16440,7 +16478,7 @@
         <v>438275</v>
       </c>
       <c r="I51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16448,7 +16486,7 @@
         <v>156</v>
       </c>
       <c r="B52" s="104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C52" s="108">
         <v>41820</v>
@@ -16469,7 +16507,7 @@
         <v>-1091730</v>
       </c>
       <c r="I52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16477,7 +16515,7 @@
         <v>156</v>
       </c>
       <c r="B53" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C53" s="108">
         <v>41820</v>
@@ -16498,7 +16536,7 @@
         <v>-212293</v>
       </c>
       <c r="I53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16506,7 +16544,7 @@
         <v>156</v>
       </c>
       <c r="B54" s="104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C54" s="108">
         <v>42185</v>
@@ -16527,7 +16565,7 @@
         <v>-3117492</v>
       </c>
       <c r="I54" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16535,7 +16573,7 @@
         <v>157</v>
       </c>
       <c r="B55" s="103" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C55" s="107">
         <v>32689</v>
@@ -16556,7 +16594,7 @@
         <v>-840639</v>
       </c>
       <c r="I55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16564,7 +16602,7 @@
         <v>157</v>
       </c>
       <c r="B56" s="104" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C56" s="108">
         <v>33054</v>
@@ -16585,7 +16623,7 @@
         <v>13940</v>
       </c>
       <c r="I56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16593,7 +16631,7 @@
         <v>157</v>
       </c>
       <c r="B57" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C57" s="108">
         <v>33054</v>
@@ -16614,7 +16652,7 @@
         <v>-313152</v>
       </c>
       <c r="I57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16622,7 +16660,7 @@
         <v>157</v>
       </c>
       <c r="B58" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C58" s="108">
         <v>33785</v>
@@ -16643,7 +16681,7 @@
         <v>111285</v>
       </c>
       <c r="I58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16651,7 +16689,7 @@
         <v>157</v>
       </c>
       <c r="B59" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C59" s="108">
         <v>34880</v>
@@ -16672,7 +16710,7 @@
         <v>-819016</v>
       </c>
       <c r="I59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16680,7 +16718,7 @@
         <v>157</v>
       </c>
       <c r="B60" s="104" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C60" s="108">
         <v>35246</v>
@@ -16701,7 +16739,7 @@
         <v>110277</v>
       </c>
       <c r="I60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16709,7 +16747,7 @@
         <v>157</v>
       </c>
       <c r="B61" s="104" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C61" s="108">
         <v>35246</v>
@@ -16730,7 +16768,7 @@
         <v>-712861</v>
       </c>
       <c r="I61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16738,7 +16776,7 @@
         <v>157</v>
       </c>
       <c r="B62" s="104" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C62" s="108">
         <v>35976</v>
@@ -16759,7 +16797,7 @@
         <v>201671</v>
       </c>
       <c r="I62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16767,7 +16805,7 @@
         <v>157</v>
       </c>
       <c r="B63" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C63" s="108">
         <v>35976</v>
@@ -16788,7 +16826,7 @@
         <v>339189</v>
       </c>
       <c r="I63" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16796,7 +16834,7 @@
         <v>157</v>
       </c>
       <c r="B64" s="104" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C64" s="108">
         <v>36707</v>
@@ -16817,7 +16855,7 @@
         <v>32719</v>
       </c>
       <c r="I64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16825,7 +16863,7 @@
         <v>157</v>
       </c>
       <c r="B65" s="104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C65" s="108">
         <v>37072</v>
@@ -16846,7 +16884,7 @@
         <v>-1506076</v>
       </c>
       <c r="I65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16854,7 +16892,7 @@
         <v>157</v>
       </c>
       <c r="B66" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C66" s="108">
         <v>37072</v>
@@ -16875,7 +16913,7 @@
         <v>-420627</v>
       </c>
       <c r="I66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16883,7 +16921,7 @@
         <v>157</v>
       </c>
       <c r="B67" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C67" s="108">
         <v>37437</v>
@@ -16904,7 +16942,7 @@
         <v>2815319</v>
       </c>
       <c r="I67" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16912,7 +16950,7 @@
         <v>157</v>
       </c>
       <c r="B68" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C68" s="108">
         <v>37802</v>
@@ -16933,7 +16971,7 @@
         <v>8498073</v>
       </c>
       <c r="I68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16941,7 +16979,7 @@
         <v>157</v>
       </c>
       <c r="B69" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C69" s="108">
         <v>38168</v>
@@ -16962,7 +17000,7 @@
         <v>1362141</v>
       </c>
       <c r="I69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16970,7 +17008,7 @@
         <v>157</v>
       </c>
       <c r="B70" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C70" s="108">
         <v>38168</v>
@@ -16991,7 +17029,7 @@
         <v>-420914</v>
       </c>
       <c r="I70" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16999,7 +17037,7 @@
         <v>157</v>
       </c>
       <c r="B71" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C71" s="108">
         <v>38533</v>
@@ -17020,7 +17058,7 @@
         <v>1684723</v>
       </c>
       <c r="I71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17028,7 +17066,7 @@
         <v>157</v>
       </c>
       <c r="B72" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C72" s="108">
         <v>38533</v>
@@ -17049,7 +17087,7 @@
         <v>1108910</v>
       </c>
       <c r="I72" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17057,7 +17095,7 @@
         <v>157</v>
       </c>
       <c r="B73" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C73" s="108">
         <v>38898</v>
@@ -17078,7 +17116,7 @@
         <v>734637</v>
       </c>
       <c r="I73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17086,7 +17124,7 @@
         <v>157</v>
       </c>
       <c r="B74" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C74" s="108">
         <v>38898</v>
@@ -17107,7 +17145,7 @@
         <v>1095940</v>
       </c>
       <c r="I74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17115,7 +17153,7 @@
         <v>157</v>
       </c>
       <c r="B75" s="104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C75" s="108">
         <v>39263</v>
@@ -17136,7 +17174,7 @@
         <v>-809403</v>
       </c>
       <c r="I75" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17144,7 +17182,7 @@
         <v>157</v>
       </c>
       <c r="B76" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C76" s="108">
         <v>39263</v>
@@ -17165,7 +17203,7 @@
         <v>-217548</v>
       </c>
       <c r="I76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17173,7 +17211,7 @@
         <v>157</v>
       </c>
       <c r="B77" s="103" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C77" s="107">
         <v>39629</v>
@@ -17194,7 +17232,7 @@
         <v>-448162</v>
       </c>
       <c r="I77" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17202,7 +17240,7 @@
         <v>157</v>
       </c>
       <c r="B78" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C78" s="108">
         <v>39629</v>
@@ -17223,7 +17261,7 @@
         <v>732862</v>
       </c>
       <c r="I78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17231,7 +17269,7 @@
         <v>157</v>
       </c>
       <c r="B79" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C79" s="108">
         <v>39994</v>
@@ -17252,7 +17290,7 @@
         <v>1271484</v>
       </c>
       <c r="I79" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17260,7 +17298,7 @@
         <v>157</v>
       </c>
       <c r="B80" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C80" s="108">
         <v>40359</v>
@@ -17281,7 +17319,7 @@
         <v>489875</v>
       </c>
       <c r="I80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17289,7 +17327,7 @@
         <v>157</v>
       </c>
       <c r="B81" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C81" s="108">
         <v>40359</v>
@@ -17310,7 +17348,7 @@
         <v>822504</v>
       </c>
       <c r="I81" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17318,7 +17356,7 @@
         <v>157</v>
       </c>
       <c r="B82" s="104" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C82" s="108">
         <v>40724</v>
@@ -17339,7 +17377,7 @@
         <v>90375</v>
       </c>
       <c r="I82" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17347,7 +17385,7 @@
         <v>157</v>
       </c>
       <c r="B83" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C83" s="108">
         <v>40724</v>
@@ -17368,7 +17406,7 @@
         <v>575184</v>
       </c>
       <c r="I83" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17376,7 +17414,7 @@
         <v>157</v>
       </c>
       <c r="B84" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C84" s="108">
         <v>40724</v>
@@ -17397,7 +17435,7 @@
         <v>777148</v>
       </c>
       <c r="I84" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17405,7 +17443,7 @@
         <v>157</v>
       </c>
       <c r="B85" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C85" s="108">
         <v>41090</v>
@@ -17426,7 +17464,7 @@
         <v>712679</v>
       </c>
       <c r="I85" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17434,7 +17472,7 @@
         <v>157</v>
       </c>
       <c r="B86" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C86" s="108">
         <v>41455</v>
@@ -17455,7 +17493,7 @@
         <v>483013</v>
       </c>
       <c r="I86" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17463,7 +17501,7 @@
         <v>157</v>
       </c>
       <c r="B87" s="104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C87" s="108">
         <v>41820</v>
@@ -17484,7 +17522,7 @@
         <v>-773526</v>
       </c>
       <c r="I87" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17492,7 +17530,7 @@
         <v>157</v>
       </c>
       <c r="B88" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C88" s="108">
         <v>41820</v>
@@ -17513,7 +17551,7 @@
         <v>600870</v>
       </c>
       <c r="I88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17521,7 +17559,7 @@
         <v>157</v>
       </c>
       <c r="B89" s="104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C89" s="108">
         <v>42185</v>
@@ -17542,7 +17580,7 @@
         <v>-1118953</v>
       </c>
       <c r="I89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17550,7 +17588,7 @@
         <v>158</v>
       </c>
       <c r="B90" s="103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C90" s="107">
         <v>37437</v>
@@ -17571,7 +17609,7 @@
         <v>-13267437</v>
       </c>
       <c r="I90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17579,7 +17617,7 @@
         <v>158</v>
       </c>
       <c r="B91" s="104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C91" s="108">
         <v>37802</v>
@@ -17600,7 +17638,7 @@
         <v>-44769357</v>
       </c>
       <c r="I91" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17608,7 +17646,7 @@
         <v>158</v>
       </c>
       <c r="B92" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C92" s="108">
         <v>38168</v>
@@ -17629,7 +17667,7 @@
         <v>14296114</v>
       </c>
       <c r="I92" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17637,7 +17675,7 @@
         <v>158</v>
       </c>
       <c r="B93" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C93" s="108">
         <v>38168</v>
@@ -17658,7 +17696,7 @@
         <v>-19521929</v>
       </c>
       <c r="I93" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17666,7 +17704,7 @@
         <v>158</v>
       </c>
       <c r="B94" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C94" s="108">
         <v>38533</v>
@@ -17687,7 +17725,7 @@
         <v>30764476</v>
       </c>
       <c r="I94" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17695,7 +17733,7 @@
         <v>158</v>
       </c>
       <c r="B95" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C95" s="108">
         <v>38533</v>
@@ -17716,7 +17754,7 @@
         <v>33268214</v>
       </c>
       <c r="I95" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17724,7 +17762,7 @@
         <v>158</v>
       </c>
       <c r="B96" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C96" s="108">
         <v>38898</v>
@@ -17745,7 +17783,7 @@
         <v>7757140</v>
       </c>
       <c r="I96" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17753,7 +17791,7 @@
         <v>158</v>
       </c>
       <c r="B97" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C97" s="108">
         <v>38898</v>
@@ -17774,7 +17812,7 @@
         <v>21930315</v>
       </c>
       <c r="I97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17782,7 +17820,7 @@
         <v>158</v>
       </c>
       <c r="B98" s="104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C98" s="108">
         <v>39263</v>
@@ -17803,7 +17841,7 @@
         <v>-18224028</v>
       </c>
       <c r="I98" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17811,7 +17849,7 @@
         <v>158</v>
       </c>
       <c r="B99" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C99" s="108">
         <v>39263</v>
@@ -17832,7 +17870,7 @@
         <v>-5140623</v>
       </c>
       <c r="I99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17840,7 +17878,7 @@
         <v>158</v>
       </c>
       <c r="B100" s="104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C100" s="108">
         <v>39629</v>
@@ -17861,7 +17899,7 @@
         <v>-8037083</v>
       </c>
       <c r="I100" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17869,7 +17907,7 @@
         <v>158</v>
       </c>
       <c r="B101" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C101" s="108">
         <v>39629</v>
@@ -17890,7 +17928,7 @@
         <v>21618528</v>
       </c>
       <c r="I101" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17898,7 +17936,7 @@
         <v>158</v>
       </c>
       <c r="B102" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C102" s="108">
         <v>39994</v>
@@ -17919,7 +17957,7 @@
         <v>38092937</v>
       </c>
       <c r="I102" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17927,7 +17965,7 @@
         <v>158</v>
       </c>
       <c r="B103" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C103" s="108">
         <v>40359</v>
@@ -17948,7 +17986,7 @@
         <v>21212834</v>
       </c>
       <c r="I103" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17956,7 +17994,7 @@
         <v>158</v>
       </c>
       <c r="B104" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C104" s="108">
         <v>40359</v>
@@ -17977,7 +18015,7 @@
         <v>17638581</v>
       </c>
       <c r="I104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="105" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17985,7 +18023,7 @@
         <v>158</v>
       </c>
       <c r="B105" s="104" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C105" s="108">
         <v>40724</v>
@@ -18006,7 +18044,7 @@
         <v>346937</v>
       </c>
       <c r="I105" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18014,7 +18052,7 @@
         <v>158</v>
       </c>
       <c r="B106" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C106" s="108">
         <v>40724</v>
@@ -18035,19 +18073,19 @@
         <v>12273760</v>
       </c>
       <c r="I106" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L106" s="106" t="s">
+        <v>233</v>
+      </c>
+      <c r="M106" t="s">
         <v>234</v>
       </c>
-      <c r="M106" t="s">
+      <c r="N106" t="s">
         <v>235</v>
       </c>
-      <c r="N106" t="s">
+      <c r="O106" t="s">
         <v>236</v>
-      </c>
-      <c r="O106" t="s">
-        <v>237</v>
       </c>
       <c r="P106" s="29">
         <v>42185</v>
@@ -18073,7 +18111,7 @@
         <v>158</v>
       </c>
       <c r="B107" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C107" s="108">
         <v>40724</v>
@@ -18094,7 +18132,7 @@
         <v>14905607</v>
       </c>
       <c r="I107" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18102,7 +18140,7 @@
         <v>159</v>
       </c>
       <c r="B108" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C108" s="108">
         <v>41090</v>
@@ -18123,7 +18161,7 @@
         <v>18894767</v>
       </c>
       <c r="I108" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18131,7 +18169,7 @@
         <v>159</v>
       </c>
       <c r="B109" s="104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C109" s="108">
         <v>41455</v>
@@ -18152,7 +18190,7 @@
         <v>8412390</v>
       </c>
       <c r="I109" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O109" s="30"/>
       <c r="Q109" s="30"/>
@@ -18163,7 +18201,7 @@
         <v>159</v>
       </c>
       <c r="B110" s="104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C110" s="108">
         <v>41820</v>
@@ -18184,7 +18222,7 @@
         <v>-17232847</v>
       </c>
       <c r="I110" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18192,7 +18230,7 @@
         <v>159</v>
       </c>
       <c r="B111" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C111" s="108">
         <v>41820</v>
@@ -18213,7 +18251,7 @@
         <v>2159476</v>
       </c>
       <c r="I111" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18221,7 +18259,7 @@
         <v>159</v>
       </c>
       <c r="B112" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C112" s="109">
         <v>42185</v>
@@ -18242,7 +18280,7 @@
         <v>-30836792</v>
       </c>
       <c r="I112" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
@@ -18283,7 +18321,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -18293,25 +18331,25 @@
         <v>87</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="268">
   <si>
     <t>Notes</t>
   </si>
@@ -1840,9 +1840,6 @@
     <t>cp</t>
   </si>
   <si>
-    <t>I122</t>
-  </si>
-  <si>
     <t>AV2015 pdf page 20</t>
   </si>
   <si>
@@ -2281,6 +2278,9 @@
   </si>
   <si>
     <t>K13</t>
+  </si>
+  <si>
+    <t>I113</t>
   </si>
 </sst>
 </file>
@@ -8928,13 +8928,13 @@
     </row>
     <row r="5" spans="1:8" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="143" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C5" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="98" t="s">
         <v>262</v>
-      </c>
-      <c r="D5" s="98" t="s">
-        <v>263</v>
       </c>
       <c r="E5" s="158" t="s">
         <v>196</v>
@@ -8970,7 +8970,7 @@
     </row>
     <row r="7" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="144" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7" s="95" t="s">
         <v>188</v>
@@ -9008,7 +9008,7 @@
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D9" s="96"/>
       <c r="E9" s="96"/>
@@ -9092,8 +9092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9120,7 +9120,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9370,7 +9370,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B13" s="88">
         <v>20</v>
@@ -14125,7 +14125,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -14133,47 +14133,47 @@
         <v>87</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="68.25" x14ac:dyDescent="0.25">
       <c r="B5" s="128" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="129" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="D5" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="E5" s="129" t="s">
         <v>250</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="F5" s="129" t="s">
         <v>251</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="G5" s="129" t="s">
         <v>252</v>
-      </c>
-      <c r="G5" s="129" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B6" s="130" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" s="131" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="131" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="131" t="s">
+      <c r="E6" s="131" t="s">
         <v>255</v>
       </c>
-      <c r="E6" s="131" t="s">
+      <c r="F6" s="131" t="s">
         <v>256</v>
       </c>
-      <c r="F6" s="131" t="s">
+      <c r="G6" s="131" t="s">
         <v>257</v>
-      </c>
-      <c r="G6" s="131" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -14774,7 +14774,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="268.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14791,7 +14791,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C8" s="18"/>
     </row>
@@ -15103,8 +15103,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15135,7 +15135,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="F3" s="114"/>
     </row>
@@ -18283,8 +18283,34 @@
         <v>240</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="106"/>
+    <row r="113" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="B113" t="s">
+        <v>223</v>
+      </c>
+      <c r="C113" s="109">
+        <v>42185</v>
+      </c>
+      <c r="D113" s="111">
+        <v>0</v>
+      </c>
+      <c r="E113" s="111">
+        <v>20</v>
+      </c>
+      <c r="F113" s="127">
+        <v>0</v>
+      </c>
+      <c r="G113" s="111">
+        <v>20</v>
+      </c>
+      <c r="H113" s="111">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -18321,7 +18347,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -18331,7 +18357,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -18341,15 +18367,15 @@
         <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/Data_inputs/LAFPP_PlanInfo.xlsx
+++ b/Data_inputs/LAFPP_PlanInfo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_LAFPP\Data_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -3950,16 +3950,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2419350</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>5676900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3974,7 +3974,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3600450" y="800100"/>
+          <a:off x="6858000" y="3524250"/>
           <a:ext cx="5619750" cy="1790700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15103,7 +15103,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -18325,8 +18325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18385,6 +18385,10 @@
       <c r="C7">
         <v>145501004</v>
       </c>
+      <c r="D7">
+        <f>SUM($C$7:$C$12) - C7</f>
+        <v>477206366</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -18393,6 +18397,10 @@
       <c r="C8">
         <v>145501004</v>
       </c>
+      <c r="D8">
+        <f>SUM($C$7:$C$12) - SUM($C$7:C8)</f>
+        <v>331705362</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -18401,6 +18409,10 @@
       <c r="C9">
         <v>145501004</v>
       </c>
+      <c r="D9">
+        <f>SUM($C$7:$C$12) - SUM($C$7:C9)</f>
+        <v>186204358</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -18409,6 +18421,10 @@
       <c r="C10">
         <v>145501004</v>
       </c>
+      <c r="D10">
+        <f>SUM($C$7:$C$12) - SUM($C$7:C10)</f>
+        <v>40703354</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -18417,6 +18433,10 @@
       <c r="C11">
         <v>132624437</v>
       </c>
+      <c r="D11">
+        <f>SUM($C$7:$C$12) - SUM($C$7:C11)</f>
+        <v>-91921083</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -18424,6 +18444,10 @@
       </c>
       <c r="C12">
         <v>-91921083</v>
+      </c>
+      <c r="D12">
+        <f>SUM($C$7:$C$12) - SUM($C$7:C12)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
